--- a/Relatório Final/Tabelas/Tabelas.xlsx
+++ b/Relatório Final/Tabelas/Tabelas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bia99\OneDrive\Documents\Wikiaves\ProjWAV\Relatório Final\Tabelas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664D0432-97CE-41FA-96CE-CEF99D1D04BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7720EDB-27A8-4257-983F-A426D478F675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela 1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Tabela 9" sheetId="9" r:id="rId9"/>
     <sheet name="Tabela 10" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="101">
   <si>
     <t>Variável</t>
   </si>
@@ -268,14 +268,84 @@
   </si>
   <si>
     <t>253,09 (6,60)</t>
+  </si>
+  <si>
+    <t>Resgitros</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>Mann - Whitney</t>
+  </si>
+  <si>
+    <t>Wilcoxon</t>
+  </si>
+  <si>
+    <t>Reg p/ Espécie</t>
+  </si>
+  <si>
+    <t>SLI x WAV2 (Wilcoxon)</t>
+  </si>
+  <si>
+    <t>Váriavel</t>
+  </si>
+  <si>
+    <t>Riqueza por município</t>
+  </si>
+  <si>
+    <t>Registros por município</t>
+  </si>
+  <si>
+    <t>Registros por espécies</t>
+  </si>
+  <si>
+    <t>WAV x SLI     (Mann-Whitney)</t>
+  </si>
+  <si>
+    <t>Comparação</t>
+  </si>
+  <si>
+    <t>Relação</t>
+  </si>
+  <si>
+    <t>WAV2</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>r^2</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Riqueza por registros</t>
+  </si>
+  <si>
+    <t>Riqueza por registros^2</t>
+  </si>
+  <si>
+    <t>refazer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -308,7 +378,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -374,11 +444,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -410,16 +491,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -428,16 +503,10 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -486,6 +555,57 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -795,16 +915,16 @@
     </row>
     <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="36" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1"/>
@@ -842,19 +962,19 @@
       </c>
       <c r="F3" s="1"/>
       <c r="J3" s="12"/>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="N3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="O3" s="14" t="s">
         <v>13</v>
       </c>
       <c r="P3" s="9"/>
@@ -875,20 +995,20 @@
       </c>
       <c r="F4" s="4"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="16"/>
+      <c r="K4" s="38"/>
       <c r="L4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="M4" s="5">
         <v>204</v>
       </c>
-      <c r="N4" s="17">
+      <c r="N4" s="15">
         <v>7</v>
       </c>
-      <c r="O4" s="17">
+      <c r="O4" s="15">
         <v>996</v>
       </c>
-      <c r="P4" s="18"/>
+      <c r="P4" s="16"/>
     </row>
     <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
@@ -906,20 +1026,20 @@
       </c>
       <c r="F5" s="4"/>
       <c r="J5" s="9"/>
-      <c r="K5" s="16"/>
+      <c r="K5" s="38"/>
       <c r="L5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="17" t="s">
+      <c r="M5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="19" t="s">
+      <c r="N5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="19" t="s">
+      <c r="O5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="P5" s="18"/>
+      <c r="P5" s="16"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
@@ -929,44 +1049,44 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="J6" s="9"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="21" t="s">
+      <c r="K6" s="39"/>
+      <c r="L6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="22" t="s">
+      <c r="M6" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="22" t="s">
+      <c r="N6" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="O6" s="22" t="s">
+      <c r="O6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="18"/>
+      <c r="P6" s="16"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J7" s="9"/>
-      <c r="K7" s="23" t="s">
+      <c r="K7" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="24" t="s">
+      <c r="L7" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="25" t="s">
+      <c r="M7" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="25" t="s">
+      <c r="N7" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="O7" s="25" t="s">
+      <c r="O7" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="P7" s="18"/>
+      <c r="P7" s="16"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J8" s="12"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="26" t="s">
+      <c r="K8" s="38"/>
+      <c r="L8" s="22" t="s">
         <v>14</v>
       </c>
       <c r="M8" s="1">
@@ -978,63 +1098,63 @@
       <c r="O8" s="1">
         <v>3</v>
       </c>
-      <c r="P8" s="18"/>
+      <c r="P8" s="16"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J9" s="9"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="26" t="s">
+      <c r="K9" s="38"/>
+      <c r="L9" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="27" t="s">
+      <c r="M9" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="N9" s="27" t="s">
+      <c r="N9" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="O9" s="27" t="s">
+      <c r="O9" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="P9" s="18"/>
+      <c r="P9" s="16"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J10" s="9"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="28" t="s">
+      <c r="K10" s="39"/>
+      <c r="L10" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="M10" s="29" t="s">
+      <c r="M10" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="N10" s="29" t="s">
+      <c r="N10" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="O10" s="29" t="s">
+      <c r="O10" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="P10" s="18"/>
+      <c r="P10" s="16"/>
     </row>
     <row r="11" spans="1:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J11" s="4"/>
-      <c r="K11" s="30" t="s">
+      <c r="K11" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="L11" s="31" t="s">
+      <c r="L11" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="M11" s="32" t="s">
+      <c r="M11" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="N11" s="32" t="s">
+      <c r="N11" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="O11" s="32" t="s">
+      <c r="O11" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="P11" s="18"/>
+      <c r="P11" s="16"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="J12" s="33"/>
+      <c r="J12" s="29"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -1043,7 +1163,7 @@
       <c r="P12" s="4"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="J13" s="34"/>
+      <c r="J13" s="30"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
@@ -1090,165 +1210,165 @@
     </row>
     <row r="17" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J17" s="12"/>
-      <c r="K17" s="13" t="s">
+      <c r="K17" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="L17" s="14" t="s">
+      <c r="L17" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M17" s="35" t="s">
+      <c r="M17" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="N17" s="35" t="s">
+      <c r="N17" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="O17" s="35" t="s">
+      <c r="O17" s="31" t="s">
         <v>39</v>
       </c>
       <c r="P17" s="9"/>
     </row>
     <row r="18" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J18" s="9"/>
-      <c r="K18" s="16"/>
+      <c r="K18" s="38"/>
       <c r="L18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M18" s="19">
+      <c r="M18" s="17">
         <v>105</v>
       </c>
-      <c r="N18" s="19">
+      <c r="N18" s="17">
         <v>6</v>
       </c>
-      <c r="O18" s="19">
+      <c r="O18" s="17">
         <v>213</v>
       </c>
-      <c r="P18" s="18"/>
+      <c r="P18" s="16"/>
     </row>
     <row r="19" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J19" s="9"/>
-      <c r="K19" s="16"/>
+      <c r="K19" s="38"/>
       <c r="L19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M19" s="19" t="s">
+      <c r="M19" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="N19" s="19" t="s">
+      <c r="N19" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="O19" s="19" t="s">
+      <c r="O19" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="P19" s="18"/>
+      <c r="P19" s="16"/>
     </row>
     <row r="20" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J20" s="9"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="21" t="s">
+      <c r="K20" s="39"/>
+      <c r="L20" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="M20" s="36" t="s">
+      <c r="M20" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="N20" s="36" t="s">
+      <c r="N20" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="O20" s="36" t="s">
+      <c r="O20" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="P20" s="18"/>
+      <c r="P20" s="16"/>
     </row>
     <row r="21" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J21" s="9"/>
-      <c r="K21" s="23" t="s">
+      <c r="K21" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="L21" s="24" t="s">
+      <c r="L21" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="M21" s="37" t="s">
+      <c r="M21" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="N21" s="37" t="s">
+      <c r="N21" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="O21" s="37" t="s">
+      <c r="O21" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="P21" s="18"/>
+      <c r="P21" s="16"/>
     </row>
     <row r="22" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J22" s="12"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="26" t="s">
+      <c r="K22" s="38"/>
+      <c r="L22" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="M22" s="38">
+      <c r="M22" s="34">
         <v>2.02</v>
       </c>
-      <c r="N22" s="38">
+      <c r="N22" s="34">
         <v>0.78</v>
       </c>
-      <c r="O22" s="38">
+      <c r="O22" s="34">
         <v>2.33</v>
       </c>
-      <c r="P22" s="18"/>
+      <c r="P22" s="16"/>
     </row>
     <row r="23" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J23" s="9"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="26" t="s">
+      <c r="K23" s="38"/>
+      <c r="L23" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="M23" s="19" t="s">
+      <c r="M23" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="N23" s="19" t="s">
+      <c r="N23" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="O23" s="19" t="s">
+      <c r="O23" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="P23" s="18"/>
+      <c r="P23" s="16"/>
     </row>
     <row r="24" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J24" s="9"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="28" t="s">
+      <c r="K24" s="39"/>
+      <c r="L24" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="M24" s="36" t="s">
+      <c r="M24" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="N24" s="36" t="s">
+      <c r="N24" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="O24" s="36" t="s">
+      <c r="O24" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="P24" s="18"/>
+      <c r="P24" s="16"/>
     </row>
     <row r="25" spans="10:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J25" s="4"/>
-      <c r="K25" s="30" t="s">
+      <c r="K25" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="L25" s="31" t="s">
+      <c r="L25" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="M25" s="39" t="s">
+      <c r="M25" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="N25" s="39" t="s">
+      <c r="N25" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="O25" s="39" t="s">
+      <c r="O25" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="P25" s="18"/>
+      <c r="P25" s="16"/>
     </row>
     <row r="26" spans="10:16" x14ac:dyDescent="0.3">
-      <c r="J26" s="33"/>
+      <c r="J26" s="29"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
@@ -1257,7 +1377,7 @@
       <c r="P26" s="4"/>
     </row>
     <row r="27" spans="10:16" x14ac:dyDescent="0.3">
-      <c r="J27" s="34"/>
+      <c r="J27" s="30"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
@@ -1295,97 +1415,97 @@
     </row>
     <row r="30" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J30" s="12"/>
-      <c r="K30" s="13" t="s">
+      <c r="K30" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="L30" s="14" t="s">
+      <c r="L30" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M30" s="15" t="s">
+      <c r="M30" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="N30" s="15" t="s">
+      <c r="N30" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="O30" s="15" t="s">
+      <c r="O30" s="14" t="s">
         <v>60</v>
       </c>
       <c r="P30" s="9"/>
     </row>
     <row r="31" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J31" s="9"/>
-      <c r="K31" s="16"/>
+      <c r="K31" s="38"/>
       <c r="L31" s="4" t="s">
         <v>14</v>
       </c>
       <c r="M31" s="5">
         <v>484</v>
       </c>
-      <c r="N31" s="17">
+      <c r="N31" s="15">
         <v>13</v>
       </c>
-      <c r="O31" s="17">
+      <c r="O31" s="15">
         <v>423</v>
       </c>
-      <c r="P31" s="18"/>
+      <c r="P31" s="16"/>
     </row>
     <row r="32" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J32" s="9"/>
-      <c r="K32" s="16"/>
+      <c r="K32" s="38"/>
       <c r="L32" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M32" s="17" t="s">
+      <c r="M32" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="N32" s="19" t="s">
+      <c r="N32" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="O32" s="19" t="s">
+      <c r="O32" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="P32" s="18"/>
+      <c r="P32" s="16"/>
     </row>
     <row r="33" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J33" s="9"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="21" t="s">
+      <c r="K33" s="39"/>
+      <c r="L33" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="M33" s="22" t="s">
+      <c r="M33" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="N33" s="22" t="s">
+      <c r="N33" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="O33" s="22" t="s">
+      <c r="O33" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="P33" s="18"/>
+      <c r="P33" s="16"/>
     </row>
     <row r="34" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J34" s="9"/>
-      <c r="K34" s="23" t="s">
+      <c r="K34" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="L34" s="24" t="s">
+      <c r="L34" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="M34" s="25" t="s">
+      <c r="M34" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="N34" s="25" t="s">
+      <c r="N34" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="O34" s="25" t="s">
+      <c r="O34" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="P34" s="18"/>
+      <c r="P34" s="16"/>
     </row>
     <row r="35" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J35" s="12"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="26" t="s">
+      <c r="K35" s="38"/>
+      <c r="L35" s="22" t="s">
         <v>14</v>
       </c>
       <c r="M35" s="1">
@@ -1397,63 +1517,63 @@
       <c r="O35" s="1">
         <v>2.63</v>
       </c>
-      <c r="P35" s="18"/>
+      <c r="P35" s="16"/>
     </row>
     <row r="36" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J36" s="9"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="26" t="s">
+      <c r="K36" s="38"/>
+      <c r="L36" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="M36" s="27" t="s">
+      <c r="M36" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="N36" s="27" t="s">
+      <c r="N36" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="O36" s="27" t="s">
+      <c r="O36" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="P36" s="18"/>
+      <c r="P36" s="16"/>
     </row>
     <row r="37" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J37" s="9"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="28" t="s">
+      <c r="K37" s="39"/>
+      <c r="L37" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="M37" s="29" t="s">
+      <c r="M37" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="N37" s="29" t="s">
+      <c r="N37" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="O37" s="29" t="s">
+      <c r="O37" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="P37" s="18"/>
+      <c r="P37" s="16"/>
     </row>
     <row r="38" spans="10:16" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J38" s="4"/>
-      <c r="K38" s="30" t="s">
+      <c r="K38" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="L38" s="31" t="s">
+      <c r="L38" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="M38" s="32" t="s">
+      <c r="M38" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="N38" s="32" t="s">
+      <c r="N38" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="O38" s="32" t="s">
+      <c r="O38" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="P38" s="18"/>
+      <c r="P38" s="16"/>
     </row>
     <row r="39" spans="10:16" x14ac:dyDescent="0.3">
-      <c r="J39" s="33"/>
+      <c r="J39" s="29"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
@@ -1463,12 +1583,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="K34:K37"/>
     <mergeCell ref="K3:K6"/>
     <mergeCell ref="K7:K10"/>
     <mergeCell ref="K17:K20"/>
     <mergeCell ref="K21:K24"/>
     <mergeCell ref="K30:K33"/>
-    <mergeCell ref="K34:K37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1495,24 +1615,385 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F236B666-E1CD-411A-8653-ADAB2BD2DB3E}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="4"/>
+    <col min="2" max="2" width="22.44140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="4" customWidth="1"/>
+    <col min="7" max="9" width="8.88671875" style="4"/>
+    <col min="10" max="10" width="13" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="42"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="4">
+        <v>23538.5</v>
+      </c>
+      <c r="D2" s="43">
+        <v>17652</v>
+      </c>
+      <c r="E2" s="43">
+        <v>56563</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="43">
+        <v>14985</v>
+      </c>
+      <c r="I2" s="43">
+        <v>15051</v>
+      </c>
+      <c r="J2" s="43">
+        <v>173090</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="45">
+        <v>1E-4</v>
+      </c>
+      <c r="D3" s="45">
+        <v>1E-4</v>
+      </c>
+      <c r="E3" s="45">
+        <v>1E-4</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="45">
+        <v>1E-4</v>
+      </c>
+      <c r="I3" s="45">
+        <v>1E-4</v>
+      </c>
+      <c r="J3" s="45">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C9" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+    </row>
+    <row r="10" spans="2:10" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="12"/>
+      <c r="C10" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="51"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="43">
+        <v>17652</v>
+      </c>
+      <c r="D12" s="46">
+        <v>1E-4</v>
+      </c>
+      <c r="E12" s="43">
+        <v>15051</v>
+      </c>
+      <c r="F12" s="46">
+        <v>1E-4</v>
+      </c>
+      <c r="G12" s="48"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="4">
+        <v>23538.5</v>
+      </c>
+      <c r="D13" s="46">
+        <v>1E-4</v>
+      </c>
+      <c r="E13" s="43">
+        <v>14985</v>
+      </c>
+      <c r="F13" s="46">
+        <v>1E-4</v>
+      </c>
+      <c r="G13" s="48"/>
+    </row>
+    <row r="14" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="50">
+        <v>56563</v>
+      </c>
+      <c r="D14" s="45">
+        <v>1E-4</v>
+      </c>
+      <c r="E14" s="50">
+        <v>173090</v>
+      </c>
+      <c r="F14" s="45">
+        <v>1E-4</v>
+      </c>
+      <c r="G14" s="48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C9:F9"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{129F99B0-2EF4-4645-99B0-5CDE0AA273F6}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="4"/>
+    <col min="2" max="2" width="9.88671875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="58"/>
+      <c r="C3" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="59">
+        <v>620</v>
+      </c>
+      <c r="E3" s="59">
+        <v>143</v>
+      </c>
+      <c r="F3" s="59">
+        <v>171</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="48">
+        <v>0.91120999999999996</v>
+      </c>
+      <c r="E4" s="48">
+        <v>0.95804</v>
+      </c>
+      <c r="F4" s="48">
+        <v>0.83216999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="53"/>
+      <c r="C5" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="48">
+        <v>0.62448000000000004</v>
+      </c>
+      <c r="E5" s="48">
+        <v>0.72360000000000002</v>
+      </c>
+      <c r="F5" s="48">
+        <v>0.41958000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="53"/>
+      <c r="C6" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="48">
+        <v>0.45505000000000001</v>
+      </c>
+      <c r="E6" s="48">
+        <v>0.11337999999999999</v>
+      </c>
+      <c r="F6" s="48">
+        <v>1.0066999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="54"/>
+      <c r="C7" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="18">
+        <v>1E-4</v>
+      </c>
+      <c r="E7" s="18">
+        <v>1E-4</v>
+      </c>
+      <c r="F7" s="18">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="56">
+        <v>0.98750000000000004</v>
+      </c>
+      <c r="E8" s="56">
+        <v>0.98670000000000002</v>
+      </c>
+      <c r="F8" s="56">
+        <v>0.96460000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="53"/>
+      <c r="C9" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="53"/>
+      <c r="C10" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="48">
+        <v>1.869319</v>
+      </c>
+      <c r="E10" s="48">
+        <v>0.91027999999999998</v>
+      </c>
+      <c r="F10" s="48">
+        <v>2.2472300000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="57"/>
+      <c r="C11" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1E-4</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1E-4</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B4:B7"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/Relatório Final/Tabelas/Tabelas.xlsx
+++ b/Relatório Final/Tabelas/Tabelas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bia99\OneDrive\Documents\Wikiaves\ProjWAV\Relatório Final\Tabelas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7720EDB-27A8-4257-983F-A426D478F675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C788D5E4-ECD5-4EB8-A202-F56BC280FDAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela 1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,8 @@
     <sheet name="Tabela 7" sheetId="7" r:id="rId7"/>
     <sheet name="Tabela 8" sheetId="8" r:id="rId8"/>
     <sheet name="Tabela 9" sheetId="9" r:id="rId9"/>
-    <sheet name="Tabela 10" sheetId="10" r:id="rId10"/>
+    <sheet name="Tabela 10" sheetId="11" r:id="rId10"/>
+    <sheet name="Tabela 11" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="165">
   <si>
     <t>Variável</t>
   </si>
@@ -336,7 +337,199 @@
     <t>Riqueza por registros^2</t>
   </si>
   <si>
-    <t>refazer</t>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Inclinação</t>
+  </si>
+  <si>
+    <t>Modelo</t>
+  </si>
+  <si>
+    <t>Atributo</t>
+  </si>
+  <si>
+    <t>WAVxSLI</t>
+  </si>
+  <si>
+    <t>SLIxWAV2</t>
+  </si>
+  <si>
+    <t>Elevação</t>
+  </si>
+  <si>
+    <t>Altitude (m)</t>
+  </si>
+  <si>
+    <t>Área (Log10 km^2)</t>
+  </si>
+  <si>
+    <t>Número de Habitantes</t>
+  </si>
+  <si>
+    <t>Latitude (°)</t>
+  </si>
+  <si>
+    <t>Longitude (°)</t>
+  </si>
+  <si>
+    <t>Número de Habitantes (Log10)</t>
+  </si>
+  <si>
+    <t>582,4  (149,3)</t>
+  </si>
+  <si>
+    <t>645,7 (146,9)</t>
+  </si>
+  <si>
+    <t>280,7 - 1196,6</t>
+  </si>
+  <si>
+    <t>305,9 - 1055,5</t>
+  </si>
+  <si>
+    <t>469,0 - 675,1</t>
+  </si>
+  <si>
+    <t>556,7 - 762,2</t>
+  </si>
+  <si>
+    <t>2,47 (0,34)</t>
+  </si>
+  <si>
+    <t>2,64  (0,34)</t>
+  </si>
+  <si>
+    <t>2,66</t>
+  </si>
+  <si>
+    <t>1,47 - 3,30</t>
+  </si>
+  <si>
+    <t>1,80 - 3,30</t>
+  </si>
+  <si>
+    <t>2,22 - 2,72</t>
+  </si>
+  <si>
+    <t>2,38 - 2,91</t>
+  </si>
+  <si>
+    <t>4,24 (0,60)</t>
+  </si>
+  <si>
+    <t>4,63 (0,59)</t>
+  </si>
+  <si>
+    <t>2,92 - 6,14</t>
+  </si>
+  <si>
+    <t>3,40 - 6,14</t>
+  </si>
+  <si>
+    <t>3,78 - 4,64</t>
+  </si>
+  <si>
+    <t>4,17 - 5,01</t>
+  </si>
+  <si>
+    <t>-22,2 (1,2)</t>
+  </si>
+  <si>
+    <t>-22,9 (1,0)</t>
+  </si>
+  <si>
+    <t>-22,8</t>
+  </si>
+  <si>
+    <t>-25,0 ; -19,9</t>
+  </si>
+  <si>
+    <t>-25,0 ; -20,5</t>
+  </si>
+  <si>
+    <t>q1;q3</t>
+  </si>
+  <si>
+    <t>-23,1 ; -21,2</t>
+  </si>
+  <si>
+    <t>-23,6 ; -22,2</t>
+  </si>
+  <si>
+    <t>-48,6 (1,7)</t>
+  </si>
+  <si>
+    <t>-47,8 (1,5)</t>
+  </si>
+  <si>
+    <t>-47,5</t>
+  </si>
+  <si>
+    <t>-48,6</t>
+  </si>
+  <si>
+    <t>-53,1 ; -44,3</t>
+  </si>
+  <si>
+    <t>-52,6 ; -44,6</t>
+  </si>
+  <si>
+    <t>-49,9 ; -47,3</t>
+  </si>
+  <si>
+    <t>-48,6 ; -46,8</t>
+  </si>
+  <si>
+    <t>Riqueza</t>
+  </si>
+  <si>
+    <t>Área (Log10(Km^2)</t>
+  </si>
+  <si>
+    <t>População (Log10 indivíduos)</t>
+  </si>
+  <si>
+    <t>Longitude(°)</t>
+  </si>
+  <si>
+    <t>registros</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>espécies</t>
+  </si>
+  <si>
+    <t>Banco de dados</t>
+  </si>
+  <si>
+    <t>Variavel explanatoria</t>
+  </si>
+  <si>
+    <t>Coeficiente B</t>
+  </si>
+  <si>
+    <t>Erro padrão SE</t>
+  </si>
+  <si>
+    <t>Altitude</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>População</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>area</t>
   </si>
 </sst>
 </file>
@@ -347,7 +540,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,6 +552,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -378,7 +577,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -444,22 +643,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -555,18 +743,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -577,35 +753,153 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -962,7 +1256,7 @@
       </c>
       <c r="F3" s="1"/>
       <c r="J3" s="12"/>
-      <c r="K3" s="37" t="s">
+      <c r="K3" s="70" t="s">
         <v>9</v>
       </c>
       <c r="L3" s="13" t="s">
@@ -995,7 +1289,7 @@
       </c>
       <c r="F4" s="4"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="38"/>
+      <c r="K4" s="68"/>
       <c r="L4" s="4" t="s">
         <v>14</v>
       </c>
@@ -1026,7 +1320,7 @@
       </c>
       <c r="F5" s="4"/>
       <c r="J5" s="9"/>
-      <c r="K5" s="38"/>
+      <c r="K5" s="68"/>
       <c r="L5" s="4" t="s">
         <v>15</v>
       </c>
@@ -1049,7 +1343,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="J6" s="9"/>
-      <c r="K6" s="39"/>
+      <c r="K6" s="69"/>
       <c r="L6" s="18" t="s">
         <v>19</v>
       </c>
@@ -1066,7 +1360,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J7" s="9"/>
-      <c r="K7" s="40" t="s">
+      <c r="K7" s="67" t="s">
         <v>23</v>
       </c>
       <c r="L7" s="20" t="s">
@@ -1085,7 +1379,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J8" s="12"/>
-      <c r="K8" s="38"/>
+      <c r="K8" s="68"/>
       <c r="L8" s="22" t="s">
         <v>14</v>
       </c>
@@ -1102,7 +1396,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J9" s="9"/>
-      <c r="K9" s="38"/>
+      <c r="K9" s="68"/>
       <c r="L9" s="22" t="s">
         <v>15</v>
       </c>
@@ -1119,7 +1413,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="J10" s="9"/>
-      <c r="K10" s="39"/>
+      <c r="K10" s="69"/>
       <c r="L10" s="24" t="s">
         <v>19</v>
       </c>
@@ -1210,7 +1504,7 @@
     </row>
     <row r="17" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J17" s="12"/>
-      <c r="K17" s="37" t="s">
+      <c r="K17" s="70" t="s">
         <v>9</v>
       </c>
       <c r="L17" s="13" t="s">
@@ -1229,7 +1523,7 @@
     </row>
     <row r="18" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J18" s="9"/>
-      <c r="K18" s="38"/>
+      <c r="K18" s="68"/>
       <c r="L18" s="4" t="s">
         <v>14</v>
       </c>
@@ -1246,7 +1540,7 @@
     </row>
     <row r="19" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J19" s="9"/>
-      <c r="K19" s="38"/>
+      <c r="K19" s="68"/>
       <c r="L19" s="4" t="s">
         <v>15</v>
       </c>
@@ -1263,7 +1557,7 @@
     </row>
     <row r="20" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J20" s="9"/>
-      <c r="K20" s="39"/>
+      <c r="K20" s="69"/>
       <c r="L20" s="18" t="s">
         <v>19</v>
       </c>
@@ -1280,7 +1574,7 @@
     </row>
     <row r="21" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J21" s="9"/>
-      <c r="K21" s="40" t="s">
+      <c r="K21" s="67" t="s">
         <v>23</v>
       </c>
       <c r="L21" s="20" t="s">
@@ -1299,7 +1593,7 @@
     </row>
     <row r="22" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J22" s="12"/>
-      <c r="K22" s="38"/>
+      <c r="K22" s="68"/>
       <c r="L22" s="22" t="s">
         <v>14</v>
       </c>
@@ -1316,7 +1610,7 @@
     </row>
     <row r="23" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J23" s="9"/>
-      <c r="K23" s="38"/>
+      <c r="K23" s="68"/>
       <c r="L23" s="22" t="s">
         <v>15</v>
       </c>
@@ -1333,7 +1627,7 @@
     </row>
     <row r="24" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J24" s="9"/>
-      <c r="K24" s="39"/>
+      <c r="K24" s="69"/>
       <c r="L24" s="24" t="s">
         <v>19</v>
       </c>
@@ -1415,7 +1709,7 @@
     </row>
     <row r="30" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J30" s="12"/>
-      <c r="K30" s="37" t="s">
+      <c r="K30" s="70" t="s">
         <v>9</v>
       </c>
       <c r="L30" s="13" t="s">
@@ -1434,7 +1728,7 @@
     </row>
     <row r="31" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J31" s="9"/>
-      <c r="K31" s="38"/>
+      <c r="K31" s="68"/>
       <c r="L31" s="4" t="s">
         <v>14</v>
       </c>
@@ -1451,7 +1745,7 @@
     </row>
     <row r="32" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J32" s="9"/>
-      <c r="K32" s="38"/>
+      <c r="K32" s="68"/>
       <c r="L32" s="4" t="s">
         <v>15</v>
       </c>
@@ -1468,7 +1762,7 @@
     </row>
     <row r="33" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J33" s="9"/>
-      <c r="K33" s="39"/>
+      <c r="K33" s="69"/>
       <c r="L33" s="18" t="s">
         <v>19</v>
       </c>
@@ -1485,7 +1779,7 @@
     </row>
     <row r="34" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J34" s="9"/>
-      <c r="K34" s="40" t="s">
+      <c r="K34" s="67" t="s">
         <v>23</v>
       </c>
       <c r="L34" s="20" t="s">
@@ -1504,7 +1798,7 @@
     </row>
     <row r="35" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J35" s="12"/>
-      <c r="K35" s="38"/>
+      <c r="K35" s="68"/>
       <c r="L35" s="22" t="s">
         <v>14</v>
       </c>
@@ -1521,7 +1815,7 @@
     </row>
     <row r="36" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J36" s="9"/>
-      <c r="K36" s="38"/>
+      <c r="K36" s="68"/>
       <c r="L36" s="22" t="s">
         <v>15</v>
       </c>
@@ -1538,7 +1832,7 @@
     </row>
     <row r="37" spans="10:16" x14ac:dyDescent="0.3">
       <c r="J37" s="9"/>
-      <c r="K37" s="39"/>
+      <c r="K37" s="69"/>
       <c r="L37" s="24" t="s">
         <v>19</v>
       </c>
@@ -1595,19 +1889,30 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BAA23C5-3D71-4A20-B63B-E466B53D3A6D}">
-  <dimension ref="A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38737C6-1D8B-488E-B81D-95B487E9C2F7}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="10.109375" customWidth="1"/>
-  </cols>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EBDC9E9-30BF-4C7E-88CF-B0C7C5C6E499}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1618,7 +1923,7 @@
   <dimension ref="B1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1635,25 +1940,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B1" s="41"/>
-      <c r="C1" s="41" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41" t="s">
+      <c r="F1" s="38"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="J1" s="37" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1664,48 +1969,48 @@
       <c r="C2" s="4">
         <v>23538.5</v>
       </c>
-      <c r="D2" s="43">
+      <c r="D2" s="39">
         <v>17652</v>
       </c>
-      <c r="E2" s="43">
+      <c r="E2" s="39">
         <v>56563</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="43">
+      <c r="H2" s="39">
         <v>14985</v>
       </c>
-      <c r="I2" s="43">
+      <c r="I2" s="39">
         <v>15051</v>
       </c>
-      <c r="J2" s="43">
+      <c r="J2" s="39">
         <v>173090</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="45">
-        <v>1E-4</v>
-      </c>
-      <c r="D3" s="45">
-        <v>1E-4</v>
-      </c>
-      <c r="E3" s="45">
-        <v>1E-4</v>
-      </c>
-      <c r="G3" s="44" t="s">
+      <c r="C3" s="41">
+        <v>1E-4</v>
+      </c>
+      <c r="D3" s="41">
+        <v>1E-4</v>
+      </c>
+      <c r="E3" s="41">
+        <v>1E-4</v>
+      </c>
+      <c r="G3" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="H3" s="45">
-        <v>1E-4</v>
-      </c>
-      <c r="I3" s="45">
-        <v>1E-4</v>
-      </c>
-      <c r="J3" s="45">
+      <c r="H3" s="41">
+        <v>1E-4</v>
+      </c>
+      <c r="I3" s="41">
+        <v>1E-4</v>
+      </c>
+      <c r="J3" s="41">
         <v>1E-4</v>
       </c>
     </row>
@@ -1718,38 +2023,38 @@
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
     </row>
     <row r="10" spans="2:10" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="12"/>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="89" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51" t="s">
+      <c r="D10" s="89"/>
+      <c r="E10" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="F10" s="51"/>
+      <c r="F10" s="89"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="49" t="s">
+      <c r="E11" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="F11" s="49" t="s">
+      <c r="F11" s="44" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1757,19 +2062,19 @@
       <c r="B12" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="43">
+      <c r="C12" s="39">
         <v>17652</v>
       </c>
-      <c r="D12" s="46">
-        <v>1E-4</v>
-      </c>
-      <c r="E12" s="43">
+      <c r="D12" s="42">
+        <v>1E-4</v>
+      </c>
+      <c r="E12" s="39">
         <v>15051</v>
       </c>
-      <c r="F12" s="46">
-        <v>1E-4</v>
-      </c>
-      <c r="G12" s="48"/>
+      <c r="F12" s="42">
+        <v>1E-4</v>
+      </c>
+      <c r="G12" s="43"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
@@ -1778,34 +2083,34 @@
       <c r="C13" s="4">
         <v>23538.5</v>
       </c>
-      <c r="D13" s="46">
-        <v>1E-4</v>
-      </c>
-      <c r="E13" s="43">
+      <c r="D13" s="42">
+        <v>1E-4</v>
+      </c>
+      <c r="E13" s="39">
         <v>14985</v>
       </c>
-      <c r="F13" s="46">
-        <v>1E-4</v>
-      </c>
-      <c r="G13" s="48"/>
+      <c r="F13" s="42">
+        <v>1E-4</v>
+      </c>
+      <c r="G13" s="43"/>
     </row>
     <row r="14" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="50">
+      <c r="C14" s="45">
         <v>56563</v>
       </c>
-      <c r="D14" s="45">
-        <v>1E-4</v>
-      </c>
-      <c r="E14" s="50">
+      <c r="D14" s="41">
+        <v>1E-4</v>
+      </c>
+      <c r="E14" s="45">
         <v>173090</v>
       </c>
-      <c r="F14" s="45">
-        <v>1E-4</v>
-      </c>
-      <c r="G14" s="48"/>
+      <c r="F14" s="41">
+        <v>1E-4</v>
+      </c>
+      <c r="G14" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1819,10 +2124,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{129F99B0-2EF4-4645-99B0-5CDE0AA273F6}">
-  <dimension ref="B2:H12"/>
+  <dimension ref="B2:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1833,90 +2138,87 @@
     <col min="4" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="49" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="37" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="58"/>
-      <c r="C3" s="59" t="s">
+    <row r="3" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="72" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="59">
-        <v>620</v>
-      </c>
-      <c r="E3" s="59">
-        <v>143</v>
-      </c>
-      <c r="F3" s="59">
-        <v>171</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="48" t="s">
+      <c r="D3" s="48">
+        <v>608</v>
+      </c>
+      <c r="E3" s="48">
+        <v>163</v>
+      </c>
+      <c r="F3" s="48">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="73"/>
+      <c r="C4" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="48">
-        <v>0.91120999999999996</v>
-      </c>
-      <c r="E4" s="48">
-        <v>0.95804</v>
-      </c>
-      <c r="F4" s="48">
-        <v>0.83216999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="53"/>
-      <c r="C5" s="48" t="s">
+      <c r="D4" s="51">
+        <v>0.92144000000000004</v>
+      </c>
+      <c r="E4" s="51">
+        <v>0.93708999999999998</v>
+      </c>
+      <c r="F4" s="51">
+        <v>0.86112999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="73"/>
+      <c r="C5" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="48">
-        <v>0.62448000000000004</v>
-      </c>
-      <c r="E5" s="48">
-        <v>0.72360000000000002</v>
-      </c>
-      <c r="F5" s="48">
-        <v>0.41958000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="53"/>
-      <c r="C6" s="48" t="s">
+      <c r="D5" s="51">
+        <v>0.61362000000000005</v>
+      </c>
+      <c r="E5" s="51">
+        <v>0.73436999999999997</v>
+      </c>
+      <c r="F5" s="51">
+        <v>0.35483999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="73"/>
+      <c r="C6" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="48">
-        <v>0.45505000000000001</v>
-      </c>
-      <c r="E6" s="48">
-        <v>0.11337999999999999</v>
-      </c>
-      <c r="F6" s="48">
-        <v>1.0066999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="54"/>
+      <c r="D6" s="51">
+        <v>0.48569000000000001</v>
+      </c>
+      <c r="E6" s="51">
+        <v>6.8829000000000001E-2</v>
+      </c>
+      <c r="F6" s="51">
+        <v>1.2097</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="75"/>
       <c r="C7" s="18" t="s">
         <v>81</v>
       </c>
@@ -1930,69 +2232,84 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="55" t="s">
+    <row r="8" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="72" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="48">
+        <v>620</v>
+      </c>
+      <c r="E8" s="48">
+        <v>143</v>
+      </c>
+      <c r="F8" s="48">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="73"/>
+      <c r="C9" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="D8" s="56">
+      <c r="D9" s="51">
         <v>0.98750000000000004</v>
       </c>
-      <c r="E8" s="56">
+      <c r="E9" s="51">
         <v>0.98670000000000002</v>
       </c>
-      <c r="F8" s="56">
-        <v>0.96460000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="53"/>
-      <c r="C9" s="48" t="s">
+      <c r="F9" s="51">
+        <v>0.9647</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="73"/>
+      <c r="C10" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="53"/>
-      <c r="C10" s="48" t="s">
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="73"/>
+      <c r="C11" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="48">
+      <c r="D11" s="51">
         <v>1.869319</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E11" s="51">
         <v>0.91027999999999998</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F11" s="51">
         <v>2.2472300000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="57"/>
-      <c r="C11" s="7" t="s">
+    <row r="12" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="74"/>
+      <c r="C12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="7">
-        <v>1E-4</v>
-      </c>
-      <c r="E11" s="7">
-        <v>1E-4</v>
-      </c>
-      <c r="F11" s="7">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="52"/>
+      <c r="D12" s="7">
+        <v>1E-4</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1E-4</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B3:B7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2000,72 +2317,2334 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478E799A-5101-4861-9994-078CAFD8BD6B}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:R34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="4"/>
+    <col min="2" max="2" width="11.44140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L1" s="52"/>
+    </row>
+    <row r="2" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="12"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+    </row>
+    <row r="3" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+    </row>
+    <row r="4" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="81" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="81"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+    </row>
+    <row r="5" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="L5" s="52"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+    </row>
+    <row r="6" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="76" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="4">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="F6" s="4">
+        <v>324.7</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L6" s="58"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="41"/>
+    </row>
+    <row r="7" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="76"/>
+      <c r="C7" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="4">
+        <v>219.4</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="F7" s="4">
+        <v>41.9</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="L7" s="52"/>
+      <c r="M7" s="12"/>
+    </row>
+    <row r="8" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="85" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="86">
+        <v>132</v>
+      </c>
+      <c r="E8" s="48">
+        <v>1E-4</v>
+      </c>
+      <c r="F8" s="86">
+        <v>327</v>
+      </c>
+      <c r="G8" s="48">
+        <v>1E-4</v>
+      </c>
+      <c r="L8" s="52"/>
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="87"/>
+      <c r="C9" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="7">
+        <v>301.7</v>
+      </c>
+      <c r="E9" s="88">
+        <v>1E-4</v>
+      </c>
+      <c r="F9" s="88">
+        <v>90.4</v>
+      </c>
+      <c r="G9" s="88">
+        <v>1E-4</v>
+      </c>
+      <c r="H9" s="66"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+    </row>
+    <row r="10" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="65"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
+    </row>
+    <row r="11" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="65"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+    </row>
+    <row r="12" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="65"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="43"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="57"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="57"/>
+    </row>
+    <row r="13" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="65"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="43"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="7"/>
+    </row>
+    <row r="14" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="43"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="43"/>
+      <c r="L14" s="52"/>
+    </row>
+    <row r="15" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+    </row>
+    <row r="16" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+    </row>
+    <row r="17" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+    </row>
+    <row r="18" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+    </row>
+    <row r="19" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+    </row>
+    <row r="20" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+    </row>
+    <row r="21" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+    </row>
+    <row r="22" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+    </row>
+    <row r="23" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+    </row>
+    <row r="24" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+    </row>
+    <row r="25" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+    </row>
+    <row r="26" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+    </row>
+    <row r="27" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+    </row>
+    <row r="28" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+    </row>
+    <row r="29" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+    </row>
+    <row r="30" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+    </row>
+    <row r="31" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+    </row>
+    <row r="32" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+    </row>
+    <row r="33" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+    </row>
+    <row r="34" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468E47FF-B0BC-4702-A611-EA7EF08BB700}">
-  <dimension ref="A1"/>
+  <dimension ref="G2:K41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="4"/>
+    <col min="2" max="2" width="28.33203125" style="4" customWidth="1"/>
+    <col min="3" max="7" width="8.88671875" style="4"/>
+    <col min="8" max="8" width="9.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="7:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="7:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="90"/>
+      <c r="H3" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="90"/>
+    </row>
+    <row r="4" spans="7:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G4" s="38"/>
+      <c r="H4" s="92" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="38">
+        <v>600</v>
+      </c>
+      <c r="J4" s="38">
+        <v>147</v>
+      </c>
+      <c r="K4" s="38"/>
+    </row>
+    <row r="5" spans="7:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="93" t="s">
+        <v>113</v>
+      </c>
+      <c r="J5" s="93" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="7:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="93">
+        <v>555.70000000000005</v>
+      </c>
+      <c r="J6" s="93">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="7" spans="7:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="J7" s="94" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="7:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="95" t="s">
+        <v>117</v>
+      </c>
+      <c r="J8" s="96" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="7:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="7:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H11" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="91" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="7:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="92" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="97">
+        <v>626</v>
+      </c>
+      <c r="J12" s="97">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="7:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="97" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" s="97" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="7:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="97">
+        <v>2.46</v>
+      </c>
+      <c r="J14" s="97" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="7:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="97" t="s">
+        <v>122</v>
+      </c>
+      <c r="J15" s="97" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="7:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="98" t="s">
+        <v>124</v>
+      </c>
+      <c r="J16" s="98" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="8:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H17"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+    </row>
+    <row r="18" spans="8:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="8:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="91" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="8:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="92" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" s="5">
+        <v>630</v>
+      </c>
+      <c r="J20" s="5">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="8:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="8:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="5">
+        <v>2.46</v>
+      </c>
+      <c r="J22" s="23">
+        <v>4.6067252245758397</v>
+      </c>
+    </row>
+    <row r="23" spans="8:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="8:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="99" t="s">
+        <v>130</v>
+      </c>
+      <c r="J24" s="99" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="8:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H25" s="6"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+    </row>
+    <row r="26" spans="8:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" spans="8:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H27" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="J27" s="91" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="8:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H28" s="92" t="s">
+        <v>94</v>
+      </c>
+      <c r="I28" s="38">
+        <v>631</v>
+      </c>
+      <c r="J28" s="38">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="8:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="97" t="s">
+        <v>132</v>
+      </c>
+      <c r="J29" s="97" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="8:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="97">
+        <v>-22.2</v>
+      </c>
+      <c r="J30" s="97" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="8:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="97" t="s">
+        <v>135</v>
+      </c>
+      <c r="J31" s="97" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="8:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H32" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="I32" s="98" t="s">
+        <v>138</v>
+      </c>
+      <c r="J32" s="98" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="8:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+    </row>
+    <row r="36" spans="8:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H36" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="I36" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="J36" s="91" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="8:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H37" s="92" t="s">
+        <v>94</v>
+      </c>
+      <c r="I37" s="97">
+        <v>631</v>
+      </c>
+      <c r="J37" s="97">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" spans="8:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" s="97" t="s">
+        <v>140</v>
+      </c>
+      <c r="J38" s="97" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" spans="8:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" s="97" t="s">
+        <v>142</v>
+      </c>
+      <c r="J39" s="97" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" spans="8:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H40" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" s="97" t="s">
+        <v>144</v>
+      </c>
+      <c r="J40" s="97" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="8:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H41" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="I41" s="98" t="s">
+        <v>146</v>
+      </c>
+      <c r="J41" s="98" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E33FAB1-3FDE-41F9-8923-05A173C7A09C}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="4"/>
+    <col min="2" max="2" width="26.44140625" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="83" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="43">
+        <v>32332</v>
+      </c>
+      <c r="D3" s="43">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="82" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="43">
+        <v>38682</v>
+      </c>
+      <c r="D4" s="43">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="82" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="43">
+        <v>34766</v>
+      </c>
+      <c r="D5" s="43">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="82" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="43">
+        <v>36689</v>
+      </c>
+      <c r="D6" s="43">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="84" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="7">
+        <v>39996</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1E-4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49F4827-C3F3-4A85-B408-9C332CB32C13}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="4"/>
+    <col min="2" max="2" width="12.5546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D1" s="81" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="44" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="72" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="48">
+        <v>577</v>
+      </c>
+      <c r="E3" s="48">
+        <v>147</v>
+      </c>
+      <c r="F3" s="48">
+        <v>138</v>
+      </c>
+      <c r="G3" s="48">
+        <v>598</v>
+      </c>
+      <c r="H3" s="48">
+        <v>145</v>
+      </c>
+      <c r="I3" s="48">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="73"/>
+      <c r="C4" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="51">
+        <v>0.2</v>
+      </c>
+      <c r="E4" s="51">
+        <v>0.02</v>
+      </c>
+      <c r="F4" s="51">
+        <v>0.16</v>
+      </c>
+      <c r="G4" s="51">
+        <v>0.21</v>
+      </c>
+      <c r="H4" s="51">
+        <v>0.03</v>
+      </c>
+      <c r="I4" s="51">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="73"/>
+      <c r="C5" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="51">
+        <v>0</v>
+      </c>
+      <c r="E5" s="51">
+        <v>0</v>
+      </c>
+      <c r="F5" s="51">
+        <v>0</v>
+      </c>
+      <c r="G5" s="51">
+        <v>0</v>
+      </c>
+      <c r="H5" s="51">
+        <v>0</v>
+      </c>
+      <c r="I5" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="73"/>
+      <c r="C6" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="51">
+        <v>1.03</v>
+      </c>
+      <c r="E6" s="51">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F6" s="51">
+        <v>1.84</v>
+      </c>
+      <c r="G6" s="51">
+        <v>0.67</v>
+      </c>
+      <c r="H6" s="51">
+        <v>0.33</v>
+      </c>
+      <c r="I6" s="51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="75"/>
+      <c r="C7" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="44">
+        <v>1E-4</v>
+      </c>
+      <c r="E7" s="18">
+        <v>6.0100000000000001E-2</v>
+      </c>
+      <c r="F7" s="44">
+        <v>1E-4</v>
+      </c>
+      <c r="G7" s="44">
+        <v>1E-4</v>
+      </c>
+      <c r="H7" s="44">
+        <v>4.9299999999999997E-2</v>
+      </c>
+      <c r="I7" s="44">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="72" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="48">
+        <v>605</v>
+      </c>
+      <c r="E8" s="48">
+        <v>171</v>
+      </c>
+      <c r="F8" s="48">
+        <v>161</v>
+      </c>
+      <c r="G8" s="48">
+        <v>624</v>
+      </c>
+      <c r="H8" s="48">
+        <v>171</v>
+      </c>
+      <c r="I8" s="48">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="73"/>
+      <c r="C9" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="51">
+        <v>0.08</v>
+      </c>
+      <c r="E9" s="51">
+        <v>0.05</v>
+      </c>
+      <c r="F9" s="51">
+        <v>0.06</v>
+      </c>
+      <c r="G9" s="51">
+        <v>0.09</v>
+      </c>
+      <c r="H9" s="51">
+        <v>0.05</v>
+      </c>
+      <c r="I9" s="51">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="73"/>
+      <c r="C10" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="51">
+        <v>0.43</v>
+      </c>
+      <c r="E10" s="51">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="51">
+        <v>0.16</v>
+      </c>
+      <c r="G10" s="51">
+        <v>0.82</v>
+      </c>
+      <c r="H10" s="51">
+        <v>0.66</v>
+      </c>
+      <c r="I10" s="51">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="73"/>
+      <c r="C11" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="51">
+        <v>0.84</v>
+      </c>
+      <c r="E11" s="51">
+        <v>-0.43</v>
+      </c>
+      <c r="F11" s="51">
+        <v>1.89</v>
+      </c>
+      <c r="G11" s="51">
+        <v>0.24</v>
+      </c>
+      <c r="H11" s="51">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="I11" s="51">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="75"/>
+      <c r="C12" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="44">
+        <v>1E-4</v>
+      </c>
+      <c r="E12" s="44">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="F12" s="44">
+        <v>1.5E-3</v>
+      </c>
+      <c r="G12" s="44">
+        <v>1E-4</v>
+      </c>
+      <c r="H12" s="44">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="I12" s="18">
+        <v>7.6799999999999993E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="72" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="48">
+        <v>611</v>
+      </c>
+      <c r="E13" s="48">
+        <v>173</v>
+      </c>
+      <c r="F13" s="48">
+        <v>158</v>
+      </c>
+      <c r="G13" s="48">
+        <v>619</v>
+      </c>
+      <c r="H13" s="48">
+        <v>173</v>
+      </c>
+      <c r="I13" s="48">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="73"/>
+      <c r="C14" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="51">
+        <v>0.32</v>
+      </c>
+      <c r="E14" s="51">
+        <v>0.02</v>
+      </c>
+      <c r="F14" s="51">
+        <v>0.18</v>
+      </c>
+      <c r="G14" s="51">
+        <v>0.43</v>
+      </c>
+      <c r="H14" s="51">
+        <v>0.02</v>
+      </c>
+      <c r="I14" s="51">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="73"/>
+      <c r="C15" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="51">
+        <v>0.48</v>
+      </c>
+      <c r="E15" s="51">
+        <v>0.16</v>
+      </c>
+      <c r="F15" s="51">
+        <v>0.16</v>
+      </c>
+      <c r="G15" s="51">
+        <v>0.93</v>
+      </c>
+      <c r="H15" s="51">
+        <v>0.22</v>
+      </c>
+      <c r="I15" s="51">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="73"/>
+      <c r="C16" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="51">
+        <v>-0.11</v>
+      </c>
+      <c r="E16" s="51">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F16" s="51">
+        <v>1.58</v>
+      </c>
+      <c r="G16" s="51">
+        <v>-1.7</v>
+      </c>
+      <c r="H16" s="51">
+        <v>0.12</v>
+      </c>
+      <c r="I16" s="51">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="75"/>
+      <c r="C17" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="44">
+        <v>1E-4</v>
+      </c>
+      <c r="E17" s="18">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="F17" s="44">
+        <v>1E-4</v>
+      </c>
+      <c r="G17" s="44">
+        <v>1E-4</v>
+      </c>
+      <c r="H17" s="18">
+        <v>8.1799999999999998E-2</v>
+      </c>
+      <c r="I17" s="44">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="72" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="48">
+        <v>605</v>
+      </c>
+      <c r="E18" s="48">
+        <v>174</v>
+      </c>
+      <c r="F18" s="48">
+        <v>164</v>
+      </c>
+      <c r="G18" s="48">
+        <v>629</v>
+      </c>
+      <c r="H18" s="48">
+        <v>174</v>
+      </c>
+      <c r="I18" s="48">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="73"/>
+      <c r="C19" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="51">
+        <v>0.15</v>
+      </c>
+      <c r="E19" s="51">
+        <v>0.15</v>
+      </c>
+      <c r="F19" s="51">
+        <v>0.13</v>
+      </c>
+      <c r="G19" s="51">
+        <v>0.15</v>
+      </c>
+      <c r="H19" s="51">
+        <v>0.22</v>
+      </c>
+      <c r="I19" s="51">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="73"/>
+      <c r="C20" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="51">
+        <v>-0.16</v>
+      </c>
+      <c r="E20" s="51">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="F20" s="51">
+        <v>-0.08</v>
+      </c>
+      <c r="G20" s="51">
+        <v>-0.3</v>
+      </c>
+      <c r="H20" s="51">
+        <v>-0.45</v>
+      </c>
+      <c r="I20" s="51">
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="73"/>
+      <c r="C21" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="51">
+        <v>-1.6</v>
+      </c>
+      <c r="E21" s="51">
+        <v>-5.44</v>
+      </c>
+      <c r="F21" s="51">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G21" s="51">
+        <v>-4.3600000000000003</v>
+      </c>
+      <c r="H21" s="51">
+        <v>-9.11</v>
+      </c>
+      <c r="I21" s="51">
+        <v>-0.89</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="75"/>
+      <c r="C22" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="44">
+        <v>1E-4</v>
+      </c>
+      <c r="E22" s="44">
+        <v>1E-4</v>
+      </c>
+      <c r="F22" s="44">
+        <v>1E-4</v>
+      </c>
+      <c r="G22" s="44">
+        <v>1E-4</v>
+      </c>
+      <c r="H22" s="44">
+        <v>1E-4</v>
+      </c>
+      <c r="I22" s="44">
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="72" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="48">
+        <v>602</v>
+      </c>
+      <c r="E23" s="48">
+        <v>174</v>
+      </c>
+      <c r="F23" s="48">
+        <v>167</v>
+      </c>
+      <c r="G23" s="48">
+        <v>627</v>
+      </c>
+      <c r="H23" s="48">
+        <v>174</v>
+      </c>
+      <c r="I23" s="48">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="73"/>
+      <c r="C24" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="51">
+        <v>0.34</v>
+      </c>
+      <c r="E24" s="51">
+        <v>0.09</v>
+      </c>
+      <c r="F24" s="51">
+        <v>0.25</v>
+      </c>
+      <c r="G24" s="51">
+        <v>0.36</v>
+      </c>
+      <c r="H24" s="51">
+        <v>0.09</v>
+      </c>
+      <c r="I24" s="51">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="73"/>
+      <c r="C25" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="51">
+        <v>0.19</v>
+      </c>
+      <c r="E25" s="51">
+        <v>0.15</v>
+      </c>
+      <c r="F25" s="51">
+        <v>0.09</v>
+      </c>
+      <c r="G25" s="51">
+        <v>3.1E-2</v>
+      </c>
+      <c r="H25" s="51">
+        <v>0.2</v>
+      </c>
+      <c r="I25" s="51">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="73"/>
+      <c r="C26" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="51">
+        <v>11</v>
+      </c>
+      <c r="E26" s="51">
+        <v>7.91</v>
+      </c>
+      <c r="F26" s="51">
+        <v>6.57</v>
+      </c>
+      <c r="G26" s="51">
+        <v>17.440000000000001</v>
+      </c>
+      <c r="H26" s="51">
+        <v>10.92</v>
+      </c>
+      <c r="I26" s="51">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="74"/>
+      <c r="C27" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="40">
+        <v>1E-4</v>
+      </c>
+      <c r="E27" s="40">
+        <v>1E-4</v>
+      </c>
+      <c r="F27" s="40">
+        <v>1E-4</v>
+      </c>
+      <c r="G27" s="40">
+        <v>1E-4</v>
+      </c>
+      <c r="H27" s="40">
+        <v>1E-4</v>
+      </c>
+      <c r="I27" s="40">
+        <v>1E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B18:B22"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F1C6E6-751D-442E-929B-6D9C8801B6EA}">
-  <dimension ref="A1"/>
+  <dimension ref="H2:Q17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="H2" s="4"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+    </row>
+    <row r="3" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="H3" s="4"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+    </row>
+    <row r="4" spans="8:17" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H4" s="12"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="L4" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="M4" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="N4" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="O4" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="H5" s="4"/>
+      <c r="I5" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="J5" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="K5" s="48">
+        <v>373.1</v>
+      </c>
+      <c r="L5" s="48">
+        <v>414.9</v>
+      </c>
+      <c r="M5" s="48">
+        <v>430.7</v>
+      </c>
+      <c r="N5" s="48">
+        <v>323.8</v>
+      </c>
+      <c r="O5" s="48">
+        <v>372.7</v>
+      </c>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+    </row>
+    <row r="6" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="H6" s="4"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" s="56">
+        <v>1E-4</v>
+      </c>
+      <c r="L6" s="56">
+        <v>1E-4</v>
+      </c>
+      <c r="M6" s="56">
+        <v>1E-4</v>
+      </c>
+      <c r="N6" s="56">
+        <v>1E-4</v>
+      </c>
+      <c r="O6" s="56">
+        <v>1E-4</v>
+      </c>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+    </row>
+    <row r="7" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="H7" s="4"/>
+      <c r="I7" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="K7" s="39">
+        <v>12.48</v>
+      </c>
+      <c r="L7" s="57">
+        <v>2.2629999999999999</v>
+      </c>
+      <c r="M7" s="57">
+        <v>43.5</v>
+      </c>
+      <c r="N7" s="39">
+        <v>4.7670000000000003</v>
+      </c>
+      <c r="O7" s="39">
+        <v>6.44</v>
+      </c>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+    </row>
+    <row r="8" spans="8:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H8" s="4"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="59">
+        <v>1E-4</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0.13289999999999999</v>
+      </c>
+      <c r="M8" s="59">
+        <v>1E-4</v>
+      </c>
+      <c r="N8" s="7">
+        <v>2.93E-2</v>
+      </c>
+      <c r="O8" s="41">
+        <v>1.1350000000000001E-2</v>
+      </c>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+    </row>
+    <row r="9" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="H9" s="4"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="H10" s="4"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+    </row>
+    <row r="11" spans="8:17" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="H11" s="4"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="N11" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="O11" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+    </row>
+    <row r="12" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="H12" s="4"/>
+      <c r="I12" s="77" t="s">
+        <v>153</v>
+      </c>
+      <c r="J12" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="K12" s="48">
+        <v>615.1</v>
+      </c>
+      <c r="L12" s="48">
+        <v>212.1</v>
+      </c>
+      <c r="M12" s="48">
+        <v>679.1</v>
+      </c>
+      <c r="N12" s="48">
+        <v>646.5</v>
+      </c>
+      <c r="O12" s="48">
+        <v>729.8</v>
+      </c>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+    </row>
+    <row r="13" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="H13" s="4"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="56">
+        <v>1E-4</v>
+      </c>
+      <c r="L13" s="56">
+        <v>1E-4</v>
+      </c>
+      <c r="M13" s="56">
+        <v>1E-4</v>
+      </c>
+      <c r="N13" s="56">
+        <v>1E-4</v>
+      </c>
+      <c r="O13" s="56">
+        <v>1E-4</v>
+      </c>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+    </row>
+    <row r="14" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="H14" s="4"/>
+      <c r="I14" s="79" t="s">
+        <v>101</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="39">
+        <v>4.9939999999999998</v>
+      </c>
+      <c r="L14" s="57">
+        <v>2.0139999999999998</v>
+      </c>
+      <c r="M14" s="4">
+        <v>18.739999999999998</v>
+      </c>
+      <c r="N14" s="39">
+        <v>8.17</v>
+      </c>
+      <c r="O14" s="57">
+        <v>0.39169999999999999</v>
+      </c>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+    </row>
+    <row r="15" spans="8:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H15" s="4"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="K15" s="41">
+        <v>1E-4</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0.15620000000000001</v>
+      </c>
+      <c r="M15" s="41">
+        <v>1E-4</v>
+      </c>
+      <c r="N15" s="41">
+        <v>4.3730000000000002E-3</v>
+      </c>
+      <c r="O15" s="7">
+        <v>0.53159999999999996</v>
+      </c>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+    </row>
+    <row r="16" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="H16" s="4"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+    </row>
+    <row r="17" spans="8:17" x14ac:dyDescent="0.3">
+      <c r="H17" s="4"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I14:I15"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23486BE-5F79-4CA9-850E-00095779225A}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="3" width="8.88671875" style="100"/>
+    <col min="4" max="4" width="11.6640625" style="100" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="100"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="100" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="100" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="100" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="100" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" s="100" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="100" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="101">
+        <v>0.3972</v>
+      </c>
+      <c r="E3" s="101">
+        <v>1.9019999999999999E-2</v>
+      </c>
+      <c r="F3" s="101">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C4" s="100" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" s="101">
+        <v>-1.0319999999999999E-5</v>
+      </c>
+      <c r="E4" s="101">
+        <v>4.1739999999999997E-5</v>
+      </c>
+      <c r="F4" s="101">
+        <v>0.80508900000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C5" s="100" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="101">
+        <v>8.2030000000000006E-2</v>
+      </c>
+      <c r="E5" s="101">
+        <v>2.971E-2</v>
+      </c>
+      <c r="F5" s="101">
+        <v>6.4140000000000004E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C6" s="100" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="101">
+        <v>-2.6630000000000001E-2</v>
+      </c>
+      <c r="E6" s="101">
+        <v>1.9970000000000002E-2</v>
+      </c>
+      <c r="F6" s="101">
+        <v>0.18421100000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C7" s="100" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7" s="101">
+        <v>3.1589999999999999E-3</v>
+      </c>
+      <c r="E7" s="101">
+        <v>1.1650000000000001E-2</v>
+      </c>
+      <c r="F7" s="101">
+        <v>0.78663700000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C8" s="100" t="s">
+        <v>163</v>
+      </c>
+      <c r="D8" s="101">
+        <v>2.4320000000000001E-2</v>
+      </c>
+      <c r="E8" s="101">
+        <v>9.5580000000000005E-3</v>
+      </c>
+      <c r="F8" s="101">
+        <v>1.1844E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="100" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="101">
+        <v>0.72870000000000001</v>
+      </c>
+      <c r="E9" s="101">
+        <v>2.2030000000000001E-2</v>
+      </c>
+      <c r="F9" s="101">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C10" s="100" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="101">
+        <v>3.5340000000000002E-4</v>
+      </c>
+      <c r="E10" s="101">
+        <v>7.3289999999999998E-5</v>
+      </c>
+      <c r="F10" s="101">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C11" s="100" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" s="101">
+        <v>5.074E-2</v>
+      </c>
+      <c r="E11" s="101">
+        <v>5.0340000000000003E-2</v>
+      </c>
+      <c r="F11" s="101">
+        <v>0.315</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C12" s="100" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="101">
+        <v>-2.9929999999999998E-2</v>
+      </c>
+      <c r="E12" s="101">
+        <v>3.1859999999999999E-2</v>
+      </c>
+      <c r="F12" s="101">
+        <v>0.34899999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C13" s="100" t="s">
+        <v>162</v>
+      </c>
+      <c r="D13" s="101">
+        <v>2.708E-2</v>
+      </c>
+      <c r="E13" s="101">
+        <v>2.0879999999999999E-2</v>
+      </c>
+      <c r="F13" s="101">
+        <v>0.19700000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C14" s="100" t="s">
+        <v>163</v>
+      </c>
+      <c r="D14" s="101">
+        <v>3.058E-3</v>
+      </c>
+      <c r="E14" s="101">
+        <v>1.529E-2</v>
+      </c>
+      <c r="F14" s="101">
+        <v>0.84199999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="100" t="s">
+        <v>155</v>
+      </c>
+      <c r="C17" s="100" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" s="100" t="s">
+        <v>157</v>
+      </c>
+      <c r="E17" s="100" t="s">
+        <v>158</v>
+      </c>
+      <c r="F17" s="100" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="100" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="101">
+        <v>0.41486630000000002</v>
+      </c>
+      <c r="E18" s="101">
+        <v>2.1719599999999999E-2</v>
+      </c>
+      <c r="F18" s="101">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C19" s="100" t="s">
+        <v>159</v>
+      </c>
+      <c r="D19" s="101">
+        <v>1.021E-4</v>
+      </c>
+      <c r="E19" s="101">
+        <v>1.0679999999999999E-4</v>
+      </c>
+      <c r="F19" s="101">
+        <v>0.34087299999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C20" s="100" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20" s="101">
+        <v>8.79524E-2</v>
+      </c>
+      <c r="E20" s="101">
+        <v>3.97326E-2</v>
+      </c>
+      <c r="F20" s="101">
+        <v>2.8535000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C21" s="100" t="s">
+        <v>161</v>
+      </c>
+      <c r="D21" s="101">
+        <v>-1.9030200000000001E-2</v>
+      </c>
+      <c r="E21" s="101">
+        <v>2.3912699999999999E-2</v>
+      </c>
+      <c r="F21" s="101">
+        <v>0.42753600000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C22" s="100" t="s">
+        <v>162</v>
+      </c>
+      <c r="D22" s="101">
+        <v>1.6597799999999999E-2</v>
+      </c>
+      <c r="E22" s="101">
+        <v>1.44274E-2</v>
+      </c>
+      <c r="F22" s="101">
+        <v>0.251996</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C23" s="100" t="s">
+        <v>163</v>
+      </c>
+      <c r="D23" s="101">
+        <v>2.3698899999999998E-2</v>
+      </c>
+      <c r="E23" s="101">
+        <v>1.14191E-2</v>
+      </c>
+      <c r="F23" s="101">
+        <v>3.9849999999999997E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="100" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="101">
+        <v>0.79380070000000003</v>
+      </c>
+      <c r="E24" s="101">
+        <v>1.9717100000000001E-2</v>
+      </c>
+      <c r="F24" s="101">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C25" s="100" t="s">
+        <v>159</v>
+      </c>
+      <c r="D25" s="101">
+        <v>-1.8929999999999999E-4</v>
+      </c>
+      <c r="E25" s="101">
+        <v>1.3540000000000001E-4</v>
+      </c>
+      <c r="F25" s="101">
+        <v>0.16400000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C26" s="100" t="s">
+        <v>164</v>
+      </c>
+      <c r="D26" s="101">
+        <v>-3.1822999999999999E-3</v>
+      </c>
+      <c r="E26" s="101">
+        <v>5.0118900000000001E-2</v>
+      </c>
+      <c r="F26" s="101">
+        <v>0.94899999999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C27" s="100" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" s="101">
+        <v>-2.9846999999999999E-3</v>
+      </c>
+      <c r="E27" s="101">
+        <v>2.75128E-2</v>
+      </c>
+      <c r="F27" s="101">
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C28" s="100" t="s">
+        <v>162</v>
+      </c>
+      <c r="D28" s="101">
+        <v>-2.2308499999999998E-2</v>
+      </c>
+      <c r="E28" s="101">
+        <v>1.8952299999999998E-2</v>
+      </c>
+      <c r="F28" s="101">
+        <v>0.24099999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C29" s="100" t="s">
+        <v>163</v>
+      </c>
+      <c r="D29" s="101">
+        <v>1.6027099999999999E-2</v>
+      </c>
+      <c r="E29" s="101">
+        <v>1.4061799999999999E-2</v>
+      </c>
+      <c r="F29" s="101">
+        <v>0.25600000000000001</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/Relatório Final/Tabelas/Tabelas.xlsx
+++ b/Relatório Final/Tabelas/Tabelas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bia99\OneDrive\Documents\Wikiaves\ProjWAV\Relatório Final\Tabelas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A63059B-76E0-419B-B89A-0A5301209310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269BD35D-9BD9-4D27-A73C-EF6B355E5506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12420" yWindow="8544" windowWidth="17280" windowHeight="8964" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela 1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="160">
   <si>
     <t>Variável</t>
   </si>
@@ -466,9 +466,6 @@
     <t>r</t>
   </si>
   <si>
-    <t>Registros (Log10)</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -512,6 +509,12 @@
   </si>
   <si>
     <t>Riqueza por Registros^2</t>
+  </si>
+  <si>
+    <t>Riqueza (Log10)</t>
+  </si>
+  <si>
+    <t>Número de Registros (Log10)</t>
   </si>
 </sst>
 </file>
@@ -723,73 +726,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -807,21 +750,9 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -903,15 +834,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -933,19 +858,10 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -953,19 +869,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -986,6 +893,102 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1269,15 +1272,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:W39"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="25"/>
     <col min="2" max="2" width="9.6640625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="127" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="100" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" style="25" customWidth="1"/>
     <col min="5" max="5" width="15.44140625" style="25" customWidth="1"/>
     <col min="6" max="6" width="16.109375" style="25" customWidth="1"/>
@@ -1310,77 +1313,77 @@
       <c r="G2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
       <c r="N2" s="37"/>
       <c r="O2" s="37"/>
       <c r="P2" s="37"/>
     </row>
     <row r="3" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="116" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="124" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="D3" s="101" t="s">
         <v>155</v>
       </c>
-      <c r="D3" s="128" t="s">
-        <v>156</v>
-      </c>
-      <c r="E3" s="98">
+      <c r="E3" s="74">
         <v>631</v>
       </c>
-      <c r="F3" s="131">
+      <c r="F3" s="102">
         <v>174</v>
       </c>
-      <c r="G3" s="131">
+      <c r="G3" s="102">
         <v>173</v>
       </c>
       <c r="K3" s="30"/>
-      <c r="L3" s="118"/>
-      <c r="N3" s="119"/>
-      <c r="O3" s="119"/>
-      <c r="P3" s="119"/>
-      <c r="Q3" s="117"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="99"/>
-      <c r="T3" s="98"/>
-      <c r="U3" s="98"/>
-      <c r="V3" s="98"/>
-      <c r="W3" s="98"/>
+      <c r="L3" s="122"/>
+      <c r="N3" s="93"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="93"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="74"/>
+      <c r="U3" s="74"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="74"/>
     </row>
     <row r="4" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="75"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="128" t="s">
+      <c r="B4" s="116"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="101" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="98">
+      <c r="E4" s="74">
         <v>790</v>
       </c>
-      <c r="F4" s="98">
+      <c r="F4" s="74">
         <v>661</v>
       </c>
-      <c r="G4" s="98">
+      <c r="G4" s="74">
         <v>779</v>
       </c>
-      <c r="K4" s="117"/>
-      <c r="L4" s="118"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="119"/>
-      <c r="P4" s="119"/>
-      <c r="Q4" s="120"/>
-      <c r="R4" s="98"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="122"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="93"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="74"/>
       <c r="S4" s="37"/>
       <c r="T4" s="37"/>
       <c r="U4" s="37"/>
       <c r="V4" s="37"/>
-      <c r="W4" s="98"/>
+      <c r="W4" s="74"/>
     </row>
     <row r="5" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="64"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="132" t="s">
+      <c r="B5" s="117"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="103" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="1">
@@ -1392,105 +1395,105 @@
       <c r="G5" s="49">
         <v>535711</v>
       </c>
-      <c r="K5" s="117"/>
-      <c r="L5" s="118"/>
-      <c r="N5" s="119"/>
-      <c r="O5" s="121"/>
-      <c r="P5" s="121"/>
-      <c r="Q5" s="120"/>
-      <c r="R5" s="98"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="122"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="74"/>
       <c r="S5" s="37"/>
-      <c r="T5" s="98"/>
-      <c r="U5" s="98"/>
-      <c r="V5" s="98"/>
-      <c r="W5" s="98"/>
+      <c r="T5" s="74"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
+      <c r="W5" s="74"/>
     </row>
     <row r="6" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="121" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="134" t="s">
+      <c r="C6" s="126" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="121" t="s">
+      <c r="E6" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="121" t="s">
+      <c r="F6" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="121" t="s">
+      <c r="G6" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="117"/>
-      <c r="L6" s="118"/>
-      <c r="N6" s="100"/>
-      <c r="O6" s="100"/>
-      <c r="P6" s="100"/>
-      <c r="Q6" s="120"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="122"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="94"/>
       <c r="S6" s="37"/>
-      <c r="T6" s="98"/>
-      <c r="U6" s="98"/>
-      <c r="V6" s="98"/>
+      <c r="T6" s="74"/>
+      <c r="U6" s="74"/>
+      <c r="V6" s="74"/>
     </row>
     <row r="7" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="118"/>
-      <c r="C7" s="126"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="119"/>
       <c r="D7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="121">
+      <c r="E7" s="95">
         <v>105</v>
       </c>
-      <c r="F7" s="121">
+      <c r="F7" s="95">
         <v>6</v>
       </c>
-      <c r="G7" s="121">
+      <c r="G7" s="95">
         <v>213</v>
       </c>
-      <c r="K7" s="117"/>
-      <c r="L7" s="118"/>
-      <c r="M7" s="122"/>
-      <c r="N7" s="113"/>
-      <c r="O7" s="113"/>
-      <c r="P7" s="113"/>
-      <c r="Q7" s="120"/>
-      <c r="R7" s="98"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="122"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="89"/>
+      <c r="P7" s="89"/>
+      <c r="Q7" s="94"/>
+      <c r="R7" s="74"/>
       <c r="S7" s="37"/>
-      <c r="T7" s="98"/>
-      <c r="U7" s="100"/>
-      <c r="V7" s="100"/>
+      <c r="T7" s="74"/>
+      <c r="U7" s="76"/>
+      <c r="V7" s="76"/>
     </row>
     <row r="8" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="118"/>
-      <c r="C8" s="126"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="119"/>
       <c r="D8" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="121" t="s">
+      <c r="E8" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="121" t="s">
+      <c r="F8" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="121" t="s">
+      <c r="G8" s="95" t="s">
         <v>40</v>
       </c>
       <c r="K8" s="30"/>
-      <c r="L8" s="118"/>
-      <c r="M8" s="122"/>
-      <c r="N8" s="98"/>
-      <c r="O8" s="98"/>
-      <c r="P8" s="98"/>
-      <c r="Q8" s="120"/>
-      <c r="R8" s="98"/>
-      <c r="S8" s="99"/>
+      <c r="L8" s="122"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="94"/>
+      <c r="R8" s="74"/>
+      <c r="S8" s="75"/>
     </row>
     <row r="9" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="118"/>
-      <c r="C9" s="130"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="120"/>
       <c r="D9" s="8" t="s">
         <v>17</v>
       </c>
@@ -1503,17 +1506,17 @@
       <c r="G9" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="117"/>
-      <c r="L9" s="118"/>
-      <c r="M9" s="122"/>
-      <c r="N9" s="113"/>
-      <c r="O9" s="113"/>
-      <c r="P9" s="113"/>
-      <c r="Q9" s="120"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="122"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="89"/>
+      <c r="O9" s="89"/>
+      <c r="P9" s="89"/>
+      <c r="Q9" s="94"/>
     </row>
     <row r="10" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="118"/>
-      <c r="C10" s="129" t="s">
+      <c r="B10" s="122"/>
+      <c r="C10" s="118" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -1528,55 +1531,55 @@
       <c r="G10" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="117"/>
-      <c r="L10" s="118"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="113"/>
-      <c r="O10" s="113"/>
-      <c r="P10" s="113"/>
-      <c r="Q10" s="120"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="122"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="89"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="89"/>
+      <c r="Q10" s="94"/>
     </row>
     <row r="11" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="118"/>
-      <c r="C11" s="126"/>
-      <c r="D11" s="122" t="s">
+      <c r="B11" s="122"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="125">
+      <c r="E11" s="99">
         <v>2.02</v>
       </c>
-      <c r="F11" s="125">
+      <c r="F11" s="99">
         <v>0.78</v>
       </c>
-      <c r="G11" s="125">
+      <c r="G11" s="99">
         <v>2.33</v>
       </c>
       <c r="L11" s="30"/>
-      <c r="N11" s="98"/>
-      <c r="O11" s="98"/>
-      <c r="P11" s="98"/>
-      <c r="Q11" s="120"/>
+      <c r="N11" s="74"/>
+      <c r="O11" s="74"/>
+      <c r="P11" s="74"/>
+      <c r="Q11" s="94"/>
     </row>
     <row r="12" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="118"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="122" t="s">
+      <c r="B12" s="122"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="121" t="s">
+      <c r="E12" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="121" t="s">
+      <c r="F12" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="121" t="s">
+      <c r="G12" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="K12" s="123"/>
+      <c r="K12" s="97"/>
     </row>
     <row r="13" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="118"/>
-      <c r="C13" s="130"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="120"/>
       <c r="D13" s="12" t="s">
         <v>17</v>
       </c>
@@ -1589,11 +1592,11 @@
       <c r="G13" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="K13" s="124"/>
+      <c r="K13" s="98"/>
     </row>
     <row r="14" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="135"/>
-      <c r="C14" s="133" t="s">
+      <c r="B14" s="123"/>
+      <c r="C14" s="104" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="15" t="s">
@@ -1610,10 +1613,10 @@
       </c>
     </row>
     <row r="15" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="121" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="134" t="s">
+      <c r="C15" s="126" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -1631,52 +1634,52 @@
       <c r="Q15" s="37"/>
     </row>
     <row r="16" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="118"/>
-      <c r="C16" s="126"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="119"/>
       <c r="D16" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="100">
+      <c r="E16" s="76">
         <v>204</v>
       </c>
-      <c r="F16" s="119">
+      <c r="F16" s="93">
         <v>7</v>
       </c>
-      <c r="G16" s="119">
+      <c r="G16" s="93">
         <v>996</v>
       </c>
-      <c r="K16" s="117"/>
-      <c r="L16" s="117"/>
-      <c r="M16" s="117"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="92"/>
       <c r="N16" s="37"/>
       <c r="O16" s="37"/>
       <c r="P16" s="37"/>
     </row>
     <row r="17" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="118"/>
-      <c r="C17" s="126"/>
+      <c r="B17" s="122"/>
+      <c r="C17" s="119"/>
       <c r="D17" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="119" t="s">
+      <c r="E17" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="121" t="s">
+      <c r="F17" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="121" t="s">
+      <c r="G17" s="95" t="s">
         <v>16</v>
       </c>
       <c r="K17" s="30"/>
-      <c r="L17" s="118"/>
-      <c r="N17" s="121"/>
-      <c r="O17" s="121"/>
-      <c r="P17" s="121"/>
-      <c r="Q17" s="117"/>
+      <c r="L17" s="122"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="95"/>
+      <c r="Q17" s="92"/>
     </row>
     <row r="18" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="118"/>
-      <c r="C18" s="130"/>
+      <c r="B18" s="122"/>
+      <c r="C18" s="120"/>
       <c r="D18" s="8" t="s">
         <v>17</v>
       </c>
@@ -1689,16 +1692,16 @@
       <c r="G18" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="K18" s="117"/>
-      <c r="L18" s="118"/>
-      <c r="N18" s="121"/>
-      <c r="O18" s="121"/>
-      <c r="P18" s="121"/>
-      <c r="Q18" s="120"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="122"/>
+      <c r="N18" s="95"/>
+      <c r="O18" s="95"/>
+      <c r="P18" s="95"/>
+      <c r="Q18" s="94"/>
     </row>
     <row r="19" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="118"/>
-      <c r="C19" s="129" t="s">
+      <c r="B19" s="122"/>
+      <c r="C19" s="118" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="10" t="s">
@@ -1713,61 +1716,61 @@
       <c r="G19" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K19" s="117"/>
-      <c r="L19" s="118"/>
-      <c r="N19" s="121"/>
-      <c r="O19" s="121"/>
-      <c r="P19" s="121"/>
-      <c r="Q19" s="120"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="122"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="95"/>
+      <c r="Q19" s="94"/>
     </row>
     <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="118"/>
-      <c r="C20" s="126"/>
-      <c r="D20" s="122" t="s">
+      <c r="B20" s="122"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="98">
+      <c r="E20" s="74">
         <v>2.31</v>
       </c>
-      <c r="F20" s="98">
+      <c r="F20" s="74">
         <v>0.85</v>
       </c>
-      <c r="G20" s="98">
+      <c r="G20" s="74">
         <v>3</v>
       </c>
-      <c r="K20" s="117"/>
-      <c r="L20" s="118"/>
-      <c r="N20" s="121"/>
-      <c r="O20" s="121"/>
-      <c r="P20" s="121"/>
-      <c r="Q20" s="120"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="122"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="95"/>
+      <c r="Q20" s="94"/>
     </row>
     <row r="21" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="118"/>
-      <c r="C21" s="126"/>
-      <c r="D21" s="122" t="s">
+      <c r="B21" s="122"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="113" t="s">
+      <c r="E21" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="113" t="s">
+      <c r="F21" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="113" t="s">
+      <c r="G21" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="K21" s="117"/>
-      <c r="L21" s="118"/>
-      <c r="M21" s="122"/>
-      <c r="N21" s="121"/>
-      <c r="O21" s="121"/>
-      <c r="P21" s="121"/>
-      <c r="Q21" s="120"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="122"/>
+      <c r="M21" s="96"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="95"/>
+      <c r="Q21" s="94"/>
     </row>
     <row r="22" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="118"/>
-      <c r="C22" s="130"/>
+      <c r="B22" s="122"/>
+      <c r="C22" s="120"/>
       <c r="D22" s="12" t="s">
         <v>17</v>
       </c>
@@ -1781,15 +1784,15 @@
         <v>30</v>
       </c>
       <c r="K22" s="30"/>
-      <c r="L22" s="118"/>
-      <c r="M22" s="122"/>
-      <c r="N22" s="125"/>
-      <c r="O22" s="125"/>
-      <c r="P22" s="125"/>
-      <c r="Q22" s="120"/>
+      <c r="L22" s="122"/>
+      <c r="M22" s="96"/>
+      <c r="N22" s="99"/>
+      <c r="O22" s="99"/>
+      <c r="P22" s="99"/>
+      <c r="Q22" s="94"/>
     </row>
     <row r="23" spans="2:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="135"/>
+      <c r="B23" s="123"/>
       <c r="C23" s="4" t="s">
         <v>31</v>
       </c>
@@ -1805,19 +1808,19 @@
       <c r="G23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K23" s="117"/>
-      <c r="L23" s="118"/>
-      <c r="M23" s="122"/>
-      <c r="N23" s="121"/>
-      <c r="O23" s="121"/>
-      <c r="P23" s="121"/>
-      <c r="Q23" s="120"/>
+      <c r="K23" s="92"/>
+      <c r="L23" s="122"/>
+      <c r="M23" s="96"/>
+      <c r="N23" s="95"/>
+      <c r="O23" s="95"/>
+      <c r="P23" s="95"/>
+      <c r="Q23" s="94"/>
     </row>
     <row r="24" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="118" t="s">
+      <c r="B24" s="122" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="126" t="s">
+      <c r="C24" s="119" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="6" t="s">
@@ -1832,55 +1835,55 @@
       <c r="G24" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K24" s="117"/>
-      <c r="L24" s="118"/>
-      <c r="M24" s="74"/>
-      <c r="N24" s="121"/>
-      <c r="O24" s="121"/>
-      <c r="P24" s="121"/>
-      <c r="Q24" s="120"/>
+      <c r="K24" s="92"/>
+      <c r="L24" s="122"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="95"/>
+      <c r="P24" s="95"/>
+      <c r="Q24" s="94"/>
     </row>
     <row r="25" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="118"/>
-      <c r="C25" s="126"/>
+      <c r="B25" s="122"/>
+      <c r="C25" s="119"/>
       <c r="D25" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="100">
+      <c r="E25" s="76">
         <v>484</v>
       </c>
-      <c r="F25" s="119">
+      <c r="F25" s="93">
         <v>13</v>
       </c>
-      <c r="G25" s="119">
+      <c r="G25" s="93">
         <v>423</v>
       </c>
       <c r="L25" s="30"/>
-      <c r="N25" s="125"/>
-      <c r="O25" s="125"/>
-      <c r="P25" s="125"/>
-      <c r="Q25" s="120"/>
+      <c r="N25" s="99"/>
+      <c r="O25" s="99"/>
+      <c r="P25" s="99"/>
+      <c r="Q25" s="94"/>
     </row>
     <row r="26" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="118"/>
-      <c r="C26" s="126"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="119"/>
       <c r="D26" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="119" t="s">
+      <c r="E26" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="121" t="s">
+      <c r="F26" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="G26" s="121" t="s">
+      <c r="G26" s="95" t="s">
         <v>61</v>
       </c>
-      <c r="K26" s="123"/>
+      <c r="K26" s="97"/>
     </row>
     <row r="27" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="118"/>
-      <c r="C27" s="130"/>
+      <c r="B27" s="122"/>
+      <c r="C27" s="120"/>
       <c r="D27" s="8" t="s">
         <v>17</v>
       </c>
@@ -1893,11 +1896,11 @@
       <c r="G27" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="K27" s="124"/>
+      <c r="K27" s="98"/>
     </row>
     <row r="28" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="118"/>
-      <c r="C28" s="129" t="s">
+      <c r="B28" s="122"/>
+      <c r="C28" s="118" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="10" t="s">
@@ -1915,52 +1918,52 @@
       <c r="Q28" s="37"/>
     </row>
     <row r="29" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="118"/>
-      <c r="C29" s="126"/>
-      <c r="D29" s="122" t="s">
+      <c r="B29" s="122"/>
+      <c r="C29" s="119"/>
+      <c r="D29" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="98">
+      <c r="E29" s="74">
         <v>2.68</v>
       </c>
-      <c r="F29" s="98">
+      <c r="F29" s="74">
         <v>1.1100000000000001</v>
       </c>
-      <c r="G29" s="98">
+      <c r="G29" s="74">
         <v>2.63</v>
       </c>
-      <c r="K29" s="117"/>
-      <c r="L29" s="117"/>
-      <c r="M29" s="117"/>
+      <c r="K29" s="92"/>
+      <c r="L29" s="92"/>
+      <c r="M29" s="92"/>
       <c r="N29" s="37"/>
       <c r="O29" s="37"/>
       <c r="P29" s="37"/>
     </row>
     <row r="30" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="118"/>
-      <c r="C30" s="126"/>
-      <c r="D30" s="122" t="s">
+      <c r="B30" s="122"/>
+      <c r="C30" s="119"/>
+      <c r="D30" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="113" t="s">
+      <c r="E30" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="F30" s="113" t="s">
+      <c r="F30" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="G30" s="113" t="s">
+      <c r="G30" s="89" t="s">
         <v>70</v>
       </c>
       <c r="K30" s="30"/>
-      <c r="L30" s="118"/>
-      <c r="N30" s="119"/>
-      <c r="O30" s="119"/>
-      <c r="P30" s="119"/>
-      <c r="Q30" s="117"/>
+      <c r="L30" s="122"/>
+      <c r="N30" s="93"/>
+      <c r="O30" s="93"/>
+      <c r="P30" s="93"/>
+      <c r="Q30" s="92"/>
     </row>
     <row r="31" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="118"/>
-      <c r="C31" s="130"/>
+      <c r="B31" s="122"/>
+      <c r="C31" s="120"/>
       <c r="D31" s="12" t="s">
         <v>17</v>
       </c>
@@ -1973,15 +1976,15 @@
       <c r="G31" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="K31" s="117"/>
-      <c r="L31" s="118"/>
-      <c r="N31" s="100"/>
-      <c r="O31" s="119"/>
-      <c r="P31" s="119"/>
-      <c r="Q31" s="120"/>
+      <c r="K31" s="92"/>
+      <c r="L31" s="122"/>
+      <c r="N31" s="76"/>
+      <c r="O31" s="93"/>
+      <c r="P31" s="93"/>
+      <c r="Q31" s="94"/>
     </row>
     <row r="32" spans="2:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="135"/>
+      <c r="B32" s="123"/>
       <c r="C32" s="4" t="s">
         <v>31</v>
       </c>
@@ -1997,69 +2000,75 @@
       <c r="G32" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K32" s="117"/>
-      <c r="L32" s="118"/>
-      <c r="N32" s="119"/>
-      <c r="O32" s="121"/>
-      <c r="P32" s="121"/>
-      <c r="Q32" s="120"/>
+      <c r="K32" s="92"/>
+      <c r="L32" s="122"/>
+      <c r="N32" s="93"/>
+      <c r="O32" s="95"/>
+      <c r="P32" s="95"/>
+      <c r="Q32" s="94"/>
     </row>
     <row r="33" spans="11:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K33" s="117"/>
-      <c r="L33" s="118"/>
-      <c r="N33" s="100"/>
-      <c r="O33" s="100"/>
-      <c r="P33" s="100"/>
-      <c r="Q33" s="120"/>
+      <c r="K33" s="92"/>
+      <c r="L33" s="122"/>
+      <c r="N33" s="76"/>
+      <c r="O33" s="76"/>
+      <c r="P33" s="76"/>
+      <c r="Q33" s="94"/>
     </row>
     <row r="34" spans="11:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K34" s="117"/>
-      <c r="L34" s="118"/>
-      <c r="M34" s="122"/>
-      <c r="N34" s="113"/>
-      <c r="O34" s="113"/>
-      <c r="P34" s="113"/>
-      <c r="Q34" s="120"/>
+      <c r="K34" s="92"/>
+      <c r="L34" s="122"/>
+      <c r="M34" s="96"/>
+      <c r="N34" s="89"/>
+      <c r="O34" s="89"/>
+      <c r="P34" s="89"/>
+      <c r="Q34" s="94"/>
     </row>
     <row r="35" spans="11:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K35" s="30"/>
-      <c r="L35" s="118"/>
-      <c r="M35" s="122"/>
-      <c r="N35" s="98"/>
-      <c r="O35" s="98"/>
-      <c r="P35" s="98"/>
-      <c r="Q35" s="120"/>
+      <c r="L35" s="122"/>
+      <c r="M35" s="96"/>
+      <c r="N35" s="74"/>
+      <c r="O35" s="74"/>
+      <c r="P35" s="74"/>
+      <c r="Q35" s="94"/>
     </row>
     <row r="36" spans="11:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K36" s="117"/>
-      <c r="L36" s="118"/>
-      <c r="M36" s="122"/>
-      <c r="N36" s="113"/>
-      <c r="O36" s="113"/>
-      <c r="P36" s="113"/>
-      <c r="Q36" s="120"/>
+      <c r="K36" s="92"/>
+      <c r="L36" s="122"/>
+      <c r="M36" s="96"/>
+      <c r="N36" s="89"/>
+      <c r="O36" s="89"/>
+      <c r="P36" s="89"/>
+      <c r="Q36" s="94"/>
     </row>
     <row r="37" spans="11:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K37" s="117"/>
-      <c r="L37" s="118"/>
-      <c r="M37" s="74"/>
-      <c r="N37" s="113"/>
-      <c r="O37" s="113"/>
-      <c r="P37" s="113"/>
-      <c r="Q37" s="120"/>
+      <c r="K37" s="92"/>
+      <c r="L37" s="122"/>
+      <c r="M37" s="55"/>
+      <c r="N37" s="89"/>
+      <c r="O37" s="89"/>
+      <c r="P37" s="89"/>
+      <c r="Q37" s="94"/>
     </row>
     <row r="38" spans="11:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L38" s="30"/>
-      <c r="N38" s="98"/>
-      <c r="O38" s="98"/>
-      <c r="P38" s="98"/>
-      <c r="Q38" s="120"/>
+      <c r="N38" s="74"/>
+      <c r="O38" s="74"/>
+      <c r="P38" s="74"/>
+      <c r="Q38" s="94"/>
     </row>
     <row r="39" spans="11:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K39" s="123"/>
+      <c r="K39" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="L34:L37"/>
+    <mergeCell ref="L3:L6"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="L17:L20"/>
+    <mergeCell ref="L21:L24"/>
+    <mergeCell ref="L30:L33"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="C24:C27"/>
@@ -2071,12 +2080,6 @@
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="C15:C18"/>
-    <mergeCell ref="L34:L37"/>
-    <mergeCell ref="L3:L6"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="L17:L20"/>
-    <mergeCell ref="L21:L24"/>
-    <mergeCell ref="L30:L33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2099,38 +2102,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="E2" s="67" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="E2" s="140" t="s">
         <v>139</v>
       </c>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="E3" s="67">
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="E3" s="140">
         <v>2</v>
       </c>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67">
+      <c r="F3" s="140"/>
+      <c r="G3" s="140">
         <v>3</v>
       </c>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67">
+      <c r="H3" s="140"/>
+      <c r="I3" s="140">
         <v>4</v>
       </c>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67">
+      <c r="J3" s="140"/>
+      <c r="K3" s="140">
         <v>5</v>
       </c>
-      <c r="L3" s="67"/>
+      <c r="L3" s="140"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="40" t="s">
@@ -2139,682 +2142,682 @@
       <c r="C4" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="D4" s="80" t="s">
-        <v>146</v>
-      </c>
-      <c r="E4" s="97" t="s">
+      <c r="D4" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="97" t="s">
+      <c r="F4" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="97" t="s">
+      <c r="G4" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="H4" s="97" t="s">
+      <c r="H4" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="I4" s="97" t="s">
+      <c r="I4" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="J4" s="97" t="s">
+      <c r="J4" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="K4" s="97" t="s">
+      <c r="K4" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="L4" s="97" t="s">
+      <c r="L4" s="73" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="62">
+      <c r="B5" s="146">
         <v>71</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="146" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="E5" s="94">
+      <c r="E5" s="70">
         <v>2.1888999999999998</v>
       </c>
-      <c r="F5" s="89">
+      <c r="F5" s="65">
         <v>0.14369999999999999</v>
       </c>
-      <c r="G5" s="94">
+      <c r="G5" s="70">
         <v>60.566000000000003</v>
       </c>
-      <c r="H5" s="89">
-        <v>1E-4</v>
-      </c>
-      <c r="I5" s="94">
+      <c r="H5" s="65">
+        <v>1E-4</v>
+      </c>
+      <c r="I5" s="70">
         <v>186.16</v>
       </c>
-      <c r="J5" s="89">
-        <v>1E-4</v>
-      </c>
-      <c r="K5" s="94">
+      <c r="J5" s="65">
+        <v>1E-4</v>
+      </c>
+      <c r="K5" s="70">
         <v>124</v>
       </c>
-      <c r="L5" s="89">
+      <c r="L5" s="65">
         <v>1E-4</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
       <c r="D6" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="E6" s="93">
+      <c r="E6" s="69">
         <v>1.9488000000000001</v>
       </c>
-      <c r="F6" s="90">
+      <c r="F6" s="66">
         <v>0.16869999999999999</v>
       </c>
-      <c r="G6" s="93">
+      <c r="G6" s="69">
         <v>1.5509999999999999</v>
       </c>
-      <c r="H6" s="90">
+      <c r="H6" s="66">
         <v>0.2329</v>
       </c>
-      <c r="I6" s="93">
+      <c r="I6" s="69">
         <v>2.5074000000000001</v>
       </c>
-      <c r="J6" s="90">
+      <c r="J6" s="66">
         <v>7.7450000000000005E-2</v>
       </c>
-      <c r="K6" s="93">
+      <c r="K6" s="69">
         <v>1.7184999999999999</v>
       </c>
-      <c r="L6" s="90">
+      <c r="L6" s="66">
         <v>0.2082</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
       <c r="D7" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="E7" s="93">
+      <c r="E7" s="69">
         <v>4.9397999999999997E-2</v>
       </c>
-      <c r="F7" s="90">
+      <c r="F7" s="66">
         <v>0.82479999999999998</v>
       </c>
-      <c r="G7" s="93">
+      <c r="G7" s="69">
         <v>0.62522</v>
       </c>
-      <c r="H7" s="90">
+      <c r="H7" s="66">
         <v>0.5423</v>
       </c>
-      <c r="I7" s="93">
+      <c r="I7" s="69">
         <v>0.28497</v>
       </c>
-      <c r="J7" s="90">
+      <c r="J7" s="66">
         <v>0.83579999999999999</v>
       </c>
-      <c r="K7" s="93">
+      <c r="K7" s="69">
         <v>0.29622999999999999</v>
       </c>
-      <c r="L7" s="90">
+      <c r="L7" s="66">
         <v>0.87509999999999999</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
       <c r="D8" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="E8" s="93">
+      <c r="E8" s="69">
         <v>5.6565000000000003</v>
       </c>
-      <c r="F8" s="90">
+      <c r="F8" s="66">
         <v>2.0729999999999998E-2</v>
       </c>
-      <c r="G8" s="93">
+      <c r="G8" s="69">
         <v>40.116999999999997</v>
       </c>
-      <c r="H8" s="90">
-        <v>1E-4</v>
-      </c>
-      <c r="I8" s="93">
+      <c r="H8" s="66">
+        <v>1E-4</v>
+      </c>
+      <c r="I8" s="69">
         <v>63.978000000000002</v>
       </c>
-      <c r="J8" s="90">
-        <v>1E-4</v>
-      </c>
-      <c r="K8" s="93">
+      <c r="J8" s="66">
+        <v>1E-4</v>
+      </c>
+      <c r="K8" s="69">
         <v>53.253</v>
       </c>
-      <c r="L8" s="90">
+      <c r="L8" s="66">
         <v>1E-4</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="75"/>
-      <c r="C9" s="63"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="147"/>
       <c r="D9" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="95">
+      <c r="E9" s="71">
         <v>10.641</v>
       </c>
-      <c r="F9" s="91">
+      <c r="F9" s="67">
         <v>1.7210000000000001E-3</v>
       </c>
-      <c r="G9" s="95">
+      <c r="G9" s="71">
         <v>6.3228</v>
       </c>
-      <c r="H9" s="91">
+      <c r="H9" s="67">
         <v>4.8349999999999999E-3</v>
       </c>
-      <c r="I9" s="95">
+      <c r="I9" s="71">
         <v>3.6991999999999998</v>
       </c>
-      <c r="J9" s="91">
+      <c r="J9" s="67">
         <v>2.1059999999999999E-2</v>
       </c>
-      <c r="K9" s="95">
+      <c r="K9" s="71">
         <v>5.3358999999999996</v>
       </c>
-      <c r="L9" s="91">
+      <c r="L9" s="67">
         <v>3.5409999999999999E-3</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="75"/>
-      <c r="C10" s="62" t="s">
+      <c r="B10" s="116"/>
+      <c r="C10" s="146" t="s">
         <v>87</v>
       </c>
       <c r="D10" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="93">
+      <c r="E10" s="69">
         <v>7.7908999999999997</v>
       </c>
-      <c r="F10" s="90">
+      <c r="F10" s="66">
         <v>7.9279999999999993E-3</v>
       </c>
-      <c r="G10" s="93">
+      <c r="G10" s="69">
         <v>11.292999999999999</v>
       </c>
-      <c r="H10" s="90">
+      <c r="H10" s="66">
         <v>2.7940000000000002E-4</v>
       </c>
-      <c r="I10" s="93">
+      <c r="I10" s="69">
         <v>72.400000000000006</v>
       </c>
-      <c r="J10" s="90">
-        <v>1E-4</v>
-      </c>
-      <c r="K10" s="93">
+      <c r="J10" s="66">
+        <v>1E-4</v>
+      </c>
+      <c r="K10" s="69">
         <v>53.540999999999997</v>
       </c>
-      <c r="L10" s="90">
+      <c r="L10" s="66">
         <v>1E-4</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="116"/>
       <c r="D11" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="93">
+      <c r="E11" s="69">
         <v>1.2246999999999999</v>
       </c>
-      <c r="F11" s="90">
+      <c r="F11" s="66">
         <v>0.27379999999999999</v>
       </c>
-      <c r="G11" s="93">
+      <c r="G11" s="69">
         <v>1.1980999999999999</v>
       </c>
-      <c r="H11" s="90">
+      <c r="H11" s="66">
         <v>0.3332</v>
       </c>
-      <c r="I11" s="93">
+      <c r="I11" s="69">
         <v>0.80137000000000003</v>
       </c>
-      <c r="J11" s="90">
+      <c r="J11" s="66">
         <v>0.50749999999999995</v>
       </c>
-      <c r="K11" s="93">
+      <c r="K11" s="69">
         <v>1.1746000000000001</v>
       </c>
-      <c r="L11" s="90">
+      <c r="L11" s="66">
         <v>0.34810000000000002</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="75"/>
-      <c r="C12" s="75"/>
+      <c r="B12" s="116"/>
+      <c r="C12" s="116"/>
       <c r="D12" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="E12" s="93">
+      <c r="E12" s="69">
         <v>0.23027</v>
       </c>
-      <c r="F12" s="90">
+      <c r="F12" s="66">
         <v>0.63290000000000002</v>
       </c>
-      <c r="G12" s="93">
+      <c r="G12" s="69">
         <v>0.25117</v>
       </c>
-      <c r="H12" s="90">
+      <c r="H12" s="66">
         <v>0.78110000000000002</v>
       </c>
-      <c r="I12" s="93">
+      <c r="I12" s="69">
         <v>0.60795999999999994</v>
       </c>
-      <c r="J12" s="90">
+      <c r="J12" s="66">
         <v>0.61750000000000005</v>
       </c>
-      <c r="K12" s="93">
+      <c r="K12" s="69">
         <v>0.94921</v>
       </c>
-      <c r="L12" s="90">
+      <c r="L12" s="66">
         <v>0.45369999999999999</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
+      <c r="B13" s="116"/>
+      <c r="C13" s="116"/>
       <c r="D13" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="93">
+      <c r="E13" s="69">
         <v>68.903000000000006</v>
       </c>
-      <c r="F13" s="90">
-        <v>1E-4</v>
-      </c>
-      <c r="G13" s="93">
+      <c r="F13" s="66">
+        <v>1E-4</v>
+      </c>
+      <c r="G13" s="69">
         <v>34.859000000000002</v>
       </c>
-      <c r="H13" s="90">
-        <v>1E-4</v>
-      </c>
-      <c r="I13" s="93">
+      <c r="H13" s="66">
+        <v>1E-4</v>
+      </c>
+      <c r="I13" s="69">
         <v>40.722999999999999</v>
       </c>
-      <c r="J13" s="90">
-        <v>1E-4</v>
-      </c>
-      <c r="K13" s="93">
+      <c r="J13" s="66">
+        <v>1E-4</v>
+      </c>
+      <c r="K13" s="69">
         <v>40.850999999999999</v>
       </c>
-      <c r="L13" s="90">
+      <c r="L13" s="66">
         <v>1E-4</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
+      <c r="B14" s="147"/>
+      <c r="C14" s="147"/>
       <c r="D14" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="E14" s="95">
+      <c r="E14" s="71">
         <v>26.6</v>
       </c>
-      <c r="F14" s="91">
-        <v>1E-4</v>
-      </c>
-      <c r="G14" s="95">
+      <c r="F14" s="67">
+        <v>1E-4</v>
+      </c>
+      <c r="G14" s="71">
         <v>12.829000000000001</v>
       </c>
-      <c r="H14" s="91">
+      <c r="H14" s="67">
         <v>6.4740000000000002E-4</v>
       </c>
-      <c r="I14" s="95">
+      <c r="I14" s="71">
         <v>10.005000000000001</v>
       </c>
-      <c r="J14" s="91">
+      <c r="J14" s="67">
         <v>2.8400000000000002E-4</v>
       </c>
-      <c r="K14" s="95">
+      <c r="K14" s="71">
         <v>7.4615</v>
       </c>
-      <c r="L14" s="91">
+      <c r="L14" s="67">
         <v>5.1559999999999996E-4</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="62">
+      <c r="B15" s="146">
         <v>46</v>
       </c>
-      <c r="C15" s="62" t="s">
+      <c r="C15" s="146" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="E15" s="94">
+      <c r="E15" s="70">
         <v>89.537000000000006</v>
       </c>
-      <c r="F15" s="89">
-        <v>1E-4</v>
-      </c>
-      <c r="G15" s="94">
+      <c r="F15" s="65">
+        <v>1E-4</v>
+      </c>
+      <c r="G15" s="70">
         <v>46.969000000000001</v>
       </c>
-      <c r="H15" s="89">
-        <v>1E-4</v>
-      </c>
-      <c r="I15" s="94">
+      <c r="H15" s="65">
+        <v>1E-4</v>
+      </c>
+      <c r="I15" s="70">
         <v>30.036999999999999</v>
       </c>
-      <c r="J15" s="89">
-        <v>1E-4</v>
-      </c>
-      <c r="K15" s="94">
+      <c r="J15" s="65">
+        <v>1E-4</v>
+      </c>
+      <c r="K15" s="70">
         <v>102.52</v>
       </c>
-      <c r="L15" s="89">
+      <c r="L15" s="65">
         <v>1E-4</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="116"/>
       <c r="D16" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="E16" s="93">
+      <c r="E16" s="69">
         <v>0.46489999999999998</v>
       </c>
-      <c r="F16" s="90">
+      <c r="F16" s="66">
         <v>0.49890000000000001</v>
       </c>
-      <c r="G16" s="93">
+      <c r="G16" s="69">
         <v>0.42076999999999998</v>
       </c>
-      <c r="H16" s="90">
+      <c r="H16" s="66">
         <v>0.66100000000000003</v>
       </c>
-      <c r="I16" s="93">
+      <c r="I16" s="69">
         <v>4.4321999999999999</v>
       </c>
-      <c r="J16" s="90">
+      <c r="J16" s="66">
         <v>1.55E-2</v>
       </c>
-      <c r="K16" s="93">
+      <c r="K16" s="69">
         <v>3.3961999999999999</v>
       </c>
-      <c r="L16" s="90">
+      <c r="L16" s="66">
         <v>3.3329999999999999E-2</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
+      <c r="B17" s="116"/>
+      <c r="C17" s="116"/>
       <c r="D17" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="E17" s="93">
+      <c r="E17" s="69">
         <v>1.0462</v>
       </c>
-      <c r="F17" s="90">
+      <c r="F17" s="66">
         <v>0.312</v>
       </c>
-      <c r="G17" s="93">
+      <c r="G17" s="69">
         <v>0.52456999999999998</v>
       </c>
-      <c r="H17" s="90">
+      <c r="H17" s="66">
         <v>0.59819999999999995</v>
       </c>
-      <c r="I17" s="93">
+      <c r="I17" s="69">
         <v>0.50995999999999997</v>
       </c>
-      <c r="J17" s="90">
+      <c r="J17" s="66">
         <v>0.68120000000000003</v>
       </c>
-      <c r="K17" s="93">
+      <c r="K17" s="69">
         <v>0.48887999999999998</v>
       </c>
-      <c r="L17" s="90">
+      <c r="L17" s="66">
         <v>0.74390000000000001</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
+      <c r="B18" s="116"/>
+      <c r="C18" s="116"/>
       <c r="D18" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="E18" s="93">
+      <c r="E18" s="69">
         <v>16.018000000000001</v>
       </c>
-      <c r="F18" s="90">
+      <c r="F18" s="66">
         <v>6.2480000000000001E-4</v>
       </c>
-      <c r="G18" s="93">
+      <c r="G18" s="69">
         <v>12.818</v>
       </c>
-      <c r="H18" s="90">
+      <c r="H18" s="66">
         <v>1.145E-4</v>
       </c>
-      <c r="I18" s="93">
+      <c r="I18" s="69">
         <v>13.047000000000001</v>
       </c>
-      <c r="J18" s="90">
-        <v>1E-4</v>
-      </c>
-      <c r="K18" s="93">
+      <c r="J18" s="66">
+        <v>1E-4</v>
+      </c>
+      <c r="K18" s="69">
         <v>23.616</v>
       </c>
-      <c r="L18" s="90">
+      <c r="L18" s="66">
         <v>1E-4</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="75"/>
-      <c r="C19" s="63"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="147"/>
       <c r="D19" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="E19" s="95">
+      <c r="E19" s="71">
         <v>1.7529999999999999</v>
       </c>
-      <c r="F19" s="91">
+      <c r="F19" s="67">
         <v>0.19309999999999999</v>
       </c>
-      <c r="G19" s="95">
+      <c r="G19" s="71">
         <v>4.7910000000000004</v>
       </c>
-      <c r="H19" s="91">
+      <c r="H19" s="67">
         <v>1.6230000000000001E-2</v>
       </c>
-      <c r="I19" s="95">
+      <c r="I19" s="71">
         <v>3.1816</v>
       </c>
-      <c r="J19" s="91">
+      <c r="J19" s="67">
         <v>4.8550000000000003E-2</v>
       </c>
-      <c r="K19" s="95">
+      <c r="K19" s="71">
         <v>2.3976000000000002</v>
       </c>
-      <c r="L19" s="91">
+      <c r="L19" s="67">
         <v>9.0870000000000006E-2</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="75"/>
-      <c r="C20" s="75" t="s">
+      <c r="B20" s="116"/>
+      <c r="C20" s="116" t="s">
         <v>87</v>
       </c>
       <c r="D20" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="93">
+      <c r="E20" s="69">
         <v>6.4222999999999999</v>
       </c>
-      <c r="F20" s="90">
+      <c r="F20" s="66">
         <v>1.7160000000000002E-2</v>
       </c>
-      <c r="G20" s="93">
+      <c r="G20" s="69">
         <v>266.47000000000003</v>
       </c>
-      <c r="H20" s="90">
-        <v>1E-4</v>
-      </c>
-      <c r="I20" s="93">
+      <c r="H20" s="66">
+        <v>1E-4</v>
+      </c>
+      <c r="I20" s="69">
         <v>175</v>
       </c>
-      <c r="J20" s="90">
-        <v>1E-4</v>
-      </c>
-      <c r="K20" s="93">
+      <c r="J20" s="66">
+        <v>1E-4</v>
+      </c>
+      <c r="K20" s="69">
         <v>130.44</v>
       </c>
-      <c r="L20" s="90">
+      <c r="L20" s="66">
         <v>1E-4</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="75"/>
-      <c r="C21" s="75"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="116"/>
       <c r="D21" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="93">
+      <c r="E21" s="69">
         <v>0.68415000000000004</v>
       </c>
-      <c r="F21" s="90">
+      <c r="F21" s="66">
         <v>0.4153</v>
       </c>
-      <c r="G21" s="93">
+      <c r="G21" s="69">
         <v>0.34821000000000002</v>
       </c>
-      <c r="H21" s="90">
+      <c r="H21" s="66">
         <v>0.70889999999999997</v>
       </c>
-      <c r="I21" s="93">
+      <c r="I21" s="69">
         <v>1.8725000000000001</v>
       </c>
-      <c r="J21" s="90">
+      <c r="J21" s="66">
         <v>0.1699</v>
       </c>
-      <c r="K21" s="93">
+      <c r="K21" s="69">
         <v>1.4351</v>
       </c>
-      <c r="L21" s="90">
+      <c r="L21" s="66">
         <v>0.26769999999999999</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="75"/>
-      <c r="C22" s="75"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="116"/>
       <c r="D22" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="E22" s="93">
+      <c r="E22" s="69">
         <v>0.16320000000000001</v>
       </c>
-      <c r="F22" s="90">
+      <c r="F22" s="66">
         <v>0.68820000000000003</v>
       </c>
-      <c r="G22" s="93">
+      <c r="G22" s="69">
         <v>0.90968000000000004</v>
       </c>
-      <c r="H22" s="90">
+      <c r="H22" s="66">
         <v>0.41570000000000001</v>
       </c>
-      <c r="I22" s="93">
+      <c r="I22" s="69">
         <v>1.4175</v>
       </c>
-      <c r="J22" s="90">
+      <c r="J22" s="66">
         <v>0.26750000000000002</v>
       </c>
-      <c r="K22" s="93">
+      <c r="K22" s="69">
         <v>3.0767000000000002</v>
       </c>
-      <c r="L22" s="90">
+      <c r="L22" s="66">
         <v>4.2930000000000003E-2</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="75"/>
-      <c r="C23" s="75"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="116"/>
       <c r="D23" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="E23" s="93">
+      <c r="E23" s="69">
         <v>40.609000000000002</v>
       </c>
-      <c r="F23" s="90">
-        <v>1E-4</v>
-      </c>
-      <c r="G23" s="93">
+      <c r="F23" s="66">
+        <v>1E-4</v>
+      </c>
+      <c r="G23" s="69">
         <v>42.963000000000001</v>
       </c>
-      <c r="H23" s="90">
-        <v>1E-4</v>
-      </c>
-      <c r="I23" s="93">
+      <c r="H23" s="66">
+        <v>1E-4</v>
+      </c>
+      <c r="I23" s="69">
         <v>33.085000000000001</v>
       </c>
-      <c r="J23" s="90">
-        <v>1E-4</v>
-      </c>
-      <c r="K23" s="93">
+      <c r="J23" s="66">
+        <v>1E-4</v>
+      </c>
+      <c r="K23" s="69">
         <v>39.701000000000001</v>
       </c>
-      <c r="L23" s="90">
+      <c r="L23" s="66">
         <v>1E-4</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="117"/>
       <c r="D24" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="E24" s="96">
+      <c r="E24" s="72">
         <v>17.359000000000002</v>
       </c>
-      <c r="F24" s="92">
+      <c r="F24" s="68">
         <v>1.6119999999999999E-4</v>
       </c>
-      <c r="G24" s="96">
+      <c r="G24" s="72">
         <v>11.664999999999999</v>
       </c>
-      <c r="H24" s="92">
+      <c r="H24" s="68">
         <v>2.265E-4</v>
       </c>
-      <c r="I24" s="96">
+      <c r="I24" s="72">
         <v>9.2827999999999999</v>
       </c>
-      <c r="J24" s="92">
+      <c r="J24" s="68">
         <v>4.2089999999999999E-4</v>
       </c>
-      <c r="K24" s="96">
+      <c r="K24" s="72">
         <v>10.519</v>
       </c>
-      <c r="L24" s="92">
+      <c r="L24" s="68">
         <v>1.7149999999999999E-4</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="74"/>
-      <c r="C25" s="74"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="E2:L2"/>
     <mergeCell ref="C10:C14"/>
     <mergeCell ref="C15:C19"/>
     <mergeCell ref="C20:C24"/>
     <mergeCell ref="B5:B14"/>
     <mergeCell ref="B15:B24"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="E2:L2"/>
     <mergeCell ref="C5:C9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2825,8 +2828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EBDC9E9-30BF-4C7E-88CF-B0C7C5C6E499}">
   <dimension ref="B2:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2838,14 +2841,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D2" s="67">
+      <c r="D2" s="140">
         <v>71</v>
       </c>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67">
+      <c r="E2" s="140"/>
+      <c r="F2" s="140">
         <v>46</v>
       </c>
-      <c r="G2" s="67"/>
+      <c r="G2" s="140"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="26" t="s">
@@ -2868,27 +2871,27 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="146" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="69">
+      <c r="D4" s="51">
         <v>3.9890000000000002E-2</v>
       </c>
-      <c r="E4" s="70">
+      <c r="E4" s="52">
         <v>0.22717999999999999</v>
       </c>
-      <c r="F4" s="69">
+      <c r="F4" s="51">
         <v>0.12180000000000001</v>
       </c>
-      <c r="G4" s="70">
+      <c r="G4" s="52">
         <v>4.5695E-2</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="75"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="39" t="s">
         <v>100</v>
       </c>
@@ -2906,7 +2909,7 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="75"/>
+      <c r="B6" s="116"/>
       <c r="C6" s="39" t="s">
         <v>136</v>
       </c>
@@ -2924,7 +2927,7 @@
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="75"/>
+      <c r="B7" s="116"/>
       <c r="C7" s="39" t="s">
         <v>101</v>
       </c>
@@ -2942,45 +2945,45 @@
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="63"/>
+      <c r="B8" s="147"/>
       <c r="C8" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="71">
+      <c r="D8" s="53">
         <v>0.1172</v>
       </c>
-      <c r="E8" s="72">
+      <c r="E8" s="54">
         <v>3.9095999999999999E-2</v>
       </c>
-      <c r="F8" s="71">
+      <c r="F8" s="53">
         <v>0.18099999999999999</v>
       </c>
-      <c r="G8" s="72">
+      <c r="G8" s="54">
         <v>2.0298E-2</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="146" t="s">
         <v>87</v>
       </c>
       <c r="C9" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="69">
+      <c r="D9" s="51">
         <v>0.2235</v>
       </c>
-      <c r="E9" s="70">
+      <c r="E9" s="52">
         <v>6.9992999999999997E-4</v>
       </c>
-      <c r="F9" s="69">
+      <c r="F9" s="51">
         <v>0.30209999999999998</v>
       </c>
-      <c r="G9" s="70">
+      <c r="G9" s="52">
         <v>1E-4</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="75"/>
+      <c r="B10" s="116"/>
       <c r="C10" s="39" t="s">
         <v>100</v>
       </c>
@@ -2998,7 +3001,7 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="75"/>
+      <c r="B11" s="116"/>
       <c r="C11" s="39" t="s">
         <v>136</v>
       </c>
@@ -3016,7 +3019,7 @@
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="75"/>
+      <c r="B12" s="116"/>
       <c r="C12" s="39" t="s">
         <v>101</v>
       </c>
@@ -3034,20 +3037,20 @@
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="63"/>
+      <c r="B13" s="147"/>
       <c r="C13" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="71">
+      <c r="D13" s="53">
         <v>0.1981</v>
       </c>
-      <c r="E13" s="72">
+      <c r="E13" s="54">
         <v>7.3993000000000001E-3</v>
       </c>
-      <c r="F13" s="71">
+      <c r="F13" s="53">
         <v>0.1845</v>
       </c>
-      <c r="G13" s="72">
+      <c r="G13" s="54">
         <v>2.2398000000000001E-2</v>
       </c>
     </row>
@@ -3056,16 +3059,16 @@
         <v>97</v>
       </c>
       <c r="C14" s="14"/>
-      <c r="D14" s="76">
+      <c r="D14" s="56">
         <v>0.25</v>
       </c>
-      <c r="E14" s="77">
-        <v>1E-4</v>
-      </c>
-      <c r="F14" s="76">
+      <c r="E14" s="57">
+        <v>1E-4</v>
+      </c>
+      <c r="F14" s="56">
         <v>0.23</v>
       </c>
-      <c r="G14" s="77">
+      <c r="G14" s="57">
         <v>1.9E-3</v>
       </c>
     </row>
@@ -3085,7 +3088,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:F14"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3103,15 +3106,15 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="25"/>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
       <c r="K1" s="25"/>
       <c r="L1" s="25"/>
       <c r="M1" s="25"/>
@@ -3228,23 +3231,23 @@
       <c r="P7" s="25"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="128" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="128"/>
     </row>
     <row r="10" spans="1:16" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5"/>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="127" t="s">
         <v>84</v>
       </c>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53" t="s">
+      <c r="D10" s="127"/>
+      <c r="E10" s="127" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="53"/>
+      <c r="F10" s="127"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B11" s="26" t="s">
@@ -3361,8 +3364,8 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="50" t="s">
-        <v>157</v>
+      <c r="B3" s="129" t="s">
+        <v>156</v>
       </c>
       <c r="C3" s="25" t="s">
         <v>88</v>
@@ -3378,7 +3381,7 @@
       </c>
     </row>
     <row r="4" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="118"/>
+      <c r="B4" s="122"/>
       <c r="C4" s="25" t="s">
         <v>89</v>
       </c>
@@ -3393,7 +3396,7 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="118"/>
+      <c r="B5" s="122"/>
       <c r="C5" s="25" t="s">
         <v>90</v>
       </c>
@@ -3408,7 +3411,7 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="118"/>
+      <c r="B6" s="122"/>
       <c r="C6" s="25" t="s">
         <v>91</v>
       </c>
@@ -3423,7 +3426,7 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="51"/>
+      <c r="B7" s="130"/>
       <c r="C7" s="8" t="s">
         <v>78</v>
       </c>
@@ -3438,57 +3441,69 @@
       </c>
     </row>
     <row r="8" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="50" t="s">
-        <v>158</v>
+      <c r="B8" s="129" t="s">
+        <v>157</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>88</v>
       </c>
       <c r="D8" s="29">
-        <v>620</v>
+        <v>598</v>
       </c>
       <c r="E8" s="29">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="F8" s="29">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="118"/>
+      <c r="B9" s="122"/>
       <c r="C9" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="31">
-        <v>0.98750000000000004</v>
-      </c>
-      <c r="E9" s="31">
-        <v>0.98670000000000002</v>
-      </c>
-      <c r="F9" s="31">
-        <v>0.9647</v>
+      <c r="D9" s="2">
+        <v>0.78817000000000004</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.72294000000000003</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.79998999999999998</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="118"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
+      <c r="D10" s="2">
+        <v>0.11617</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.19938</v>
+      </c>
+      <c r="F10" s="2">
+        <v>5.5676000000000003E-2</v>
+      </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="118"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
+      <c r="D11" s="2">
+        <v>1.2170000000000001</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.41102</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1.7539</v>
+      </c>
     </row>
     <row r="12" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="135"/>
+      <c r="B12" s="123"/>
       <c r="C12" s="3" t="s">
         <v>78</v>
       </c>
@@ -3533,7 +3548,7 @@
   <sheetData>
     <row r="1" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K1" s="25"/>
-      <c r="L1" s="78"/>
+      <c r="L1" s="58"/>
       <c r="M1" s="25"/>
       <c r="N1" s="25"/>
       <c r="O1" s="25"/>
@@ -3548,7 +3563,7 @@
     </row>
     <row r="2" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K2" s="30"/>
-      <c r="L2" s="78"/>
+      <c r="L2" s="58"/>
       <c r="M2" s="30"/>
       <c r="N2" s="37"/>
       <c r="O2" s="37"/>
@@ -3562,14 +3577,14 @@
       <c r="W2" s="25"/>
     </row>
     <row r="3" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="128" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
       <c r="K3" s="25"/>
-      <c r="L3" s="78"/>
+      <c r="L3" s="58"/>
       <c r="M3" s="30"/>
       <c r="N3" s="25"/>
       <c r="O3" s="25"/>
@@ -3583,22 +3598,22 @@
       <c r="W3" s="25"/>
     </row>
     <row r="4" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="128" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54" t="s">
+      <c r="E4" s="128"/>
+      <c r="F4" s="128" t="s">
         <v>97</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="128"/>
       <c r="K4" s="25"/>
-      <c r="L4" s="78"/>
+      <c r="L4" s="58"/>
       <c r="M4" s="30"/>
-      <c r="N4" s="79"/>
-      <c r="O4" s="79"/>
-      <c r="P4" s="79"/>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="79"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
       <c r="S4" s="25"/>
       <c r="T4" s="25"/>
       <c r="U4" s="25"/>
@@ -3625,7 +3640,7 @@
         <v>78</v>
       </c>
       <c r="K5" s="25"/>
-      <c r="L5" s="78"/>
+      <c r="L5" s="58"/>
       <c r="M5" s="30"/>
       <c r="N5" s="32"/>
       <c r="O5" s="31"/>
@@ -3639,8 +3654,8 @@
       <c r="W5" s="25"/>
     </row>
     <row r="6" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="59" t="s">
-        <v>157</v>
+      <c r="B6" s="132" t="s">
+        <v>156</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>93</v>
@@ -3658,11 +3673,11 @@
         <v>1E-4</v>
       </c>
       <c r="K6" s="25"/>
-      <c r="L6" s="78"/>
+      <c r="L6" s="58"/>
       <c r="M6" s="30"/>
-      <c r="N6" s="79"/>
+      <c r="N6" s="59"/>
       <c r="O6" s="25"/>
-      <c r="P6" s="79"/>
+      <c r="P6" s="59"/>
       <c r="Q6" s="25"/>
       <c r="R6" s="24"/>
       <c r="S6" s="25"/>
@@ -3672,7 +3687,7 @@
       <c r="W6" s="25"/>
     </row>
     <row r="7" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="59"/>
+      <c r="B7" s="132"/>
       <c r="C7" s="2" t="s">
         <v>98</v>
       </c>
@@ -3689,7 +3704,7 @@
         <v>1E-4</v>
       </c>
       <c r="K7" s="25"/>
-      <c r="L7" s="78"/>
+      <c r="L7" s="58"/>
       <c r="M7" s="30"/>
       <c r="N7" s="25"/>
       <c r="O7" s="25"/>
@@ -3703,26 +3718,26 @@
       <c r="W7" s="25"/>
     </row>
     <row r="8" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="60" t="s">
-        <v>158</v>
+      <c r="B8" s="133" t="s">
+        <v>157</v>
       </c>
       <c r="C8" s="29" t="s">
         <v>93</v>
       </c>
       <c r="D8" s="42">
-        <v>132</v>
+        <v>136.19999999999999</v>
       </c>
       <c r="E8" s="29">
         <v>1E-4</v>
       </c>
       <c r="F8" s="42">
-        <v>327</v>
+        <v>248</v>
       </c>
       <c r="G8" s="29">
         <v>1E-4</v>
       </c>
       <c r="K8" s="25"/>
-      <c r="L8" s="78"/>
+      <c r="L8" s="58"/>
       <c r="M8" s="30"/>
       <c r="N8" s="25"/>
       <c r="O8" s="25"/>
@@ -3736,25 +3751,25 @@
       <c r="W8" s="25"/>
     </row>
     <row r="9" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="61"/>
+      <c r="B9" s="134"/>
       <c r="C9" s="3" t="s">
         <v>98</v>
       </c>
       <c r="D9" s="3">
-        <v>301.7</v>
+        <v>407.6</v>
       </c>
       <c r="E9" s="43">
         <v>1E-4</v>
       </c>
       <c r="F9" s="43">
-        <v>90.4</v>
+        <v>95.2</v>
       </c>
       <c r="G9" s="43">
         <v>1E-4</v>
       </c>
       <c r="H9" s="34"/>
       <c r="K9" s="25"/>
-      <c r="L9" s="78"/>
+      <c r="L9" s="58"/>
       <c r="M9" s="30"/>
       <c r="N9" s="37"/>
       <c r="O9" s="37"/>
@@ -3771,12 +3786,12 @@
       <c r="B10" s="33"/>
       <c r="C10" s="25"/>
       <c r="D10" s="30"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="131"/>
+      <c r="G10" s="131"/>
+      <c r="H10" s="131"/>
       <c r="K10" s="25"/>
-      <c r="L10" s="75"/>
+      <c r="L10" s="116"/>
       <c r="M10" s="30"/>
       <c r="N10" s="25"/>
       <c r="O10" s="25"/>
@@ -3798,13 +3813,13 @@
       <c r="G11" s="30"/>
       <c r="H11" s="30"/>
       <c r="K11" s="25"/>
-      <c r="L11" s="75"/>
+      <c r="L11" s="116"/>
       <c r="M11" s="30"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="79"/>
-      <c r="P11" s="79"/>
-      <c r="Q11" s="79"/>
-      <c r="R11" s="79"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="59"/>
       <c r="S11" s="25"/>
       <c r="T11" s="25"/>
       <c r="U11" s="25"/>
@@ -3821,7 +3836,7 @@
       <c r="H12" s="24"/>
       <c r="I12" s="25"/>
       <c r="K12" s="25"/>
-      <c r="L12" s="75"/>
+      <c r="L12" s="116"/>
       <c r="M12" s="30"/>
       <c r="N12" s="32"/>
       <c r="O12" s="31"/>
@@ -3844,7 +3859,7 @@
       <c r="H13" s="24"/>
       <c r="I13" s="25"/>
       <c r="K13" s="25"/>
-      <c r="L13" s="75"/>
+      <c r="L13" s="116"/>
       <c r="M13" s="30"/>
       <c r="N13" s="24"/>
       <c r="O13" s="25"/>
@@ -3866,7 +3881,7 @@
       <c r="H14" s="24"/>
       <c r="I14" s="25"/>
       <c r="K14" s="25"/>
-      <c r="L14" s="78"/>
+      <c r="L14" s="58"/>
       <c r="M14" s="25"/>
       <c r="N14" s="25"/>
       <c r="O14" s="25"/>
@@ -4132,15 +4147,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
     <mergeCell ref="L10:L11"/>
     <mergeCell ref="L12:L13"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -4150,7 +4165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468E47FF-B0BC-4702-A611-EA7EF08BB700}">
   <dimension ref="B3:K41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:E30"/>
     </sheetView>
   </sheetViews>
@@ -4185,111 +4200,111 @@
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
       <c r="K4" s="20"/>
     </row>
     <row r="5" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="80" t="s">
-        <v>153</v>
-      </c>
-      <c r="C5" s="114" t="s">
+      <c r="B5" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="114" t="s">
+      <c r="E5" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="115"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104"/>
+      <c r="G5" s="135"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
     </row>
     <row r="6" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="136" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="103">
+      <c r="D6" s="79">
         <v>600</v>
       </c>
-      <c r="E6" s="103">
+      <c r="E6" s="79">
         <v>147</v>
       </c>
-      <c r="G6" s="115"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
+      <c r="G6" s="135"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
     </row>
     <row r="7" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="56"/>
+      <c r="B7" s="137"/>
       <c r="C7" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="104" t="s">
+      <c r="D7" s="80" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="104" t="s">
+      <c r="E7" s="80" t="s">
         <v>104</v>
       </c>
-      <c r="G7" s="115"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="105"/>
+      <c r="G7" s="135"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="81"/>
     </row>
     <row r="8" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="56"/>
+      <c r="B8" s="137"/>
       <c r="C8" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="104">
+      <c r="D8" s="80">
         <v>555.70000000000005</v>
       </c>
-      <c r="E8" s="104">
+      <c r="E8" s="80">
         <v>637</v>
       </c>
-      <c r="G8" s="115"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="105"/>
+      <c r="G8" s="135"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="81"/>
     </row>
     <row r="9" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="56"/>
+      <c r="B9" s="137"/>
       <c r="C9" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="104" t="s">
+      <c r="D9" s="80" t="s">
         <v>105</v>
       </c>
-      <c r="E9" s="105" t="s">
+      <c r="E9" s="81" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="58"/>
+      <c r="B10" s="138"/>
       <c r="C10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="106" t="s">
+      <c r="D10" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="E10" s="107" t="s">
+      <c r="E10" s="83" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="136" t="s">
         <v>135</v>
       </c>
-      <c r="C11" s="102" t="s">
+      <c r="C11" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="108">
+      <c r="D11" s="84">
         <v>626</v>
       </c>
-      <c r="E11" s="108">
+      <c r="E11" s="84">
         <v>171</v>
       </c>
       <c r="H11" s="44"/>
@@ -4297,120 +4312,120 @@
       <c r="J11" s="44"/>
     </row>
     <row r="12" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="56"/>
+      <c r="B12" s="137"/>
       <c r="C12" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="109" t="s">
+      <c r="D12" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="E12" s="109" t="s">
+      <c r="E12" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="G12" s="115"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="109"/>
+      <c r="G12" s="135"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="85"/>
     </row>
     <row r="13" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="56"/>
+      <c r="B13" s="137"/>
       <c r="C13" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="109">
+      <c r="D13" s="85">
         <v>2.46</v>
       </c>
-      <c r="E13" s="110">
+      <c r="E13" s="86">
         <v>2.66</v>
       </c>
-      <c r="G13" s="115"/>
-      <c r="I13" s="109"/>
-      <c r="J13" s="109"/>
+      <c r="G13" s="135"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="85"/>
     </row>
     <row r="14" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="56"/>
+      <c r="B14" s="137"/>
       <c r="C14" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="109" t="s">
+      <c r="D14" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="E14" s="109" t="s">
+      <c r="E14" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="G14" s="115"/>
-      <c r="I14" s="109"/>
-      <c r="J14" s="109"/>
+      <c r="G14" s="135"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
     </row>
     <row r="15" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="58"/>
+      <c r="B15" s="138"/>
       <c r="C15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="111" t="s">
+      <c r="D15" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="E15" s="111" t="s">
+      <c r="E15" s="87" t="s">
         <v>114</v>
       </c>
-      <c r="G15" s="115"/>
-      <c r="I15" s="109"/>
-      <c r="J15" s="109"/>
+      <c r="G15" s="135"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
     </row>
     <row r="16" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="136" t="s">
         <v>136</v>
       </c>
-      <c r="C16" s="102" t="s">
+      <c r="C16" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="112">
+      <c r="D16" s="88">
         <v>630</v>
       </c>
-      <c r="E16" s="112">
+      <c r="E16" s="88">
         <v>173</v>
       </c>
-      <c r="G16" s="115"/>
-      <c r="I16" s="109"/>
-      <c r="J16" s="109"/>
+      <c r="G16" s="135"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="85"/>
     </row>
     <row r="17" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="56"/>
+      <c r="B17" s="137"/>
       <c r="C17" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="100" t="s">
+      <c r="D17" s="76" t="s">
         <v>115</v>
       </c>
-      <c r="E17" s="100" t="s">
+      <c r="E17" s="76" t="s">
         <v>116</v>
       </c>
-      <c r="H17" s="66"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="116"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="91"/>
       <c r="K17" s="20"/>
     </row>
     <row r="18" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="56"/>
+      <c r="B18" s="137"/>
       <c r="C18" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="100">
+      <c r="D18" s="76">
         <v>2.46</v>
       </c>
-      <c r="E18" s="113">
+      <c r="E18" s="89">
         <v>4.6067252245758397</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="56"/>
+      <c r="B19" s="137"/>
       <c r="C19" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="100" t="s">
+      <c r="D19" s="76" t="s">
         <v>117</v>
       </c>
-      <c r="E19" s="100" t="s">
+      <c r="E19" s="76" t="s">
         <v>118</v>
       </c>
       <c r="H19" s="44"/>
@@ -4418,7 +4433,7 @@
       <c r="J19" s="44"/>
     </row>
     <row r="20" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="58"/>
+      <c r="B20" s="138"/>
       <c r="C20" s="8" t="s">
         <v>17</v>
       </c>
@@ -4428,90 +4443,90 @@
       <c r="E20" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="G20" s="115"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="100"/>
-      <c r="J20" s="100"/>
+      <c r="G20" s="135"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
     </row>
     <row r="21" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="136" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="102" t="s">
+      <c r="C21" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="D21" s="103">
+      <c r="D21" s="79">
         <v>631</v>
       </c>
-      <c r="E21" s="103">
+      <c r="E21" s="79">
         <v>174</v>
       </c>
-      <c r="G21" s="115"/>
-      <c r="I21" s="100"/>
-      <c r="J21" s="100"/>
+      <c r="G21" s="135"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
     </row>
     <row r="22" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="56"/>
+      <c r="B22" s="137"/>
       <c r="C22" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="109" t="s">
+      <c r="D22" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="E22" s="109" t="s">
+      <c r="E22" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="G22" s="115"/>
-      <c r="I22" s="100"/>
-      <c r="J22" s="113"/>
+      <c r="G22" s="135"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="89"/>
     </row>
     <row r="23" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="56"/>
+      <c r="B23" s="137"/>
       <c r="C23" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="109">
+      <c r="D23" s="85">
         <v>-22.2</v>
       </c>
-      <c r="E23" s="110">
+      <c r="E23" s="86">
         <v>-22.8</v>
       </c>
-      <c r="G23" s="115"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
+      <c r="G23" s="135"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
     </row>
     <row r="24" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="56"/>
+      <c r="B24" s="137"/>
       <c r="C24" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="109" t="s">
+      <c r="D24" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="E24" s="109" t="s">
+      <c r="E24" s="85" t="s">
         <v>124</v>
       </c>
-      <c r="G24" s="115"/>
-      <c r="I24" s="100"/>
-      <c r="J24" s="100"/>
+      <c r="G24" s="135"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
     </row>
     <row r="25" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="58"/>
+      <c r="B25" s="138"/>
       <c r="C25" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="D25" s="111" t="s">
+      <c r="D25" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="E25" s="111" t="s">
+      <c r="E25" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="H25" s="99"/>
-      <c r="I25" s="116"/>
-      <c r="J25" s="116"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="91"/>
+      <c r="J25" s="91"/>
     </row>
     <row r="26" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="56" t="s">
+      <c r="B26" s="137" t="s">
         <v>137</v>
       </c>
       <c r="C26" s="46" t="s">
@@ -4525,7 +4540,7 @@
       </c>
     </row>
     <row r="27" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="56"/>
+      <c r="B27" s="137"/>
       <c r="C27" s="2" t="s">
         <v>8</v>
       </c>
@@ -4540,23 +4555,23 @@
       <c r="J27" s="44"/>
     </row>
     <row r="28" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="56"/>
+      <c r="B28" s="137"/>
       <c r="C28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="101">
+      <c r="D28" s="77">
         <v>-47.5</v>
       </c>
-      <c r="E28" s="101">
+      <c r="E28" s="77">
         <v>-48.6</v>
       </c>
-      <c r="G28" s="115"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="116"/>
-      <c r="J28" s="116"/>
+      <c r="G28" s="135"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="91"/>
+      <c r="J28" s="91"/>
     </row>
     <row r="29" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="56"/>
+      <c r="B29" s="137"/>
       <c r="C29" s="2" t="s">
         <v>13</v>
       </c>
@@ -4566,12 +4581,12 @@
       <c r="E29" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="G29" s="115"/>
-      <c r="I29" s="109"/>
-      <c r="J29" s="109"/>
+      <c r="G29" s="135"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="85"/>
     </row>
     <row r="30" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="57"/>
+      <c r="B30" s="139"/>
       <c r="C30" s="3" t="s">
         <v>125</v>
       </c>
@@ -4581,19 +4596,19 @@
       <c r="E30" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="G30" s="115"/>
-      <c r="I30" s="109"/>
-      <c r="J30" s="109"/>
+      <c r="G30" s="135"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="85"/>
     </row>
     <row r="31" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G31" s="115"/>
-      <c r="I31" s="109"/>
-      <c r="J31" s="109"/>
+      <c r="G31" s="135"/>
+      <c r="I31" s="85"/>
+      <c r="J31" s="85"/>
     </row>
     <row r="32" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G32" s="115"/>
-      <c r="I32" s="109"/>
-      <c r="J32" s="109"/>
+      <c r="G32" s="135"/>
+      <c r="I32" s="85"/>
+      <c r="J32" s="85"/>
     </row>
     <row r="36" spans="7:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H36" s="44"/>
@@ -4601,30 +4616,30 @@
       <c r="J36" s="44"/>
     </row>
     <row r="37" spans="7:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G37" s="115"/>
-      <c r="H37" s="74"/>
-      <c r="I37" s="109"/>
-      <c r="J37" s="109"/>
+      <c r="G37" s="135"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="85"/>
+      <c r="J37" s="85"/>
     </row>
     <row r="38" spans="7:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G38" s="115"/>
-      <c r="I38" s="109"/>
-      <c r="J38" s="109"/>
+      <c r="G38" s="135"/>
+      <c r="I38" s="85"/>
+      <c r="J38" s="85"/>
     </row>
     <row r="39" spans="7:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G39" s="115"/>
-      <c r="I39" s="109"/>
-      <c r="J39" s="109"/>
+      <c r="G39" s="135"/>
+      <c r="I39" s="85"/>
+      <c r="J39" s="85"/>
     </row>
     <row r="40" spans="7:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G40" s="115"/>
-      <c r="I40" s="109"/>
-      <c r="J40" s="109"/>
+      <c r="G40" s="135"/>
+      <c r="I40" s="85"/>
+      <c r="J40" s="85"/>
     </row>
     <row r="41" spans="7:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G41" s="115"/>
-      <c r="I41" s="109"/>
-      <c r="J41" s="109"/>
+      <c r="G41" s="135"/>
+      <c r="I41" s="85"/>
+      <c r="J41" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -4746,16 +4761,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D1" s="54" t="s">
-        <v>134</v>
-      </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
+      <c r="D1" s="128" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="26" t="s">
@@ -4784,7 +4799,7 @@
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="136" t="s">
         <v>99</v>
       </c>
       <c r="C3" s="29" t="s">
@@ -4810,7 +4825,7 @@
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="56"/>
+      <c r="B4" s="137"/>
       <c r="C4" s="25" t="s">
         <v>89</v>
       </c>
@@ -4834,7 +4849,7 @@
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="56"/>
+      <c r="B5" s="137"/>
       <c r="C5" s="25" t="s">
         <v>90</v>
       </c>
@@ -4858,7 +4873,7 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="56"/>
+      <c r="B6" s="137"/>
       <c r="C6" s="25" t="s">
         <v>91</v>
       </c>
@@ -4882,7 +4897,7 @@
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="58"/>
+      <c r="B7" s="138"/>
       <c r="C7" s="8" t="s">
         <v>78</v>
       </c>
@@ -4906,7 +4921,7 @@
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="136" t="s">
         <v>135</v>
       </c>
       <c r="C8" s="29" t="s">
@@ -4932,7 +4947,7 @@
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="56"/>
+      <c r="B9" s="137"/>
       <c r="C9" s="25" t="s">
         <v>89</v>
       </c>
@@ -4956,7 +4971,7 @@
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="56"/>
+      <c r="B10" s="137"/>
       <c r="C10" s="25" t="s">
         <v>90</v>
       </c>
@@ -4980,7 +4995,7 @@
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="56"/>
+      <c r="B11" s="137"/>
       <c r="C11" s="25" t="s">
         <v>91</v>
       </c>
@@ -5004,7 +5019,7 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="58"/>
+      <c r="B12" s="138"/>
       <c r="C12" s="8" t="s">
         <v>78</v>
       </c>
@@ -5028,7 +5043,7 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="136" t="s">
         <v>136</v>
       </c>
       <c r="C13" s="29" t="s">
@@ -5054,7 +5069,7 @@
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="56"/>
+      <c r="B14" s="137"/>
       <c r="C14" s="25" t="s">
         <v>89</v>
       </c>
@@ -5078,7 +5093,7 @@
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="56"/>
+      <c r="B15" s="137"/>
       <c r="C15" s="25" t="s">
         <v>90</v>
       </c>
@@ -5102,7 +5117,7 @@
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="56"/>
+      <c r="B16" s="137"/>
       <c r="C16" s="25" t="s">
         <v>91</v>
       </c>
@@ -5126,7 +5141,7 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="58"/>
+      <c r="B17" s="138"/>
       <c r="C17" s="8" t="s">
         <v>78</v>
       </c>
@@ -5150,7 +5165,7 @@
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="136" t="s">
         <v>101</v>
       </c>
       <c r="C18" s="29" t="s">
@@ -5176,7 +5191,7 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="56"/>
+      <c r="B19" s="137"/>
       <c r="C19" s="25" t="s">
         <v>89</v>
       </c>
@@ -5200,7 +5215,7 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="56"/>
+      <c r="B20" s="137"/>
       <c r="C20" s="25" t="s">
         <v>90</v>
       </c>
@@ -5224,7 +5239,7 @@
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="56"/>
+      <c r="B21" s="137"/>
       <c r="C21" s="25" t="s">
         <v>91</v>
       </c>
@@ -5248,7 +5263,7 @@
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="58"/>
+      <c r="B22" s="138"/>
       <c r="C22" s="8" t="s">
         <v>78</v>
       </c>
@@ -5272,7 +5287,7 @@
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="136" t="s">
         <v>137</v>
       </c>
       <c r="C23" s="29" t="s">
@@ -5298,7 +5313,7 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="56"/>
+      <c r="B24" s="137"/>
       <c r="C24" s="25" t="s">
         <v>89</v>
       </c>
@@ -5322,7 +5337,7 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="56"/>
+      <c r="B25" s="137"/>
       <c r="C25" s="25" t="s">
         <v>90</v>
       </c>
@@ -5346,7 +5361,7 @@
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="56"/>
+      <c r="B26" s="137"/>
       <c r="C26" s="25" t="s">
         <v>91</v>
       </c>
@@ -5370,7 +5385,7 @@
       </c>
     </row>
     <row r="27" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="57"/>
+      <c r="B27" s="139"/>
       <c r="C27" s="3" t="s">
         <v>78</v>
       </c>
@@ -5411,7 +5426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F1C6E6-751D-442E-929B-6D9C8801B6EA}">
   <dimension ref="B2:U17"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:K15"/>
     </sheetView>
   </sheetViews>
@@ -5426,42 +5441,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M2" s="78"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="M2" s="58"/>
     </row>
     <row r="3" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="67" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="M3" s="78"/>
+      <c r="D3" s="140" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140" t="s">
+        <v>159</v>
+      </c>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
+      <c r="K3" s="140"/>
+      <c r="M3" s="58"/>
     </row>
     <row r="4" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="140" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140" t="s">
         <v>149</v>
       </c>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67" t="s">
+      <c r="G4" s="140"/>
+      <c r="H4" s="140" t="s">
+        <v>148</v>
+      </c>
+      <c r="I4" s="140"/>
+      <c r="J4" s="140" t="s">
         <v>150</v>
       </c>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67" t="s">
-        <v>149</v>
-      </c>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
-        <v>151</v>
-      </c>
-      <c r="K4" s="67"/>
+      <c r="K4" s="140"/>
       <c r="L4" s="30"/>
-      <c r="M4" s="78"/>
+      <c r="M4" s="58"/>
       <c r="N4" s="30"/>
       <c r="O4" s="37"/>
       <c r="P4" s="37"/>
@@ -5472,7 +5493,7 @@
     </row>
     <row r="5" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>95</v>
@@ -5501,78 +5522,78 @@
       <c r="K5" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="M5" s="78"/>
+      <c r="M5" s="58"/>
       <c r="N5" s="30"/>
     </row>
     <row r="6" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="133" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="137" t="s">
+      <c r="C6" s="106" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="111">
+        <v>5</v>
+      </c>
+      <c r="E6" s="65">
+        <v>1E-4</v>
+      </c>
+      <c r="F6" s="111">
+        <v>0.06</v>
+      </c>
+      <c r="G6" s="65">
+        <v>0.82569999999999999</v>
+      </c>
+      <c r="H6" s="111">
+        <v>12.5</v>
+      </c>
+      <c r="I6" s="65">
+        <v>1E-4</v>
+      </c>
+      <c r="J6" s="111">
+        <v>0.8196</v>
+      </c>
+      <c r="K6" s="65">
+        <v>0.36609999999999998</v>
+      </c>
+      <c r="M6" s="58"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+    </row>
+    <row r="7" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="141"/>
+      <c r="C7" s="107" t="s">
         <v>147</v>
       </c>
-      <c r="D6" s="143">
-        <v>5</v>
-      </c>
-      <c r="E6" s="89">
-        <v>1E-4</v>
-      </c>
-      <c r="F6" s="143">
-        <v>0.06</v>
-      </c>
-      <c r="G6" s="89">
-        <v>0.82569999999999999</v>
-      </c>
-      <c r="H6" s="143">
-        <v>12.5</v>
-      </c>
-      <c r="I6" s="89">
-        <v>1E-4</v>
-      </c>
-      <c r="J6" s="143">
-        <v>0.8196</v>
-      </c>
-      <c r="K6" s="89">
-        <v>0.36609999999999998</v>
-      </c>
-      <c r="M6" s="78"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="79"/>
-      <c r="P6" s="79"/>
-      <c r="Q6" s="79"/>
-      <c r="R6" s="79"/>
-      <c r="S6" s="79"/>
-    </row>
-    <row r="7" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="138"/>
-      <c r="C7" s="139" t="s">
-        <v>148</v>
-      </c>
-      <c r="D7" s="97">
+      <c r="D7" s="73">
         <v>615.1</v>
       </c>
-      <c r="E7" s="91">
-        <v>1E-4</v>
-      </c>
-      <c r="F7" s="144">
+      <c r="E7" s="67">
+        <v>1E-4</v>
+      </c>
+      <c r="F7" s="112">
         <v>546.20000000000005</v>
       </c>
-      <c r="G7" s="91">
-        <v>1E-4</v>
-      </c>
-      <c r="H7" s="144">
+      <c r="G7" s="67">
+        <v>1E-4</v>
+      </c>
+      <c r="H7" s="112">
         <v>373.1</v>
       </c>
-      <c r="I7" s="91">
-        <v>1E-4</v>
-      </c>
-      <c r="J7" s="144">
+      <c r="I7" s="67">
+        <v>1E-4</v>
+      </c>
+      <c r="J7" s="112">
         <v>532.29999999999995</v>
       </c>
-      <c r="K7" s="91">
-        <v>1E-4</v>
-      </c>
-      <c r="M7" s="78"/>
+      <c r="K7" s="67">
+        <v>1E-4</v>
+      </c>
+      <c r="M7" s="58"/>
       <c r="N7" s="30"/>
       <c r="O7" s="32"/>
       <c r="P7" s="31"/>
@@ -5581,139 +5602,139 @@
       <c r="S7" s="32"/>
     </row>
     <row r="8" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="133" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="137" t="s">
+      <c r="C8" s="106" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="111">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="E8" s="65">
+        <v>0.15620000000000001</v>
+      </c>
+      <c r="F8" s="111">
+        <v>3.9670000000000001</v>
+      </c>
+      <c r="G8" s="65">
+        <v>4.7239999999999997E-2</v>
+      </c>
+      <c r="H8" s="111">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="I8" s="65">
+        <v>0.13289999999999999</v>
+      </c>
+      <c r="J8" s="111">
+        <v>1.9430000000000001</v>
+      </c>
+      <c r="K8" s="65">
+        <v>0.16420000000000001</v>
+      </c>
+      <c r="M8" s="58"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="59"/>
+      <c r="Q8" s="59"/>
+      <c r="S8" s="24"/>
+    </row>
+    <row r="9" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="141"/>
+      <c r="C9" s="108" t="s">
         <v>147</v>
       </c>
-      <c r="D8" s="143">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="E8" s="89">
-        <v>0.15620000000000001</v>
-      </c>
-      <c r="F8" s="143">
-        <v>3.9670000000000001</v>
-      </c>
-      <c r="G8" s="89">
-        <v>4.7239999999999997E-2</v>
-      </c>
-      <c r="H8" s="143">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="I8" s="89">
-        <v>0.13289999999999999</v>
-      </c>
-      <c r="J8" s="143">
-        <v>1.9430000000000001</v>
-      </c>
-      <c r="K8" s="89">
-        <v>0.16420000000000001</v>
-      </c>
-      <c r="M8" s="78"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="79"/>
-      <c r="Q8" s="79"/>
-      <c r="S8" s="24"/>
-    </row>
-    <row r="9" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="138"/>
-      <c r="C9" s="140" t="s">
-        <v>148</v>
-      </c>
-      <c r="D9" s="97">
+      <c r="D9" s="73">
         <v>212.1</v>
       </c>
-      <c r="E9" s="97">
-        <v>1E-4</v>
-      </c>
-      <c r="F9" s="144">
+      <c r="E9" s="73">
+        <v>1E-4</v>
+      </c>
+      <c r="F9" s="112">
         <v>555.5</v>
       </c>
-      <c r="G9" s="91">
-        <v>1E-4</v>
-      </c>
-      <c r="H9" s="144">
+      <c r="G9" s="67">
+        <v>1E-4</v>
+      </c>
+      <c r="H9" s="112">
         <v>414.9</v>
       </c>
-      <c r="I9" s="91">
-        <v>1E-4</v>
-      </c>
-      <c r="J9" s="144">
+      <c r="I9" s="67">
+        <v>1E-4</v>
+      </c>
+      <c r="J9" s="112">
         <v>382.4</v>
       </c>
-      <c r="K9" s="91">
-        <v>1E-4</v>
-      </c>
-      <c r="M9" s="78"/>
+      <c r="K9" s="67">
+        <v>1E-4</v>
+      </c>
+      <c r="M9" s="58"/>
       <c r="N9" s="30"/>
       <c r="U9" s="37"/>
     </row>
     <row r="10" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="133" t="s">
         <v>136</v>
       </c>
-      <c r="C10" s="137" t="s">
+      <c r="C10" s="106" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="79">
+        <v>18.739999999999998</v>
+      </c>
+      <c r="E10" s="79">
+        <v>1E-4</v>
+      </c>
+      <c r="F10" s="111">
+        <v>7.3280000000000003E-4</v>
+      </c>
+      <c r="G10" s="65">
+        <v>0.97840000000000005</v>
+      </c>
+      <c r="H10" s="111">
+        <v>43.5</v>
+      </c>
+      <c r="I10" s="65">
+        <v>1E-4</v>
+      </c>
+      <c r="J10" s="111">
+        <v>32.29</v>
+      </c>
+      <c r="K10" s="65">
+        <v>1E-4</v>
+      </c>
+      <c r="M10" s="58"/>
+      <c r="N10" s="30"/>
+    </row>
+    <row r="11" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="141"/>
+      <c r="C11" s="107" t="s">
         <v>147</v>
       </c>
-      <c r="D10" s="103">
-        <v>18.739999999999998</v>
-      </c>
-      <c r="E10" s="103">
-        <v>1E-4</v>
-      </c>
-      <c r="F10" s="143">
-        <v>7.3280000000000003E-4</v>
-      </c>
-      <c r="G10" s="89">
-        <v>0.97840000000000005</v>
-      </c>
-      <c r="H10" s="143">
-        <v>43.5</v>
-      </c>
-      <c r="I10" s="89">
-        <v>1E-4</v>
-      </c>
-      <c r="J10" s="143">
-        <v>32.29</v>
-      </c>
-      <c r="K10" s="89">
-        <v>1E-4</v>
-      </c>
-      <c r="M10" s="78"/>
-      <c r="N10" s="30"/>
-    </row>
-    <row r="11" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="138"/>
-      <c r="C11" s="139" t="s">
-        <v>148</v>
-      </c>
-      <c r="D11" s="97">
+      <c r="D11" s="73">
         <v>679.1</v>
       </c>
-      <c r="E11" s="97">
-        <v>1E-4</v>
-      </c>
-      <c r="F11" s="144">
+      <c r="E11" s="73">
+        <v>1E-4</v>
+      </c>
+      <c r="F11" s="112">
         <v>554.1</v>
       </c>
-      <c r="G11" s="91">
-        <v>1E-4</v>
-      </c>
-      <c r="H11" s="144">
+      <c r="G11" s="67">
+        <v>1E-4</v>
+      </c>
+      <c r="H11" s="112">
         <v>430.7</v>
       </c>
-      <c r="I11" s="91">
-        <v>1E-4</v>
-      </c>
-      <c r="J11" s="144">
+      <c r="I11" s="67">
+        <v>1E-4</v>
+      </c>
+      <c r="J11" s="112">
         <v>231.2</v>
       </c>
-      <c r="K11" s="91">
-        <v>1E-4</v>
-      </c>
-      <c r="M11" s="78"/>
+      <c r="K11" s="67">
+        <v>1E-4</v>
+      </c>
+      <c r="M11" s="58"/>
       <c r="N11" s="30"/>
       <c r="O11" s="37"/>
       <c r="P11" s="37"/>
@@ -5722,108 +5743,108 @@
       <c r="S11" s="37"/>
     </row>
     <row r="12" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="133" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="137" t="s">
+      <c r="C12" s="106" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12" s="79">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E12" s="79">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="F12" s="111">
+        <v>13.9</v>
+      </c>
+      <c r="G12" s="65">
+        <v>2.2690000000000001E-4</v>
+      </c>
+      <c r="H12" s="111">
+        <v>4.8</v>
+      </c>
+      <c r="I12" s="65">
+        <v>2.93E-2</v>
+      </c>
+      <c r="J12" s="111">
+        <v>11.67</v>
+      </c>
+      <c r="K12" s="65">
+        <v>7.1080000000000004E-4</v>
+      </c>
+      <c r="M12" s="116"/>
+      <c r="N12" s="30"/>
+    </row>
+    <row r="13" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="141"/>
+      <c r="C13" s="107" t="s">
         <v>147</v>
       </c>
-      <c r="D12" s="103">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="E12" s="103">
-        <v>4.4000000000000003E-3</v>
-      </c>
-      <c r="F12" s="143">
-        <v>13.9</v>
-      </c>
-      <c r="G12" s="89">
-        <v>2.2690000000000001E-4</v>
-      </c>
-      <c r="H12" s="143">
-        <v>4.8</v>
-      </c>
-      <c r="I12" s="89">
-        <v>2.93E-2</v>
-      </c>
-      <c r="J12" s="143">
-        <v>11.67</v>
-      </c>
-      <c r="K12" s="89">
-        <v>7.1080000000000004E-4</v>
-      </c>
-      <c r="M12" s="75"/>
-      <c r="N12" s="30"/>
-    </row>
-    <row r="13" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="138"/>
-      <c r="C13" s="139" t="s">
-        <v>148</v>
-      </c>
-      <c r="D13" s="97">
+      <c r="D13" s="73">
         <v>646.5</v>
       </c>
-      <c r="E13" s="97">
-        <v>1E-4</v>
-      </c>
-      <c r="F13" s="144">
+      <c r="E13" s="73">
+        <v>1E-4</v>
+      </c>
+      <c r="F13" s="112">
         <v>608.9</v>
       </c>
-      <c r="G13" s="91">
-        <v>1E-4</v>
-      </c>
-      <c r="H13" s="144">
+      <c r="G13" s="67">
+        <v>1E-4</v>
+      </c>
+      <c r="H13" s="112">
         <v>323.8</v>
       </c>
-      <c r="I13" s="91">
-        <v>1E-4</v>
-      </c>
-      <c r="J13" s="144">
+      <c r="I13" s="67">
+        <v>1E-4</v>
+      </c>
+      <c r="J13" s="112">
         <v>450.3</v>
       </c>
-      <c r="K13" s="91">
-        <v>1E-4</v>
-      </c>
-      <c r="M13" s="75"/>
+      <c r="K13" s="67">
+        <v>1E-4</v>
+      </c>
+      <c r="M13" s="116"/>
       <c r="N13" s="30"/>
-      <c r="O13" s="79"/>
-      <c r="P13" s="79"/>
-      <c r="Q13" s="79"/>
-      <c r="R13" s="79"/>
-      <c r="S13" s="79"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
     </row>
     <row r="14" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="131" t="s">
         <v>137</v>
       </c>
-      <c r="C14" s="141" t="s">
-        <v>147</v>
-      </c>
-      <c r="D14" s="145">
+      <c r="C14" s="109" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" s="113">
         <v>0.39</v>
       </c>
-      <c r="E14" s="116">
+      <c r="E14" s="91">
         <v>0.53159999999999996</v>
       </c>
-      <c r="F14" s="145">
+      <c r="F14" s="113">
         <v>2.0609999999999999</v>
       </c>
-      <c r="G14" s="90">
+      <c r="G14" s="66">
         <v>0.15210000000000001</v>
       </c>
-      <c r="H14" s="145">
+      <c r="H14" s="113">
         <v>6.4</v>
       </c>
-      <c r="I14" s="90">
+      <c r="I14" s="66">
         <v>1.14E-2</v>
       </c>
-      <c r="J14" s="145">
+      <c r="J14" s="113">
         <v>0.53879999999999995</v>
       </c>
-      <c r="K14" s="90">
+      <c r="K14" s="66">
         <v>0.46350000000000002</v>
       </c>
-      <c r="M14" s="75"/>
+      <c r="M14" s="116"/>
       <c r="N14" s="30"/>
       <c r="O14" s="32"/>
       <c r="P14" s="31"/>
@@ -5831,54 +5852,50 @@
       <c r="S14" s="31"/>
     </row>
     <row r="15" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="61"/>
-      <c r="C15" s="142" t="s">
-        <v>148</v>
-      </c>
-      <c r="D15" s="146">
+      <c r="B15" s="134"/>
+      <c r="C15" s="110" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="114">
         <v>729.8</v>
       </c>
-      <c r="E15" s="146">
-        <v>1E-4</v>
-      </c>
-      <c r="F15" s="147">
+      <c r="E15" s="114">
+        <v>1E-4</v>
+      </c>
+      <c r="F15" s="115">
         <v>570.5</v>
       </c>
-      <c r="G15" s="92">
-        <v>1E-4</v>
-      </c>
-      <c r="H15" s="147">
+      <c r="G15" s="68">
+        <v>1E-4</v>
+      </c>
+      <c r="H15" s="115">
         <v>372.7</v>
       </c>
-      <c r="I15" s="92">
-        <v>1E-4</v>
-      </c>
-      <c r="J15" s="147">
+      <c r="I15" s="68">
+        <v>1E-4</v>
+      </c>
+      <c r="J15" s="115">
         <v>433.3</v>
       </c>
-      <c r="K15" s="92">
-        <v>1E-4</v>
-      </c>
-      <c r="M15" s="75"/>
+      <c r="K15" s="68">
+        <v>1E-4</v>
+      </c>
+      <c r="M15" s="116"/>
       <c r="N15" s="30"/>
       <c r="O15" s="24"/>
       <c r="Q15" s="24"/>
       <c r="R15" s="24"/>
     </row>
     <row r="16" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M16" s="78"/>
+      <c r="M16" s="58"/>
     </row>
     <row r="17" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M17" s="78"/>
+      <c r="M17" s="58"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="D3:G3"/>
+  <mergeCells count="15">
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
     <mergeCell ref="M12:M13"/>
     <mergeCell ref="M14:M15"/>
     <mergeCell ref="B6:B7"/>
@@ -5886,6 +5903,12 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="D3:G3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -5895,450 +5918,450 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23486BE-5F79-4CA9-850E-00095779225A}">
   <dimension ref="B2:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B17" sqref="B17:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="31"/>
-    <col min="2" max="2" width="15.33203125" style="87" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="64" customWidth="1"/>
     <col min="3" max="3" width="32.21875" style="31" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" style="31" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="31"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="80" t="s">
-        <v>146</v>
-      </c>
-      <c r="D2" s="82" t="s">
+      <c r="C2" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="E2" s="82" t="s">
-        <v>145</v>
-      </c>
-      <c r="F2" s="82" t="s">
+      <c r="F2" s="62" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="81" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" s="89">
+      <c r="C3" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="65">
         <v>0.3972</v>
       </c>
-      <c r="E3" s="89">
+      <c r="E3" s="65">
         <v>1.9019999999999999E-2</v>
       </c>
-      <c r="F3" s="89">
+      <c r="F3" s="65">
         <v>1E-4</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="85"/>
+      <c r="B4" s="143"/>
       <c r="C4" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="90">
+      <c r="D4" s="66">
         <v>-1.0319999999999999E-5</v>
       </c>
-      <c r="E4" s="90">
+      <c r="E4" s="66">
         <v>4.1739999999999997E-5</v>
       </c>
-      <c r="F4" s="90">
+      <c r="F4" s="66">
         <v>0.80508900000000005</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="85"/>
+      <c r="B5" s="143"/>
       <c r="C5" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="D5" s="90">
+      <c r="D5" s="66">
         <v>8.2030000000000006E-2</v>
       </c>
-      <c r="E5" s="90">
+      <c r="E5" s="66">
         <v>2.971E-2</v>
       </c>
-      <c r="F5" s="90">
+      <c r="F5" s="66">
         <v>6.4140000000000004E-3</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="85"/>
+      <c r="B6" s="143"/>
       <c r="C6" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="90">
+      <c r="D6" s="66">
         <v>-2.6630000000000001E-2</v>
       </c>
-      <c r="E6" s="90">
+      <c r="E6" s="66">
         <v>1.9970000000000002E-2</v>
       </c>
-      <c r="F6" s="90">
+      <c r="F6" s="66">
         <v>0.18421100000000001</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="85"/>
+      <c r="B7" s="143"/>
       <c r="C7" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="90">
+      <c r="D7" s="66">
         <v>3.1589999999999999E-3</v>
       </c>
-      <c r="E7" s="90">
+      <c r="E7" s="66">
         <v>1.1650000000000001E-2</v>
       </c>
-      <c r="F7" s="90">
+      <c r="F7" s="66">
         <v>0.78663700000000003</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="86"/>
+      <c r="B8" s="144"/>
       <c r="C8" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="91">
+      <c r="D8" s="67">
         <v>2.4320000000000001E-2</v>
       </c>
-      <c r="E8" s="91">
+      <c r="E8" s="67">
         <v>9.5580000000000005E-3</v>
       </c>
-      <c r="F8" s="91">
+      <c r="F8" s="67">
         <v>1.1844E-2</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="81" t="s">
-        <v>143</v>
-      </c>
-      <c r="D9" s="89">
+      <c r="C9" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" s="65">
         <v>0.72870000000000001</v>
       </c>
-      <c r="E9" s="89">
+      <c r="E9" s="65">
         <v>2.2030000000000001E-2</v>
       </c>
-      <c r="F9" s="89">
+      <c r="F9" s="65">
         <v>1E-4</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="85"/>
+      <c r="B10" s="143"/>
       <c r="C10" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="90">
+      <c r="D10" s="66">
         <v>3.5340000000000002E-4</v>
       </c>
-      <c r="E10" s="90">
+      <c r="E10" s="66">
         <v>7.3289999999999998E-5</v>
       </c>
-      <c r="F10" s="90">
+      <c r="F10" s="66">
         <v>1E-4</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="85"/>
+      <c r="B11" s="143"/>
       <c r="C11" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="90">
+      <c r="D11" s="66">
         <v>5.074E-2</v>
       </c>
-      <c r="E11" s="90">
+      <c r="E11" s="66">
         <v>5.0340000000000003E-2</v>
       </c>
-      <c r="F11" s="90">
+      <c r="F11" s="66">
         <v>0.315</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="85"/>
+      <c r="B12" s="143"/>
       <c r="C12" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="D12" s="90">
+      <c r="D12" s="66">
         <v>-2.9929999999999998E-2</v>
       </c>
-      <c r="E12" s="90">
+      <c r="E12" s="66">
         <v>3.1859999999999999E-2</v>
       </c>
-      <c r="F12" s="90">
+      <c r="F12" s="66">
         <v>0.34899999999999998</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="85"/>
+      <c r="B13" s="143"/>
       <c r="C13" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="D13" s="90">
+      <c r="D13" s="66">
         <v>2.708E-2</v>
       </c>
-      <c r="E13" s="90">
+      <c r="E13" s="66">
         <v>2.0879999999999999E-2</v>
       </c>
-      <c r="F13" s="90">
+      <c r="F13" s="66">
         <v>0.19700000000000001</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="88"/>
+      <c r="B14" s="145"/>
       <c r="C14" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="D14" s="92">
+      <c r="D14" s="68">
         <v>3.058E-3</v>
       </c>
-      <c r="E14" s="92">
+      <c r="E14" s="68">
         <v>1.529E-2</v>
       </c>
-      <c r="F14" s="92">
+      <c r="F14" s="68">
         <v>0.84199999999999997</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="83" t="s">
+      <c r="B17" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="C17" s="80" t="s">
-        <v>146</v>
-      </c>
-      <c r="D17" s="82" t="s">
+      <c r="C17" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="E17" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="E17" s="82" t="s">
-        <v>145</v>
-      </c>
-      <c r="F17" s="82" t="s">
+      <c r="F17" s="62" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="84" t="s">
+      <c r="B18" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="81" t="s">
-        <v>143</v>
-      </c>
-      <c r="D18" s="89">
+      <c r="C18" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="D18" s="65">
         <v>0.41486630000000002</v>
       </c>
-      <c r="E18" s="89">
+      <c r="E18" s="65">
         <v>2.1719599999999999E-2</v>
       </c>
-      <c r="F18" s="89">
+      <c r="F18" s="65">
         <v>1E-4</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="85"/>
+      <c r="B19" s="143"/>
       <c r="C19" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="90">
+      <c r="D19" s="66">
         <v>1.021E-4</v>
       </c>
-      <c r="E19" s="90">
+      <c r="E19" s="66">
         <v>1.0679999999999999E-4</v>
       </c>
-      <c r="F19" s="90">
+      <c r="F19" s="66">
         <v>0.34087299999999998</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="85"/>
+      <c r="B20" s="143"/>
       <c r="C20" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="D20" s="90">
+      <c r="D20" s="66">
         <v>8.79524E-2</v>
       </c>
-      <c r="E20" s="90">
+      <c r="E20" s="66">
         <v>3.97326E-2</v>
       </c>
-      <c r="F20" s="90">
+      <c r="F20" s="66">
         <v>2.8535000000000001E-2</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="85"/>
+      <c r="B21" s="143"/>
       <c r="C21" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="D21" s="90">
+      <c r="D21" s="66">
         <v>-1.9030200000000001E-2</v>
       </c>
-      <c r="E21" s="90">
+      <c r="E21" s="66">
         <v>2.3912699999999999E-2</v>
       </c>
-      <c r="F21" s="90">
+      <c r="F21" s="66">
         <v>0.42753600000000003</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="85"/>
+      <c r="B22" s="143"/>
       <c r="C22" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="90">
+      <c r="D22" s="66">
         <v>1.6597799999999999E-2</v>
       </c>
-      <c r="E22" s="90">
+      <c r="E22" s="66">
         <v>1.44274E-2</v>
       </c>
-      <c r="F22" s="90">
+      <c r="F22" s="66">
         <v>0.251996</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="86"/>
+      <c r="B23" s="144"/>
       <c r="C23" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="D23" s="91">
+      <c r="D23" s="67">
         <v>2.3698899999999998E-2</v>
       </c>
-      <c r="E23" s="91">
+      <c r="E23" s="67">
         <v>1.14191E-2</v>
       </c>
-      <c r="F23" s="91">
+      <c r="F23" s="67">
         <v>3.9849999999999997E-2</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="84" t="s">
+      <c r="B24" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="81" t="s">
-        <v>143</v>
-      </c>
-      <c r="D24" s="89">
+      <c r="C24" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="D24" s="65">
         <v>0.79380070000000003</v>
       </c>
-      <c r="E24" s="89">
+      <c r="E24" s="65">
         <v>1.9717100000000001E-2</v>
       </c>
-      <c r="F24" s="89">
+      <c r="F24" s="65">
         <v>1E-4</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="85"/>
+      <c r="B25" s="143"/>
       <c r="C25" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="D25" s="90">
+      <c r="D25" s="66">
         <v>-1.8929999999999999E-4</v>
       </c>
-      <c r="E25" s="90">
+      <c r="E25" s="66">
         <v>1.3540000000000001E-4</v>
       </c>
-      <c r="F25" s="90">
+      <c r="F25" s="66">
         <v>0.16400000000000001</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="85"/>
+      <c r="B26" s="143"/>
       <c r="C26" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="D26" s="90">
+      <c r="D26" s="66">
         <v>-3.1822999999999999E-3</v>
       </c>
-      <c r="E26" s="90">
+      <c r="E26" s="66">
         <v>5.0118900000000001E-2</v>
       </c>
-      <c r="F26" s="90">
+      <c r="F26" s="66">
         <v>0.94899999999999995</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="85"/>
+      <c r="B27" s="143"/>
       <c r="C27" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="D27" s="90">
+      <c r="D27" s="66">
         <v>-2.9846999999999999E-3</v>
       </c>
-      <c r="E27" s="90">
+      <c r="E27" s="66">
         <v>2.75128E-2</v>
       </c>
-      <c r="F27" s="90">
+      <c r="F27" s="66">
         <v>0.91400000000000003</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="85"/>
+      <c r="B28" s="143"/>
       <c r="C28" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="D28" s="90">
+      <c r="D28" s="66">
         <v>-2.2308499999999998E-2</v>
       </c>
-      <c r="E28" s="90">
+      <c r="E28" s="66">
         <v>1.8952299999999998E-2</v>
       </c>
-      <c r="F28" s="90">
+      <c r="F28" s="66">
         <v>0.24099999999999999</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="88"/>
+      <c r="B29" s="145"/>
       <c r="C29" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="D29" s="92">
+      <c r="D29" s="68">
         <v>1.6027099999999999E-2</v>
       </c>
-      <c r="E29" s="92">
+      <c r="E29" s="68">
         <v>1.4061799999999999E-2</v>
       </c>
-      <c r="F29" s="92">
+      <c r="F29" s="68">
         <v>0.25600000000000001</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D30" s="93"/>
-      <c r="E30" s="93"/>
-      <c r="F30" s="93"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="69"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D31" s="93"/>
-      <c r="E31" s="93"/>
-      <c r="F31" s="93"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D32" s="93"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="93"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D33" s="93"/>
-      <c r="E33" s="93"/>
-      <c r="F33" s="93"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Relatório Final/Tabelas/Tabelas.xlsx
+++ b/Relatório Final/Tabelas/Tabelas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bia99\OneDrive\Documents\Wikiaves\ProjWAV\Relatório Final\Tabelas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59916379-1E78-4052-BD10-E3CECF530250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A504BF9-B399-463E-B31E-73FD4ABA0FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela 1" sheetId="1" r:id="rId1"/>
@@ -705,7 +705,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -961,66 +961,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1030,88 +970,40 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1129,12 +1021,123 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1418,8 +1421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:W39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection sqref="A1:H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1467,10 +1470,10 @@
       <c r="P2" s="33"/>
     </row>
     <row r="3" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="140" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="117" t="s">
+      <c r="C3" s="148" t="s">
         <v>152</v>
       </c>
       <c r="D3" s="91" t="s">
@@ -1486,7 +1489,7 @@
         <v>173</v>
       </c>
       <c r="K3" s="28"/>
-      <c r="L3" s="107"/>
+      <c r="L3" s="151"/>
       <c r="N3" s="83"/>
       <c r="O3" s="83"/>
       <c r="P3" s="83"/>
@@ -1499,8 +1502,8 @@
       <c r="W3" s="64"/>
     </row>
     <row r="4" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="116"/>
-      <c r="C4" s="117"/>
+      <c r="B4" s="140"/>
+      <c r="C4" s="148"/>
       <c r="D4" s="91" t="s">
         <v>132</v>
       </c>
@@ -1514,7 +1517,7 @@
         <v>779</v>
       </c>
       <c r="K4" s="82"/>
-      <c r="L4" s="107"/>
+      <c r="L4" s="151"/>
       <c r="N4" s="66"/>
       <c r="O4" s="83"/>
       <c r="P4" s="83"/>
@@ -1527,8 +1530,8 @@
       <c r="W4" s="64"/>
     </row>
     <row r="5" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="118"/>
-      <c r="C5" s="119"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="149"/>
       <c r="D5" s="93" t="s">
         <v>4</v>
       </c>
@@ -1542,7 +1545,7 @@
         <v>535711</v>
       </c>
       <c r="K5" s="82"/>
-      <c r="L5" s="107"/>
+      <c r="L5" s="151"/>
       <c r="N5" s="83"/>
       <c r="O5" s="85"/>
       <c r="P5" s="85"/>
@@ -1555,10 +1558,10 @@
       <c r="W5" s="64"/>
     </row>
     <row r="6" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="120" t="s">
+      <c r="B6" s="145" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="121" t="s">
+      <c r="C6" s="150" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="24" t="s">
@@ -1574,7 +1577,7 @@
         <v>37</v>
       </c>
       <c r="K6" s="82"/>
-      <c r="L6" s="107"/>
+      <c r="L6" s="151"/>
       <c r="N6" s="66"/>
       <c r="O6" s="66"/>
       <c r="P6" s="66"/>
@@ -1585,8 +1588,8 @@
       <c r="V6" s="64"/>
     </row>
     <row r="7" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="122"/>
-      <c r="C7" s="123"/>
+      <c r="B7" s="146"/>
+      <c r="C7" s="143"/>
       <c r="D7" s="24" t="s">
         <v>12</v>
       </c>
@@ -1600,7 +1603,7 @@
         <v>213</v>
       </c>
       <c r="K7" s="82"/>
-      <c r="L7" s="107"/>
+      <c r="L7" s="151"/>
       <c r="M7" s="86"/>
       <c r="N7" s="79"/>
       <c r="O7" s="79"/>
@@ -1613,8 +1616,8 @@
       <c r="V7" s="66"/>
     </row>
     <row r="8" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="122"/>
-      <c r="C8" s="123"/>
+      <c r="B8" s="146"/>
+      <c r="C8" s="143"/>
       <c r="D8" s="24" t="s">
         <v>13</v>
       </c>
@@ -1628,7 +1631,7 @@
         <v>40</v>
       </c>
       <c r="K8" s="28"/>
-      <c r="L8" s="107"/>
+      <c r="L8" s="151"/>
       <c r="M8" s="86"/>
       <c r="N8" s="64"/>
       <c r="O8" s="64"/>
@@ -1638,8 +1641,8 @@
       <c r="S8" s="65"/>
     </row>
     <row r="9" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="122"/>
-      <c r="C9" s="124"/>
+      <c r="B9" s="146"/>
+      <c r="C9" s="144"/>
       <c r="D9" s="8" t="s">
         <v>17</v>
       </c>
@@ -1653,7 +1656,7 @@
         <v>43</v>
       </c>
       <c r="K9" s="82"/>
-      <c r="L9" s="107"/>
+      <c r="L9" s="151"/>
       <c r="M9" s="86"/>
       <c r="N9" s="79"/>
       <c r="O9" s="79"/>
@@ -1661,8 +1664,8 @@
       <c r="Q9" s="84"/>
     </row>
     <row r="10" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="122"/>
-      <c r="C10" s="125" t="s">
+      <c r="B10" s="146"/>
+      <c r="C10" s="142" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -1678,7 +1681,7 @@
         <v>46</v>
       </c>
       <c r="K10" s="82"/>
-      <c r="L10" s="107"/>
+      <c r="L10" s="151"/>
       <c r="M10" s="47"/>
       <c r="N10" s="79"/>
       <c r="O10" s="79"/>
@@ -1686,8 +1689,8 @@
       <c r="Q10" s="84"/>
     </row>
     <row r="11" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="122"/>
-      <c r="C11" s="123"/>
+      <c r="B11" s="146"/>
+      <c r="C11" s="143"/>
       <c r="D11" s="86" t="s">
         <v>12</v>
       </c>
@@ -1707,8 +1710,8 @@
       <c r="Q11" s="84"/>
     </row>
     <row r="12" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="122"/>
-      <c r="C12" s="123"/>
+      <c r="B12" s="146"/>
+      <c r="C12" s="143"/>
       <c r="D12" s="86" t="s">
         <v>13</v>
       </c>
@@ -1724,8 +1727,8 @@
       <c r="K12" s="87"/>
     </row>
     <row r="13" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="122"/>
-      <c r="C13" s="124"/>
+      <c r="B13" s="146"/>
+      <c r="C13" s="144"/>
       <c r="D13" s="12" t="s">
         <v>17</v>
       </c>
@@ -1741,8 +1744,8 @@
       <c r="K13" s="88"/>
     </row>
     <row r="14" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="126"/>
-      <c r="C14" s="127" t="s">
+      <c r="B14" s="147"/>
+      <c r="C14" s="107" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="15" t="s">
@@ -1759,10 +1762,10 @@
       </c>
     </row>
     <row r="15" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="120" t="s">
+      <c r="B15" s="145" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="121" t="s">
+      <c r="C15" s="150" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -1780,8 +1783,8 @@
       <c r="Q15" s="33"/>
     </row>
     <row r="16" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="122"/>
-      <c r="C16" s="123"/>
+      <c r="B16" s="146"/>
+      <c r="C16" s="143"/>
       <c r="D16" s="24" t="s">
         <v>12</v>
       </c>
@@ -1802,8 +1805,8 @@
       <c r="P16" s="33"/>
     </row>
     <row r="17" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="122"/>
-      <c r="C17" s="123"/>
+      <c r="B17" s="146"/>
+      <c r="C17" s="143"/>
       <c r="D17" s="24" t="s">
         <v>13</v>
       </c>
@@ -1817,15 +1820,15 @@
         <v>16</v>
       </c>
       <c r="K17" s="28"/>
-      <c r="L17" s="107"/>
+      <c r="L17" s="151"/>
       <c r="N17" s="85"/>
       <c r="O17" s="85"/>
       <c r="P17" s="85"/>
       <c r="Q17" s="82"/>
     </row>
     <row r="18" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="122"/>
-      <c r="C18" s="124"/>
+      <c r="B18" s="146"/>
+      <c r="C18" s="144"/>
       <c r="D18" s="8" t="s">
         <v>17</v>
       </c>
@@ -1839,15 +1842,15 @@
         <v>20</v>
       </c>
       <c r="K18" s="82"/>
-      <c r="L18" s="107"/>
+      <c r="L18" s="151"/>
       <c r="N18" s="85"/>
       <c r="O18" s="85"/>
       <c r="P18" s="85"/>
       <c r="Q18" s="84"/>
     </row>
     <row r="19" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="122"/>
-      <c r="C19" s="125" t="s">
+      <c r="B19" s="146"/>
+      <c r="C19" s="142" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="10" t="s">
@@ -1863,15 +1866,15 @@
         <v>24</v>
       </c>
       <c r="K19" s="82"/>
-      <c r="L19" s="107"/>
+      <c r="L19" s="151"/>
       <c r="N19" s="85"/>
       <c r="O19" s="85"/>
       <c r="P19" s="85"/>
       <c r="Q19" s="84"/>
     </row>
     <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="122"/>
-      <c r="C20" s="123"/>
+      <c r="B20" s="146"/>
+      <c r="C20" s="143"/>
       <c r="D20" s="86" t="s">
         <v>12</v>
       </c>
@@ -1885,15 +1888,15 @@
         <v>3</v>
       </c>
       <c r="K20" s="82"/>
-      <c r="L20" s="107"/>
+      <c r="L20" s="151"/>
       <c r="N20" s="85"/>
       <c r="O20" s="85"/>
       <c r="P20" s="85"/>
       <c r="Q20" s="84"/>
     </row>
     <row r="21" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="122"/>
-      <c r="C21" s="123"/>
+      <c r="B21" s="146"/>
+      <c r="C21" s="143"/>
       <c r="D21" s="86" t="s">
         <v>13</v>
       </c>
@@ -1907,7 +1910,7 @@
         <v>27</v>
       </c>
       <c r="K21" s="82"/>
-      <c r="L21" s="107"/>
+      <c r="L21" s="151"/>
       <c r="M21" s="86"/>
       <c r="N21" s="85"/>
       <c r="O21" s="85"/>
@@ -1915,8 +1918,8 @@
       <c r="Q21" s="84"/>
     </row>
     <row r="22" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="122"/>
-      <c r="C22" s="124"/>
+      <c r="B22" s="146"/>
+      <c r="C22" s="144"/>
       <c r="D22" s="12" t="s">
         <v>17</v>
       </c>
@@ -1930,7 +1933,7 @@
         <v>30</v>
       </c>
       <c r="K22" s="28"/>
-      <c r="L22" s="107"/>
+      <c r="L22" s="151"/>
       <c r="M22" s="86"/>
       <c r="N22" s="89"/>
       <c r="O22" s="89"/>
@@ -1938,8 +1941,8 @@
       <c r="Q22" s="84"/>
     </row>
     <row r="23" spans="2:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="126"/>
-      <c r="C23" s="128" t="s">
+      <c r="B23" s="147"/>
+      <c r="C23" s="108" t="s">
         <v>31</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -1955,7 +1958,7 @@
         <v>34</v>
       </c>
       <c r="K23" s="82"/>
-      <c r="L23" s="107"/>
+      <c r="L23" s="151"/>
       <c r="M23" s="86"/>
       <c r="N23" s="85"/>
       <c r="O23" s="85"/>
@@ -1963,10 +1966,10 @@
       <c r="Q23" s="84"/>
     </row>
     <row r="24" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="122" t="s">
+      <c r="B24" s="146" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="123" t="s">
+      <c r="C24" s="143" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="6" t="s">
@@ -1982,7 +1985,7 @@
         <v>58</v>
       </c>
       <c r="K24" s="82"/>
-      <c r="L24" s="107"/>
+      <c r="L24" s="151"/>
       <c r="M24" s="47"/>
       <c r="N24" s="85"/>
       <c r="O24" s="85"/>
@@ -1990,8 +1993,8 @@
       <c r="Q24" s="84"/>
     </row>
     <row r="25" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="122"/>
-      <c r="C25" s="123"/>
+      <c r="B25" s="146"/>
+      <c r="C25" s="143"/>
       <c r="D25" s="24" t="s">
         <v>12</v>
       </c>
@@ -2011,8 +2014,8 @@
       <c r="Q25" s="84"/>
     </row>
     <row r="26" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="122"/>
-      <c r="C26" s="123"/>
+      <c r="B26" s="146"/>
+      <c r="C26" s="143"/>
       <c r="D26" s="24" t="s">
         <v>13</v>
       </c>
@@ -2028,8 +2031,8 @@
       <c r="K26" s="87"/>
     </row>
     <row r="27" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="122"/>
-      <c r="C27" s="124"/>
+      <c r="B27" s="146"/>
+      <c r="C27" s="144"/>
       <c r="D27" s="8" t="s">
         <v>17</v>
       </c>
@@ -2045,8 +2048,8 @@
       <c r="K27" s="88"/>
     </row>
     <row r="28" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="122"/>
-      <c r="C28" s="125" t="s">
+      <c r="B28" s="146"/>
+      <c r="C28" s="142" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="10" t="s">
@@ -2064,8 +2067,8 @@
       <c r="Q28" s="33"/>
     </row>
     <row r="29" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="122"/>
-      <c r="C29" s="123"/>
+      <c r="B29" s="146"/>
+      <c r="C29" s="143"/>
       <c r="D29" s="86" t="s">
         <v>12</v>
       </c>
@@ -2086,8 +2089,8 @@
       <c r="P29" s="33"/>
     </row>
     <row r="30" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="122"/>
-      <c r="C30" s="123"/>
+      <c r="B30" s="146"/>
+      <c r="C30" s="143"/>
       <c r="D30" s="86" t="s">
         <v>13</v>
       </c>
@@ -2101,15 +2104,15 @@
         <v>70</v>
       </c>
       <c r="K30" s="28"/>
-      <c r="L30" s="107"/>
+      <c r="L30" s="151"/>
       <c r="N30" s="83"/>
       <c r="O30" s="83"/>
       <c r="P30" s="83"/>
       <c r="Q30" s="82"/>
     </row>
     <row r="31" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="122"/>
-      <c r="C31" s="124"/>
+      <c r="B31" s="146"/>
+      <c r="C31" s="144"/>
       <c r="D31" s="12" t="s">
         <v>17</v>
       </c>
@@ -2123,15 +2126,15 @@
         <v>72</v>
       </c>
       <c r="K31" s="82"/>
-      <c r="L31" s="107"/>
+      <c r="L31" s="151"/>
       <c r="N31" s="66"/>
       <c r="O31" s="83"/>
       <c r="P31" s="83"/>
       <c r="Q31" s="84"/>
     </row>
     <row r="32" spans="2:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="126"/>
-      <c r="C32" s="128" t="s">
+      <c r="B32" s="147"/>
+      <c r="C32" s="108" t="s">
         <v>31</v>
       </c>
       <c r="D32" s="3" t="s">
@@ -2147,7 +2150,7 @@
         <v>75</v>
       </c>
       <c r="K32" s="82"/>
-      <c r="L32" s="107"/>
+      <c r="L32" s="151"/>
       <c r="N32" s="83"/>
       <c r="O32" s="85"/>
       <c r="P32" s="85"/>
@@ -2155,7 +2158,7 @@
     </row>
     <row r="33" spans="11:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K33" s="82"/>
-      <c r="L33" s="107"/>
+      <c r="L33" s="151"/>
       <c r="N33" s="66"/>
       <c r="O33" s="66"/>
       <c r="P33" s="66"/>
@@ -2163,7 +2166,7 @@
     </row>
     <row r="34" spans="11:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K34" s="82"/>
-      <c r="L34" s="107"/>
+      <c r="L34" s="151"/>
       <c r="M34" s="86"/>
       <c r="N34" s="79"/>
       <c r="O34" s="79"/>
@@ -2172,7 +2175,7 @@
     </row>
     <row r="35" spans="11:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K35" s="28"/>
-      <c r="L35" s="107"/>
+      <c r="L35" s="151"/>
       <c r="M35" s="86"/>
       <c r="N35" s="64"/>
       <c r="O35" s="64"/>
@@ -2181,7 +2184,7 @@
     </row>
     <row r="36" spans="11:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K36" s="82"/>
-      <c r="L36" s="107"/>
+      <c r="L36" s="151"/>
       <c r="M36" s="86"/>
       <c r="N36" s="79"/>
       <c r="O36" s="79"/>
@@ -2190,7 +2193,7 @@
     </row>
     <row r="37" spans="11:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K37" s="82"/>
-      <c r="L37" s="107"/>
+      <c r="L37" s="151"/>
       <c r="M37" s="47"/>
       <c r="N37" s="79"/>
       <c r="O37" s="79"/>
@@ -2209,6 +2212,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="L34:L37"/>
+    <mergeCell ref="L3:L6"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="L17:L20"/>
+    <mergeCell ref="L21:L24"/>
+    <mergeCell ref="L30:L33"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="C24:C27"/>
@@ -2220,12 +2229,6 @@
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="C15:C18"/>
-    <mergeCell ref="L34:L37"/>
-    <mergeCell ref="L3:L6"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="L17:L20"/>
-    <mergeCell ref="L21:L24"/>
-    <mergeCell ref="L30:L33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2236,8 +2239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23486BE-5F79-4CA9-850E-00095779225A}">
   <dimension ref="B2:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2267,10 +2270,10 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="155" t="s">
+      <c r="B3" s="169" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="156" t="s">
+      <c r="C3" s="125" t="s">
         <v>155</v>
       </c>
       <c r="D3" s="55">
@@ -2279,13 +2282,13 @@
       <c r="E3" s="55">
         <v>1.9019999999999999E-2</v>
       </c>
-      <c r="F3" s="144">
+      <c r="F3" s="116">
         <v>1E-4</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="157"/>
-      <c r="C4" s="142" t="s">
+      <c r="B4" s="170"/>
+      <c r="C4" s="114" t="s">
         <v>97</v>
       </c>
       <c r="D4" s="56">
@@ -2299,8 +2302,8 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="157"/>
-      <c r="C5" s="142" t="s">
+      <c r="B5" s="170"/>
+      <c r="C5" s="114" t="s">
         <v>98</v>
       </c>
       <c r="D5" s="56">
@@ -2309,13 +2312,13 @@
       <c r="E5" s="56">
         <v>2.971E-2</v>
       </c>
-      <c r="F5" s="148">
+      <c r="F5" s="120">
         <v>6.4140000000000004E-3</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="157"/>
-      <c r="C6" s="142" t="s">
+      <c r="B6" s="170"/>
+      <c r="C6" s="114" t="s">
         <v>134</v>
       </c>
       <c r="D6" s="56">
@@ -2329,8 +2332,8 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="157"/>
-      <c r="C7" s="142" t="s">
+      <c r="B7" s="170"/>
+      <c r="C7" s="114" t="s">
         <v>99</v>
       </c>
       <c r="D7" s="56">
@@ -2344,8 +2347,8 @@
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="158"/>
-      <c r="C8" s="151" t="s">
+      <c r="B8" s="171"/>
+      <c r="C8" s="123" t="s">
         <v>100</v>
       </c>
       <c r="D8" s="57">
@@ -2354,15 +2357,15 @@
       <c r="E8" s="57">
         <v>9.5580000000000005E-3</v>
       </c>
-      <c r="F8" s="145">
+      <c r="F8" s="117">
         <v>1.1844E-2</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="155" t="s">
+      <c r="B9" s="169" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="156" t="s">
+      <c r="C9" s="125" t="s">
         <v>155</v>
       </c>
       <c r="D9" s="55">
@@ -2371,13 +2374,13 @@
       <c r="E9" s="55">
         <v>2.2030000000000001E-2</v>
       </c>
-      <c r="F9" s="144">
+      <c r="F9" s="116">
         <v>1E-4</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="157"/>
-      <c r="C10" s="142" t="s">
+      <c r="B10" s="170"/>
+      <c r="C10" s="114" t="s">
         <v>97</v>
       </c>
       <c r="D10" s="56">
@@ -2386,13 +2389,13 @@
       <c r="E10" s="56">
         <v>7.3289999999999998E-5</v>
       </c>
-      <c r="F10" s="148">
+      <c r="F10" s="120">
         <v>1E-4</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="157"/>
-      <c r="C11" s="142" t="s">
+      <c r="B11" s="170"/>
+      <c r="C11" s="114" t="s">
         <v>98</v>
       </c>
       <c r="D11" s="56">
@@ -2406,8 +2409,8 @@
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="157"/>
-      <c r="C12" s="142" t="s">
+      <c r="B12" s="170"/>
+      <c r="C12" s="114" t="s">
         <v>134</v>
       </c>
       <c r="D12" s="56">
@@ -2421,8 +2424,8 @@
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="157"/>
-      <c r="C13" s="142" t="s">
+      <c r="B13" s="170"/>
+      <c r="C13" s="114" t="s">
         <v>99</v>
       </c>
       <c r="D13" s="56">
@@ -2436,8 +2439,8 @@
       </c>
     </row>
     <row r="14" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="159"/>
-      <c r="C14" s="143" t="s">
+      <c r="B14" s="172"/>
+      <c r="C14" s="115" t="s">
         <v>100</v>
       </c>
       <c r="D14" s="58">
@@ -2478,10 +2481,10 @@
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="155" t="s">
+      <c r="B18" s="169" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="156" t="s">
+      <c r="C18" s="125" t="s">
         <v>155</v>
       </c>
       <c r="D18" s="55">
@@ -2490,13 +2493,13 @@
       <c r="E18" s="55">
         <v>2.1719599999999999E-2</v>
       </c>
-      <c r="F18" s="144">
+      <c r="F18" s="116">
         <v>1E-4</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="157"/>
-      <c r="C19" s="142" t="s">
+      <c r="B19" s="170"/>
+      <c r="C19" s="114" t="s">
         <v>97</v>
       </c>
       <c r="D19" s="56">
@@ -2510,8 +2513,8 @@
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="157"/>
-      <c r="C20" s="142" t="s">
+      <c r="B20" s="170"/>
+      <c r="C20" s="114" t="s">
         <v>98</v>
       </c>
       <c r="D20" s="56">
@@ -2520,13 +2523,13 @@
       <c r="E20" s="56">
         <v>3.97326E-2</v>
       </c>
-      <c r="F20" s="148">
+      <c r="F20" s="120">
         <v>2.8535000000000001E-2</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="157"/>
-      <c r="C21" s="142" t="s">
+      <c r="B21" s="170"/>
+      <c r="C21" s="114" t="s">
         <v>134</v>
       </c>
       <c r="D21" s="56">
@@ -2540,8 +2543,8 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="157"/>
-      <c r="C22" s="142" t="s">
+      <c r="B22" s="170"/>
+      <c r="C22" s="114" t="s">
         <v>99</v>
       </c>
       <c r="D22" s="56">
@@ -2555,8 +2558,8 @@
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="158"/>
-      <c r="C23" s="151" t="s">
+      <c r="B23" s="171"/>
+      <c r="C23" s="123" t="s">
         <v>100</v>
       </c>
       <c r="D23" s="57">
@@ -2570,10 +2573,10 @@
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="155" t="s">
+      <c r="B24" s="169" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="156" t="s">
+      <c r="C24" s="125" t="s">
         <v>155</v>
       </c>
       <c r="D24" s="55">
@@ -2582,13 +2585,13 @@
       <c r="E24" s="55">
         <v>1.9717100000000001E-2</v>
       </c>
-      <c r="F24" s="144">
+      <c r="F24" s="116">
         <v>1E-4</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="157"/>
-      <c r="C25" s="142" t="s">
+      <c r="B25" s="170"/>
+      <c r="C25" s="114" t="s">
         <v>97</v>
       </c>
       <c r="D25" s="56">
@@ -2602,8 +2605,8 @@
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="157"/>
-      <c r="C26" s="142" t="s">
+      <c r="B26" s="170"/>
+      <c r="C26" s="114" t="s">
         <v>98</v>
       </c>
       <c r="D26" s="56">
@@ -2617,8 +2620,8 @@
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="157"/>
-      <c r="C27" s="142" t="s">
+      <c r="B27" s="170"/>
+      <c r="C27" s="114" t="s">
         <v>134</v>
       </c>
       <c r="D27" s="56">
@@ -2632,8 +2635,8 @@
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="157"/>
-      <c r="C28" s="142" t="s">
+      <c r="B28" s="170"/>
+      <c r="C28" s="114" t="s">
         <v>99</v>
       </c>
       <c r="D28" s="56">
@@ -2647,8 +2650,8 @@
       </c>
     </row>
     <row r="29" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="159"/>
-      <c r="C29" s="143" t="s">
+      <c r="B29" s="172"/>
+      <c r="C29" s="115" t="s">
         <v>100</v>
       </c>
       <c r="D29" s="58">
@@ -2696,8 +2699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38737C6-1D8B-488E-B81D-95B487E9C2F7}">
   <dimension ref="B2:L25"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2711,36 +2714,36 @@
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
-      <c r="E2" s="113" t="s">
+      <c r="E2" s="168" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
-      <c r="E3" s="113">
+      <c r="E3" s="168">
         <v>2</v>
       </c>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113">
+      <c r="F3" s="168"/>
+      <c r="G3" s="168">
         <v>3</v>
       </c>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113">
+      <c r="H3" s="168"/>
+      <c r="I3" s="168">
         <v>4</v>
       </c>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113">
+      <c r="J3" s="168"/>
+      <c r="K3" s="168">
         <v>5</v>
       </c>
-      <c r="L3" s="113"/>
+      <c r="L3" s="168"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="35" t="s">
@@ -2752,39 +2755,39 @@
       <c r="D4" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="E4" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="63" t="s">
+      <c r="G4" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="H4" s="63" t="s">
+      <c r="H4" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="I4" s="63" t="s">
+      <c r="I4" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="J4" s="63" t="s">
+      <c r="J4" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="K4" s="63" t="s">
+      <c r="K4" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="L4" s="63" t="s">
+      <c r="L4" s="19" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="114">
+      <c r="B5" s="173">
         <v>71</v>
       </c>
-      <c r="C5" s="114" t="s">
+      <c r="C5" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="150" t="s">
+      <c r="D5" s="122" t="s">
         <v>97</v>
       </c>
       <c r="E5" s="60">
@@ -2796,26 +2799,26 @@
       <c r="G5" s="60">
         <v>60.566000000000003</v>
       </c>
-      <c r="H5" s="144">
+      <c r="H5" s="116">
         <v>1E-4</v>
       </c>
       <c r="I5" s="60">
         <v>186.16</v>
       </c>
-      <c r="J5" s="144">
+      <c r="J5" s="116">
         <v>1E-4</v>
       </c>
       <c r="K5" s="60">
         <v>124</v>
       </c>
-      <c r="L5" s="144">
+      <c r="L5" s="116">
         <v>1E-4</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="142" t="s">
+      <c r="B6" s="156"/>
+      <c r="C6" s="156"/>
+      <c r="D6" s="114" t="s">
         <v>98</v>
       </c>
       <c r="E6" s="59">
@@ -2844,9 +2847,9 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="108"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="142" t="s">
+      <c r="B7" s="156"/>
+      <c r="C7" s="156"/>
+      <c r="D7" s="114" t="s">
         <v>134</v>
       </c>
       <c r="E7" s="59">
@@ -2875,104 +2878,104 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="142" t="s">
+      <c r="B8" s="156"/>
+      <c r="C8" s="156"/>
+      <c r="D8" s="114" t="s">
         <v>99</v>
       </c>
       <c r="E8" s="59">
         <v>5.6565000000000003</v>
       </c>
-      <c r="F8" s="148">
+      <c r="F8" s="120">
         <v>2.0729999999999998E-2</v>
       </c>
       <c r="G8" s="59">
         <v>40.116999999999997</v>
       </c>
-      <c r="H8" s="148">
+      <c r="H8" s="120">
         <v>1E-4</v>
       </c>
       <c r="I8" s="59">
         <v>63.978000000000002</v>
       </c>
-      <c r="J8" s="148">
+      <c r="J8" s="120">
         <v>1E-4</v>
       </c>
       <c r="K8" s="59">
         <v>53.253</v>
       </c>
-      <c r="L8" s="148">
+      <c r="L8" s="120">
         <v>1E-4</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="108"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="151" t="s">
+      <c r="B9" s="156"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="123" t="s">
         <v>100</v>
       </c>
       <c r="E9" s="61">
         <v>10.641</v>
       </c>
-      <c r="F9" s="145">
+      <c r="F9" s="117">
         <v>1.7210000000000001E-3</v>
       </c>
       <c r="G9" s="61">
         <v>6.3228</v>
       </c>
-      <c r="H9" s="145">
+      <c r="H9" s="117">
         <v>4.8349999999999999E-3</v>
       </c>
       <c r="I9" s="61">
         <v>3.6991999999999998</v>
       </c>
-      <c r="J9" s="145">
+      <c r="J9" s="117">
         <v>2.1059999999999999E-2</v>
       </c>
       <c r="K9" s="61">
         <v>5.3358999999999996</v>
       </c>
-      <c r="L9" s="145">
+      <c r="L9" s="117">
         <v>3.5409999999999999E-3</v>
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="108"/>
-      <c r="C10" s="114" t="s">
+      <c r="B10" s="156"/>
+      <c r="C10" s="173" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="150" t="s">
+      <c r="D10" s="122" t="s">
         <v>97</v>
       </c>
       <c r="E10" s="59">
         <v>7.7908999999999997</v>
       </c>
-      <c r="F10" s="148">
+      <c r="F10" s="120">
         <v>7.9279999999999993E-3</v>
       </c>
       <c r="G10" s="59">
         <v>11.292999999999999</v>
       </c>
-      <c r="H10" s="148">
+      <c r="H10" s="120">
         <v>2.7940000000000002E-4</v>
       </c>
       <c r="I10" s="59">
         <v>72.400000000000006</v>
       </c>
-      <c r="J10" s="148">
+      <c r="J10" s="120">
         <v>1E-4</v>
       </c>
       <c r="K10" s="59">
         <v>53.540999999999997</v>
       </c>
-      <c r="L10" s="148">
+      <c r="L10" s="120">
         <v>1E-4</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="108"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="142" t="s">
+      <c r="B11" s="156"/>
+      <c r="C11" s="156"/>
+      <c r="D11" s="114" t="s">
         <v>98</v>
       </c>
       <c r="E11" s="59">
@@ -3001,9 +3004,9 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="108"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="142" t="s">
+      <c r="B12" s="156"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="114" t="s">
         <v>134</v>
       </c>
       <c r="E12" s="59">
@@ -3032,106 +3035,106 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="108"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="142" t="s">
+      <c r="B13" s="156"/>
+      <c r="C13" s="156"/>
+      <c r="D13" s="114" t="s">
         <v>99</v>
       </c>
       <c r="E13" s="59">
         <v>68.903000000000006</v>
       </c>
-      <c r="F13" s="148">
+      <c r="F13" s="120">
         <v>1E-4</v>
       </c>
       <c r="G13" s="59">
         <v>34.859000000000002</v>
       </c>
-      <c r="H13" s="148">
+      <c r="H13" s="120">
         <v>1E-4</v>
       </c>
       <c r="I13" s="59">
         <v>40.722999999999999</v>
       </c>
-      <c r="J13" s="148">
+      <c r="J13" s="120">
         <v>1E-4</v>
       </c>
       <c r="K13" s="59">
         <v>40.850999999999999</v>
       </c>
-      <c r="L13" s="148">
+      <c r="L13" s="120">
         <v>1E-4</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="115"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="151" t="s">
+      <c r="B14" s="174"/>
+      <c r="C14" s="174"/>
+      <c r="D14" s="123" t="s">
         <v>100</v>
       </c>
       <c r="E14" s="61">
         <v>26.6</v>
       </c>
-      <c r="F14" s="145">
+      <c r="F14" s="117">
         <v>1E-4</v>
       </c>
       <c r="G14" s="61">
         <v>12.829000000000001</v>
       </c>
-      <c r="H14" s="145">
+      <c r="H14" s="117">
         <v>6.4740000000000002E-4</v>
       </c>
       <c r="I14" s="61">
         <v>10.005000000000001</v>
       </c>
-      <c r="J14" s="145">
+      <c r="J14" s="117">
         <v>2.8400000000000002E-4</v>
       </c>
       <c r="K14" s="61">
         <v>7.4615</v>
       </c>
-      <c r="L14" s="145">
+      <c r="L14" s="117">
         <v>5.1559999999999996E-4</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="114">
+      <c r="B15" s="173">
         <v>46</v>
       </c>
-      <c r="C15" s="114" t="s">
+      <c r="C15" s="173" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="150" t="s">
+      <c r="D15" s="122" t="s">
         <v>97</v>
       </c>
       <c r="E15" s="60">
         <v>89.537000000000006</v>
       </c>
-      <c r="F15" s="144">
+      <c r="F15" s="116">
         <v>1E-4</v>
       </c>
       <c r="G15" s="60">
         <v>46.969000000000001</v>
       </c>
-      <c r="H15" s="144">
+      <c r="H15" s="116">
         <v>1E-4</v>
       </c>
       <c r="I15" s="60">
         <v>30.036999999999999</v>
       </c>
-      <c r="J15" s="144">
+      <c r="J15" s="116">
         <v>1E-4</v>
       </c>
       <c r="K15" s="60">
         <v>102.52</v>
       </c>
-      <c r="L15" s="144">
+      <c r="L15" s="116">
         <v>1E-4</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="108"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="142" t="s">
+      <c r="B16" s="156"/>
+      <c r="C16" s="156"/>
+      <c r="D16" s="114" t="s">
         <v>98</v>
       </c>
       <c r="E16" s="59">
@@ -3149,20 +3152,20 @@
       <c r="I16" s="59">
         <v>4.4321999999999999</v>
       </c>
-      <c r="J16" s="148">
+      <c r="J16" s="120">
         <v>1.55E-2</v>
       </c>
       <c r="K16" s="59">
         <v>3.3961999999999999</v>
       </c>
-      <c r="L16" s="148">
+      <c r="L16" s="120">
         <v>3.3329999999999999E-2</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="108"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="142" t="s">
+      <c r="B17" s="156"/>
+      <c r="C17" s="156"/>
+      <c r="D17" s="114" t="s">
         <v>134</v>
       </c>
       <c r="E17" s="59">
@@ -3191,40 +3194,40 @@
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="108"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="142" t="s">
+      <c r="B18" s="156"/>
+      <c r="C18" s="156"/>
+      <c r="D18" s="114" t="s">
         <v>99</v>
       </c>
       <c r="E18" s="59">
         <v>16.018000000000001</v>
       </c>
-      <c r="F18" s="148">
+      <c r="F18" s="120">
         <v>6.2480000000000001E-4</v>
       </c>
       <c r="G18" s="59">
         <v>12.818</v>
       </c>
-      <c r="H18" s="148">
+      <c r="H18" s="120">
         <v>1.145E-4</v>
       </c>
       <c r="I18" s="59">
         <v>13.047000000000001</v>
       </c>
-      <c r="J18" s="148">
+      <c r="J18" s="120">
         <v>1E-4</v>
       </c>
       <c r="K18" s="59">
         <v>23.616</v>
       </c>
-      <c r="L18" s="148">
+      <c r="L18" s="120">
         <v>1E-4</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="108"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="151" t="s">
+      <c r="B19" s="156"/>
+      <c r="C19" s="174"/>
+      <c r="D19" s="123" t="s">
         <v>100</v>
       </c>
       <c r="E19" s="61">
@@ -3236,13 +3239,13 @@
       <c r="G19" s="61">
         <v>4.7910000000000004</v>
       </c>
-      <c r="H19" s="145">
+      <c r="H19" s="117">
         <v>1.6230000000000001E-2</v>
       </c>
       <c r="I19" s="61">
         <v>3.1816</v>
       </c>
-      <c r="J19" s="145">
+      <c r="J19" s="117">
         <v>4.8550000000000003E-2</v>
       </c>
       <c r="K19" s="61">
@@ -3253,42 +3256,42 @@
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="108"/>
-      <c r="C20" s="108" t="s">
+      <c r="B20" s="156"/>
+      <c r="C20" s="156" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="142" t="s">
+      <c r="D20" s="114" t="s">
         <v>97</v>
       </c>
       <c r="E20" s="59">
         <v>6.4222999999999999</v>
       </c>
-      <c r="F20" s="148">
+      <c r="F20" s="120">
         <v>1.7160000000000002E-2</v>
       </c>
       <c r="G20" s="59">
         <v>266.47000000000003</v>
       </c>
-      <c r="H20" s="148">
+      <c r="H20" s="120">
         <v>1E-4</v>
       </c>
       <c r="I20" s="59">
         <v>175</v>
       </c>
-      <c r="J20" s="148">
+      <c r="J20" s="120">
         <v>1E-4</v>
       </c>
       <c r="K20" s="59">
         <v>130.44</v>
       </c>
-      <c r="L20" s="148">
+      <c r="L20" s="120">
         <v>1E-4</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="108"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="142" t="s">
+      <c r="B21" s="156"/>
+      <c r="C21" s="156"/>
+      <c r="D21" s="114" t="s">
         <v>98</v>
       </c>
       <c r="E21" s="59">
@@ -3317,9 +3320,9 @@
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="108"/>
-      <c r="C22" s="108"/>
-      <c r="D22" s="142" t="s">
+      <c r="B22" s="156"/>
+      <c r="C22" s="156"/>
+      <c r="D22" s="114" t="s">
         <v>134</v>
       </c>
       <c r="E22" s="59">
@@ -3343,69 +3346,69 @@
       <c r="K22" s="59">
         <v>3.0767000000000002</v>
       </c>
-      <c r="L22" s="148">
+      <c r="L22" s="120">
         <v>4.2930000000000003E-2</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="108"/>
-      <c r="C23" s="108"/>
-      <c r="D23" s="142" t="s">
+      <c r="B23" s="156"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="114" t="s">
         <v>99</v>
       </c>
       <c r="E23" s="59">
         <v>40.609000000000002</v>
       </c>
-      <c r="F23" s="148">
+      <c r="F23" s="120">
         <v>1E-4</v>
       </c>
       <c r="G23" s="59">
         <v>42.963000000000001</v>
       </c>
-      <c r="H23" s="148">
+      <c r="H23" s="120">
         <v>1E-4</v>
       </c>
       <c r="I23" s="59">
         <v>33.085000000000001</v>
       </c>
-      <c r="J23" s="148">
+      <c r="J23" s="120">
         <v>1E-4</v>
       </c>
       <c r="K23" s="59">
         <v>39.701000000000001</v>
       </c>
-      <c r="L23" s="148">
+      <c r="L23" s="120">
         <v>1E-4</v>
       </c>
     </row>
     <row r="24" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="109"/>
-      <c r="C24" s="109"/>
-      <c r="D24" s="143" t="s">
+      <c r="B24" s="175"/>
+      <c r="C24" s="175"/>
+      <c r="D24" s="115" t="s">
         <v>100</v>
       </c>
       <c r="E24" s="62">
         <v>17.359000000000002</v>
       </c>
-      <c r="F24" s="149">
+      <c r="F24" s="121">
         <v>1.6119999999999999E-4</v>
       </c>
       <c r="G24" s="62">
         <v>11.664999999999999</v>
       </c>
-      <c r="H24" s="149">
+      <c r="H24" s="121">
         <v>2.265E-4</v>
       </c>
       <c r="I24" s="62">
         <v>9.2827999999999999</v>
       </c>
-      <c r="J24" s="149">
+      <c r="J24" s="121">
         <v>4.2089999999999999E-4</v>
       </c>
       <c r="K24" s="62">
         <v>10.519</v>
       </c>
-      <c r="L24" s="149">
+      <c r="L24" s="121">
         <v>1.7149999999999999E-4</v>
       </c>
     </row>
@@ -3415,17 +3418,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="E2:L2"/>
     <mergeCell ref="C10:C14"/>
     <mergeCell ref="C15:C19"/>
     <mergeCell ref="C20:C24"/>
     <mergeCell ref="B5:B14"/>
     <mergeCell ref="B15:B24"/>
     <mergeCell ref="C5:C9"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="E2:L2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -3436,7 +3439,7 @@
   <dimension ref="B2:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection sqref="A1:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3448,14 +3451,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D2" s="113">
+      <c r="D2" s="168">
         <v>71</v>
       </c>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113">
+      <c r="E2" s="168"/>
+      <c r="F2" s="168">
         <v>46</v>
       </c>
-      <c r="G2" s="113"/>
+      <c r="G2" s="168"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
@@ -3464,24 +3467,24 @@
       <c r="C3" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="25" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="152" t="s">
+      <c r="B4" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="150" t="s">
+      <c r="C4" s="122" t="s">
         <v>97</v>
       </c>
       <c r="D4" s="43">
@@ -3493,13 +3496,13 @@
       <c r="F4" s="43">
         <v>0.12180000000000001</v>
       </c>
-      <c r="G4" s="162">
+      <c r="G4" s="126">
         <v>4.5695E-2</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="116"/>
-      <c r="C5" s="142" t="s">
+      <c r="B5" s="140"/>
+      <c r="C5" s="114" t="s">
         <v>98</v>
       </c>
       <c r="D5" s="29">
@@ -3511,13 +3514,13 @@
       <c r="F5" s="29">
         <v>0.2354</v>
       </c>
-      <c r="G5" s="130">
+      <c r="G5" s="110">
         <v>4.4996000000000003E-3</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="116"/>
-      <c r="C6" s="142" t="s">
+      <c r="B6" s="140"/>
+      <c r="C6" s="114" t="s">
         <v>134</v>
       </c>
       <c r="D6" s="29">
@@ -3534,26 +3537,26 @@
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="116"/>
-      <c r="C7" s="142" t="s">
+      <c r="B7" s="140"/>
+      <c r="C7" s="114" t="s">
         <v>99</v>
       </c>
       <c r="D7" s="29">
         <v>0.2021</v>
       </c>
-      <c r="E7" s="130">
+      <c r="E7" s="110">
         <v>2.9996999999999999E-4</v>
       </c>
       <c r="F7" s="29">
         <v>0.15759999999999999</v>
       </c>
-      <c r="G7" s="130">
+      <c r="G7" s="110">
         <v>2.0997999999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="153"/>
-      <c r="C8" s="151" t="s">
+      <c r="B8" s="177"/>
+      <c r="C8" s="123" t="s">
         <v>100</v>
       </c>
       <c r="D8" s="45">
@@ -3565,33 +3568,33 @@
       <c r="F8" s="45">
         <v>0.18099999999999999</v>
       </c>
-      <c r="G8" s="163">
+      <c r="G8" s="127">
         <v>2.0298E-2</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="152" t="s">
+      <c r="B9" s="176" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="150" t="s">
+      <c r="C9" s="122" t="s">
         <v>97</v>
       </c>
       <c r="D9" s="43">
         <v>0.2235</v>
       </c>
-      <c r="E9" s="162">
+      <c r="E9" s="126">
         <v>6.9992999999999997E-4</v>
       </c>
       <c r="F9" s="43">
         <v>0.30209999999999998</v>
       </c>
-      <c r="G9" s="162">
+      <c r="G9" s="126">
         <v>1E-4</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="116"/>
-      <c r="C10" s="142" t="s">
+      <c r="B10" s="140"/>
+      <c r="C10" s="114" t="s">
         <v>98</v>
       </c>
       <c r="D10" s="29">
@@ -3608,8 +3611,8 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="116"/>
-      <c r="C11" s="142" t="s">
+      <c r="B11" s="140"/>
+      <c r="C11" s="114" t="s">
         <v>134</v>
       </c>
       <c r="D11" s="29">
@@ -3626,56 +3629,56 @@
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="116"/>
-      <c r="C12" s="142" t="s">
+      <c r="B12" s="140"/>
+      <c r="C12" s="114" t="s">
         <v>99</v>
       </c>
       <c r="D12" s="29">
         <v>0.57169999999999999</v>
       </c>
-      <c r="E12" s="130">
+      <c r="E12" s="110">
         <v>1E-4</v>
       </c>
       <c r="F12" s="29">
         <v>0.67589999999999995</v>
       </c>
-      <c r="G12" s="130">
+      <c r="G12" s="110">
         <v>1E-4</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="153"/>
-      <c r="C13" s="151" t="s">
+      <c r="B13" s="177"/>
+      <c r="C13" s="123" t="s">
         <v>100</v>
       </c>
       <c r="D13" s="45">
         <v>0.1981</v>
       </c>
-      <c r="E13" s="163">
+      <c r="E13" s="127">
         <v>7.3993000000000001E-3</v>
       </c>
       <c r="F13" s="45">
         <v>0.1845</v>
       </c>
-      <c r="G13" s="163">
+      <c r="G13" s="127">
         <v>2.2398000000000001E-2</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="154" t="s">
+      <c r="B14" s="124" t="s">
         <v>95</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="48">
         <v>0.25</v>
       </c>
-      <c r="E14" s="164">
+      <c r="E14" s="128">
         <v>1E-4</v>
       </c>
       <c r="F14" s="48">
         <v>0.23</v>
       </c>
-      <c r="G14" s="164">
+      <c r="G14" s="128">
         <v>1.9E-3</v>
       </c>
     </row>
@@ -3695,7 +3698,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A8" sqref="A8:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3838,23 +3841,23 @@
       <c r="P7" s="24"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C9" s="111" t="s">
+      <c r="C9" s="153" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="111"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="153"/>
+      <c r="F9" s="153"/>
     </row>
     <row r="10" spans="1:16" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5"/>
-      <c r="C10" s="110" t="s">
+      <c r="C10" s="152" t="s">
         <v>156</v>
       </c>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110" t="s">
+      <c r="D10" s="152"/>
+      <c r="E10" s="152" t="s">
         <v>157</v>
       </c>
-      <c r="F10" s="110"/>
+      <c r="F10" s="152"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B11" s="25" t="s">
@@ -3874,37 +3877,37 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="129" t="s">
+      <c r="B12" s="109" t="s">
         <v>80</v>
       </c>
       <c r="C12" s="21">
         <v>17652</v>
       </c>
-      <c r="D12" s="130">
+      <c r="D12" s="110">
         <v>1E-4</v>
       </c>
       <c r="E12" s="21">
         <v>15051</v>
       </c>
-      <c r="F12" s="130">
+      <c r="F12" s="110">
         <v>1E-4</v>
       </c>
       <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="129" t="s">
+      <c r="B13" s="109" t="s">
         <v>81</v>
       </c>
       <c r="C13" s="2">
         <v>23538.5</v>
       </c>
-      <c r="D13" s="130">
+      <c r="D13" s="110">
         <v>1E-4</v>
       </c>
       <c r="E13" s="21">
         <v>14985</v>
       </c>
-      <c r="F13" s="130">
+      <c r="F13" s="110">
         <v>1E-4</v>
       </c>
       <c r="G13" s="24"/>
@@ -3916,13 +3919,13 @@
       <c r="C14" s="26">
         <v>56563</v>
       </c>
-      <c r="D14" s="131">
+      <c r="D14" s="111">
         <v>1E-4</v>
       </c>
       <c r="E14" s="26">
         <v>63503</v>
       </c>
-      <c r="F14" s="131">
+      <c r="F14" s="111">
         <v>1E-4</v>
       </c>
       <c r="G14" s="24"/>
@@ -3942,7 +3945,7 @@
   <dimension ref="B2:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection sqref="A1:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3971,69 +3974,69 @@
       </c>
     </row>
     <row r="3" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="173"/>
-      <c r="C3" s="173" t="s">
+      <c r="B3" s="137"/>
+      <c r="C3" s="137" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="173">
+      <c r="D3" s="137">
         <v>620</v>
       </c>
-      <c r="E3" s="173">
+      <c r="E3" s="137">
         <v>143</v>
       </c>
-      <c r="F3" s="173">
+      <c r="F3" s="137">
         <v>171</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="122" t="s">
+      <c r="B4" s="146" t="s">
         <v>181</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="165">
+      <c r="D4" s="129">
         <v>0.91120999999999996</v>
       </c>
-      <c r="E4" s="165">
+      <c r="E4" s="129">
         <v>0.95804</v>
       </c>
-      <c r="F4" s="165">
+      <c r="F4" s="129">
         <v>0.83216999999999997</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="122"/>
+      <c r="B5" s="146"/>
       <c r="C5" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="165">
+      <c r="D5" s="129">
         <v>0.62448000000000004</v>
       </c>
-      <c r="E5" s="165">
+      <c r="E5" s="129">
         <v>0.72360000000000002</v>
       </c>
-      <c r="F5" s="165">
+      <c r="F5" s="129">
         <v>0.41958000000000001</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="122"/>
+      <c r="B6" s="146"/>
       <c r="C6" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="165">
+      <c r="D6" s="129">
         <v>0.45505000000000001</v>
       </c>
-      <c r="E6" s="165">
+      <c r="E6" s="129">
         <v>0.11337999999999999</v>
       </c>
-      <c r="F6" s="165">
+      <c r="F6" s="129">
         <v>1.0066999999999999</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="133"/>
+      <c r="B7" s="154"/>
       <c r="C7" s="8" t="s">
         <v>78</v>
       </c>
@@ -4048,7 +4051,7 @@
       </c>
     </row>
     <row r="8" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="122" t="s">
+      <c r="B8" s="146" t="s">
         <v>182</v>
       </c>
       <c r="C8" s="27" t="s">
@@ -4065,7 +4068,7 @@
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="122"/>
+      <c r="B9" s="146"/>
       <c r="C9" s="24" t="s">
         <v>88</v>
       </c>
@@ -4080,7 +4083,7 @@
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="122"/>
+      <c r="B10" s="146"/>
       <c r="C10" s="24" t="s">
         <v>89</v>
       </c>
@@ -4095,7 +4098,7 @@
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="133"/>
+      <c r="B11" s="154"/>
       <c r="C11" s="8" t="s">
         <v>78</v>
       </c>
@@ -4110,54 +4113,54 @@
       </c>
     </row>
     <row r="12" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="132" t="s">
+      <c r="B12" s="155" t="s">
         <v>183</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="165">
+      <c r="D12" s="129">
         <v>0.76215999999999995</v>
       </c>
-      <c r="E12" s="165">
+      <c r="E12" s="129">
         <v>0.82191999999999998</v>
       </c>
-      <c r="F12" s="165">
+      <c r="F12" s="129">
         <v>0.70299999999999996</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="122"/>
+      <c r="B13" s="146"/>
       <c r="C13" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="165">
+      <c r="D13" s="129">
         <v>0.10026</v>
       </c>
-      <c r="E13" s="165">
+      <c r="E13" s="129">
         <v>0.16441</v>
       </c>
-      <c r="F13" s="165">
+      <c r="F13" s="129">
         <v>5.6958000000000002E-2</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="122"/>
+      <c r="B14" s="146"/>
       <c r="C14" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="165">
+      <c r="D14" s="129">
         <v>1.0401</v>
       </c>
-      <c r="E14" s="165">
+      <c r="E14" s="129">
         <v>0.36659000000000003</v>
       </c>
-      <c r="F14" s="165">
+      <c r="F14" s="129">
         <v>1.5401</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="126"/>
+      <c r="B15" s="147"/>
       <c r="C15" s="3" t="s">
         <v>78</v>
       </c>
@@ -4186,7 +4189,7 @@
   <dimension ref="B1:W34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A2" sqref="A2:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4229,12 +4232,12 @@
       <c r="W2" s="24"/>
     </row>
     <row r="3" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="111" t="s">
+      <c r="D3" s="153" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
       <c r="K3" s="24"/>
       <c r="L3" s="105"/>
       <c r="M3" s="28"/>
@@ -4250,14 +4253,14 @@
       <c r="W3" s="24"/>
     </row>
     <row r="4" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="111" t="s">
+      <c r="D4" s="153" t="s">
         <v>94</v>
       </c>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111" t="s">
+      <c r="E4" s="153"/>
+      <c r="F4" s="153" t="s">
         <v>95</v>
       </c>
-      <c r="G4" s="111"/>
+      <c r="G4" s="153"/>
       <c r="K4" s="24"/>
       <c r="L4" s="105"/>
       <c r="M4" s="28"/>
@@ -4306,7 +4309,7 @@
       <c r="W5" s="24"/>
     </row>
     <row r="6" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="125" t="s">
+      <c r="B6" s="142" t="s">
         <v>181</v>
       </c>
       <c r="C6" s="27" t="s">
@@ -4315,13 +4318,13 @@
       <c r="D6" s="2">
         <v>141.1</v>
       </c>
-      <c r="E6" s="136">
+      <c r="E6" s="112">
         <v>1E-4</v>
       </c>
       <c r="F6" s="2">
         <v>41.04</v>
       </c>
-      <c r="G6" s="136">
+      <c r="G6" s="112">
         <v>1E-4</v>
       </c>
       <c r="K6" s="24"/>
@@ -4339,7 +4342,7 @@
       <c r="W6" s="24"/>
     </row>
     <row r="7" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="124"/>
+      <c r="B7" s="144"/>
       <c r="C7" s="8" t="s">
         <v>96</v>
       </c>
@@ -4370,7 +4373,7 @@
       <c r="W7" s="24"/>
     </row>
     <row r="8" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="125" t="s">
+      <c r="B8" s="142" t="s">
         <v>182</v>
       </c>
       <c r="C8" s="27" t="s">
@@ -4379,18 +4382,18 @@
       <c r="D8" s="27">
         <v>96.93</v>
       </c>
-      <c r="E8" s="136">
+      <c r="E8" s="112">
         <v>1E-4</v>
       </c>
       <c r="F8" s="27">
         <v>87.78</v>
       </c>
-      <c r="G8" s="136">
+      <c r="G8" s="112">
         <v>1E-4</v>
       </c>
       <c r="K8" s="24"/>
       <c r="L8" s="105"/>
-      <c r="M8" s="172"/>
+      <c r="M8" s="136"/>
       <c r="N8" s="24"/>
       <c r="O8" s="24"/>
       <c r="P8" s="24"/>
@@ -4403,26 +4406,26 @@
       <c r="W8" s="24"/>
     </row>
     <row r="9" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="124"/>
+      <c r="B9" s="144"/>
       <c r="C9" s="8" t="s">
         <v>96</v>
       </c>
       <c r="D9" s="8">
         <v>205.1</v>
       </c>
-      <c r="E9" s="176">
+      <c r="E9" s="139">
         <v>1E-4</v>
       </c>
       <c r="F9" s="8">
         <v>236.4</v>
       </c>
-      <c r="G9" s="176">
+      <c r="G9" s="139">
         <v>1E-4</v>
       </c>
       <c r="H9" s="32"/>
       <c r="K9" s="24"/>
       <c r="L9" s="105"/>
-      <c r="M9" s="172"/>
+      <c r="M9" s="136"/>
       <c r="N9" s="106"/>
       <c r="O9" s="106"/>
       <c r="P9" s="106"/>
@@ -4435,7 +4438,7 @@
       <c r="W9" s="24"/>
     </row>
     <row r="10" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="177" t="s">
+      <c r="B10" s="157" t="s">
         <v>183</v>
       </c>
       <c r="C10" s="27" t="s">
@@ -4444,19 +4447,19 @@
       <c r="D10" s="27">
         <v>190.3</v>
       </c>
-      <c r="E10" s="136">
+      <c r="E10" s="112">
         <v>1E-4</v>
       </c>
       <c r="F10" s="27">
         <v>73.3</v>
       </c>
-      <c r="G10" s="136">
-        <v>1E-4</v>
-      </c>
-      <c r="H10" s="174"/>
+      <c r="G10" s="112">
+        <v>1E-4</v>
+      </c>
+      <c r="H10" s="138"/>
       <c r="K10" s="24"/>
-      <c r="L10" s="108"/>
-      <c r="M10" s="172"/>
+      <c r="L10" s="156"/>
+      <c r="M10" s="136"/>
       <c r="N10" s="24"/>
       <c r="O10" s="24"/>
       <c r="P10" s="24"/>
@@ -4469,26 +4472,26 @@
       <c r="W10" s="24"/>
     </row>
     <row r="11" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="175"/>
+      <c r="B11" s="158"/>
       <c r="C11" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D11" s="3">
         <v>103.6</v>
       </c>
-      <c r="E11" s="137">
+      <c r="E11" s="113">
         <v>1E-4</v>
       </c>
       <c r="F11" s="3">
         <v>276.60000000000002</v>
       </c>
-      <c r="G11" s="137">
+      <c r="G11" s="113">
         <v>1E-4</v>
       </c>
       <c r="H11" s="28"/>
       <c r="K11" s="24"/>
-      <c r="L11" s="108"/>
-      <c r="M11" s="172"/>
+      <c r="L11" s="156"/>
+      <c r="M11" s="136"/>
       <c r="N11" s="50"/>
       <c r="O11" s="50"/>
       <c r="P11" s="50"/>
@@ -4510,8 +4513,8 @@
       <c r="H12" s="23"/>
       <c r="I12" s="24"/>
       <c r="K12" s="24"/>
-      <c r="L12" s="108"/>
-      <c r="M12" s="172"/>
+      <c r="L12" s="156"/>
+      <c r="M12" s="136"/>
       <c r="N12" s="30"/>
       <c r="O12" s="29"/>
       <c r="P12" s="24"/>
@@ -4533,8 +4536,8 @@
       <c r="H13" s="23"/>
       <c r="I13" s="24"/>
       <c r="K13" s="24"/>
-      <c r="L13" s="108"/>
-      <c r="M13" s="172"/>
+      <c r="L13" s="156"/>
+      <c r="M13" s="136"/>
       <c r="N13" s="23"/>
       <c r="O13" s="24"/>
       <c r="P13" s="23"/>
@@ -4556,7 +4559,7 @@
       <c r="I14" s="24"/>
       <c r="K14" s="24"/>
       <c r="L14" s="105"/>
-      <c r="M14" s="172"/>
+      <c r="M14" s="136"/>
       <c r="N14" s="24"/>
       <c r="O14" s="24"/>
       <c r="P14" s="24"/>
@@ -4577,7 +4580,7 @@
       <c r="H15" s="24"/>
       <c r="K15" s="24"/>
       <c r="L15" s="24"/>
-      <c r="M15" s="172"/>
+      <c r="M15" s="136"/>
       <c r="N15" s="24"/>
       <c r="O15" s="24"/>
       <c r="P15" s="24"/>
@@ -4598,7 +4601,7 @@
       <c r="H16" s="24"/>
       <c r="K16" s="24"/>
       <c r="L16" s="24"/>
-      <c r="M16" s="172"/>
+      <c r="M16" s="136"/>
       <c r="N16" s="24"/>
       <c r="O16" s="24"/>
       <c r="P16" s="24"/>
@@ -4619,7 +4622,7 @@
       <c r="H17" s="24"/>
       <c r="K17" s="24"/>
       <c r="L17" s="24"/>
-      <c r="M17" s="172"/>
+      <c r="M17" s="136"/>
       <c r="N17" s="24"/>
       <c r="O17" s="24"/>
       <c r="P17" s="24"/>
@@ -4640,7 +4643,7 @@
       <c r="H18" s="24"/>
       <c r="K18" s="24"/>
       <c r="L18" s="24"/>
-      <c r="M18" s="172"/>
+      <c r="M18" s="136"/>
       <c r="N18" s="24"/>
       <c r="O18" s="24"/>
       <c r="P18" s="24"/>
@@ -4661,7 +4664,7 @@
       <c r="H19" s="24"/>
       <c r="K19" s="24"/>
       <c r="L19" s="24"/>
-      <c r="M19" s="172"/>
+      <c r="M19" s="136"/>
       <c r="N19" s="24"/>
       <c r="O19" s="24"/>
       <c r="P19" s="24"/>
@@ -4861,7 +4864,7 @@
   <dimension ref="B3:K41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:B20"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4895,7 +4898,7 @@
       <c r="C4" s="24"/>
       <c r="D4" s="24"/>
       <c r="E4" s="24"/>
-      <c r="G4" s="112"/>
+      <c r="G4" s="159"/>
       <c r="H4" s="47"/>
       <c r="I4" s="81"/>
       <c r="J4" s="81"/>
@@ -4914,12 +4917,12 @@
       <c r="E5" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="112"/>
+      <c r="G5" s="159"/>
       <c r="I5" s="70"/>
       <c r="J5" s="70"/>
     </row>
     <row r="6" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="138" t="s">
+      <c r="B6" s="160" t="s">
         <v>97</v>
       </c>
       <c r="C6" s="68" t="s">
@@ -4931,12 +4934,12 @@
       <c r="E6" s="69">
         <v>147</v>
       </c>
-      <c r="G6" s="112"/>
+      <c r="G6" s="159"/>
       <c r="I6" s="70"/>
       <c r="J6" s="70"/>
     </row>
     <row r="7" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="139"/>
+      <c r="B7" s="161"/>
       <c r="C7" s="24" t="s">
         <v>8</v>
       </c>
@@ -4946,12 +4949,12 @@
       <c r="E7" s="70" t="s">
         <v>102</v>
       </c>
-      <c r="G7" s="112"/>
+      <c r="G7" s="159"/>
       <c r="I7" s="70"/>
       <c r="J7" s="71"/>
     </row>
     <row r="8" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="139"/>
+      <c r="B8" s="161"/>
       <c r="C8" s="24" t="s">
         <v>12</v>
       </c>
@@ -4961,12 +4964,12 @@
       <c r="E8" s="70">
         <v>637</v>
       </c>
-      <c r="G8" s="112"/>
+      <c r="G8" s="159"/>
       <c r="I8" s="70"/>
       <c r="J8" s="71"/>
     </row>
     <row r="9" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="139"/>
+      <c r="B9" s="161"/>
       <c r="C9" s="24" t="s">
         <v>13</v>
       </c>
@@ -4978,7 +4981,7 @@
       </c>
     </row>
     <row r="10" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="140"/>
+      <c r="B10" s="162"/>
       <c r="C10" s="8" t="s">
         <v>17</v>
       </c>
@@ -4990,7 +4993,7 @@
       </c>
     </row>
     <row r="11" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="138" t="s">
+      <c r="B11" s="160" t="s">
         <v>133</v>
       </c>
       <c r="C11" s="68" t="s">
@@ -5007,7 +5010,7 @@
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="139"/>
+      <c r="B12" s="161"/>
       <c r="C12" s="24" t="s">
         <v>8</v>
       </c>
@@ -5017,13 +5020,13 @@
       <c r="E12" s="75" t="s">
         <v>108</v>
       </c>
-      <c r="G12" s="112"/>
+      <c r="G12" s="159"/>
       <c r="H12" s="47"/>
       <c r="I12" s="75"/>
       <c r="J12" s="75"/>
     </row>
     <row r="13" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="139"/>
+      <c r="B13" s="161"/>
       <c r="C13" s="24" t="s">
         <v>12</v>
       </c>
@@ -5033,12 +5036,12 @@
       <c r="E13" s="76">
         <v>2.66</v>
       </c>
-      <c r="G13" s="112"/>
+      <c r="G13" s="159"/>
       <c r="I13" s="75"/>
       <c r="J13" s="75"/>
     </row>
     <row r="14" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="139"/>
+      <c r="B14" s="161"/>
       <c r="C14" s="24" t="s">
         <v>13</v>
       </c>
@@ -5048,12 +5051,12 @@
       <c r="E14" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="G14" s="112"/>
+      <c r="G14" s="159"/>
       <c r="I14" s="75"/>
       <c r="J14" s="75"/>
     </row>
     <row r="15" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="140"/>
+      <c r="B15" s="162"/>
       <c r="C15" s="8" t="s">
         <v>17</v>
       </c>
@@ -5063,12 +5066,12 @@
       <c r="E15" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="G15" s="112"/>
+      <c r="G15" s="159"/>
       <c r="I15" s="75"/>
       <c r="J15" s="75"/>
     </row>
     <row r="16" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="138" t="s">
+      <c r="B16" s="160" t="s">
         <v>134</v>
       </c>
       <c r="C16" s="68" t="s">
@@ -5080,12 +5083,12 @@
       <c r="E16" s="78">
         <v>173</v>
       </c>
-      <c r="G16" s="112"/>
+      <c r="G16" s="159"/>
       <c r="I16" s="75"/>
       <c r="J16" s="75"/>
     </row>
     <row r="17" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="139"/>
+      <c r="B17" s="161"/>
       <c r="C17" s="24" t="s">
         <v>8</v>
       </c>
@@ -5101,7 +5104,7 @@
       <c r="K17" s="20"/>
     </row>
     <row r="18" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="139"/>
+      <c r="B18" s="161"/>
       <c r="C18" s="24" t="s">
         <v>12</v>
       </c>
@@ -5113,7 +5116,7 @@
       </c>
     </row>
     <row r="19" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="139"/>
+      <c r="B19" s="161"/>
       <c r="C19" s="24" t="s">
         <v>13</v>
       </c>
@@ -5128,7 +5131,7 @@
       <c r="J19" s="36"/>
     </row>
     <row r="20" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="140"/>
+      <c r="B20" s="162"/>
       <c r="C20" s="8" t="s">
         <v>17</v>
       </c>
@@ -5138,13 +5141,13 @@
       <c r="E20" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="112"/>
+      <c r="G20" s="159"/>
       <c r="H20" s="47"/>
       <c r="I20" s="66"/>
       <c r="J20" s="66"/>
     </row>
     <row r="21" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="138" t="s">
+      <c r="B21" s="160" t="s">
         <v>99</v>
       </c>
       <c r="C21" s="68" t="s">
@@ -5156,12 +5159,12 @@
       <c r="E21" s="69">
         <v>174</v>
       </c>
-      <c r="G21" s="112"/>
+      <c r="G21" s="159"/>
       <c r="I21" s="66"/>
       <c r="J21" s="66"/>
     </row>
     <row r="22" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="139"/>
+      <c r="B22" s="161"/>
       <c r="C22" s="24" t="s">
         <v>8</v>
       </c>
@@ -5171,12 +5174,12 @@
       <c r="E22" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="G22" s="112"/>
+      <c r="G22" s="159"/>
       <c r="I22" s="66"/>
       <c r="J22" s="79"/>
     </row>
     <row r="23" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="139"/>
+      <c r="B23" s="161"/>
       <c r="C23" s="24" t="s">
         <v>12</v>
       </c>
@@ -5186,12 +5189,12 @@
       <c r="E23" s="76">
         <v>-22.8</v>
       </c>
-      <c r="G23" s="112"/>
+      <c r="G23" s="159"/>
       <c r="I23" s="66"/>
       <c r="J23" s="66"/>
     </row>
     <row r="24" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="139"/>
+      <c r="B24" s="161"/>
       <c r="C24" s="24" t="s">
         <v>13</v>
       </c>
@@ -5201,12 +5204,12 @@
       <c r="E24" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="G24" s="112"/>
+      <c r="G24" s="159"/>
       <c r="I24" s="66"/>
       <c r="J24" s="66"/>
     </row>
     <row r="25" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="140"/>
+      <c r="B25" s="162"/>
       <c r="C25" s="8" t="s">
         <v>123</v>
       </c>
@@ -5221,7 +5224,7 @@
       <c r="J25" s="81"/>
     </row>
     <row r="26" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="139" t="s">
+      <c r="B26" s="161" t="s">
         <v>135</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -5235,7 +5238,7 @@
       </c>
     </row>
     <row r="27" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="139"/>
+      <c r="B27" s="161"/>
       <c r="C27" s="2" t="s">
         <v>8</v>
       </c>
@@ -5250,7 +5253,7 @@
       <c r="J27" s="36"/>
     </row>
     <row r="28" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="139"/>
+      <c r="B28" s="161"/>
       <c r="C28" s="2" t="s">
         <v>12</v>
       </c>
@@ -5260,13 +5263,13 @@
       <c r="E28" s="67">
         <v>-48.6</v>
       </c>
-      <c r="G28" s="112"/>
+      <c r="G28" s="159"/>
       <c r="H28" s="47"/>
       <c r="I28" s="81"/>
       <c r="J28" s="81"/>
     </row>
     <row r="29" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="139"/>
+      <c r="B29" s="161"/>
       <c r="C29" s="2" t="s">
         <v>13</v>
       </c>
@@ -5276,12 +5279,12 @@
       <c r="E29" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="G29" s="112"/>
+      <c r="G29" s="159"/>
       <c r="I29" s="75"/>
       <c r="J29" s="75"/>
     </row>
     <row r="30" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="141"/>
+      <c r="B30" s="163"/>
       <c r="C30" s="3" t="s">
         <v>123</v>
       </c>
@@ -5291,17 +5294,17 @@
       <c r="E30" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="G30" s="112"/>
+      <c r="G30" s="159"/>
       <c r="I30" s="75"/>
       <c r="J30" s="75"/>
     </row>
     <row r="31" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G31" s="112"/>
+      <c r="G31" s="159"/>
       <c r="I31" s="75"/>
       <c r="J31" s="75"/>
     </row>
     <row r="32" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G32" s="112"/>
+      <c r="G32" s="159"/>
       <c r="I32" s="75"/>
       <c r="J32" s="75"/>
     </row>
@@ -5311,28 +5314,28 @@
       <c r="J36" s="36"/>
     </row>
     <row r="37" spans="7:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G37" s="112"/>
+      <c r="G37" s="159"/>
       <c r="H37" s="47"/>
       <c r="I37" s="75"/>
       <c r="J37" s="75"/>
     </row>
     <row r="38" spans="7:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G38" s="112"/>
+      <c r="G38" s="159"/>
       <c r="I38" s="75"/>
       <c r="J38" s="75"/>
     </row>
     <row r="39" spans="7:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G39" s="112"/>
+      <c r="G39" s="159"/>
       <c r="I39" s="75"/>
       <c r="J39" s="75"/>
     </row>
     <row r="40" spans="7:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G40" s="112"/>
+      <c r="G40" s="159"/>
       <c r="I40" s="75"/>
       <c r="J40" s="75"/>
     </row>
     <row r="41" spans="7:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G41" s="112"/>
+      <c r="G41" s="159"/>
       <c r="I41" s="75"/>
       <c r="J41" s="75"/>
     </row>
@@ -5358,7 +5361,7 @@
   <dimension ref="B2:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5380,7 +5383,7 @@
       </c>
     </row>
     <row r="3" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="114" t="s">
         <v>97</v>
       </c>
       <c r="C3" s="24">
@@ -5391,7 +5394,7 @@
       </c>
     </row>
     <row r="4" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="142" t="s">
+      <c r="B4" s="114" t="s">
         <v>98</v>
       </c>
       <c r="C4" s="24">
@@ -5402,7 +5405,7 @@
       </c>
     </row>
     <row r="5" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="142" t="s">
+      <c r="B5" s="114" t="s">
         <v>134</v>
       </c>
       <c r="C5" s="24">
@@ -5413,7 +5416,7 @@
       </c>
     </row>
     <row r="6" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="142" t="s">
+      <c r="B6" s="114" t="s">
         <v>99</v>
       </c>
       <c r="C6" s="24">
@@ -5424,7 +5427,7 @@
       </c>
     </row>
     <row r="7" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="143" t="s">
+      <c r="B7" s="115" t="s">
         <v>100</v>
       </c>
       <c r="C7" s="3">
@@ -5441,10 +5444,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49F4827-C3F3-4A85-B408-9C332CB32C13}">
-  <dimension ref="B1:I27"/>
+  <dimension ref="B2:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection sqref="A1:J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5455,663 +5458,663 @@
     <col min="4" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D1" s="111" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D2" s="153" t="s">
         <v>154</v>
       </c>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111" t="s">
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153" t="s">
         <v>155</v>
       </c>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F3" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I3" s="25" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="138" t="s">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="160" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C4" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D4" s="27">
         <v>577</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E4" s="27">
         <v>147</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F4" s="27">
         <v>138</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G4" s="27">
         <v>598</v>
       </c>
-      <c r="H3" s="27">
+      <c r="H4" s="27">
         <v>145</v>
       </c>
-      <c r="I3" s="27">
+      <c r="I4" s="27">
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="139"/>
-      <c r="C4" s="24" t="s">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="161"/>
+      <c r="C5" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D5" s="29">
         <v>0.2</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E5" s="29">
         <v>0.02</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F5" s="29">
         <v>0.16</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G5" s="29">
         <v>0.21</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H5" s="29">
         <v>0.03</v>
       </c>
-      <c r="I4" s="29">
+      <c r="I5" s="29">
         <v>0.09</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="139"/>
-      <c r="C5" s="24" t="s">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="161"/>
+      <c r="C6" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D6" s="29">
         <v>0</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E6" s="29">
         <v>0</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F6" s="29">
         <v>0</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G6" s="29">
         <v>0</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H6" s="29">
         <v>0</v>
       </c>
-      <c r="I5" s="29">
+      <c r="I6" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="139"/>
-      <c r="C6" s="24" t="s">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="161"/>
+      <c r="C7" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D7" s="29">
         <v>1.03</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E7" s="29">
         <v>0.28999999999999998</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F7" s="29">
         <v>1.84</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G7" s="29">
         <v>0.67</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H7" s="29">
         <v>0.33</v>
       </c>
-      <c r="I6" s="29">
+      <c r="I7" s="29">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="140"/>
-      <c r="C7" s="8" t="s">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="162"/>
+      <c r="C8" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="25">
-        <v>1E-4</v>
-      </c>
-      <c r="E7" s="46">
+      <c r="D8" s="25">
+        <v>1E-4</v>
+      </c>
+      <c r="E8" s="46">
         <v>6.0100000000000001E-2</v>
       </c>
-      <c r="F7" s="25">
-        <v>1E-4</v>
-      </c>
-      <c r="G7" s="25">
-        <v>1E-4</v>
-      </c>
-      <c r="H7" s="25">
+      <c r="F8" s="25">
+        <v>1E-4</v>
+      </c>
+      <c r="G8" s="25">
+        <v>1E-4</v>
+      </c>
+      <c r="H8" s="25">
         <v>4.9299999999999997E-2</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I8" s="25">
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="138" t="s">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="160" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C9" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D9" s="27">
         <v>605</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E9" s="27">
         <v>171</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F9" s="27">
         <v>161</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G9" s="27">
         <v>624</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H9" s="27">
         <v>171</v>
       </c>
-      <c r="I8" s="27">
+      <c r="I9" s="27">
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="139"/>
-      <c r="C9" s="24" t="s">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="161"/>
+      <c r="C10" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D10" s="29">
         <v>0.08</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E10" s="29">
         <v>0.05</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F10" s="29">
         <v>0.06</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G10" s="29">
         <v>0.09</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H10" s="29">
         <v>0.05</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I10" s="29">
         <v>0.02</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="139"/>
-      <c r="C10" s="24" t="s">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="161"/>
+      <c r="C11" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D11" s="29">
         <v>0.43</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E11" s="29">
         <v>0.5</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F11" s="29">
         <v>0.16</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G11" s="29">
         <v>0.82</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H11" s="29">
         <v>0.66</v>
       </c>
-      <c r="I10" s="29">
+      <c r="I11" s="29">
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="139"/>
-      <c r="C11" s="24" t="s">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="161"/>
+      <c r="C12" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D12" s="29">
         <v>0.84</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E12" s="29">
         <v>-0.43</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F12" s="29">
         <v>1.89</v>
       </c>
-      <c r="G11" s="29">
+      <c r="G12" s="29">
         <v>0.24</v>
       </c>
-      <c r="H11" s="29">
+      <c r="H12" s="29">
         <v>-0.56999999999999995</v>
       </c>
-      <c r="I11" s="29">
+      <c r="I12" s="29">
         <v>2.27</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="140"/>
-      <c r="C12" s="8" t="s">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="162"/>
+      <c r="C13" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="25">
-        <v>1E-4</v>
-      </c>
-      <c r="E12" s="25">
+      <c r="D13" s="25">
+        <v>1E-4</v>
+      </c>
+      <c r="E13" s="25">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F13" s="25">
         <v>1.5E-3</v>
       </c>
-      <c r="G12" s="25">
-        <v>1E-4</v>
-      </c>
-      <c r="H12" s="25">
+      <c r="G13" s="25">
+        <v>1E-4</v>
+      </c>
+      <c r="H13" s="25">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I13" s="8">
         <v>7.6799999999999993E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="138" t="s">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="160" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C14" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="27">
+      <c r="D14" s="27">
         <v>611</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E14" s="27">
         <v>173</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F14" s="27">
         <v>158</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G14" s="27">
         <v>619</v>
       </c>
-      <c r="H13" s="27">
+      <c r="H14" s="27">
         <v>173</v>
       </c>
-      <c r="I13" s="27">
+      <c r="I14" s="27">
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="139"/>
-      <c r="C14" s="24" t="s">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="161"/>
+      <c r="C15" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D15" s="29">
         <v>0.32</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E15" s="29">
         <v>0.02</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F15" s="29">
         <v>0.18</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G15" s="29">
         <v>0.43</v>
       </c>
-      <c r="H14" s="29">
+      <c r="H15" s="29">
         <v>0.02</v>
       </c>
-      <c r="I14" s="29">
+      <c r="I15" s="29">
         <v>0.26</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="139"/>
-      <c r="C15" s="24" t="s">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="161"/>
+      <c r="C16" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D16" s="29">
         <v>0.48</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E16" s="29">
         <v>0.16</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F16" s="29">
         <v>0.16</v>
       </c>
-      <c r="G15" s="29">
+      <c r="G16" s="29">
         <v>0.93</v>
       </c>
-      <c r="H15" s="29">
+      <c r="H16" s="29">
         <v>0.22</v>
       </c>
-      <c r="I15" s="29">
+      <c r="I16" s="29">
         <v>0.59</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="139"/>
-      <c r="C16" s="24" t="s">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="161"/>
+      <c r="C17" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D17" s="29">
         <v>-0.11</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E17" s="29">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F17" s="29">
         <v>1.58</v>
       </c>
-      <c r="G16" s="29">
+      <c r="G17" s="29">
         <v>-1.7</v>
       </c>
-      <c r="H16" s="29">
+      <c r="H17" s="29">
         <v>0.12</v>
       </c>
-      <c r="I16" s="29">
+      <c r="I17" s="29">
         <v>0.23</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="140"/>
-      <c r="C17" s="8" t="s">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="162"/>
+      <c r="C18" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="25">
-        <v>1E-4</v>
-      </c>
-      <c r="E17" s="8">
+      <c r="D18" s="25">
+        <v>1E-4</v>
+      </c>
+      <c r="E18" s="8">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="F17" s="25">
-        <v>1E-4</v>
-      </c>
-      <c r="G17" s="25">
-        <v>1E-4</v>
-      </c>
-      <c r="H17" s="8">
+      <c r="F18" s="25">
+        <v>1E-4</v>
+      </c>
+      <c r="G18" s="25">
+        <v>1E-4</v>
+      </c>
+      <c r="H18" s="8">
         <v>8.1799999999999998E-2</v>
       </c>
-      <c r="I17" s="25">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="138" t="s">
+      <c r="I18" s="25">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="160" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C19" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D19" s="27">
         <v>605</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E19" s="27">
         <v>174</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F19" s="27">
         <v>164</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G19" s="27">
         <v>629</v>
       </c>
-      <c r="H18" s="27">
+      <c r="H19" s="27">
         <v>174</v>
       </c>
-      <c r="I18" s="27">
+      <c r="I19" s="27">
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="139"/>
-      <c r="C19" s="24" t="s">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="161"/>
+      <c r="C20" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D20" s="29">
         <v>0.15</v>
       </c>
-      <c r="E19" s="29">
+      <c r="E20" s="29">
         <v>0.15</v>
       </c>
-      <c r="F19" s="29">
+      <c r="F20" s="29">
         <v>0.13</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G20" s="29">
         <v>0.15</v>
       </c>
-      <c r="H19" s="29">
+      <c r="H20" s="29">
         <v>0.22</v>
       </c>
-      <c r="I19" s="29">
+      <c r="I20" s="29">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="139"/>
-      <c r="C20" s="24" t="s">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="161"/>
+      <c r="C21" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="29">
+      <c r="D21" s="29">
         <v>-0.16</v>
       </c>
-      <c r="E20" s="29">
+      <c r="E21" s="29">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="F20" s="29">
+      <c r="F21" s="29">
         <v>-0.08</v>
       </c>
-      <c r="G20" s="29">
+      <c r="G21" s="29">
         <v>-0.3</v>
       </c>
-      <c r="H20" s="29">
+      <c r="H21" s="29">
         <v>-0.45</v>
       </c>
-      <c r="I20" s="29">
+      <c r="I21" s="29">
         <v>-0.17</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="139"/>
-      <c r="C21" s="24" t="s">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="161"/>
+      <c r="C22" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="29">
+      <c r="D22" s="29">
         <v>-1.6</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E22" s="29">
         <v>-5.44</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F22" s="29">
         <v>0.56999999999999995</v>
       </c>
-      <c r="G21" s="29">
+      <c r="G22" s="29">
         <v>-4.3600000000000003</v>
       </c>
-      <c r="H21" s="29">
+      <c r="H22" s="29">
         <v>-9.11</v>
       </c>
-      <c r="I21" s="29">
+      <c r="I22" s="29">
         <v>-0.89</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="140"/>
-      <c r="C22" s="8" t="s">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="162"/>
+      <c r="C23" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="25">
-        <v>1E-4</v>
-      </c>
-      <c r="E22" s="25">
-        <v>1E-4</v>
-      </c>
-      <c r="F22" s="25">
-        <v>1E-4</v>
-      </c>
-      <c r="G22" s="25">
-        <v>1E-4</v>
-      </c>
-      <c r="H22" s="25">
-        <v>1E-4</v>
-      </c>
-      <c r="I22" s="25">
+      <c r="D23" s="25">
+        <v>1E-4</v>
+      </c>
+      <c r="E23" s="25">
+        <v>1E-4</v>
+      </c>
+      <c r="F23" s="25">
+        <v>1E-4</v>
+      </c>
+      <c r="G23" s="25">
+        <v>1E-4</v>
+      </c>
+      <c r="H23" s="25">
+        <v>1E-4</v>
+      </c>
+      <c r="I23" s="25">
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="138" t="s">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="160" t="s">
         <v>135</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C24" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="27">
+      <c r="D24" s="27">
         <v>602</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E24" s="27">
         <v>174</v>
       </c>
-      <c r="F23" s="27">
+      <c r="F24" s="27">
         <v>167</v>
       </c>
-      <c r="G23" s="27">
+      <c r="G24" s="27">
         <v>627</v>
       </c>
-      <c r="H23" s="27">
+      <c r="H24" s="27">
         <v>174</v>
       </c>
-      <c r="I23" s="27">
+      <c r="I24" s="27">
         <v>170</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="139"/>
-      <c r="C24" s="24" t="s">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="161"/>
+      <c r="C25" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="29">
+      <c r="D25" s="29">
         <v>0.34</v>
       </c>
-      <c r="E24" s="29">
+      <c r="E25" s="29">
         <v>0.09</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F25" s="29">
         <v>0.25</v>
       </c>
-      <c r="G24" s="29">
+      <c r="G25" s="29">
         <v>0.36</v>
       </c>
-      <c r="H24" s="29">
+      <c r="H25" s="29">
         <v>0.09</v>
       </c>
-      <c r="I24" s="29">
+      <c r="I25" s="29">
         <v>0.26</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="139"/>
-      <c r="C25" s="24" t="s">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="161"/>
+      <c r="C26" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D25" s="29">
+      <c r="D26" s="29">
         <v>0.19</v>
       </c>
-      <c r="E25" s="29">
+      <c r="E26" s="29">
         <v>0.15</v>
       </c>
-      <c r="F25" s="29">
+      <c r="F26" s="29">
         <v>0.09</v>
       </c>
-      <c r="G25" s="29">
+      <c r="G26" s="29">
         <v>3.1E-2</v>
       </c>
-      <c r="H25" s="29">
+      <c r="H26" s="29">
         <v>0.2</v>
       </c>
-      <c r="I25" s="29">
+      <c r="I26" s="29">
         <v>0.25</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="139"/>
-      <c r="C26" s="24" t="s">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="161"/>
+      <c r="C27" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="D26" s="29">
+      <c r="D27" s="29">
         <v>11</v>
       </c>
-      <c r="E26" s="29">
+      <c r="E27" s="29">
         <v>7.91</v>
       </c>
-      <c r="F26" s="29">
+      <c r="F27" s="29">
         <v>6.57</v>
       </c>
-      <c r="G26" s="29">
+      <c r="G27" s="29">
         <v>17.440000000000001</v>
       </c>
-      <c r="H26" s="29">
+      <c r="H27" s="29">
         <v>10.92</v>
       </c>
-      <c r="I26" s="29">
+      <c r="I27" s="29">
         <v>14.8</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="141"/>
-      <c r="C27" s="3" t="s">
+    <row r="28" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="163"/>
+      <c r="C28" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="22">
-        <v>1E-4</v>
-      </c>
-      <c r="E27" s="22">
-        <v>1E-4</v>
-      </c>
-      <c r="F27" s="22">
-        <v>1E-4</v>
-      </c>
-      <c r="G27" s="22">
-        <v>1E-4</v>
-      </c>
-      <c r="H27" s="22">
-        <v>1E-4</v>
-      </c>
-      <c r="I27" s="22">
+      <c r="D28" s="22">
+        <v>1E-4</v>
+      </c>
+      <c r="E28" s="22">
+        <v>1E-4</v>
+      </c>
+      <c r="F28" s="22">
+        <v>1E-4</v>
+      </c>
+      <c r="G28" s="22">
+        <v>1E-4</v>
+      </c>
+      <c r="H28" s="22">
+        <v>1E-4</v>
+      </c>
+      <c r="I28" s="22">
         <v>1E-4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B19:B23"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -6121,8 +6124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F1C6E6-751D-442E-929B-6D9C8801B6EA}">
   <dimension ref="B2:U17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6136,46 +6139,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
       <c r="M2" s="49"/>
     </row>
     <row r="3" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="113" t="s">
+      <c r="D3" s="168" t="s">
         <v>154</v>
       </c>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113" t="s">
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168" t="s">
         <v>155</v>
       </c>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="168"/>
       <c r="M3" s="49"/>
     </row>
     <row r="4" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="113" t="s">
+      <c r="D4" s="168" t="s">
         <v>146</v>
       </c>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113" t="s">
+      <c r="E4" s="168"/>
+      <c r="F4" s="168" t="s">
         <v>147</v>
       </c>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113" t="s">
+      <c r="G4" s="168"/>
+      <c r="H4" s="168" t="s">
         <v>146</v>
       </c>
-      <c r="I4" s="113"/>
-      <c r="J4" s="113" t="s">
+      <c r="I4" s="168"/>
+      <c r="J4" s="168" t="s">
         <v>148</v>
       </c>
-      <c r="K4" s="113"/>
+      <c r="K4" s="168"/>
       <c r="L4" s="28"/>
       <c r="M4" s="49"/>
       <c r="N4" s="28"/>
@@ -6193,35 +6196,35 @@
       <c r="C5" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="178" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="178" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="178" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="178" t="s">
         <v>78</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="178" t="s">
         <v>90</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="178" t="s">
         <v>78</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="178" t="s">
         <v>90</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="178" t="s">
         <v>78</v>
       </c>
       <c r="M5" s="49"/>
       <c r="N5" s="28"/>
     </row>
     <row r="6" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="134" t="s">
+      <c r="B6" s="164" t="s">
         <v>97</v>
       </c>
       <c r="C6" s="95" t="s">
@@ -6230,7 +6233,7 @@
       <c r="D6" s="100">
         <v>5</v>
       </c>
-      <c r="E6" s="144">
+      <c r="E6" s="116">
         <v>1E-4</v>
       </c>
       <c r="F6" s="100">
@@ -6242,7 +6245,7 @@
       <c r="H6" s="100">
         <v>12.5</v>
       </c>
-      <c r="I6" s="144">
+      <c r="I6" s="116">
         <v>1E-4</v>
       </c>
       <c r="J6" s="100">
@@ -6260,32 +6263,32 @@
       <c r="S6" s="50"/>
     </row>
     <row r="7" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="160"/>
+      <c r="B7" s="165"/>
       <c r="C7" s="96" t="s">
         <v>145</v>
       </c>
       <c r="D7" s="63">
         <v>615.1</v>
       </c>
-      <c r="E7" s="145">
+      <c r="E7" s="117">
         <v>1E-4</v>
       </c>
       <c r="F7" s="101">
         <v>546.20000000000005</v>
       </c>
-      <c r="G7" s="145">
+      <c r="G7" s="117">
         <v>1E-4</v>
       </c>
       <c r="H7" s="101">
         <v>373.1</v>
       </c>
-      <c r="I7" s="145">
+      <c r="I7" s="117">
         <v>1E-4</v>
       </c>
       <c r="J7" s="101">
         <v>532.29999999999995</v>
       </c>
-      <c r="K7" s="145">
+      <c r="K7" s="117">
         <v>1E-4</v>
       </c>
       <c r="M7" s="49"/>
@@ -6297,7 +6300,7 @@
       <c r="S7" s="30"/>
     </row>
     <row r="8" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="134" t="s">
+      <c r="B8" s="164" t="s">
         <v>133</v>
       </c>
       <c r="C8" s="95" t="s">
@@ -6312,7 +6315,7 @@
       <c r="F8" s="100">
         <v>3.9670000000000001</v>
       </c>
-      <c r="G8" s="144">
+      <c r="G8" s="116">
         <v>4.7239999999999997E-2</v>
       </c>
       <c r="H8" s="100">
@@ -6334,7 +6337,7 @@
       <c r="S8" s="23"/>
     </row>
     <row r="9" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="160"/>
+      <c r="B9" s="165"/>
       <c r="C9" s="97" t="s">
         <v>145</v>
       </c>
@@ -6347,19 +6350,19 @@
       <c r="F9" s="101">
         <v>555.5</v>
       </c>
-      <c r="G9" s="145">
+      <c r="G9" s="117">
         <v>1E-4</v>
       </c>
       <c r="H9" s="101">
         <v>414.9</v>
       </c>
-      <c r="I9" s="145">
+      <c r="I9" s="117">
         <v>1E-4</v>
       </c>
       <c r="J9" s="101">
         <v>382.4</v>
       </c>
-      <c r="K9" s="145">
+      <c r="K9" s="117">
         <v>1E-4</v>
       </c>
       <c r="M9" s="49"/>
@@ -6367,7 +6370,7 @@
       <c r="U9" s="33"/>
     </row>
     <row r="10" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="134" t="s">
+      <c r="B10" s="164" t="s">
         <v>134</v>
       </c>
       <c r="C10" s="95" t="s">
@@ -6376,7 +6379,7 @@
       <c r="D10" s="69">
         <v>18.739999999999998</v>
       </c>
-      <c r="E10" s="146">
+      <c r="E10" s="118">
         <v>1E-4</v>
       </c>
       <c r="F10" s="100">
@@ -6388,20 +6391,20 @@
       <c r="H10" s="100">
         <v>43.5</v>
       </c>
-      <c r="I10" s="144">
+      <c r="I10" s="116">
         <v>1E-4</v>
       </c>
       <c r="J10" s="100">
         <v>32.29</v>
       </c>
-      <c r="K10" s="144">
+      <c r="K10" s="116">
         <v>1E-4</v>
       </c>
       <c r="M10" s="49"/>
       <c r="N10" s="28"/>
     </row>
     <row r="11" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="160"/>
+      <c r="B11" s="165"/>
       <c r="C11" s="96" t="s">
         <v>145</v>
       </c>
@@ -6414,19 +6417,19 @@
       <c r="F11" s="101">
         <v>554.1</v>
       </c>
-      <c r="G11" s="145">
+      <c r="G11" s="117">
         <v>1E-4</v>
       </c>
       <c r="H11" s="101">
         <v>430.7</v>
       </c>
-      <c r="I11" s="145">
+      <c r="I11" s="117">
         <v>1E-4</v>
       </c>
       <c r="J11" s="101">
         <v>231.2</v>
       </c>
-      <c r="K11" s="145">
+      <c r="K11" s="117">
         <v>1E-4</v>
       </c>
       <c r="M11" s="49"/>
@@ -6438,7 +6441,7 @@
       <c r="S11" s="33"/>
     </row>
     <row r="12" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="134" t="s">
+      <c r="B12" s="164" t="s">
         <v>99</v>
       </c>
       <c r="C12" s="95" t="s">
@@ -6447,32 +6450,32 @@
       <c r="D12" s="69">
         <v>8.1999999999999993</v>
       </c>
-      <c r="E12" s="146">
+      <c r="E12" s="118">
         <v>4.4000000000000003E-3</v>
       </c>
       <c r="F12" s="100">
         <v>13.9</v>
       </c>
-      <c r="G12" s="144">
+      <c r="G12" s="116">
         <v>2.2690000000000001E-4</v>
       </c>
       <c r="H12" s="100">
         <v>4.8</v>
       </c>
-      <c r="I12" s="144">
+      <c r="I12" s="116">
         <v>2.93E-2</v>
       </c>
       <c r="J12" s="100">
         <v>11.67</v>
       </c>
-      <c r="K12" s="144">
+      <c r="K12" s="116">
         <v>7.1080000000000004E-4</v>
       </c>
-      <c r="M12" s="108"/>
+      <c r="M12" s="156"/>
       <c r="N12" s="28"/>
     </row>
     <row r="13" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="160"/>
+      <c r="B13" s="165"/>
       <c r="C13" s="96" t="s">
         <v>145</v>
       </c>
@@ -6485,22 +6488,22 @@
       <c r="F13" s="101">
         <v>608.9</v>
       </c>
-      <c r="G13" s="145">
+      <c r="G13" s="117">
         <v>1E-4</v>
       </c>
       <c r="H13" s="101">
         <v>323.8</v>
       </c>
-      <c r="I13" s="145">
+      <c r="I13" s="117">
         <v>1E-4</v>
       </c>
       <c r="J13" s="101">
         <v>450.3</v>
       </c>
-      <c r="K13" s="145">
-        <v>1E-4</v>
-      </c>
-      <c r="M13" s="108"/>
+      <c r="K13" s="117">
+        <v>1E-4</v>
+      </c>
+      <c r="M13" s="156"/>
       <c r="N13" s="28"/>
       <c r="O13" s="50"/>
       <c r="P13" s="50"/>
@@ -6509,7 +6512,7 @@
       <c r="S13" s="50"/>
     </row>
     <row r="14" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="161" t="s">
+      <c r="B14" s="166" t="s">
         <v>135</v>
       </c>
       <c r="C14" s="98" t="s">
@@ -6530,7 +6533,7 @@
       <c r="H14" s="102">
         <v>6.4</v>
       </c>
-      <c r="I14" s="148">
+      <c r="I14" s="120">
         <v>1.14E-2</v>
       </c>
       <c r="J14" s="102">
@@ -6539,7 +6542,7 @@
       <c r="K14" s="56">
         <v>0.46350000000000002</v>
       </c>
-      <c r="M14" s="108"/>
+      <c r="M14" s="156"/>
       <c r="N14" s="28"/>
       <c r="O14" s="30"/>
       <c r="P14" s="29"/>
@@ -6547,35 +6550,35 @@
       <c r="S14" s="29"/>
     </row>
     <row r="15" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="135"/>
+      <c r="B15" s="167"/>
       <c r="C15" s="99" t="s">
         <v>145</v>
       </c>
       <c r="D15" s="103">
         <v>729.8</v>
       </c>
-      <c r="E15" s="147">
+      <c r="E15" s="119">
         <v>1E-4</v>
       </c>
       <c r="F15" s="104">
         <v>570.5</v>
       </c>
-      <c r="G15" s="149">
+      <c r="G15" s="121">
         <v>1E-4</v>
       </c>
       <c r="H15" s="104">
         <v>372.7</v>
       </c>
-      <c r="I15" s="149">
+      <c r="I15" s="121">
         <v>1E-4</v>
       </c>
       <c r="J15" s="104">
         <v>433.3</v>
       </c>
-      <c r="K15" s="149">
-        <v>1E-4</v>
-      </c>
-      <c r="M15" s="108"/>
+      <c r="K15" s="121">
+        <v>1E-4</v>
+      </c>
+      <c r="M15" s="156"/>
       <c r="N15" s="28"/>
       <c r="O15" s="23"/>
       <c r="Q15" s="23"/>
@@ -6646,13 +6649,13 @@
       <c r="C4" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D4" s="165">
+      <c r="D4" s="129">
         <v>0.33365430000000001</v>
       </c>
-      <c r="E4" s="166">
+      <c r="E4" s="130">
         <v>317974</v>
       </c>
-      <c r="F4" s="167">
+      <c r="F4" s="131">
         <v>1E-4</v>
       </c>
     </row>
@@ -6660,13 +6663,13 @@
       <c r="C5" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D5" s="165">
+      <c r="D5" s="129">
         <v>0.1704775</v>
       </c>
-      <c r="E5" s="168">
+      <c r="E5" s="132">
         <v>395841</v>
       </c>
-      <c r="F5" s="167">
+      <c r="F5" s="131">
         <v>4.2520000000000002E-2</v>
       </c>
     </row>
@@ -6674,13 +6677,13 @@
       <c r="C6" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D6" s="165">
+      <c r="D6" s="129">
         <v>0.51754129999999998</v>
       </c>
-      <c r="E6" s="168">
+      <c r="E6" s="132">
         <v>230225</v>
       </c>
-      <c r="F6" s="167">
+      <c r="F6" s="131">
         <v>1E-4</v>
       </c>
     </row>
@@ -6688,13 +6691,13 @@
       <c r="C7" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D7" s="165">
+      <c r="D7" s="129">
         <v>-0.25599110000000003</v>
       </c>
-      <c r="E7" s="166">
+      <c r="E7" s="130">
         <v>599348</v>
       </c>
-      <c r="F7" s="167">
+      <c r="F7" s="131">
         <v>2.1059999999999998E-3</v>
       </c>
     </row>
@@ -6705,10 +6708,10 @@
       <c r="D8" s="45">
         <v>0.45402389999999998</v>
       </c>
-      <c r="E8" s="169">
+      <c r="E8" s="133">
         <v>260535</v>
       </c>
-      <c r="F8" s="163">
+      <c r="F8" s="127">
         <v>1E-4</v>
       </c>
     </row>
@@ -6716,13 +6719,13 @@
       <c r="C9" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D9" s="165">
+      <c r="D9" s="129">
         <v>0.18881000000000001</v>
       </c>
-      <c r="E9" s="166">
+      <c r="E9" s="130">
         <v>387093</v>
       </c>
-      <c r="F9" s="167">
+      <c r="F9" s="131">
         <v>2.443E-2</v>
       </c>
     </row>
@@ -6730,13 +6733,13 @@
       <c r="C10" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D10" s="165">
+      <c r="D10" s="129">
         <v>0.1445504</v>
       </c>
-      <c r="E10" s="166">
+      <c r="E10" s="130">
         <v>408213</v>
       </c>
-      <c r="F10" s="170">
+      <c r="F10" s="134">
         <v>8.6099999999999996E-2</v>
       </c>
     </row>
@@ -6744,13 +6747,13 @@
       <c r="C11" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D11" s="165">
+      <c r="D11" s="129">
         <v>0.15716069999999999</v>
       </c>
-      <c r="E11" s="166">
+      <c r="E11" s="130">
         <v>402195</v>
       </c>
-      <c r="F11" s="170">
+      <c r="F11" s="134">
         <v>6.1780000000000002E-2</v>
       </c>
     </row>
@@ -6758,13 +6761,13 @@
       <c r="C12" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D12" s="165">
+      <c r="D12" s="129">
         <v>1.0009999999999999E-4</v>
       </c>
-      <c r="E12" s="166">
+      <c r="E12" s="130">
         <v>630201</v>
       </c>
-      <c r="F12" s="170">
+      <c r="F12" s="134">
         <v>-0.32064700000000002</v>
       </c>
     </row>
@@ -6775,10 +6778,10 @@
       <c r="D13" s="45">
         <v>0.22321750000000001</v>
       </c>
-      <c r="E13" s="169">
+      <c r="E13" s="133">
         <v>370674</v>
       </c>
-      <c r="F13" s="163">
+      <c r="F13" s="127">
         <v>7.5799999999999999E-3</v>
       </c>
     </row>
@@ -6786,13 +6789,13 @@
       <c r="C14" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D14" s="165">
+      <c r="D14" s="129">
         <v>-0.1193779</v>
       </c>
-      <c r="E14" s="166">
+      <c r="E14" s="130">
         <v>534157</v>
       </c>
-      <c r="F14" s="170">
+      <c r="F14" s="134">
         <v>0.15709999999999999</v>
       </c>
     </row>
@@ -6800,13 +6803,13 @@
       <c r="C15" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D15" s="165">
+      <c r="D15" s="129">
         <v>0.10406749999999999</v>
       </c>
-      <c r="E15" s="166">
+      <c r="E15" s="130">
         <v>427531</v>
       </c>
-      <c r="F15" s="170">
+      <c r="F15" s="134">
         <v>0.21779999999999999</v>
       </c>
     </row>
@@ -6814,13 +6817,13 @@
       <c r="C16" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D16" s="165">
+      <c r="D16" s="129">
         <v>-0.47039959999999997</v>
       </c>
-      <c r="E16" s="166">
+      <c r="E16" s="130">
         <v>701661</v>
       </c>
-      <c r="F16" s="167">
+      <c r="F16" s="131">
         <v>1E-4</v>
       </c>
     </row>
@@ -6831,10 +6834,10 @@
       <c r="D17" s="45">
         <v>0.54143629999999998</v>
       </c>
-      <c r="E17" s="169">
+      <c r="E17" s="133">
         <v>218822</v>
       </c>
-      <c r="F17" s="163">
+      <c r="F17" s="127">
         <v>1E-4</v>
       </c>
     </row>
@@ -6842,13 +6845,13 @@
       <c r="C18" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D18" s="165">
+      <c r="D18" s="129">
         <v>0.13300960000000001</v>
       </c>
-      <c r="E18" s="166">
+      <c r="E18" s="130">
         <v>413720</v>
       </c>
-      <c r="F18" s="170">
+      <c r="F18" s="134">
         <v>0.1145</v>
       </c>
     </row>
@@ -6856,13 +6859,13 @@
       <c r="C19" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D19" s="165">
+      <c r="D19" s="129">
         <v>9.2763789999999999E-2</v>
       </c>
-      <c r="E19" s="166">
+      <c r="E19" s="130">
         <v>432925</v>
       </c>
-      <c r="F19" s="170">
+      <c r="F19" s="134">
         <v>0.2722</v>
       </c>
     </row>
@@ -6873,10 +6876,10 @@
       <c r="D20" s="45">
         <v>-0.33167049999999998</v>
       </c>
-      <c r="E20" s="169">
+      <c r="E20" s="133">
         <v>635461</v>
       </c>
-      <c r="F20" s="163">
+      <c r="F20" s="127">
         <v>1E-4</v>
       </c>
     </row>
@@ -6884,13 +6887,13 @@
       <c r="C21" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D21" s="165">
+      <c r="D21" s="129">
         <v>-0.1341812</v>
       </c>
-      <c r="E21" s="166">
+      <c r="E21" s="130">
         <v>541221</v>
       </c>
-      <c r="F21" s="170">
+      <c r="F21" s="134">
         <v>0.1114</v>
       </c>
     </row>
@@ -6901,10 +6904,10 @@
       <c r="D22" s="45">
         <v>0.32678699999999999</v>
       </c>
-      <c r="E22" s="169">
+      <c r="E22" s="133">
         <v>321251</v>
       </c>
-      <c r="F22" s="163">
+      <c r="F22" s="127">
         <v>1E-4</v>
       </c>
     </row>
@@ -6915,10 +6918,10 @@
       <c r="D23" s="48">
         <v>-0.3238626</v>
       </c>
-      <c r="E23" s="171">
+      <c r="E23" s="135">
         <v>631735</v>
       </c>
-      <c r="F23" s="164">
+      <c r="F23" s="128">
         <v>1E-4</v>
       </c>
     </row>

--- a/Relatório Final/Tabelas/Tabelas.xlsx
+++ b/Relatório Final/Tabelas/Tabelas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bia99\OneDrive\Documents\Wikiaves\ProjWAV\Relatório Final\Tabelas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A504BF9-B399-463E-B31E-73FD4ABA0FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CAF81A0-F98A-4412-A4AF-8BA4E35ACD38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela 1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="185">
   <si>
     <t>Variável</t>
   </si>
@@ -512,72 +512,6 @@
     <t xml:space="preserve">SLI x WAV2 </t>
   </si>
   <si>
-    <t>rho</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Registros WAV (Log10) - Altitude (m)</t>
-  </si>
-  <si>
-    <t>Registros WAV (Log10) - Área (Log10(Km^2)</t>
-  </si>
-  <si>
-    <t>Registros WAV (Log10) - População (Log10 indivíduos)</t>
-  </si>
-  <si>
-    <t>Registros WAV (Log10) - Latitude (°)</t>
-  </si>
-  <si>
-    <t>Registros WAV (Log10) - Longitude (°)</t>
-  </si>
-  <si>
-    <t>Registros SLI (Log10) - Altitude (m)</t>
-  </si>
-  <si>
-    <t>Registros SLI (Log10) - Área (Log10(Km^2)</t>
-  </si>
-  <si>
-    <t>Registros SLI (Log10) - População (Log10 indivíduos)</t>
-  </si>
-  <si>
-    <t>Registros SLI (Log10) - Latitude (°)</t>
-  </si>
-  <si>
-    <t>Registros SLI (Log10) - Longitude (°)</t>
-  </si>
-  <si>
-    <t>Altitude (m) - Área (Log10(Km^2)</t>
-  </si>
-  <si>
-    <t>Altitude (m) - População (Log10 indivíduos)</t>
-  </si>
-  <si>
-    <t>Altitude (m) - Latitude (°)</t>
-  </si>
-  <si>
-    <t>Altitude (m) - Longitude (°)</t>
-  </si>
-  <si>
-    <t>Área (Log10(Km^2)) - População (Log10 indivíduos)</t>
-  </si>
-  <si>
-    <t>Área (Log10(Km^2)) - Latitude (°)</t>
-  </si>
-  <si>
-    <t>Área (Log10(Km^2)) - Longitude (°)</t>
-  </si>
-  <si>
-    <t>População (Log10 indivíduos) - Latitude (°)</t>
-  </si>
-  <si>
-    <t>População (Log10 indivíduos) - Longitude (°)</t>
-  </si>
-  <si>
-    <t>Latitude (°) - Longitude (°)</t>
-  </si>
-  <si>
     <t>Par de comparação</t>
   </si>
   <si>
@@ -588,6 +522,75 @@
   </si>
   <si>
     <t>Número de Espécies (Log10) x Número de Registros (Log10+Log10^2)</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Riqueza x Registros</t>
+  </si>
+  <si>
+    <t>Área (Log10(Km^2))</t>
+  </si>
+  <si>
+    <t>Registros WAV (Log10) x Altitude (m)</t>
+  </si>
+  <si>
+    <t>Registros WAV (Log10) x Área (Log10(Km^2)</t>
+  </si>
+  <si>
+    <t>Registros WAV (Log10) x População (Log10 indivíduos)</t>
+  </si>
+  <si>
+    <t>Registros WAV (Log10) x Latitude (°)</t>
+  </si>
+  <si>
+    <t>Registros WAV (Log10) x Longitude (°)</t>
+  </si>
+  <si>
+    <t>Registros SLI (Log10) x Altitude (m)</t>
+  </si>
+  <si>
+    <t>Registros SLI (Log10) x Área (Log10(Km^2)</t>
+  </si>
+  <si>
+    <t>Registros SLI (Log10) x População (Log10 indivíduos)</t>
+  </si>
+  <si>
+    <t>Registros SLI (Log10) x Latitude (°)</t>
+  </si>
+  <si>
+    <t>Registros SLI (Log10) x Longitude (°)</t>
+  </si>
+  <si>
+    <t>Altitude (m) x Área (Log10(Km^2)</t>
+  </si>
+  <si>
+    <t>Altitude (m) x População (Log10 indivíduos)</t>
+  </si>
+  <si>
+    <t>Altitude (m) x Latitude (°)</t>
+  </si>
+  <si>
+    <t>Altitude (m) x Longitude (°)</t>
+  </si>
+  <si>
+    <t>Área (Log10(Km^2)) x População (Log10 indivíduos)</t>
+  </si>
+  <si>
+    <t>Área (Log10(Km^2)) x Latitude (°)</t>
+  </si>
+  <si>
+    <t>Área (Log10(Km^2)) x Longitude (°)</t>
+  </si>
+  <si>
+    <t>População (Log10 indivíduos) x Latitude (°)</t>
+  </si>
+  <si>
+    <t>População (Log10 indivíduos) x Longitude (°)</t>
+  </si>
+  <si>
+    <t>Latitude (°) x Longitude (°)</t>
   </si>
 </sst>
 </file>
@@ -705,7 +708,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1008,12 +1011,8 @@
     <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1023,6 +1022,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1070,6 +1087,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1094,18 +1114,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1135,9 +1143,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1421,8 +1426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:W39"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection sqref="A1:H34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1470,10 +1475,10 @@
       <c r="P2" s="33"/>
     </row>
     <row r="3" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="140" t="s">
+      <c r="B3" s="142" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="148" t="s">
+      <c r="C3" s="150" t="s">
         <v>152</v>
       </c>
       <c r="D3" s="91" t="s">
@@ -1489,7 +1494,7 @@
         <v>173</v>
       </c>
       <c r="K3" s="28"/>
-      <c r="L3" s="151"/>
+      <c r="L3" s="153"/>
       <c r="N3" s="83"/>
       <c r="O3" s="83"/>
       <c r="P3" s="83"/>
@@ -1502,8 +1507,8 @@
       <c r="W3" s="64"/>
     </row>
     <row r="4" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="140"/>
-      <c r="C4" s="148"/>
+      <c r="B4" s="142"/>
+      <c r="C4" s="150"/>
       <c r="D4" s="91" t="s">
         <v>132</v>
       </c>
@@ -1517,7 +1522,7 @@
         <v>779</v>
       </c>
       <c r="K4" s="82"/>
-      <c r="L4" s="151"/>
+      <c r="L4" s="153"/>
       <c r="N4" s="66"/>
       <c r="O4" s="83"/>
       <c r="P4" s="83"/>
@@ -1530,8 +1535,8 @@
       <c r="W4" s="64"/>
     </row>
     <row r="5" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="141"/>
-      <c r="C5" s="149"/>
+      <c r="B5" s="143"/>
+      <c r="C5" s="151"/>
       <c r="D5" s="93" t="s">
         <v>4</v>
       </c>
@@ -1545,7 +1550,7 @@
         <v>535711</v>
       </c>
       <c r="K5" s="82"/>
-      <c r="L5" s="151"/>
+      <c r="L5" s="153"/>
       <c r="N5" s="83"/>
       <c r="O5" s="85"/>
       <c r="P5" s="85"/>
@@ -1558,10 +1563,10 @@
       <c r="W5" s="64"/>
     </row>
     <row r="6" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="145" t="s">
+      <c r="B6" s="147" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="150" t="s">
+      <c r="C6" s="152" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="24" t="s">
@@ -1577,7 +1582,7 @@
         <v>37</v>
       </c>
       <c r="K6" s="82"/>
-      <c r="L6" s="151"/>
+      <c r="L6" s="153"/>
       <c r="N6" s="66"/>
       <c r="O6" s="66"/>
       <c r="P6" s="66"/>
@@ -1588,8 +1593,8 @@
       <c r="V6" s="64"/>
     </row>
     <row r="7" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="146"/>
-      <c r="C7" s="143"/>
+      <c r="B7" s="148"/>
+      <c r="C7" s="145"/>
       <c r="D7" s="24" t="s">
         <v>12</v>
       </c>
@@ -1603,7 +1608,7 @@
         <v>213</v>
       </c>
       <c r="K7" s="82"/>
-      <c r="L7" s="151"/>
+      <c r="L7" s="153"/>
       <c r="M7" s="86"/>
       <c r="N7" s="79"/>
       <c r="O7" s="79"/>
@@ -1616,8 +1621,8 @@
       <c r="V7" s="66"/>
     </row>
     <row r="8" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="146"/>
-      <c r="C8" s="143"/>
+      <c r="B8" s="148"/>
+      <c r="C8" s="145"/>
       <c r="D8" s="24" t="s">
         <v>13</v>
       </c>
@@ -1631,7 +1636,7 @@
         <v>40</v>
       </c>
       <c r="K8" s="28"/>
-      <c r="L8" s="151"/>
+      <c r="L8" s="153"/>
       <c r="M8" s="86"/>
       <c r="N8" s="64"/>
       <c r="O8" s="64"/>
@@ -1641,8 +1646,8 @@
       <c r="S8" s="65"/>
     </row>
     <row r="9" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="146"/>
-      <c r="C9" s="144"/>
+      <c r="B9" s="148"/>
+      <c r="C9" s="146"/>
       <c r="D9" s="8" t="s">
         <v>17</v>
       </c>
@@ -1656,7 +1661,7 @@
         <v>43</v>
       </c>
       <c r="K9" s="82"/>
-      <c r="L9" s="151"/>
+      <c r="L9" s="153"/>
       <c r="M9" s="86"/>
       <c r="N9" s="79"/>
       <c r="O9" s="79"/>
@@ -1664,8 +1669,8 @@
       <c r="Q9" s="84"/>
     </row>
     <row r="10" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="146"/>
-      <c r="C10" s="142" t="s">
+      <c r="B10" s="148"/>
+      <c r="C10" s="144" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -1681,7 +1686,7 @@
         <v>46</v>
       </c>
       <c r="K10" s="82"/>
-      <c r="L10" s="151"/>
+      <c r="L10" s="153"/>
       <c r="M10" s="47"/>
       <c r="N10" s="79"/>
       <c r="O10" s="79"/>
@@ -1689,8 +1694,8 @@
       <c r="Q10" s="84"/>
     </row>
     <row r="11" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="146"/>
-      <c r="C11" s="143"/>
+      <c r="B11" s="148"/>
+      <c r="C11" s="145"/>
       <c r="D11" s="86" t="s">
         <v>12</v>
       </c>
@@ -1710,8 +1715,8 @@
       <c r="Q11" s="84"/>
     </row>
     <row r="12" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="146"/>
-      <c r="C12" s="143"/>
+      <c r="B12" s="148"/>
+      <c r="C12" s="145"/>
       <c r="D12" s="86" t="s">
         <v>13</v>
       </c>
@@ -1727,8 +1732,8 @@
       <c r="K12" s="87"/>
     </row>
     <row r="13" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="146"/>
-      <c r="C13" s="144"/>
+      <c r="B13" s="148"/>
+      <c r="C13" s="146"/>
       <c r="D13" s="12" t="s">
         <v>17</v>
       </c>
@@ -1744,7 +1749,7 @@
       <c r="K13" s="88"/>
     </row>
     <row r="14" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="147"/>
+      <c r="B14" s="149"/>
       <c r="C14" s="107" t="s">
         <v>31</v>
       </c>
@@ -1762,10 +1767,10 @@
       </c>
     </row>
     <row r="15" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="145" t="s">
+      <c r="B15" s="147" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="150" t="s">
+      <c r="C15" s="152" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -1783,8 +1788,8 @@
       <c r="Q15" s="33"/>
     </row>
     <row r="16" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="146"/>
-      <c r="C16" s="143"/>
+      <c r="B16" s="148"/>
+      <c r="C16" s="145"/>
       <c r="D16" s="24" t="s">
         <v>12</v>
       </c>
@@ -1805,8 +1810,8 @@
       <c r="P16" s="33"/>
     </row>
     <row r="17" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="146"/>
-      <c r="C17" s="143"/>
+      <c r="B17" s="148"/>
+      <c r="C17" s="145"/>
       <c r="D17" s="24" t="s">
         <v>13</v>
       </c>
@@ -1820,15 +1825,15 @@
         <v>16</v>
       </c>
       <c r="K17" s="28"/>
-      <c r="L17" s="151"/>
+      <c r="L17" s="153"/>
       <c r="N17" s="85"/>
       <c r="O17" s="85"/>
       <c r="P17" s="85"/>
       <c r="Q17" s="82"/>
     </row>
     <row r="18" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="146"/>
-      <c r="C18" s="144"/>
+      <c r="B18" s="148"/>
+      <c r="C18" s="146"/>
       <c r="D18" s="8" t="s">
         <v>17</v>
       </c>
@@ -1842,15 +1847,15 @@
         <v>20</v>
       </c>
       <c r="K18" s="82"/>
-      <c r="L18" s="151"/>
+      <c r="L18" s="153"/>
       <c r="N18" s="85"/>
       <c r="O18" s="85"/>
       <c r="P18" s="85"/>
       <c r="Q18" s="84"/>
     </row>
     <row r="19" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="146"/>
-      <c r="C19" s="142" t="s">
+      <c r="B19" s="148"/>
+      <c r="C19" s="144" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="10" t="s">
@@ -1866,15 +1871,15 @@
         <v>24</v>
       </c>
       <c r="K19" s="82"/>
-      <c r="L19" s="151"/>
+      <c r="L19" s="153"/>
       <c r="N19" s="85"/>
       <c r="O19" s="85"/>
       <c r="P19" s="85"/>
       <c r="Q19" s="84"/>
     </row>
     <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="146"/>
-      <c r="C20" s="143"/>
+      <c r="B20" s="148"/>
+      <c r="C20" s="145"/>
       <c r="D20" s="86" t="s">
         <v>12</v>
       </c>
@@ -1888,15 +1893,15 @@
         <v>3</v>
       </c>
       <c r="K20" s="82"/>
-      <c r="L20" s="151"/>
+      <c r="L20" s="153"/>
       <c r="N20" s="85"/>
       <c r="O20" s="85"/>
       <c r="P20" s="85"/>
       <c r="Q20" s="84"/>
     </row>
     <row r="21" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="146"/>
-      <c r="C21" s="143"/>
+      <c r="B21" s="148"/>
+      <c r="C21" s="145"/>
       <c r="D21" s="86" t="s">
         <v>13</v>
       </c>
@@ -1910,7 +1915,7 @@
         <v>27</v>
       </c>
       <c r="K21" s="82"/>
-      <c r="L21" s="151"/>
+      <c r="L21" s="153"/>
       <c r="M21" s="86"/>
       <c r="N21" s="85"/>
       <c r="O21" s="85"/>
@@ -1918,8 +1923,8 @@
       <c r="Q21" s="84"/>
     </row>
     <row r="22" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="146"/>
-      <c r="C22" s="144"/>
+      <c r="B22" s="148"/>
+      <c r="C22" s="146"/>
       <c r="D22" s="12" t="s">
         <v>17</v>
       </c>
@@ -1933,7 +1938,7 @@
         <v>30</v>
       </c>
       <c r="K22" s="28"/>
-      <c r="L22" s="151"/>
+      <c r="L22" s="153"/>
       <c r="M22" s="86"/>
       <c r="N22" s="89"/>
       <c r="O22" s="89"/>
@@ -1941,7 +1946,7 @@
       <c r="Q22" s="84"/>
     </row>
     <row r="23" spans="2:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="147"/>
+      <c r="B23" s="149"/>
       <c r="C23" s="108" t="s">
         <v>31</v>
       </c>
@@ -1958,7 +1963,7 @@
         <v>34</v>
       </c>
       <c r="K23" s="82"/>
-      <c r="L23" s="151"/>
+      <c r="L23" s="153"/>
       <c r="M23" s="86"/>
       <c r="N23" s="85"/>
       <c r="O23" s="85"/>
@@ -1966,10 +1971,10 @@
       <c r="Q23" s="84"/>
     </row>
     <row r="24" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="146" t="s">
+      <c r="B24" s="148" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="143" t="s">
+      <c r="C24" s="145" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="6" t="s">
@@ -1985,7 +1990,7 @@
         <v>58</v>
       </c>
       <c r="K24" s="82"/>
-      <c r="L24" s="151"/>
+      <c r="L24" s="153"/>
       <c r="M24" s="47"/>
       <c r="N24" s="85"/>
       <c r="O24" s="85"/>
@@ -1993,8 +1998,8 @@
       <c r="Q24" s="84"/>
     </row>
     <row r="25" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="146"/>
-      <c r="C25" s="143"/>
+      <c r="B25" s="148"/>
+      <c r="C25" s="145"/>
       <c r="D25" s="24" t="s">
         <v>12</v>
       </c>
@@ -2014,8 +2019,8 @@
       <c r="Q25" s="84"/>
     </row>
     <row r="26" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="146"/>
-      <c r="C26" s="143"/>
+      <c r="B26" s="148"/>
+      <c r="C26" s="145"/>
       <c r="D26" s="24" t="s">
         <v>13</v>
       </c>
@@ -2031,8 +2036,8 @@
       <c r="K26" s="87"/>
     </row>
     <row r="27" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="146"/>
-      <c r="C27" s="144"/>
+      <c r="B27" s="148"/>
+      <c r="C27" s="146"/>
       <c r="D27" s="8" t="s">
         <v>17</v>
       </c>
@@ -2048,8 +2053,8 @@
       <c r="K27" s="88"/>
     </row>
     <row r="28" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="146"/>
-      <c r="C28" s="142" t="s">
+      <c r="B28" s="148"/>
+      <c r="C28" s="144" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="10" t="s">
@@ -2067,8 +2072,8 @@
       <c r="Q28" s="33"/>
     </row>
     <row r="29" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="146"/>
-      <c r="C29" s="143"/>
+      <c r="B29" s="148"/>
+      <c r="C29" s="145"/>
       <c r="D29" s="86" t="s">
         <v>12</v>
       </c>
@@ -2089,8 +2094,8 @@
       <c r="P29" s="33"/>
     </row>
     <row r="30" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="146"/>
-      <c r="C30" s="143"/>
+      <c r="B30" s="148"/>
+      <c r="C30" s="145"/>
       <c r="D30" s="86" t="s">
         <v>13</v>
       </c>
@@ -2104,15 +2109,15 @@
         <v>70</v>
       </c>
       <c r="K30" s="28"/>
-      <c r="L30" s="151"/>
+      <c r="L30" s="153"/>
       <c r="N30" s="83"/>
       <c r="O30" s="83"/>
       <c r="P30" s="83"/>
       <c r="Q30" s="82"/>
     </row>
     <row r="31" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="146"/>
-      <c r="C31" s="144"/>
+      <c r="B31" s="148"/>
+      <c r="C31" s="146"/>
       <c r="D31" s="12" t="s">
         <v>17</v>
       </c>
@@ -2126,14 +2131,14 @@
         <v>72</v>
       </c>
       <c r="K31" s="82"/>
-      <c r="L31" s="151"/>
+      <c r="L31" s="153"/>
       <c r="N31" s="66"/>
       <c r="O31" s="83"/>
       <c r="P31" s="83"/>
       <c r="Q31" s="84"/>
     </row>
     <row r="32" spans="2:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="147"/>
+      <c r="B32" s="149"/>
       <c r="C32" s="108" t="s">
         <v>31</v>
       </c>
@@ -2150,7 +2155,7 @@
         <v>75</v>
       </c>
       <c r="K32" s="82"/>
-      <c r="L32" s="151"/>
+      <c r="L32" s="153"/>
       <c r="N32" s="83"/>
       <c r="O32" s="85"/>
       <c r="P32" s="85"/>
@@ -2158,7 +2163,7 @@
     </row>
     <row r="33" spans="11:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K33" s="82"/>
-      <c r="L33" s="151"/>
+      <c r="L33" s="153"/>
       <c r="N33" s="66"/>
       <c r="O33" s="66"/>
       <c r="P33" s="66"/>
@@ -2166,7 +2171,7 @@
     </row>
     <row r="34" spans="11:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K34" s="82"/>
-      <c r="L34" s="151"/>
+      <c r="L34" s="153"/>
       <c r="M34" s="86"/>
       <c r="N34" s="79"/>
       <c r="O34" s="79"/>
@@ -2175,7 +2180,7 @@
     </row>
     <row r="35" spans="11:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K35" s="28"/>
-      <c r="L35" s="151"/>
+      <c r="L35" s="153"/>
       <c r="M35" s="86"/>
       <c r="N35" s="64"/>
       <c r="O35" s="64"/>
@@ -2184,7 +2189,7 @@
     </row>
     <row r="36" spans="11:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K36" s="82"/>
-      <c r="L36" s="151"/>
+      <c r="L36" s="153"/>
       <c r="M36" s="86"/>
       <c r="N36" s="79"/>
       <c r="O36" s="79"/>
@@ -2193,7 +2198,7 @@
     </row>
     <row r="37" spans="11:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K37" s="82"/>
-      <c r="L37" s="151"/>
+      <c r="L37" s="153"/>
       <c r="M37" s="47"/>
       <c r="N37" s="79"/>
       <c r="O37" s="79"/>
@@ -2239,8 +2244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23486BE-5F79-4CA9-850E-00095779225A}">
   <dimension ref="B2:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:G31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2270,7 +2275,7 @@
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="169" t="s">
+      <c r="B3" s="168" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="125" t="s">
@@ -2287,7 +2292,7 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="170"/>
+      <c r="B4" s="169"/>
       <c r="C4" s="114" t="s">
         <v>97</v>
       </c>
@@ -2302,7 +2307,7 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="170"/>
+      <c r="B5" s="169"/>
       <c r="C5" s="114" t="s">
         <v>98</v>
       </c>
@@ -2317,7 +2322,7 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="170"/>
+      <c r="B6" s="169"/>
       <c r="C6" s="114" t="s">
         <v>134</v>
       </c>
@@ -2332,7 +2337,7 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="170"/>
+      <c r="B7" s="169"/>
       <c r="C7" s="114" t="s">
         <v>99</v>
       </c>
@@ -2347,7 +2352,7 @@
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="171"/>
+      <c r="B8" s="170"/>
       <c r="C8" s="123" t="s">
         <v>100</v>
       </c>
@@ -2362,7 +2367,7 @@
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="169" t="s">
+      <c r="B9" s="168" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="125" t="s">
@@ -2379,7 +2384,7 @@
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="170"/>
+      <c r="B10" s="169"/>
       <c r="C10" s="114" t="s">
         <v>97</v>
       </c>
@@ -2394,7 +2399,7 @@
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="170"/>
+      <c r="B11" s="169"/>
       <c r="C11" s="114" t="s">
         <v>98</v>
       </c>
@@ -2409,7 +2414,7 @@
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="170"/>
+      <c r="B12" s="169"/>
       <c r="C12" s="114" t="s">
         <v>134</v>
       </c>
@@ -2424,7 +2429,7 @@
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="170"/>
+      <c r="B13" s="169"/>
       <c r="C13" s="114" t="s">
         <v>99</v>
       </c>
@@ -2439,7 +2444,7 @@
       </c>
     </row>
     <row r="14" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="172"/>
+      <c r="B14" s="171"/>
       <c r="C14" s="115" t="s">
         <v>100</v>
       </c>
@@ -2477,11 +2482,11 @@
         <v>142</v>
       </c>
       <c r="F17" s="52" t="s">
-        <v>78</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="169" t="s">
+      <c r="B18" s="168" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="125" t="s">
@@ -2498,7 +2503,7 @@
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="170"/>
+      <c r="B19" s="169"/>
       <c r="C19" s="114" t="s">
         <v>97</v>
       </c>
@@ -2513,7 +2518,7 @@
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="170"/>
+      <c r="B20" s="169"/>
       <c r="C20" s="114" t="s">
         <v>98</v>
       </c>
@@ -2528,7 +2533,7 @@
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="170"/>
+      <c r="B21" s="169"/>
       <c r="C21" s="114" t="s">
         <v>134</v>
       </c>
@@ -2543,7 +2548,7 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="170"/>
+      <c r="B22" s="169"/>
       <c r="C22" s="114" t="s">
         <v>99</v>
       </c>
@@ -2558,7 +2563,7 @@
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="171"/>
+      <c r="B23" s="170"/>
       <c r="C23" s="123" t="s">
         <v>100</v>
       </c>
@@ -2568,12 +2573,12 @@
       <c r="E23" s="57">
         <v>1.14191E-2</v>
       </c>
-      <c r="F23" s="57">
+      <c r="F23" s="117">
         <v>3.9849999999999997E-2</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="169" t="s">
+      <c r="B24" s="168" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="125" t="s">
@@ -2590,7 +2595,7 @@
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="170"/>
+      <c r="B25" s="169"/>
       <c r="C25" s="114" t="s">
         <v>97</v>
       </c>
@@ -2605,7 +2610,7 @@
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="170"/>
+      <c r="B26" s="169"/>
       <c r="C26" s="114" t="s">
         <v>98</v>
       </c>
@@ -2620,7 +2625,7 @@
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="170"/>
+      <c r="B27" s="169"/>
       <c r="C27" s="114" t="s">
         <v>134</v>
       </c>
@@ -2635,7 +2640,7 @@
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="170"/>
+      <c r="B28" s="169"/>
       <c r="C28" s="114" t="s">
         <v>99</v>
       </c>
@@ -2650,7 +2655,7 @@
       </c>
     </row>
     <row r="29" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="172"/>
+      <c r="B29" s="171"/>
       <c r="C29" s="115" t="s">
         <v>100</v>
       </c>
@@ -2692,15 +2697,16 @@
     <mergeCell ref="B24:B29"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38737C6-1D8B-488E-B81D-95B487E9C2F7}">
-  <dimension ref="B2:L25"/>
+  <dimension ref="B2:L40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M27"/>
+      <selection activeCell="B29" sqref="B29:B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2714,36 +2720,36 @@
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
-      <c r="E2" s="168" t="s">
+      <c r="E2" s="167" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
-      <c r="E3" s="168">
+      <c r="E3" s="167">
         <v>2</v>
       </c>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168">
+      <c r="F3" s="167"/>
+      <c r="G3" s="167">
         <v>3</v>
       </c>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168">
+      <c r="H3" s="167"/>
+      <c r="I3" s="167">
         <v>4</v>
       </c>
-      <c r="J3" s="168"/>
-      <c r="K3" s="168">
+      <c r="J3" s="167"/>
+      <c r="K3" s="167">
         <v>5</v>
       </c>
-      <c r="L3" s="168"/>
+      <c r="L3" s="167"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="35" t="s">
@@ -2759,32 +2765,32 @@
         <v>90</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>90</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="I4" s="19" t="s">
         <v>90</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="K4" s="19" t="s">
         <v>90</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>78</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="173">
+      <c r="B5" s="172">
         <v>71</v>
       </c>
-      <c r="C5" s="173" t="s">
+      <c r="C5" s="172" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="122" t="s">
@@ -2816,8 +2822,8 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="156"/>
-      <c r="C6" s="156"/>
+      <c r="B6" s="159"/>
+      <c r="C6" s="159"/>
       <c r="D6" s="114" t="s">
         <v>98</v>
       </c>
@@ -2847,8 +2853,8 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="156"/>
-      <c r="C7" s="156"/>
+      <c r="B7" s="159"/>
+      <c r="C7" s="159"/>
       <c r="D7" s="114" t="s">
         <v>134</v>
       </c>
@@ -2878,8 +2884,8 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="156"/>
-      <c r="C8" s="156"/>
+      <c r="B8" s="159"/>
+      <c r="C8" s="159"/>
       <c r="D8" s="114" t="s">
         <v>99</v>
       </c>
@@ -2909,8 +2915,8 @@
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="156"/>
-      <c r="C9" s="174"/>
+      <c r="B9" s="159"/>
+      <c r="C9" s="173"/>
       <c r="D9" s="123" t="s">
         <v>100</v>
       </c>
@@ -2940,8 +2946,8 @@
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="156"/>
-      <c r="C10" s="173" t="s">
+      <c r="B10" s="159"/>
+      <c r="C10" s="172" t="s">
         <v>85</v>
       </c>
       <c r="D10" s="122" t="s">
@@ -2973,8 +2979,8 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="156"/>
-      <c r="C11" s="156"/>
+      <c r="B11" s="159"/>
+      <c r="C11" s="159"/>
       <c r="D11" s="114" t="s">
         <v>98</v>
       </c>
@@ -3004,8 +3010,8 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="156"/>
-      <c r="C12" s="156"/>
+      <c r="B12" s="159"/>
+      <c r="C12" s="159"/>
       <c r="D12" s="114" t="s">
         <v>134</v>
       </c>
@@ -3035,8 +3041,8 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="156"/>
-      <c r="C13" s="156"/>
+      <c r="B13" s="159"/>
+      <c r="C13" s="159"/>
       <c r="D13" s="114" t="s">
         <v>99</v>
       </c>
@@ -3066,8 +3072,8 @@
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="174"/>
-      <c r="C14" s="174"/>
+      <c r="B14" s="173"/>
+      <c r="C14" s="173"/>
       <c r="D14" s="123" t="s">
         <v>100</v>
       </c>
@@ -3097,10 +3103,10 @@
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="173">
+      <c r="B15" s="172">
         <v>46</v>
       </c>
-      <c r="C15" s="173" t="s">
+      <c r="C15" s="172" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="122" t="s">
@@ -3132,8 +3138,8 @@
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="156"/>
-      <c r="C16" s="156"/>
+      <c r="B16" s="159"/>
+      <c r="C16" s="159"/>
       <c r="D16" s="114" t="s">
         <v>98</v>
       </c>
@@ -3163,8 +3169,8 @@
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="156"/>
-      <c r="C17" s="156"/>
+      <c r="B17" s="159"/>
+      <c r="C17" s="159"/>
       <c r="D17" s="114" t="s">
         <v>134</v>
       </c>
@@ -3194,8 +3200,8 @@
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="156"/>
-      <c r="C18" s="156"/>
+      <c r="B18" s="159"/>
+      <c r="C18" s="159"/>
       <c r="D18" s="114" t="s">
         <v>99</v>
       </c>
@@ -3225,8 +3231,8 @@
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="156"/>
-      <c r="C19" s="174"/>
+      <c r="B19" s="159"/>
+      <c r="C19" s="173"/>
       <c r="D19" s="123" t="s">
         <v>100</v>
       </c>
@@ -3256,8 +3262,8 @@
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="156"/>
-      <c r="C20" s="156" t="s">
+      <c r="B20" s="159"/>
+      <c r="C20" s="159" t="s">
         <v>85</v>
       </c>
       <c r="D20" s="114" t="s">
@@ -3289,8 +3295,8 @@
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="156"/>
-      <c r="C21" s="156"/>
+      <c r="B21" s="159"/>
+      <c r="C21" s="159"/>
       <c r="D21" s="114" t="s">
         <v>98</v>
       </c>
@@ -3320,8 +3326,8 @@
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="156"/>
-      <c r="C22" s="156"/>
+      <c r="B22" s="159"/>
+      <c r="C22" s="159"/>
       <c r="D22" s="114" t="s">
         <v>134</v>
       </c>
@@ -3351,8 +3357,8 @@
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="156"/>
-      <c r="C23" s="156"/>
+      <c r="B23" s="159"/>
+      <c r="C23" s="159"/>
       <c r="D23" s="114" t="s">
         <v>99</v>
       </c>
@@ -3382,8 +3388,8 @@
       </c>
     </row>
     <row r="24" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="175"/>
-      <c r="C24" s="175"/>
+      <c r="B24" s="174"/>
+      <c r="C24" s="174"/>
       <c r="D24" s="115" t="s">
         <v>100</v>
       </c>
@@ -3416,8 +3422,389 @@
       <c r="B25" s="47"/>
       <c r="C25" s="47"/>
     </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="E28" s="167" t="s">
+        <v>137</v>
+      </c>
+      <c r="F28" s="167"/>
+      <c r="G28" s="167"/>
+      <c r="H28" s="167"/>
+      <c r="I28" s="167"/>
+      <c r="J28" s="167"/>
+      <c r="K28" s="167"/>
+      <c r="L28" s="167"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="E29" s="167">
+        <v>2</v>
+      </c>
+      <c r="F29" s="167"/>
+      <c r="G29" s="167">
+        <v>3</v>
+      </c>
+      <c r="H29" s="167"/>
+      <c r="I29" s="167">
+        <v>4</v>
+      </c>
+      <c r="J29" s="167"/>
+      <c r="K29" s="167">
+        <v>5</v>
+      </c>
+      <c r="L29" s="167"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B30" s="141"/>
+      <c r="C30" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="D30" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="H30" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="I30" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="J30" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="K30" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="L30" s="19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B31" s="159"/>
+      <c r="C31" s="172" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="139" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" s="60">
+        <v>89.537000000000006</v>
+      </c>
+      <c r="F31" s="116">
+        <v>1E-4</v>
+      </c>
+      <c r="G31" s="60">
+        <v>46.969000000000001</v>
+      </c>
+      <c r="H31" s="116">
+        <v>1E-4</v>
+      </c>
+      <c r="I31" s="60">
+        <v>30.036999999999999</v>
+      </c>
+      <c r="J31" s="116">
+        <v>1E-4</v>
+      </c>
+      <c r="K31" s="60">
+        <v>102.52</v>
+      </c>
+      <c r="L31" s="116">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B32" s="159"/>
+      <c r="C32" s="159"/>
+      <c r="D32" s="136" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" s="59">
+        <v>0.46489999999999998</v>
+      </c>
+      <c r="F32" s="56">
+        <v>0.49890000000000001</v>
+      </c>
+      <c r="G32" s="59">
+        <v>0.42076999999999998</v>
+      </c>
+      <c r="H32" s="56">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="I32" s="59">
+        <v>4.4321999999999999</v>
+      </c>
+      <c r="J32" s="120">
+        <v>1.55E-2</v>
+      </c>
+      <c r="K32" s="59">
+        <v>3.3961999999999999</v>
+      </c>
+      <c r="L32" s="120">
+        <v>3.3329999999999999E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B33" s="159"/>
+      <c r="C33" s="159"/>
+      <c r="D33" s="136" t="s">
+        <v>134</v>
+      </c>
+      <c r="E33" s="59">
+        <v>1.0462</v>
+      </c>
+      <c r="F33" s="56">
+        <v>0.312</v>
+      </c>
+      <c r="G33" s="59">
+        <v>0.52456999999999998</v>
+      </c>
+      <c r="H33" s="56">
+        <v>0.59819999999999995</v>
+      </c>
+      <c r="I33" s="59">
+        <v>0.50995999999999997</v>
+      </c>
+      <c r="J33" s="56">
+        <v>0.68120000000000003</v>
+      </c>
+      <c r="K33" s="59">
+        <v>0.48887999999999998</v>
+      </c>
+      <c r="L33" s="56">
+        <v>0.74390000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B34" s="159"/>
+      <c r="C34" s="159"/>
+      <c r="D34" s="136" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" s="59">
+        <v>16.018000000000001</v>
+      </c>
+      <c r="F34" s="120">
+        <v>6.2480000000000001E-4</v>
+      </c>
+      <c r="G34" s="59">
+        <v>12.818</v>
+      </c>
+      <c r="H34" s="120">
+        <v>1.145E-4</v>
+      </c>
+      <c r="I34" s="59">
+        <v>13.047000000000001</v>
+      </c>
+      <c r="J34" s="120">
+        <v>1E-4</v>
+      </c>
+      <c r="K34" s="59">
+        <v>23.616</v>
+      </c>
+      <c r="L34" s="120">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B35" s="159"/>
+      <c r="C35" s="173"/>
+      <c r="D35" s="138" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" s="61">
+        <v>1.7529999999999999</v>
+      </c>
+      <c r="F35" s="57">
+        <v>0.19309999999999999</v>
+      </c>
+      <c r="G35" s="61">
+        <v>4.7910000000000004</v>
+      </c>
+      <c r="H35" s="117">
+        <v>1.6230000000000001E-2</v>
+      </c>
+      <c r="I35" s="61">
+        <v>3.1816</v>
+      </c>
+      <c r="J35" s="117">
+        <v>4.8550000000000003E-2</v>
+      </c>
+      <c r="K35" s="61">
+        <v>2.3976000000000002</v>
+      </c>
+      <c r="L35" s="57">
+        <v>9.0870000000000006E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B36" s="159"/>
+      <c r="C36" s="159" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="136" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" s="59">
+        <v>6.4222999999999999</v>
+      </c>
+      <c r="F36" s="120">
+        <v>1.7160000000000002E-2</v>
+      </c>
+      <c r="G36" s="59">
+        <v>266.47000000000003</v>
+      </c>
+      <c r="H36" s="120">
+        <v>1E-4</v>
+      </c>
+      <c r="I36" s="59">
+        <v>175</v>
+      </c>
+      <c r="J36" s="120">
+        <v>1E-4</v>
+      </c>
+      <c r="K36" s="59">
+        <v>130.44</v>
+      </c>
+      <c r="L36" s="120">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B37" s="159"/>
+      <c r="C37" s="159"/>
+      <c r="D37" s="136" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37" s="59">
+        <v>0.68415000000000004</v>
+      </c>
+      <c r="F37" s="56">
+        <v>0.4153</v>
+      </c>
+      <c r="G37" s="59">
+        <v>0.34821000000000002</v>
+      </c>
+      <c r="H37" s="56">
+        <v>0.70889999999999997</v>
+      </c>
+      <c r="I37" s="59">
+        <v>1.8725000000000001</v>
+      </c>
+      <c r="J37" s="56">
+        <v>0.1699</v>
+      </c>
+      <c r="K37" s="59">
+        <v>1.4351</v>
+      </c>
+      <c r="L37" s="56">
+        <v>0.26769999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B38" s="159"/>
+      <c r="C38" s="159"/>
+      <c r="D38" s="136" t="s">
+        <v>134</v>
+      </c>
+      <c r="E38" s="59">
+        <v>0.16320000000000001</v>
+      </c>
+      <c r="F38" s="56">
+        <v>0.68820000000000003</v>
+      </c>
+      <c r="G38" s="59">
+        <v>0.90968000000000004</v>
+      </c>
+      <c r="H38" s="56">
+        <v>0.41570000000000001</v>
+      </c>
+      <c r="I38" s="59">
+        <v>1.4175</v>
+      </c>
+      <c r="J38" s="56">
+        <v>0.26750000000000002</v>
+      </c>
+      <c r="K38" s="59">
+        <v>3.0767000000000002</v>
+      </c>
+      <c r="L38" s="120">
+        <v>4.2930000000000003E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B39" s="159"/>
+      <c r="C39" s="159"/>
+      <c r="D39" s="136" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39" s="59">
+        <v>40.609000000000002</v>
+      </c>
+      <c r="F39" s="120">
+        <v>1E-4</v>
+      </c>
+      <c r="G39" s="59">
+        <v>42.963000000000001</v>
+      </c>
+      <c r="H39" s="120">
+        <v>1E-4</v>
+      </c>
+      <c r="I39" s="59">
+        <v>33.085000000000001</v>
+      </c>
+      <c r="J39" s="120">
+        <v>1E-4</v>
+      </c>
+      <c r="K39" s="59">
+        <v>39.701000000000001</v>
+      </c>
+      <c r="L39" s="120">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="159"/>
+      <c r="C40" s="174"/>
+      <c r="D40" s="137" t="s">
+        <v>100</v>
+      </c>
+      <c r="E40" s="62">
+        <v>17.359000000000002</v>
+      </c>
+      <c r="F40" s="121">
+        <v>1.6119999999999999E-4</v>
+      </c>
+      <c r="G40" s="62">
+        <v>11.664999999999999</v>
+      </c>
+      <c r="H40" s="121">
+        <v>2.265E-4</v>
+      </c>
+      <c r="I40" s="62">
+        <v>9.2827999999999999</v>
+      </c>
+      <c r="J40" s="121">
+        <v>4.2089999999999999E-4</v>
+      </c>
+      <c r="K40" s="62">
+        <v>10.519</v>
+      </c>
+      <c r="L40" s="121">
+        <v>1.7149999999999999E-4</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="19">
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
@@ -3429,6 +3816,14 @@
     <mergeCell ref="B5:B14"/>
     <mergeCell ref="B15:B24"/>
     <mergeCell ref="C5:C9"/>
+    <mergeCell ref="B31:B40"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="E28:L28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -3436,10 +3831,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EBDC9E9-30BF-4C7E-88CF-B0C7C5C6E499}">
-  <dimension ref="B2:G14"/>
+  <dimension ref="B2:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3451,14 +3846,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D2" s="168">
+      <c r="D2" s="167">
         <v>71</v>
       </c>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168">
+      <c r="E2" s="167"/>
+      <c r="F2" s="167">
         <v>46</v>
       </c>
-      <c r="G2" s="168"/>
+      <c r="G2" s="167"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
@@ -3471,17 +3866,17 @@
         <v>140</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="F3" s="25" t="s">
         <v>140</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>78</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="176" t="s">
+      <c r="B4" s="175" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="122" t="s">
@@ -3501,7 +3896,7 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="140"/>
+      <c r="B5" s="142"/>
       <c r="C5" s="114" t="s">
         <v>98</v>
       </c>
@@ -3519,7 +3914,7 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="140"/>
+      <c r="B6" s="142"/>
       <c r="C6" s="114" t="s">
         <v>134</v>
       </c>
@@ -3537,7 +3932,7 @@
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="140"/>
+      <c r="B7" s="142"/>
       <c r="C7" s="114" t="s">
         <v>99</v>
       </c>
@@ -3555,7 +3950,7 @@
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="177"/>
+      <c r="B8" s="176"/>
       <c r="C8" s="123" t="s">
         <v>100</v>
       </c>
@@ -3573,7 +3968,7 @@
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="176" t="s">
+      <c r="B9" s="175" t="s">
         <v>85</v>
       </c>
       <c r="C9" s="122" t="s">
@@ -3593,7 +3988,7 @@
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="140"/>
+      <c r="B10" s="142"/>
       <c r="C10" s="114" t="s">
         <v>98</v>
       </c>
@@ -3611,7 +4006,7 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="140"/>
+      <c r="B11" s="142"/>
       <c r="C11" s="114" t="s">
         <v>134</v>
       </c>
@@ -3629,7 +4024,7 @@
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="140"/>
+      <c r="B12" s="142"/>
       <c r="C12" s="114" t="s">
         <v>99</v>
       </c>
@@ -3647,7 +4042,7 @@
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="177"/>
+      <c r="B13" s="176"/>
       <c r="C13" s="123" t="s">
         <v>100</v>
       </c>
@@ -3682,12 +4077,169 @@
         <v>1.9E-3</v>
       </c>
     </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D18" s="167"/>
+      <c r="E18" s="167"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="175" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="139" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="43">
+        <v>0.12180000000000001</v>
+      </c>
+      <c r="E20" s="126">
+        <v>4.5695E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="142"/>
+      <c r="C21" s="136" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="29">
+        <v>0.2354</v>
+      </c>
+      <c r="E21" s="110">
+        <v>4.4996000000000003E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="142"/>
+      <c r="C22" s="136" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" s="29">
+        <v>-6.0400000000000002E-2</v>
+      </c>
+      <c r="E22" s="23">
+        <v>0.73463000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="142"/>
+      <c r="C23" s="136" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="29">
+        <v>0.15759999999999999</v>
+      </c>
+      <c r="E23" s="110">
+        <v>2.0997999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="176"/>
+      <c r="C24" s="138" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="45">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="E24" s="127">
+        <v>2.0298E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="175" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="139" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" s="43">
+        <v>0.30209999999999998</v>
+      </c>
+      <c r="E25" s="126">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="142"/>
+      <c r="C26" s="136" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="29">
+        <v>7.2400000000000006E-2</v>
+      </c>
+      <c r="E26" s="23">
+        <v>0.19128000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="142"/>
+      <c r="C27" s="136" t="s">
+        <v>134</v>
+      </c>
+      <c r="D27" s="29">
+        <v>-6.2890000000000001E-2</v>
+      </c>
+      <c r="E27" s="23">
+        <v>0.78322000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="142"/>
+      <c r="C28" s="136" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="29">
+        <v>0.67589999999999995</v>
+      </c>
+      <c r="E28" s="110">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="176"/>
+      <c r="C29" s="138" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="45">
+        <v>0.1845</v>
+      </c>
+      <c r="E29" s="127">
+        <v>2.2398000000000001E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="124" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="48">
+        <v>0.23</v>
+      </c>
+      <c r="E30" s="128">
+        <v>1.9E-3</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="B25:B29"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -3698,7 +4250,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:G16"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3841,23 +4393,23 @@
       <c r="P7" s="24"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C9" s="153" t="s">
+      <c r="C9" s="155" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="153"/>
-      <c r="E9" s="153"/>
-      <c r="F9" s="153"/>
+      <c r="D9" s="155"/>
+      <c r="E9" s="155"/>
+      <c r="F9" s="155"/>
     </row>
     <row r="10" spans="1:16" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5"/>
-      <c r="C10" s="152" t="s">
+      <c r="C10" s="154" t="s">
         <v>156</v>
       </c>
-      <c r="D10" s="152"/>
-      <c r="E10" s="152" t="s">
+      <c r="D10" s="154"/>
+      <c r="E10" s="154" t="s">
         <v>157</v>
       </c>
-      <c r="F10" s="152"/>
+      <c r="F10" s="154"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B11" s="25" t="s">
@@ -3867,13 +4419,13 @@
         <v>76</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="E11" s="25" t="s">
         <v>77</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>78</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -3942,10 +4494,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{129F99B0-2EF4-4645-99B0-5CDE0AA273F6}">
-  <dimension ref="B2:F15"/>
+  <dimension ref="B2:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G16"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3953,10 +4505,12 @@
     <col min="1" max="1" width="8.88671875" style="2"/>
     <col min="2" max="2" width="22.77734375" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2"/>
+    <col min="4" max="9" width="8.88671875" style="2"/>
+    <col min="10" max="10" width="18.109375" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">
         <v>84</v>
       </c>
@@ -3972,25 +4526,53 @@
       <c r="F2" s="19" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="137"/>
-      <c r="C3" s="137" t="s">
+      <c r="J2" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="133"/>
+      <c r="C3" s="133" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="137">
+      <c r="D3" s="133">
         <v>620</v>
       </c>
-      <c r="E3" s="137">
+      <c r="E3" s="133">
         <v>143</v>
       </c>
-      <c r="F3" s="137">
+      <c r="F3" s="133">
         <v>171</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="146" t="s">
-        <v>181</v>
+      <c r="J3" s="133"/>
+      <c r="K3" s="133" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" s="133">
+        <v>620</v>
+      </c>
+      <c r="M3" s="133">
+        <v>143</v>
+      </c>
+      <c r="N3" s="133">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="148" t="s">
+        <v>163</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>87</v>
@@ -4004,9 +4586,24 @@
       <c r="F4" s="129">
         <v>0.83216999999999997</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="146"/>
+      <c r="J4" s="157" t="s">
+        <v>163</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="L4" s="43">
+        <v>0.91120999999999996</v>
+      </c>
+      <c r="M4" s="43">
+        <v>0.95804</v>
+      </c>
+      <c r="N4" s="43">
+        <v>0.83216999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="148"/>
       <c r="C5" s="24" t="s">
         <v>88</v>
       </c>
@@ -4019,9 +4616,22 @@
       <c r="F5" s="129">
         <v>0.41958000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="146"/>
+      <c r="J5" s="148"/>
+      <c r="K5" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="L5" s="29">
+        <v>0.62448000000000004</v>
+      </c>
+      <c r="M5" s="29">
+        <v>0.72360000000000002</v>
+      </c>
+      <c r="N5" s="29">
+        <v>0.41958000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="148"/>
       <c r="C6" s="24" t="s">
         <v>89</v>
       </c>
@@ -4034,11 +4644,24 @@
       <c r="F6" s="129">
         <v>1.0066999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="154"/>
+      <c r="J6" s="148"/>
+      <c r="K6" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" s="29">
+        <v>0.45505000000000001</v>
+      </c>
+      <c r="M6" s="29">
+        <v>0.11337999999999999</v>
+      </c>
+      <c r="N6" s="29">
+        <v>1.0066999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="156"/>
       <c r="C7" s="8" t="s">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="D7" s="25">
         <v>1E-4</v>
@@ -4049,10 +4672,23 @@
       <c r="F7" s="25">
         <v>1E-4</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="146" t="s">
-        <v>182</v>
+      <c r="J7" s="149"/>
+      <c r="K7" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="L7" s="22">
+        <v>1E-4</v>
+      </c>
+      <c r="M7" s="22">
+        <v>1E-4</v>
+      </c>
+      <c r="N7" s="22">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="148" t="s">
+        <v>160</v>
       </c>
       <c r="C8" s="27" t="s">
         <v>87</v>
@@ -4067,8 +4703,8 @@
         <v>0.67749999999999999</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="146"/>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B9" s="148"/>
       <c r="C9" s="24" t="s">
         <v>88</v>
       </c>
@@ -4082,8 +4718,8 @@
         <v>6.5491999999999995E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="146"/>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="148"/>
       <c r="C10" s="24" t="s">
         <v>89</v>
       </c>
@@ -4097,10 +4733,10 @@
         <v>1.6293</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="154"/>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="156"/>
       <c r="C11" s="8" t="s">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="D11" s="25">
         <v>1E-4</v>
@@ -4112,9 +4748,9 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="155" t="s">
-        <v>183</v>
+    <row r="12" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="157" t="s">
+        <v>161</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>87</v>
@@ -4129,8 +4765,8 @@
         <v>0.70299999999999996</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="146"/>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="148"/>
       <c r="C13" s="24" t="s">
         <v>88</v>
       </c>
@@ -4144,8 +4780,8 @@
         <v>5.6958000000000002E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="146"/>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="148"/>
       <c r="C14" s="24" t="s">
         <v>89</v>
       </c>
@@ -4159,10 +4795,10 @@
         <v>1.5401</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="147"/>
+    <row r="15" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="149"/>
       <c r="C15" s="3" t="s">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="D15" s="22">
         <v>1E-4</v>
@@ -4175,10 +4811,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="B12:B15"/>
+    <mergeCell ref="J4:J7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -4189,7 +4826,7 @@
   <dimension ref="B1:W34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H13"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4198,7 +4835,9 @@
     <col min="2" max="2" width="36.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="9.21875" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="2"/>
+    <col min="5" max="10" width="8.88671875" style="2"/>
+    <col min="11" max="11" width="20.33203125" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -4232,18 +4871,18 @@
       <c r="W2" s="24"/>
     </row>
     <row r="3" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="153" t="s">
+      <c r="D3" s="155" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="M3" s="155" t="s">
+        <v>83</v>
+      </c>
+      <c r="N3" s="155"/>
+      <c r="O3" s="155"/>
+      <c r="P3" s="155"/>
       <c r="Q3" s="24"/>
       <c r="R3" s="24"/>
       <c r="S3" s="24"/>
@@ -4253,20 +4892,22 @@
       <c r="W3" s="24"/>
     </row>
     <row r="4" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="153" t="s">
+      <c r="D4" s="155" t="s">
         <v>94</v>
       </c>
-      <c r="E4" s="153"/>
-      <c r="F4" s="153" t="s">
+      <c r="E4" s="155"/>
+      <c r="F4" s="155" t="s">
         <v>95</v>
       </c>
-      <c r="G4" s="153"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
+      <c r="G4" s="155"/>
+      <c r="M4" s="155" t="s">
+        <v>94</v>
+      </c>
+      <c r="N4" s="155"/>
+      <c r="O4" s="155" t="s">
+        <v>95</v>
+      </c>
+      <c r="P4" s="155"/>
       <c r="Q4" s="50"/>
       <c r="R4" s="50"/>
       <c r="S4" s="24"/>
@@ -4286,20 +4927,32 @@
         <v>90</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="F5" s="25" t="s">
         <v>90</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="K5" s="24"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
+        <v>162</v>
+      </c>
+      <c r="K5" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="L5" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="M5" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="N5" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="O5" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="P5" s="25" t="s">
+        <v>162</v>
+      </c>
       <c r="Q5" s="30"/>
       <c r="R5" s="30"/>
       <c r="S5" s="24"/>
@@ -4309,8 +4962,8 @@
       <c r="W5" s="24"/>
     </row>
     <row r="6" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="142" t="s">
-        <v>181</v>
+      <c r="B6" s="144" t="s">
+        <v>159</v>
       </c>
       <c r="C6" s="27" t="s">
         <v>91</v>
@@ -4327,12 +4980,24 @@
       <c r="G6" s="112">
         <v>1E-4</v>
       </c>
-      <c r="K6" s="24"/>
-      <c r="L6" s="105"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="50"/>
+      <c r="K6" s="144" t="s">
+        <v>163</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="M6" s="27">
+        <v>141.1</v>
+      </c>
+      <c r="N6" s="112">
+        <v>1E-4</v>
+      </c>
+      <c r="O6" s="27">
+        <v>41.04</v>
+      </c>
+      <c r="P6" s="112">
+        <v>1E-4</v>
+      </c>
       <c r="Q6" s="24"/>
       <c r="R6" s="23"/>
       <c r="S6" s="24"/>
@@ -4341,8 +5006,8 @@
       <c r="V6" s="24"/>
       <c r="W6" s="24"/>
     </row>
-    <row r="7" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="144"/>
+    <row r="7" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="146"/>
       <c r="C7" s="8" t="s">
         <v>96</v>
       </c>
@@ -4358,12 +5023,22 @@
       <c r="G7" s="25">
         <v>1E-4</v>
       </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="105"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
+      <c r="K7" s="158"/>
+      <c r="L7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" s="3">
+        <v>53.02</v>
+      </c>
+      <c r="N7" s="22">
+        <v>1E-4</v>
+      </c>
+      <c r="O7" s="3">
+        <v>252.7</v>
+      </c>
+      <c r="P7" s="22">
+        <v>1E-4</v>
+      </c>
       <c r="Q7" s="24"/>
       <c r="R7" s="24"/>
       <c r="S7" s="24"/>
@@ -4373,8 +5048,8 @@
       <c r="W7" s="24"/>
     </row>
     <row r="8" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="142" t="s">
-        <v>182</v>
+      <c r="B8" s="144" t="s">
+        <v>160</v>
       </c>
       <c r="C8" s="27" t="s">
         <v>91</v>
@@ -4393,7 +5068,7 @@
       </c>
       <c r="K8" s="24"/>
       <c r="L8" s="105"/>
-      <c r="M8" s="136"/>
+      <c r="M8" s="132"/>
       <c r="N8" s="24"/>
       <c r="O8" s="24"/>
       <c r="P8" s="24"/>
@@ -4406,26 +5081,26 @@
       <c r="W8" s="24"/>
     </row>
     <row r="9" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="144"/>
+      <c r="B9" s="146"/>
       <c r="C9" s="8" t="s">
         <v>96</v>
       </c>
       <c r="D9" s="8">
         <v>205.1</v>
       </c>
-      <c r="E9" s="139">
+      <c r="E9" s="135">
         <v>1E-4</v>
       </c>
       <c r="F9" s="8">
         <v>236.4</v>
       </c>
-      <c r="G9" s="139">
+      <c r="G9" s="135">
         <v>1E-4</v>
       </c>
       <c r="H9" s="32"/>
       <c r="K9" s="24"/>
       <c r="L9" s="105"/>
-      <c r="M9" s="136"/>
+      <c r="M9" s="132"/>
       <c r="N9" s="106"/>
       <c r="O9" s="106"/>
       <c r="P9" s="106"/>
@@ -4438,8 +5113,8 @@
       <c r="W9" s="24"/>
     </row>
     <row r="10" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="157" t="s">
-        <v>183</v>
+      <c r="B10" s="160" t="s">
+        <v>161</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>91</v>
@@ -4456,10 +5131,10 @@
       <c r="G10" s="112">
         <v>1E-4</v>
       </c>
-      <c r="H10" s="138"/>
+      <c r="H10" s="134"/>
       <c r="K10" s="24"/>
-      <c r="L10" s="156"/>
-      <c r="M10" s="136"/>
+      <c r="L10" s="159"/>
+      <c r="M10" s="132"/>
       <c r="N10" s="24"/>
       <c r="O10" s="24"/>
       <c r="P10" s="24"/>
@@ -4472,7 +5147,7 @@
       <c r="W10" s="24"/>
     </row>
     <row r="11" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="158"/>
+      <c r="B11" s="161"/>
       <c r="C11" s="3" t="s">
         <v>96</v>
       </c>
@@ -4490,8 +5165,8 @@
       </c>
       <c r="H11" s="28"/>
       <c r="K11" s="24"/>
-      <c r="L11" s="156"/>
-      <c r="M11" s="136"/>
+      <c r="L11" s="159"/>
+      <c r="M11" s="132"/>
       <c r="N11" s="50"/>
       <c r="O11" s="50"/>
       <c r="P11" s="50"/>
@@ -4513,8 +5188,8 @@
       <c r="H12" s="23"/>
       <c r="I12" s="24"/>
       <c r="K12" s="24"/>
-      <c r="L12" s="156"/>
-      <c r="M12" s="136"/>
+      <c r="L12" s="159"/>
+      <c r="M12" s="132"/>
       <c r="N12" s="30"/>
       <c r="O12" s="29"/>
       <c r="P12" s="24"/>
@@ -4536,8 +5211,8 @@
       <c r="H13" s="23"/>
       <c r="I13" s="24"/>
       <c r="K13" s="24"/>
-      <c r="L13" s="156"/>
-      <c r="M13" s="136"/>
+      <c r="L13" s="159"/>
+      <c r="M13" s="132"/>
       <c r="N13" s="23"/>
       <c r="O13" s="24"/>
       <c r="P13" s="23"/>
@@ -4559,7 +5234,7 @@
       <c r="I14" s="24"/>
       <c r="K14" s="24"/>
       <c r="L14" s="105"/>
-      <c r="M14" s="136"/>
+      <c r="M14" s="132"/>
       <c r="N14" s="24"/>
       <c r="O14" s="24"/>
       <c r="P14" s="24"/>
@@ -4580,7 +5255,7 @@
       <c r="H15" s="24"/>
       <c r="K15" s="24"/>
       <c r="L15" s="24"/>
-      <c r="M15" s="136"/>
+      <c r="M15" s="132"/>
       <c r="N15" s="24"/>
       <c r="O15" s="24"/>
       <c r="P15" s="24"/>
@@ -4601,7 +5276,7 @@
       <c r="H16" s="24"/>
       <c r="K16" s="24"/>
       <c r="L16" s="24"/>
-      <c r="M16" s="136"/>
+      <c r="M16" s="132"/>
       <c r="N16" s="24"/>
       <c r="O16" s="24"/>
       <c r="P16" s="24"/>
@@ -4622,7 +5297,7 @@
       <c r="H17" s="24"/>
       <c r="K17" s="24"/>
       <c r="L17" s="24"/>
-      <c r="M17" s="136"/>
+      <c r="M17" s="132"/>
       <c r="N17" s="24"/>
       <c r="O17" s="24"/>
       <c r="P17" s="24"/>
@@ -4643,7 +5318,7 @@
       <c r="H18" s="24"/>
       <c r="K18" s="24"/>
       <c r="L18" s="24"/>
-      <c r="M18" s="136"/>
+      <c r="M18" s="132"/>
       <c r="N18" s="24"/>
       <c r="O18" s="24"/>
       <c r="P18" s="24"/>
@@ -4664,7 +5339,7 @@
       <c r="H19" s="24"/>
       <c r="K19" s="24"/>
       <c r="L19" s="24"/>
-      <c r="M19" s="136"/>
+      <c r="M19" s="132"/>
       <c r="N19" s="24"/>
       <c r="O19" s="24"/>
       <c r="P19" s="24"/>
@@ -4845,8 +5520,7 @@
       <c r="H34" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="D3:G3"/>
+  <mergeCells count="12">
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="L10:L11"/>
@@ -4854,6 +5528,11 @@
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="B10:B11"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="D3:G3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -4863,8 +5542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468E47FF-B0BC-4702-A611-EA7EF08BB700}">
   <dimension ref="B3:K41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4898,7 +5577,7 @@
       <c r="C4" s="24"/>
       <c r="D4" s="24"/>
       <c r="E4" s="24"/>
-      <c r="G4" s="159"/>
+      <c r="G4" s="162"/>
       <c r="H4" s="47"/>
       <c r="I4" s="81"/>
       <c r="J4" s="81"/>
@@ -4917,12 +5596,12 @@
       <c r="E5" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="159"/>
+      <c r="G5" s="162"/>
       <c r="I5" s="70"/>
       <c r="J5" s="70"/>
     </row>
     <row r="6" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="160" t="s">
+      <c r="B6" s="163" t="s">
         <v>97</v>
       </c>
       <c r="C6" s="68" t="s">
@@ -4934,12 +5613,12 @@
       <c r="E6" s="69">
         <v>147</v>
       </c>
-      <c r="G6" s="159"/>
+      <c r="G6" s="162"/>
       <c r="I6" s="70"/>
       <c r="J6" s="70"/>
     </row>
     <row r="7" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="161"/>
+      <c r="B7" s="164"/>
       <c r="C7" s="24" t="s">
         <v>8</v>
       </c>
@@ -4949,12 +5628,12 @@
       <c r="E7" s="70" t="s">
         <v>102</v>
       </c>
-      <c r="G7" s="159"/>
+      <c r="G7" s="162"/>
       <c r="I7" s="70"/>
       <c r="J7" s="71"/>
     </row>
     <row r="8" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="161"/>
+      <c r="B8" s="164"/>
       <c r="C8" s="24" t="s">
         <v>12</v>
       </c>
@@ -4964,12 +5643,12 @@
       <c r="E8" s="70">
         <v>637</v>
       </c>
-      <c r="G8" s="159"/>
+      <c r="G8" s="162"/>
       <c r="I8" s="70"/>
       <c r="J8" s="71"/>
     </row>
     <row r="9" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="161"/>
+      <c r="B9" s="164"/>
       <c r="C9" s="24" t="s">
         <v>13</v>
       </c>
@@ -4981,7 +5660,7 @@
       </c>
     </row>
     <row r="10" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="162"/>
+      <c r="B10" s="165"/>
       <c r="C10" s="8" t="s">
         <v>17</v>
       </c>
@@ -4993,8 +5672,8 @@
       </c>
     </row>
     <row r="11" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="160" t="s">
-        <v>133</v>
+      <c r="B11" s="163" t="s">
+        <v>164</v>
       </c>
       <c r="C11" s="68" t="s">
         <v>86</v>
@@ -5010,7 +5689,7 @@
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="161"/>
+      <c r="B12" s="164"/>
       <c r="C12" s="24" t="s">
         <v>8</v>
       </c>
@@ -5020,13 +5699,13 @@
       <c r="E12" s="75" t="s">
         <v>108</v>
       </c>
-      <c r="G12" s="159"/>
+      <c r="G12" s="162"/>
       <c r="H12" s="47"/>
       <c r="I12" s="75"/>
       <c r="J12" s="75"/>
     </row>
     <row r="13" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="161"/>
+      <c r="B13" s="164"/>
       <c r="C13" s="24" t="s">
         <v>12</v>
       </c>
@@ -5036,12 +5715,12 @@
       <c r="E13" s="76">
         <v>2.66</v>
       </c>
-      <c r="G13" s="159"/>
+      <c r="G13" s="162"/>
       <c r="I13" s="75"/>
       <c r="J13" s="75"/>
     </row>
     <row r="14" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="161"/>
+      <c r="B14" s="164"/>
       <c r="C14" s="24" t="s">
         <v>13</v>
       </c>
@@ -5051,12 +5730,12 @@
       <c r="E14" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="G14" s="159"/>
+      <c r="G14" s="162"/>
       <c r="I14" s="75"/>
       <c r="J14" s="75"/>
     </row>
     <row r="15" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="162"/>
+      <c r="B15" s="165"/>
       <c r="C15" s="8" t="s">
         <v>17</v>
       </c>
@@ -5066,12 +5745,12 @@
       <c r="E15" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="G15" s="159"/>
+      <c r="G15" s="162"/>
       <c r="I15" s="75"/>
       <c r="J15" s="75"/>
     </row>
     <row r="16" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="160" t="s">
+      <c r="B16" s="163" t="s">
         <v>134</v>
       </c>
       <c r="C16" s="68" t="s">
@@ -5083,12 +5762,12 @@
       <c r="E16" s="78">
         <v>173</v>
       </c>
-      <c r="G16" s="159"/>
+      <c r="G16" s="162"/>
       <c r="I16" s="75"/>
       <c r="J16" s="75"/>
     </row>
     <row r="17" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="161"/>
+      <c r="B17" s="164"/>
       <c r="C17" s="24" t="s">
         <v>8</v>
       </c>
@@ -5104,7 +5783,7 @@
       <c r="K17" s="20"/>
     </row>
     <row r="18" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="161"/>
+      <c r="B18" s="164"/>
       <c r="C18" s="24" t="s">
         <v>12</v>
       </c>
@@ -5116,7 +5795,7 @@
       </c>
     </row>
     <row r="19" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="161"/>
+      <c r="B19" s="164"/>
       <c r="C19" s="24" t="s">
         <v>13</v>
       </c>
@@ -5131,7 +5810,7 @@
       <c r="J19" s="36"/>
     </row>
     <row r="20" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="162"/>
+      <c r="B20" s="165"/>
       <c r="C20" s="8" t="s">
         <v>17</v>
       </c>
@@ -5141,13 +5820,13 @@
       <c r="E20" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="G20" s="159"/>
+      <c r="G20" s="162"/>
       <c r="H20" s="47"/>
       <c r="I20" s="66"/>
       <c r="J20" s="66"/>
     </row>
     <row r="21" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="160" t="s">
+      <c r="B21" s="163" t="s">
         <v>99</v>
       </c>
       <c r="C21" s="68" t="s">
@@ -5159,12 +5838,12 @@
       <c r="E21" s="69">
         <v>174</v>
       </c>
-      <c r="G21" s="159"/>
+      <c r="G21" s="162"/>
       <c r="I21" s="66"/>
       <c r="J21" s="66"/>
     </row>
     <row r="22" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="161"/>
+      <c r="B22" s="164"/>
       <c r="C22" s="24" t="s">
         <v>8</v>
       </c>
@@ -5174,12 +5853,12 @@
       <c r="E22" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="G22" s="159"/>
+      <c r="G22" s="162"/>
       <c r="I22" s="66"/>
       <c r="J22" s="79"/>
     </row>
     <row r="23" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="161"/>
+      <c r="B23" s="164"/>
       <c r="C23" s="24" t="s">
         <v>12</v>
       </c>
@@ -5189,12 +5868,12 @@
       <c r="E23" s="76">
         <v>-22.8</v>
       </c>
-      <c r="G23" s="159"/>
+      <c r="G23" s="162"/>
       <c r="I23" s="66"/>
       <c r="J23" s="66"/>
     </row>
     <row r="24" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="161"/>
+      <c r="B24" s="164"/>
       <c r="C24" s="24" t="s">
         <v>13</v>
       </c>
@@ -5204,12 +5883,12 @@
       <c r="E24" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="G24" s="159"/>
+      <c r="G24" s="162"/>
       <c r="I24" s="66"/>
       <c r="J24" s="66"/>
     </row>
     <row r="25" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="162"/>
+      <c r="B25" s="165"/>
       <c r="C25" s="8" t="s">
         <v>123</v>
       </c>
@@ -5224,7 +5903,7 @@
       <c r="J25" s="81"/>
     </row>
     <row r="26" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="161" t="s">
+      <c r="B26" s="164" t="s">
         <v>135</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -5238,7 +5917,7 @@
       </c>
     </row>
     <row r="27" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="161"/>
+      <c r="B27" s="164"/>
       <c r="C27" s="2" t="s">
         <v>8</v>
       </c>
@@ -5253,7 +5932,7 @@
       <c r="J27" s="36"/>
     </row>
     <row r="28" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="161"/>
+      <c r="B28" s="164"/>
       <c r="C28" s="2" t="s">
         <v>12</v>
       </c>
@@ -5263,13 +5942,13 @@
       <c r="E28" s="67">
         <v>-48.6</v>
       </c>
-      <c r="G28" s="159"/>
+      <c r="G28" s="162"/>
       <c r="H28" s="47"/>
       <c r="I28" s="81"/>
       <c r="J28" s="81"/>
     </row>
     <row r="29" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="161"/>
+      <c r="B29" s="164"/>
       <c r="C29" s="2" t="s">
         <v>13</v>
       </c>
@@ -5279,12 +5958,12 @@
       <c r="E29" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="G29" s="159"/>
+      <c r="G29" s="162"/>
       <c r="I29" s="75"/>
       <c r="J29" s="75"/>
     </row>
     <row r="30" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="163"/>
+      <c r="B30" s="166"/>
       <c r="C30" s="3" t="s">
         <v>123</v>
       </c>
@@ -5294,17 +5973,17 @@
       <c r="E30" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="G30" s="159"/>
+      <c r="G30" s="162"/>
       <c r="I30" s="75"/>
       <c r="J30" s="75"/>
     </row>
     <row r="31" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G31" s="159"/>
+      <c r="G31" s="162"/>
       <c r="I31" s="75"/>
       <c r="J31" s="75"/>
     </row>
     <row r="32" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G32" s="159"/>
+      <c r="G32" s="162"/>
       <c r="I32" s="75"/>
       <c r="J32" s="75"/>
     </row>
@@ -5314,28 +5993,28 @@
       <c r="J36" s="36"/>
     </row>
     <row r="37" spans="7:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G37" s="159"/>
+      <c r="G37" s="162"/>
       <c r="H37" s="47"/>
       <c r="I37" s="75"/>
       <c r="J37" s="75"/>
     </row>
     <row r="38" spans="7:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G38" s="159"/>
+      <c r="G38" s="162"/>
       <c r="I38" s="75"/>
       <c r="J38" s="75"/>
     </row>
     <row r="39" spans="7:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G39" s="159"/>
+      <c r="G39" s="162"/>
       <c r="I39" s="75"/>
       <c r="J39" s="75"/>
     </row>
     <row r="40" spans="7:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G40" s="159"/>
+      <c r="G40" s="162"/>
       <c r="I40" s="75"/>
       <c r="J40" s="75"/>
     </row>
     <row r="41" spans="7:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G41" s="159"/>
+      <c r="G41" s="162"/>
       <c r="I41" s="75"/>
       <c r="J41" s="75"/>
     </row>
@@ -5361,7 +6040,7 @@
   <dimension ref="B2:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5379,7 +6058,7 @@
         <v>76</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>78</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5447,7 +6126,7 @@
   <dimension ref="B2:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J31"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5455,20 +6134,21 @@
     <col min="1" max="1" width="8.88671875" style="2"/>
     <col min="2" max="2" width="12.5546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.21875" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D2" s="153" t="s">
+      <c r="D2" s="155" t="s">
         <v>154</v>
       </c>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153" t="s">
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155" t="s">
         <v>155</v>
       </c>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
@@ -5497,7 +6177,7 @@
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="160" t="s">
+      <c r="B4" s="163" t="s">
         <v>97</v>
       </c>
       <c r="C4" s="27" t="s">
@@ -5523,7 +6203,7 @@
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="161"/>
+      <c r="B5" s="164"/>
       <c r="C5" s="24" t="s">
         <v>87</v>
       </c>
@@ -5547,31 +6227,31 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="161"/>
+      <c r="B6" s="164"/>
       <c r="C6" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="29">
-        <v>0</v>
-      </c>
-      <c r="E6" s="29">
-        <v>0</v>
-      </c>
-      <c r="F6" s="29">
-        <v>0</v>
-      </c>
-      <c r="G6" s="29">
-        <v>0</v>
-      </c>
-      <c r="H6" s="29">
-        <v>0</v>
-      </c>
-      <c r="I6" s="29">
-        <v>0</v>
+      <c r="D6" s="23">
+        <v>1.477E-3</v>
+      </c>
+      <c r="E6" s="23">
+        <v>7.6250000000000005E-4</v>
+      </c>
+      <c r="F6" s="23">
+        <v>6.6509999999999996E-4</v>
+      </c>
+      <c r="G6" s="23">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="H6" s="23">
+        <v>9.1580000000000003E-4</v>
+      </c>
+      <c r="I6" s="23">
+        <v>1.4547E-3</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="161"/>
+      <c r="B7" s="164"/>
       <c r="C7" s="24" t="s">
         <v>89</v>
       </c>
@@ -5595,9 +6275,9 @@
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="162"/>
+      <c r="B8" s="165"/>
       <c r="C8" s="8" t="s">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="D8" s="25">
         <v>1E-4</v>
@@ -5619,7 +6299,7 @@
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="160" t="s">
+      <c r="B9" s="163" t="s">
         <v>133</v>
       </c>
       <c r="C9" s="27" t="s">
@@ -5645,7 +6325,7 @@
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="161"/>
+      <c r="B10" s="164"/>
       <c r="C10" s="24" t="s">
         <v>87</v>
       </c>
@@ -5669,7 +6349,7 @@
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="161"/>
+      <c r="B11" s="164"/>
       <c r="C11" s="24" t="s">
         <v>88</v>
       </c>
@@ -5693,7 +6373,7 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="161"/>
+      <c r="B12" s="164"/>
       <c r="C12" s="24" t="s">
         <v>89</v>
       </c>
@@ -5717,9 +6397,9 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="162"/>
+      <c r="B13" s="165"/>
       <c r="C13" s="8" t="s">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="D13" s="25">
         <v>1E-4</v>
@@ -5741,7 +6421,7 @@
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="160" t="s">
+      <c r="B14" s="163" t="s">
         <v>134</v>
       </c>
       <c r="C14" s="27" t="s">
@@ -5767,7 +6447,7 @@
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="161"/>
+      <c r="B15" s="164"/>
       <c r="C15" s="24" t="s">
         <v>87</v>
       </c>
@@ -5791,7 +6471,7 @@
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="161"/>
+      <c r="B16" s="164"/>
       <c r="C16" s="24" t="s">
         <v>88</v>
       </c>
@@ -5815,7 +6495,7 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="161"/>
+      <c r="B17" s="164"/>
       <c r="C17" s="24" t="s">
         <v>89</v>
       </c>
@@ -5839,9 +6519,9 @@
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="162"/>
+      <c r="B18" s="165"/>
       <c r="C18" s="8" t="s">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="D18" s="25">
         <v>1E-4</v>
@@ -5863,7 +6543,7 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="160" t="s">
+      <c r="B19" s="163" t="s">
         <v>99</v>
       </c>
       <c r="C19" s="27" t="s">
@@ -5889,7 +6569,7 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="161"/>
+      <c r="B20" s="164"/>
       <c r="C20" s="24" t="s">
         <v>87</v>
       </c>
@@ -5913,7 +6593,7 @@
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="161"/>
+      <c r="B21" s="164"/>
       <c r="C21" s="24" t="s">
         <v>88</v>
       </c>
@@ -5937,7 +6617,7 @@
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="161"/>
+      <c r="B22" s="164"/>
       <c r="C22" s="24" t="s">
         <v>89</v>
       </c>
@@ -5961,9 +6641,9 @@
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="162"/>
+      <c r="B23" s="165"/>
       <c r="C23" s="8" t="s">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="D23" s="25">
         <v>1E-4</v>
@@ -5985,7 +6665,7 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="160" t="s">
+      <c r="B24" s="163" t="s">
         <v>135</v>
       </c>
       <c r="C24" s="27" t="s">
@@ -6011,7 +6691,7 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="161"/>
+      <c r="B25" s="164"/>
       <c r="C25" s="24" t="s">
         <v>87</v>
       </c>
@@ -6035,7 +6715,7 @@
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="161"/>
+      <c r="B26" s="164"/>
       <c r="C26" s="24" t="s">
         <v>88</v>
       </c>
@@ -6059,7 +6739,7 @@
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="161"/>
+      <c r="B27" s="164"/>
       <c r="C27" s="24" t="s">
         <v>89</v>
       </c>
@@ -6083,9 +6763,9 @@
       </c>
     </row>
     <row r="28" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="163"/>
+      <c r="B28" s="166"/>
       <c r="C28" s="3" t="s">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="D28" s="22">
         <v>1E-4</v>
@@ -6125,7 +6805,7 @@
   <dimension ref="B2:U17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L17"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6139,46 +6819,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
       <c r="M2" s="49"/>
     </row>
     <row r="3" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="168" t="s">
+      <c r="D3" s="167" t="s">
         <v>154</v>
       </c>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168" t="s">
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167" t="s">
         <v>155</v>
       </c>
-      <c r="I3" s="168"/>
-      <c r="J3" s="168"/>
-      <c r="K3" s="168"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="167"/>
+      <c r="K3" s="167"/>
       <c r="M3" s="49"/>
     </row>
     <row r="4" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="168" t="s">
+      <c r="D4" s="167" t="s">
         <v>146</v>
       </c>
-      <c r="E4" s="168"/>
-      <c r="F4" s="168" t="s">
+      <c r="E4" s="167"/>
+      <c r="F4" s="167" t="s">
         <v>147</v>
       </c>
-      <c r="G4" s="168"/>
-      <c r="H4" s="168" t="s">
+      <c r="G4" s="167"/>
+      <c r="H4" s="167" t="s">
         <v>146</v>
       </c>
-      <c r="I4" s="168"/>
-      <c r="J4" s="168" t="s">
+      <c r="I4" s="167"/>
+      <c r="J4" s="167" t="s">
         <v>148</v>
       </c>
-      <c r="K4" s="168"/>
+      <c r="K4" s="167"/>
       <c r="L4" s="28"/>
       <c r="M4" s="49"/>
       <c r="N4" s="28"/>
@@ -6196,35 +6876,35 @@
       <c r="C5" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="178" t="s">
+      <c r="D5" s="140" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="178" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="178" t="s">
+      <c r="E5" s="140" t="s">
+        <v>162</v>
+      </c>
+      <c r="F5" s="140" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="178" t="s">
-        <v>78</v>
-      </c>
-      <c r="H5" s="178" t="s">
+      <c r="G5" s="140" t="s">
+        <v>162</v>
+      </c>
+      <c r="H5" s="140" t="s">
         <v>90</v>
       </c>
-      <c r="I5" s="178" t="s">
-        <v>78</v>
-      </c>
-      <c r="J5" s="178" t="s">
+      <c r="I5" s="140" t="s">
+        <v>162</v>
+      </c>
+      <c r="J5" s="140" t="s">
         <v>90</v>
       </c>
-      <c r="K5" s="178" t="s">
-        <v>78</v>
+      <c r="K5" s="140" t="s">
+        <v>162</v>
       </c>
       <c r="M5" s="49"/>
       <c r="N5" s="28"/>
     </row>
     <row r="6" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="164" t="s">
+      <c r="B6" s="157" t="s">
         <v>97</v>
       </c>
       <c r="C6" s="95" t="s">
@@ -6263,7 +6943,7 @@
       <c r="S6" s="50"/>
     </row>
     <row r="7" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="165"/>
+      <c r="B7" s="156"/>
       <c r="C7" s="96" t="s">
         <v>145</v>
       </c>
@@ -6300,7 +6980,7 @@
       <c r="S7" s="30"/>
     </row>
     <row r="8" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="164" t="s">
+      <c r="B8" s="157" t="s">
         <v>133</v>
       </c>
       <c r="C8" s="95" t="s">
@@ -6337,7 +7017,7 @@
       <c r="S8" s="23"/>
     </row>
     <row r="9" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="165"/>
+      <c r="B9" s="156"/>
       <c r="C9" s="97" t="s">
         <v>145</v>
       </c>
@@ -6370,7 +7050,7 @@
       <c r="U9" s="33"/>
     </row>
     <row r="10" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="164" t="s">
+      <c r="B10" s="157" t="s">
         <v>134</v>
       </c>
       <c r="C10" s="95" t="s">
@@ -6404,7 +7084,7 @@
       <c r="N10" s="28"/>
     </row>
     <row r="11" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="165"/>
+      <c r="B11" s="156"/>
       <c r="C11" s="96" t="s">
         <v>145</v>
       </c>
@@ -6441,7 +7121,7 @@
       <c r="S11" s="33"/>
     </row>
     <row r="12" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="164" t="s">
+      <c r="B12" s="157" t="s">
         <v>99</v>
       </c>
       <c r="C12" s="95" t="s">
@@ -6471,11 +7151,11 @@
       <c r="K12" s="116">
         <v>7.1080000000000004E-4</v>
       </c>
-      <c r="M12" s="156"/>
+      <c r="M12" s="159"/>
       <c r="N12" s="28"/>
     </row>
     <row r="13" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="165"/>
+      <c r="B13" s="156"/>
       <c r="C13" s="96" t="s">
         <v>145</v>
       </c>
@@ -6503,7 +7183,7 @@
       <c r="K13" s="117">
         <v>1E-4</v>
       </c>
-      <c r="M13" s="156"/>
+      <c r="M13" s="159"/>
       <c r="N13" s="28"/>
       <c r="O13" s="50"/>
       <c r="P13" s="50"/>
@@ -6512,7 +7192,7 @@
       <c r="S13" s="50"/>
     </row>
     <row r="14" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="166" t="s">
+      <c r="B14" s="148" t="s">
         <v>135</v>
       </c>
       <c r="C14" s="98" t="s">
@@ -6542,7 +7222,7 @@
       <c r="K14" s="56">
         <v>0.46350000000000002</v>
       </c>
-      <c r="M14" s="156"/>
+      <c r="M14" s="159"/>
       <c r="N14" s="28"/>
       <c r="O14" s="30"/>
       <c r="P14" s="29"/>
@@ -6550,7 +7230,7 @@
       <c r="S14" s="29"/>
     </row>
     <row r="15" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="167"/>
+      <c r="B15" s="149"/>
       <c r="C15" s="99" t="s">
         <v>145</v>
       </c>
@@ -6578,7 +7258,7 @@
       <c r="K15" s="121">
         <v>1E-4</v>
       </c>
-      <c r="M15" s="156"/>
+      <c r="M15" s="159"/>
       <c r="N15" s="28"/>
       <c r="O15" s="23"/>
       <c r="Q15" s="23"/>
@@ -6615,10 +7295,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{608C9E83-56AF-47CD-98EC-489222CFD93B}">
-  <dimension ref="C3:F23"/>
+  <dimension ref="C3:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6631,297 +7311,234 @@
     <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C3" s="25" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D4" s="129">
         <v>0.33365430000000001</v>
       </c>
       <c r="E4" s="130">
-        <v>317974</v>
-      </c>
-      <c r="F4" s="131">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D5" s="129">
         <v>0.1704775</v>
       </c>
-      <c r="E5" s="132">
-        <v>395841</v>
-      </c>
-      <c r="F5" s="131">
+      <c r="E5" s="130">
         <v>4.2520000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D6" s="129">
         <v>0.51754129999999998</v>
       </c>
-      <c r="E6" s="132">
-        <v>230225</v>
-      </c>
-      <c r="F6" s="131">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E6" s="130">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D7" s="129">
         <v>-0.25599110000000003</v>
       </c>
       <c r="E7" s="130">
-        <v>599348</v>
-      </c>
-      <c r="F7" s="131">
         <v>2.1059999999999998E-3</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C8" s="8" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D8" s="45">
         <v>0.45402389999999998</v>
       </c>
-      <c r="E8" s="133">
-        <v>260535</v>
-      </c>
-      <c r="F8" s="127">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E8" s="127">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C9" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D9" s="129">
         <v>0.18881000000000001</v>
       </c>
       <c r="E9" s="130">
-        <v>387093</v>
-      </c>
-      <c r="F9" s="131">
         <v>2.443E-2</v>
       </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C10" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D10" s="129">
         <v>0.1445504</v>
       </c>
-      <c r="E10" s="130">
-        <v>408213</v>
-      </c>
-      <c r="F10" s="134">
+      <c r="E10" s="131">
         <v>8.6099999999999996E-2</v>
       </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C11" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D11" s="129">
         <v>0.15716069999999999</v>
       </c>
-      <c r="E11" s="130">
-        <v>402195</v>
-      </c>
-      <c r="F11" s="134">
+      <c r="E11" s="131">
         <v>6.1780000000000002E-2</v>
       </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C12" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D12" s="129">
+        <v>-0.32064700000000002</v>
+      </c>
+      <c r="E12" s="130">
         <v>1.0009999999999999E-4</v>
       </c>
-      <c r="E12" s="130">
-        <v>630201</v>
-      </c>
-      <c r="F12" s="134">
-        <v>-0.32064700000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C13" s="8" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D13" s="45">
         <v>0.22321750000000001</v>
       </c>
-      <c r="E13" s="133">
-        <v>370674</v>
-      </c>
-      <c r="F13" s="127">
+      <c r="E13" s="127">
         <v>7.5799999999999999E-3</v>
       </c>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C14" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D14" s="129">
         <v>-0.1193779</v>
       </c>
-      <c r="E14" s="130">
-        <v>534157</v>
-      </c>
-      <c r="F14" s="134">
+      <c r="E14" s="131">
         <v>0.15709999999999999</v>
       </c>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C15" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D15" s="129">
         <v>0.10406749999999999</v>
       </c>
-      <c r="E15" s="130">
-        <v>427531</v>
-      </c>
-      <c r="F15" s="134">
+      <c r="E15" s="131">
         <v>0.21779999999999999</v>
       </c>
     </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C16" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D16" s="129">
         <v>-0.47039959999999997</v>
       </c>
       <c r="E16" s="130">
-        <v>701661</v>
-      </c>
-      <c r="F16" s="131">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C17" s="8" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D17" s="45">
         <v>0.54143629999999998</v>
       </c>
-      <c r="E17" s="133">
-        <v>218822</v>
-      </c>
-      <c r="F17" s="127">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E17" s="127">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C18" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D18" s="129">
         <v>0.13300960000000001</v>
       </c>
-      <c r="E18" s="130">
-        <v>413720</v>
-      </c>
-      <c r="F18" s="134">
+      <c r="E18" s="131">
         <v>0.1145</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C19" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D19" s="129">
         <v>9.2763789999999999E-2</v>
       </c>
-      <c r="E19" s="130">
-        <v>432925</v>
-      </c>
-      <c r="F19" s="134">
+      <c r="E19" s="131">
         <v>0.2722</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C20" s="8" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D20" s="45">
         <v>-0.33167049999999998</v>
       </c>
-      <c r="E20" s="133">
-        <v>635461</v>
-      </c>
-      <c r="F20" s="127">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="E20" s="127">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C21" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D21" s="129">
         <v>-0.1341812</v>
       </c>
-      <c r="E21" s="130">
-        <v>541221</v>
-      </c>
-      <c r="F21" s="134">
+      <c r="E21" s="131">
         <v>0.1114</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C22" s="8" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D22" s="45">
         <v>0.32678699999999999</v>
       </c>
-      <c r="E22" s="133">
-        <v>321251</v>
-      </c>
-      <c r="F22" s="127">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E22" s="127">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C23" s="15" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D23" s="48">
         <v>-0.3238626</v>
       </c>
-      <c r="E23" s="135">
-        <v>631735</v>
-      </c>
-      <c r="F23" s="128">
+      <c r="E23" s="128">
         <v>1E-4</v>
       </c>
     </row>

--- a/Relatório Final/Tabelas/Tabelas.xlsx
+++ b/Relatório Final/Tabelas/Tabelas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bia99\OneDrive\Documents\Wikiaves\ProjWAV\Relatório Final\Tabelas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CAF81A0-F98A-4412-A4AF-8BA4E35ACD38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DB03AC-2190-4921-B6DC-F15FC5391375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11772" yWindow="1956" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela 1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="187">
   <si>
     <t>Variável</t>
   </si>
@@ -176,9 +176,6 @@
     <t>0,89 (0,74)</t>
   </si>
   <si>
-    <t>2,25 (5,55)</t>
-  </si>
-  <si>
     <t>0,00 - 2,70</t>
   </si>
   <si>
@@ -591,6 +588,15 @@
   </si>
   <si>
     <t>Latitude (°) x Longitude (°)</t>
+  </si>
+  <si>
+    <t>Distância Geográfica</t>
+  </si>
+  <si>
+    <t>2,25 (0,34)</t>
+  </si>
+  <si>
+    <t>0,48 - 1,56</t>
   </si>
 </sst>
 </file>
@@ -708,7 +714,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1040,6 +1046,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1073,9 +1085,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1087,9 +1096,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1097,6 +1103,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1426,8 +1435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:W39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1450,7 +1459,7 @@
     </row>
     <row r="2" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>5</v>
@@ -1475,14 +1484,14 @@
       <c r="P2" s="33"/>
     </row>
     <row r="3" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="144" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="152" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="150" t="s">
+      <c r="D3" s="91" t="s">
         <v>152</v>
-      </c>
-      <c r="D3" s="91" t="s">
-        <v>153</v>
       </c>
       <c r="E3" s="64">
         <v>631</v>
@@ -1494,7 +1503,7 @@
         <v>173</v>
       </c>
       <c r="K3" s="28"/>
-      <c r="L3" s="153"/>
+      <c r="L3" s="143"/>
       <c r="N3" s="83"/>
       <c r="O3" s="83"/>
       <c r="P3" s="83"/>
@@ -1507,10 +1516,10 @@
       <c r="W3" s="64"/>
     </row>
     <row r="4" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="142"/>
-      <c r="C4" s="150"/>
+      <c r="B4" s="144"/>
+      <c r="C4" s="152"/>
       <c r="D4" s="91" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E4" s="64">
         <v>790</v>
@@ -1522,7 +1531,7 @@
         <v>779</v>
       </c>
       <c r="K4" s="82"/>
-      <c r="L4" s="153"/>
+      <c r="L4" s="143"/>
       <c r="N4" s="66"/>
       <c r="O4" s="83"/>
       <c r="P4" s="83"/>
@@ -1535,8 +1544,8 @@
       <c r="W4" s="64"/>
     </row>
     <row r="5" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="143"/>
-      <c r="C5" s="151"/>
+      <c r="B5" s="145"/>
+      <c r="C5" s="153"/>
       <c r="D5" s="93" t="s">
         <v>4</v>
       </c>
@@ -1550,7 +1559,7 @@
         <v>535711</v>
       </c>
       <c r="K5" s="82"/>
-      <c r="L5" s="153"/>
+      <c r="L5" s="143"/>
       <c r="N5" s="83"/>
       <c r="O5" s="85"/>
       <c r="P5" s="85"/>
@@ -1563,10 +1572,10 @@
       <c r="W5" s="64"/>
     </row>
     <row r="6" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="147" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="152" t="s">
+      <c r="B6" s="149" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="154" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="24" t="s">
@@ -1582,7 +1591,7 @@
         <v>37</v>
       </c>
       <c r="K6" s="82"/>
-      <c r="L6" s="153"/>
+      <c r="L6" s="143"/>
       <c r="N6" s="66"/>
       <c r="O6" s="66"/>
       <c r="P6" s="66"/>
@@ -1593,8 +1602,8 @@
       <c r="V6" s="64"/>
     </row>
     <row r="7" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="148"/>
-      <c r="C7" s="145"/>
+      <c r="B7" s="150"/>
+      <c r="C7" s="147"/>
       <c r="D7" s="24" t="s">
         <v>12</v>
       </c>
@@ -1608,7 +1617,7 @@
         <v>213</v>
       </c>
       <c r="K7" s="82"/>
-      <c r="L7" s="153"/>
+      <c r="L7" s="143"/>
       <c r="M7" s="86"/>
       <c r="N7" s="79"/>
       <c r="O7" s="79"/>
@@ -1621,8 +1630,8 @@
       <c r="V7" s="66"/>
     </row>
     <row r="8" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="148"/>
-      <c r="C8" s="145"/>
+      <c r="B8" s="150"/>
+      <c r="C8" s="147"/>
       <c r="D8" s="24" t="s">
         <v>13</v>
       </c>
@@ -1636,7 +1645,7 @@
         <v>40</v>
       </c>
       <c r="K8" s="28"/>
-      <c r="L8" s="153"/>
+      <c r="L8" s="143"/>
       <c r="M8" s="86"/>
       <c r="N8" s="64"/>
       <c r="O8" s="64"/>
@@ -1646,8 +1655,8 @@
       <c r="S8" s="65"/>
     </row>
     <row r="9" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="148"/>
-      <c r="C9" s="146"/>
+      <c r="B9" s="150"/>
+      <c r="C9" s="148"/>
       <c r="D9" s="8" t="s">
         <v>17</v>
       </c>
@@ -1661,7 +1670,7 @@
         <v>43</v>
       </c>
       <c r="K9" s="82"/>
-      <c r="L9" s="153"/>
+      <c r="L9" s="143"/>
       <c r="M9" s="86"/>
       <c r="N9" s="79"/>
       <c r="O9" s="79"/>
@@ -1669,8 +1678,8 @@
       <c r="Q9" s="84"/>
     </row>
     <row r="10" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="148"/>
-      <c r="C10" s="144" t="s">
+      <c r="B10" s="150"/>
+      <c r="C10" s="146" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -1683,10 +1692,10 @@
         <v>45</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>46</v>
+        <v>185</v>
       </c>
       <c r="K10" s="82"/>
-      <c r="L10" s="153"/>
+      <c r="L10" s="143"/>
       <c r="M10" s="47"/>
       <c r="N10" s="79"/>
       <c r="O10" s="79"/>
@@ -1694,8 +1703,8 @@
       <c r="Q10" s="84"/>
     </row>
     <row r="11" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="148"/>
-      <c r="C11" s="145"/>
+      <c r="B11" s="150"/>
+      <c r="C11" s="147"/>
       <c r="D11" s="86" t="s">
         <v>12</v>
       </c>
@@ -1715,41 +1724,41 @@
       <c r="Q11" s="84"/>
     </row>
     <row r="12" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="148"/>
-      <c r="C12" s="145"/>
+      <c r="B12" s="150"/>
+      <c r="C12" s="147"/>
       <c r="D12" s="86" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="85" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="85" t="s">
+      <c r="G12" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="85" t="s">
-        <v>49</v>
-      </c>
       <c r="K12" s="87"/>
     </row>
     <row r="13" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="148"/>
-      <c r="C13" s="146"/>
+      <c r="B13" s="150"/>
+      <c r="C13" s="148"/>
       <c r="D13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="G13" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="16" t="s">
-        <v>52</v>
-      </c>
       <c r="K13" s="88"/>
     </row>
     <row r="14" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="149"/>
+      <c r="B14" s="151"/>
       <c r="C14" s="107" t="s">
         <v>31</v>
       </c>
@@ -1757,20 +1766,20 @@
         <v>8</v>
       </c>
       <c r="E14" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="G14" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="18" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="15" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="147" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="152" t="s">
+      <c r="B15" s="149" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="154" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -1788,8 +1797,8 @@
       <c r="Q15" s="33"/>
     </row>
     <row r="16" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="148"/>
-      <c r="C16" s="145"/>
+      <c r="B16" s="150"/>
+      <c r="C16" s="147"/>
       <c r="D16" s="24" t="s">
         <v>12</v>
       </c>
@@ -1810,8 +1819,8 @@
       <c r="P16" s="33"/>
     </row>
     <row r="17" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="148"/>
-      <c r="C17" s="145"/>
+      <c r="B17" s="150"/>
+      <c r="C17" s="147"/>
       <c r="D17" s="24" t="s">
         <v>13</v>
       </c>
@@ -1825,15 +1834,15 @@
         <v>16</v>
       </c>
       <c r="K17" s="28"/>
-      <c r="L17" s="153"/>
+      <c r="L17" s="143"/>
       <c r="N17" s="85"/>
       <c r="O17" s="85"/>
       <c r="P17" s="85"/>
       <c r="Q17" s="82"/>
     </row>
     <row r="18" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="148"/>
-      <c r="C18" s="146"/>
+      <c r="B18" s="150"/>
+      <c r="C18" s="148"/>
       <c r="D18" s="8" t="s">
         <v>17</v>
       </c>
@@ -1847,15 +1856,15 @@
         <v>20</v>
       </c>
       <c r="K18" s="82"/>
-      <c r="L18" s="153"/>
+      <c r="L18" s="143"/>
       <c r="N18" s="85"/>
       <c r="O18" s="85"/>
       <c r="P18" s="85"/>
       <c r="Q18" s="84"/>
     </row>
     <row r="19" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="148"/>
-      <c r="C19" s="144" t="s">
+      <c r="B19" s="150"/>
+      <c r="C19" s="146" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="10" t="s">
@@ -1871,15 +1880,15 @@
         <v>24</v>
       </c>
       <c r="K19" s="82"/>
-      <c r="L19" s="153"/>
+      <c r="L19" s="143"/>
       <c r="N19" s="85"/>
       <c r="O19" s="85"/>
       <c r="P19" s="85"/>
       <c r="Q19" s="84"/>
     </row>
     <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="148"/>
-      <c r="C20" s="145"/>
+      <c r="B20" s="150"/>
+      <c r="C20" s="147"/>
       <c r="D20" s="86" t="s">
         <v>12</v>
       </c>
@@ -1893,15 +1902,15 @@
         <v>3</v>
       </c>
       <c r="K20" s="82"/>
-      <c r="L20" s="153"/>
+      <c r="L20" s="143"/>
       <c r="N20" s="85"/>
       <c r="O20" s="85"/>
       <c r="P20" s="85"/>
       <c r="Q20" s="84"/>
     </row>
     <row r="21" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="148"/>
-      <c r="C21" s="145"/>
+      <c r="B21" s="150"/>
+      <c r="C21" s="147"/>
       <c r="D21" s="86" t="s">
         <v>13</v>
       </c>
@@ -1915,7 +1924,7 @@
         <v>27</v>
       </c>
       <c r="K21" s="82"/>
-      <c r="L21" s="153"/>
+      <c r="L21" s="143"/>
       <c r="M21" s="86"/>
       <c r="N21" s="85"/>
       <c r="O21" s="85"/>
@@ -1923,8 +1932,8 @@
       <c r="Q21" s="84"/>
     </row>
     <row r="22" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="148"/>
-      <c r="C22" s="146"/>
+      <c r="B22" s="150"/>
+      <c r="C22" s="148"/>
       <c r="D22" s="12" t="s">
         <v>17</v>
       </c>
@@ -1938,7 +1947,7 @@
         <v>30</v>
       </c>
       <c r="K22" s="28"/>
-      <c r="L22" s="153"/>
+      <c r="L22" s="143"/>
       <c r="M22" s="86"/>
       <c r="N22" s="89"/>
       <c r="O22" s="89"/>
@@ -1946,7 +1955,7 @@
       <c r="Q22" s="84"/>
     </row>
     <row r="23" spans="2:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="149"/>
+      <c r="B23" s="151"/>
       <c r="C23" s="108" t="s">
         <v>31</v>
       </c>
@@ -1963,7 +1972,7 @@
         <v>34</v>
       </c>
       <c r="K23" s="82"/>
-      <c r="L23" s="153"/>
+      <c r="L23" s="143"/>
       <c r="M23" s="86"/>
       <c r="N23" s="85"/>
       <c r="O23" s="85"/>
@@ -1971,26 +1980,26 @@
       <c r="Q23" s="84"/>
     </row>
     <row r="24" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="148" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="145" t="s">
+      <c r="B24" s="150" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="147" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="K24" s="82"/>
-      <c r="L24" s="153"/>
+      <c r="L24" s="143"/>
       <c r="M24" s="47"/>
       <c r="N24" s="85"/>
       <c r="O24" s="85"/>
@@ -1998,8 +2007,8 @@
       <c r="Q24" s="84"/>
     </row>
     <row r="25" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="148"/>
-      <c r="C25" s="145"/>
+      <c r="B25" s="150"/>
+      <c r="C25" s="147"/>
       <c r="D25" s="24" t="s">
         <v>12</v>
       </c>
@@ -2019,61 +2028,61 @@
       <c r="Q25" s="84"/>
     </row>
     <row r="26" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="148"/>
-      <c r="C26" s="145"/>
+      <c r="B26" s="150"/>
+      <c r="C26" s="147"/>
       <c r="D26" s="24" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="83" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="85" t="s">
+      <c r="G26" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="G26" s="85" t="s">
-        <v>61</v>
-      </c>
       <c r="K26" s="87"/>
     </row>
     <row r="27" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="148"/>
-      <c r="C27" s="146"/>
+      <c r="B27" s="150"/>
+      <c r="C27" s="148"/>
       <c r="D27" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="G27" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G27" s="9" t="s">
-        <v>64</v>
-      </c>
       <c r="K27" s="88"/>
     </row>
     <row r="28" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="148"/>
-      <c r="C28" s="144" t="s">
+      <c r="B28" s="150"/>
+      <c r="C28" s="146" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E28" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="G28" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="G28" s="11" t="s">
-        <v>67</v>
-      </c>
       <c r="Q28" s="33"/>
     </row>
     <row r="29" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="148"/>
-      <c r="C29" s="145"/>
+      <c r="B29" s="150"/>
+      <c r="C29" s="147"/>
       <c r="D29" s="86" t="s">
         <v>12</v>
       </c>
@@ -2094,51 +2103,51 @@
       <c r="P29" s="33"/>
     </row>
     <row r="30" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="148"/>
-      <c r="C30" s="145"/>
+      <c r="B30" s="150"/>
+      <c r="C30" s="147"/>
       <c r="D30" s="86" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="79" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="79" t="s">
         <v>68</v>
       </c>
-      <c r="F30" s="79" t="s">
+      <c r="G30" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="G30" s="79" t="s">
-        <v>70</v>
-      </c>
       <c r="K30" s="28"/>
-      <c r="L30" s="153"/>
+      <c r="L30" s="143"/>
       <c r="N30" s="83"/>
       <c r="O30" s="83"/>
       <c r="P30" s="83"/>
       <c r="Q30" s="82"/>
     </row>
     <row r="31" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="148"/>
-      <c r="C31" s="146"/>
+      <c r="B31" s="150"/>
+      <c r="C31" s="148"/>
       <c r="D31" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E31" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="G31" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="F31" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>72</v>
-      </c>
       <c r="K31" s="82"/>
-      <c r="L31" s="153"/>
+      <c r="L31" s="143"/>
       <c r="N31" s="66"/>
       <c r="O31" s="83"/>
       <c r="P31" s="83"/>
       <c r="Q31" s="84"/>
     </row>
     <row r="32" spans="2:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="149"/>
+      <c r="B32" s="151"/>
       <c r="C32" s="108" t="s">
         <v>31</v>
       </c>
@@ -2146,16 +2155,16 @@
         <v>8</v>
       </c>
       <c r="E32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="K32" s="82"/>
-      <c r="L32" s="153"/>
+      <c r="L32" s="143"/>
       <c r="N32" s="83"/>
       <c r="O32" s="85"/>
       <c r="P32" s="85"/>
@@ -2163,7 +2172,7 @@
     </row>
     <row r="33" spans="11:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K33" s="82"/>
-      <c r="L33" s="153"/>
+      <c r="L33" s="143"/>
       <c r="N33" s="66"/>
       <c r="O33" s="66"/>
       <c r="P33" s="66"/>
@@ -2171,7 +2180,7 @@
     </row>
     <row r="34" spans="11:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K34" s="82"/>
-      <c r="L34" s="153"/>
+      <c r="L34" s="143"/>
       <c r="M34" s="86"/>
       <c r="N34" s="79"/>
       <c r="O34" s="79"/>
@@ -2180,7 +2189,7 @@
     </row>
     <row r="35" spans="11:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K35" s="28"/>
-      <c r="L35" s="153"/>
+      <c r="L35" s="143"/>
       <c r="M35" s="86"/>
       <c r="N35" s="64"/>
       <c r="O35" s="64"/>
@@ -2189,7 +2198,7 @@
     </row>
     <row r="36" spans="11:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K36" s="82"/>
-      <c r="L36" s="153"/>
+      <c r="L36" s="143"/>
       <c r="M36" s="86"/>
       <c r="N36" s="79"/>
       <c r="O36" s="79"/>
@@ -2198,7 +2207,7 @@
     </row>
     <row r="37" spans="11:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K37" s="82"/>
-      <c r="L37" s="153"/>
+      <c r="L37" s="143"/>
       <c r="M37" s="47"/>
       <c r="N37" s="79"/>
       <c r="O37" s="79"/>
@@ -2217,12 +2226,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="L34:L37"/>
-    <mergeCell ref="L3:L6"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="L17:L20"/>
-    <mergeCell ref="L21:L24"/>
-    <mergeCell ref="L30:L33"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="C24:C27"/>
@@ -2234,6 +2237,12 @@
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="C15:C18"/>
+    <mergeCell ref="L34:L37"/>
+    <mergeCell ref="L3:L6"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="L17:L20"/>
+    <mergeCell ref="L21:L24"/>
+    <mergeCell ref="L30:L33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2259,27 +2268,27 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="53" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D2" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="E2" s="52" t="s">
-        <v>142</v>
-      </c>
       <c r="F2" s="52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="168" t="s">
+      <c r="B3" s="169" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="125" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D3" s="55">
         <v>0.3972</v>
@@ -2292,9 +2301,9 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="169"/>
+      <c r="B4" s="170"/>
       <c r="C4" s="114" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4" s="56">
         <v>-1.0319999999999999E-5</v>
@@ -2307,9 +2316,9 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="169"/>
+      <c r="B5" s="170"/>
       <c r="C5" s="114" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="56">
         <v>8.2030000000000006E-2</v>
@@ -2322,9 +2331,9 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="169"/>
+      <c r="B6" s="170"/>
       <c r="C6" s="114" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D6" s="56">
         <v>-2.6630000000000001E-2</v>
@@ -2337,9 +2346,9 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="169"/>
+      <c r="B7" s="170"/>
       <c r="C7" s="114" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D7" s="56">
         <v>3.1589999999999999E-3</v>
@@ -2352,9 +2361,9 @@
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="170"/>
+      <c r="B8" s="171"/>
       <c r="C8" s="123" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D8" s="57">
         <v>2.4320000000000001E-2</v>
@@ -2367,11 +2376,11 @@
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="168" t="s">
+      <c r="B9" s="169" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="125" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D9" s="55">
         <v>0.72870000000000001</v>
@@ -2384,9 +2393,9 @@
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="169"/>
+      <c r="B10" s="170"/>
       <c r="C10" s="114" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D10" s="56">
         <v>3.5340000000000002E-4</v>
@@ -2399,9 +2408,9 @@
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="169"/>
+      <c r="B11" s="170"/>
       <c r="C11" s="114" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D11" s="56">
         <v>5.074E-2</v>
@@ -2414,9 +2423,9 @@
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="169"/>
+      <c r="B12" s="170"/>
       <c r="C12" s="114" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D12" s="56">
         <v>-2.9929999999999998E-2</v>
@@ -2429,9 +2438,9 @@
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="169"/>
+      <c r="B13" s="170"/>
       <c r="C13" s="114" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D13" s="56">
         <v>2.708E-2</v>
@@ -2444,9 +2453,9 @@
       </c>
     </row>
     <row r="14" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="171"/>
+      <c r="B14" s="172"/>
       <c r="C14" s="115" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D14" s="58">
         <v>3.058E-3</v>
@@ -2470,27 +2479,27 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="53" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D17" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="E17" s="52" t="s">
-        <v>142</v>
-      </c>
       <c r="F17" s="52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="168" t="s">
+      <c r="B18" s="169" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="125" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D18" s="55">
         <v>0.41486630000000002</v>
@@ -2503,9 +2512,9 @@
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="169"/>
+      <c r="B19" s="170"/>
       <c r="C19" s="114" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D19" s="56">
         <v>1.021E-4</v>
@@ -2518,9 +2527,9 @@
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="169"/>
+      <c r="B20" s="170"/>
       <c r="C20" s="114" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D20" s="56">
         <v>8.79524E-2</v>
@@ -2533,9 +2542,9 @@
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="169"/>
+      <c r="B21" s="170"/>
       <c r="C21" s="114" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D21" s="56">
         <v>-1.9030200000000001E-2</v>
@@ -2548,9 +2557,9 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="169"/>
+      <c r="B22" s="170"/>
       <c r="C22" s="114" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D22" s="56">
         <v>1.6597799999999999E-2</v>
@@ -2563,9 +2572,9 @@
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="170"/>
+      <c r="B23" s="171"/>
       <c r="C23" s="123" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D23" s="57">
         <v>2.3698899999999998E-2</v>
@@ -2578,11 +2587,11 @@
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="168" t="s">
+      <c r="B24" s="169" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="125" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D24" s="55">
         <v>0.79380070000000003</v>
@@ -2595,9 +2604,9 @@
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="169"/>
+      <c r="B25" s="170"/>
       <c r="C25" s="114" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D25" s="56">
         <v>-1.8929999999999999E-4</v>
@@ -2610,9 +2619,9 @@
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="169"/>
+      <c r="B26" s="170"/>
       <c r="C26" s="114" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D26" s="56">
         <v>-3.1822999999999999E-3</v>
@@ -2625,9 +2634,9 @@
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="169"/>
+      <c r="B27" s="170"/>
       <c r="C27" s="114" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D27" s="56">
         <v>-2.9846999999999999E-3</v>
@@ -2640,9 +2649,9 @@
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="169"/>
+      <c r="B28" s="170"/>
       <c r="C28" s="114" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D28" s="56">
         <v>-2.2308499999999998E-2</v>
@@ -2655,9 +2664,9 @@
       </c>
     </row>
     <row r="29" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="171"/>
+      <c r="B29" s="172"/>
       <c r="C29" s="115" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D29" s="58">
         <v>1.6027099999999999E-2</v>
@@ -2705,7 +2714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38737C6-1D8B-488E-B81D-95B487E9C2F7}">
   <dimension ref="B2:L40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B29" sqref="B29:B42"/>
     </sheetView>
   </sheetViews>
@@ -2720,81 +2729,81 @@
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
-      <c r="E2" s="167" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
+      <c r="E2" s="168" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
-      <c r="E3" s="167">
+      <c r="E3" s="168">
         <v>2</v>
       </c>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167">
+      <c r="F3" s="168"/>
+      <c r="G3" s="168">
         <v>3</v>
       </c>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167">
+      <c r="H3" s="168"/>
+      <c r="I3" s="168">
         <v>4</v>
       </c>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167">
+      <c r="J3" s="168"/>
+      <c r="K3" s="168">
         <v>5</v>
       </c>
-      <c r="L3" s="167"/>
+      <c r="L3" s="168"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D4" s="51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="172">
+      <c r="B5" s="173">
         <v>71</v>
       </c>
-      <c r="C5" s="172" t="s">
+      <c r="C5" s="173" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="122" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E5" s="60">
         <v>2.1888999999999998</v>
@@ -2825,7 +2834,7 @@
       <c r="B6" s="159"/>
       <c r="C6" s="159"/>
       <c r="D6" s="114" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E6" s="59">
         <v>1.9488000000000001</v>
@@ -2856,7 +2865,7 @@
       <c r="B7" s="159"/>
       <c r="C7" s="159"/>
       <c r="D7" s="114" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E7" s="59">
         <v>4.9397999999999997E-2</v>
@@ -2887,7 +2896,7 @@
       <c r="B8" s="159"/>
       <c r="C8" s="159"/>
       <c r="D8" s="114" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E8" s="59">
         <v>5.6565000000000003</v>
@@ -2916,9 +2925,9 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="159"/>
-      <c r="C9" s="173"/>
+      <c r="C9" s="174"/>
       <c r="D9" s="123" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E9" s="61">
         <v>10.641</v>
@@ -2947,11 +2956,11 @@
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="159"/>
-      <c r="C10" s="172" t="s">
-        <v>85</v>
+      <c r="C10" s="173" t="s">
+        <v>84</v>
       </c>
       <c r="D10" s="122" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E10" s="59">
         <v>7.7908999999999997</v>
@@ -2982,7 +2991,7 @@
       <c r="B11" s="159"/>
       <c r="C11" s="159"/>
       <c r="D11" s="114" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E11" s="59">
         <v>1.2246999999999999</v>
@@ -3013,7 +3022,7 @@
       <c r="B12" s="159"/>
       <c r="C12" s="159"/>
       <c r="D12" s="114" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E12" s="59">
         <v>0.23027</v>
@@ -3044,7 +3053,7 @@
       <c r="B13" s="159"/>
       <c r="C13" s="159"/>
       <c r="D13" s="114" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E13" s="59">
         <v>68.903000000000006</v>
@@ -3072,10 +3081,10 @@
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="173"/>
-      <c r="C14" s="173"/>
+      <c r="B14" s="174"/>
+      <c r="C14" s="174"/>
       <c r="D14" s="123" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E14" s="61">
         <v>26.6</v>
@@ -3103,14 +3112,14 @@
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="172">
+      <c r="B15" s="173">
         <v>46</v>
       </c>
-      <c r="C15" s="172" t="s">
+      <c r="C15" s="173" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="122" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E15" s="60">
         <v>89.537000000000006</v>
@@ -3141,7 +3150,7 @@
       <c r="B16" s="159"/>
       <c r="C16" s="159"/>
       <c r="D16" s="114" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E16" s="59">
         <v>0.46489999999999998</v>
@@ -3172,7 +3181,7 @@
       <c r="B17" s="159"/>
       <c r="C17" s="159"/>
       <c r="D17" s="114" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E17" s="59">
         <v>1.0462</v>
@@ -3203,7 +3212,7 @@
       <c r="B18" s="159"/>
       <c r="C18" s="159"/>
       <c r="D18" s="114" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E18" s="59">
         <v>16.018000000000001</v>
@@ -3232,9 +3241,9 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="159"/>
-      <c r="C19" s="173"/>
+      <c r="C19" s="174"/>
       <c r="D19" s="123" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E19" s="61">
         <v>1.7529999999999999</v>
@@ -3264,10 +3273,10 @@
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="159"/>
       <c r="C20" s="159" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D20" s="114" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E20" s="59">
         <v>6.4222999999999999</v>
@@ -3298,7 +3307,7 @@
       <c r="B21" s="159"/>
       <c r="C21" s="159"/>
       <c r="D21" s="114" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E21" s="59">
         <v>0.68415000000000004</v>
@@ -3329,7 +3338,7 @@
       <c r="B22" s="159"/>
       <c r="C22" s="159"/>
       <c r="D22" s="114" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E22" s="59">
         <v>0.16320000000000001</v>
@@ -3360,7 +3369,7 @@
       <c r="B23" s="159"/>
       <c r="C23" s="159"/>
       <c r="D23" s="114" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E23" s="59">
         <v>40.609000000000002</v>
@@ -3388,10 +3397,10 @@
       </c>
     </row>
     <row r="24" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="174"/>
-      <c r="C24" s="174"/>
+      <c r="B24" s="175"/>
+      <c r="C24" s="175"/>
       <c r="D24" s="115" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E24" s="62">
         <v>17.359000000000002</v>
@@ -3425,77 +3434,77 @@
     <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" s="47"/>
       <c r="C28" s="47"/>
-      <c r="E28" s="167" t="s">
-        <v>137</v>
-      </c>
-      <c r="F28" s="167"/>
-      <c r="G28" s="167"/>
-      <c r="H28" s="167"/>
-      <c r="I28" s="167"/>
-      <c r="J28" s="167"/>
-      <c r="K28" s="167"/>
-      <c r="L28" s="167"/>
+      <c r="E28" s="168" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" s="168"/>
+      <c r="G28" s="168"/>
+      <c r="H28" s="168"/>
+      <c r="I28" s="168"/>
+      <c r="J28" s="168"/>
+      <c r="K28" s="168"/>
+      <c r="L28" s="168"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B29" s="47"/>
       <c r="C29" s="47"/>
-      <c r="E29" s="167">
+      <c r="E29" s="168">
         <v>2</v>
       </c>
-      <c r="F29" s="167"/>
-      <c r="G29" s="167">
+      <c r="F29" s="168"/>
+      <c r="G29" s="168">
         <v>3</v>
       </c>
-      <c r="H29" s="167"/>
-      <c r="I29" s="167">
+      <c r="H29" s="168"/>
+      <c r="I29" s="168">
         <v>4</v>
       </c>
-      <c r="J29" s="167"/>
-      <c r="K29" s="167">
+      <c r="J29" s="168"/>
+      <c r="K29" s="168">
         <v>5</v>
       </c>
-      <c r="L29" s="167"/>
+      <c r="L29" s="168"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B30" s="141"/>
       <c r="C30" s="35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D30" s="51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I30" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J30" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K30" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L30" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B31" s="159"/>
-      <c r="C31" s="172" t="s">
+      <c r="C31" s="173" t="s">
         <v>2</v>
       </c>
       <c r="D31" s="139" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E31" s="60">
         <v>89.537000000000006</v>
@@ -3526,7 +3535,7 @@
       <c r="B32" s="159"/>
       <c r="C32" s="159"/>
       <c r="D32" s="136" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E32" s="59">
         <v>0.46489999999999998</v>
@@ -3557,7 +3566,7 @@
       <c r="B33" s="159"/>
       <c r="C33" s="159"/>
       <c r="D33" s="136" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E33" s="59">
         <v>1.0462</v>
@@ -3588,7 +3597,7 @@
       <c r="B34" s="159"/>
       <c r="C34" s="159"/>
       <c r="D34" s="136" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E34" s="59">
         <v>16.018000000000001</v>
@@ -3617,9 +3626,9 @@
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B35" s="159"/>
-      <c r="C35" s="173"/>
+      <c r="C35" s="174"/>
       <c r="D35" s="138" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E35" s="61">
         <v>1.7529999999999999</v>
@@ -3649,10 +3658,10 @@
     <row r="36" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B36" s="159"/>
       <c r="C36" s="159" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D36" s="136" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E36" s="59">
         <v>6.4222999999999999</v>
@@ -3683,7 +3692,7 @@
       <c r="B37" s="159"/>
       <c r="C37" s="159"/>
       <c r="D37" s="136" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E37" s="59">
         <v>0.68415000000000004</v>
@@ -3714,7 +3723,7 @@
       <c r="B38" s="159"/>
       <c r="C38" s="159"/>
       <c r="D38" s="136" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E38" s="59">
         <v>0.16320000000000001</v>
@@ -3745,7 +3754,7 @@
       <c r="B39" s="159"/>
       <c r="C39" s="159"/>
       <c r="D39" s="136" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E39" s="59">
         <v>40.609000000000002</v>
@@ -3774,9 +3783,9 @@
     </row>
     <row r="40" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="159"/>
-      <c r="C40" s="174"/>
+      <c r="C40" s="175"/>
       <c r="D40" s="137" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E40" s="62">
         <v>17.359000000000002</v>
@@ -3805,17 +3814,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="E2:L2"/>
-    <mergeCell ref="C10:C14"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="B5:B14"/>
-    <mergeCell ref="B15:B24"/>
-    <mergeCell ref="C5:C9"/>
     <mergeCell ref="B31:B40"/>
     <mergeCell ref="C31:C35"/>
     <mergeCell ref="C36:C40"/>
@@ -3824,6 +3822,17 @@
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="K29:L29"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="B15:B24"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="E2:L2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -3831,10 +3840,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EBDC9E9-30BF-4C7E-88CF-B0C7C5C6E499}">
-  <dimension ref="B2:G30"/>
+  <dimension ref="B2:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3846,41 +3855,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D2" s="167">
+      <c r="D2" s="168">
         <v>71</v>
       </c>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167">
+      <c r="E2" s="168"/>
+      <c r="F2" s="168">
         <v>46</v>
       </c>
-      <c r="G2" s="167"/>
+      <c r="G2" s="168"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="D3" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="D3" s="25" t="s">
-        <v>140</v>
-      </c>
       <c r="E3" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" s="175" t="s">
+      <c r="B4" s="176" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="122" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4" s="43">
         <v>3.9890000000000002E-2</v>
@@ -3896,9 +3905,9 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="142"/>
+      <c r="B5" s="144"/>
       <c r="C5" s="114" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="29">
         <v>8.1509999999999999E-2</v>
@@ -3914,9 +3923,9 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="142"/>
+      <c r="B6" s="144"/>
       <c r="C6" s="114" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D6" s="29">
         <v>-2.4410000000000001E-2</v>
@@ -3932,9 +3941,9 @@
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="142"/>
+      <c r="B7" s="144"/>
       <c r="C7" s="114" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D7" s="29">
         <v>0.2021</v>
@@ -3950,9 +3959,9 @@
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="176"/>
+      <c r="B8" s="177"/>
       <c r="C8" s="123" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D8" s="45">
         <v>0.1172</v>
@@ -3968,11 +3977,11 @@
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="175" t="s">
-        <v>85</v>
+      <c r="B9" s="176" t="s">
+        <v>84</v>
       </c>
       <c r="C9" s="122" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D9" s="43">
         <v>0.2235</v>
@@ -3988,9 +3997,9 @@
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="142"/>
+      <c r="B10" s="144"/>
       <c r="C10" s="114" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D10" s="29">
         <v>4.3439999999999999E-2</v>
@@ -4006,9 +4015,9 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="142"/>
+      <c r="B11" s="144"/>
       <c r="C11" s="114" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D11" s="29">
         <v>-3.8739999999999997E-2</v>
@@ -4024,9 +4033,9 @@
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="142"/>
+      <c r="B12" s="144"/>
       <c r="C12" s="114" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D12" s="29">
         <v>0.57169999999999999</v>
@@ -4042,9 +4051,9 @@
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="176"/>
+      <c r="B13" s="177"/>
       <c r="C13" s="123" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D13" s="45">
         <v>0.1981</v>
@@ -4061,7 +4070,7 @@
     </row>
     <row r="14" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="124" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="48">
@@ -4078,29 +4087,29 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D18" s="167"/>
-      <c r="E18" s="167"/>
+      <c r="D18" s="168"/>
+      <c r="E18" s="168"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="D19" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="D19" s="25" t="s">
-        <v>140</v>
-      </c>
       <c r="E19" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="175" t="s">
+      <c r="B20" s="176" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="139" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D20" s="43">
         <v>0.12180000000000001</v>
@@ -4110,9 +4119,9 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="142"/>
+      <c r="B21" s="144"/>
       <c r="C21" s="136" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D21" s="29">
         <v>0.2354</v>
@@ -4122,9 +4131,9 @@
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="142"/>
+      <c r="B22" s="144"/>
       <c r="C22" s="136" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D22" s="29">
         <v>-6.0400000000000002E-2</v>
@@ -4134,9 +4143,9 @@
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="142"/>
+      <c r="B23" s="144"/>
       <c r="C23" s="136" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D23" s="29">
         <v>0.15759999999999999</v>
@@ -4146,88 +4155,112 @@
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="176"/>
-      <c r="C24" s="138" t="s">
-        <v>100</v>
-      </c>
-      <c r="D24" s="45">
+      <c r="B24" s="144"/>
+      <c r="C24" s="142" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="29">
         <v>0.18099999999999999</v>
       </c>
-      <c r="E24" s="127">
+      <c r="E24" s="110">
         <v>2.0298E-2</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="175" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="139" t="s">
+      <c r="B25" s="177"/>
+      <c r="C25" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="D25" s="29">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="E25" s="28">
+        <v>2.2997999999999998E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="176" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="139" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="43">
+        <v>0.30209999999999998</v>
+      </c>
+      <c r="E26" s="126">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="144"/>
+      <c r="C27" s="136" t="s">
         <v>97</v>
       </c>
-      <c r="D25" s="43">
-        <v>0.30209999999999998</v>
-      </c>
-      <c r="E25" s="126">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="142"/>
-      <c r="C26" s="136" t="s">
+      <c r="D27" s="29">
+        <v>7.2400000000000006E-2</v>
+      </c>
+      <c r="E27" s="23">
+        <v>0.19128000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="144"/>
+      <c r="C28" s="136" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28" s="29">
+        <v>-6.2890000000000001E-2</v>
+      </c>
+      <c r="E28" s="23">
+        <v>0.78322000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="144"/>
+      <c r="C29" s="136" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="29">
-        <v>7.2400000000000006E-2</v>
-      </c>
-      <c r="E26" s="23">
-        <v>0.19128000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="142"/>
-      <c r="C27" s="136" t="s">
-        <v>134</v>
-      </c>
-      <c r="D27" s="29">
-        <v>-6.2890000000000001E-2</v>
-      </c>
-      <c r="E27" s="23">
-        <v>0.78322000000000003</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="142"/>
-      <c r="C28" s="136" t="s">
+      <c r="D29" s="29">
+        <v>0.67589999999999995</v>
+      </c>
+      <c r="E29" s="110">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="144"/>
+      <c r="C30" s="142" t="s">
         <v>99</v>
       </c>
-      <c r="D28" s="29">
-        <v>0.67589999999999995</v>
-      </c>
-      <c r="E28" s="110">
-        <v>1E-4</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="176"/>
-      <c r="C29" s="138" t="s">
-        <v>100</v>
-      </c>
-      <c r="D29" s="45">
+      <c r="D30" s="29">
         <v>0.1845</v>
       </c>
-      <c r="E29" s="127">
+      <c r="E30" s="110">
         <v>2.2398000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="124" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="48">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="177"/>
+      <c r="C31" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="D31" s="29">
+        <v>0.4677</v>
+      </c>
+      <c r="E31" s="28">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="124" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="48">
         <v>0.23</v>
       </c>
-      <c r="E30" s="128">
+      <c r="E32" s="128">
         <v>1.9E-3</v>
       </c>
     </row>
@@ -4235,8 +4268,8 @@
   <mergeCells count="7">
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="B26:B31"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="D2:E2"/>
@@ -4393,44 +4426,44 @@
       <c r="P7" s="24"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C9" s="155" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="155"/>
-      <c r="E9" s="155"/>
-      <c r="F9" s="155"/>
+      <c r="C9" s="156" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="156"/>
+      <c r="E9" s="156"/>
+      <c r="F9" s="156"/>
     </row>
     <row r="10" spans="1:16" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5"/>
-      <c r="C10" s="154" t="s">
+      <c r="C10" s="155" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="155"/>
+      <c r="E10" s="155" t="s">
         <v>156</v>
       </c>
-      <c r="D10" s="154"/>
-      <c r="E10" s="154" t="s">
-        <v>157</v>
-      </c>
-      <c r="F10" s="154"/>
+      <c r="F10" s="155"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B11" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>77</v>
-      </c>
       <c r="F11" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B12" s="109" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C12" s="21">
         <v>17652</v>
@@ -4448,7 +4481,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B13" s="109" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" s="2">
         <v>23538.5</v>
@@ -4466,7 +4499,7 @@
     </row>
     <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="99" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" s="26">
         <v>56563</v>
@@ -4512,7 +4545,7 @@
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>6</v>
@@ -4524,10 +4557,10 @@
         <v>2</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J2" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K2" s="25" t="s">
         <v>6</v>
@@ -4539,13 +4572,13 @@
         <v>2</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="133"/>
       <c r="C3" s="133" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D3" s="133">
         <v>620</v>
@@ -4558,7 +4591,7 @@
       </c>
       <c r="J3" s="133"/>
       <c r="K3" s="133" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L3" s="133">
         <v>620</v>
@@ -4571,11 +4604,11 @@
       </c>
     </row>
     <row r="4" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="148" t="s">
-        <v>163</v>
+      <c r="B4" s="150" t="s">
+        <v>162</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D4" s="129">
         <v>0.91120999999999996</v>
@@ -4586,11 +4619,11 @@
       <c r="F4" s="129">
         <v>0.83216999999999997</v>
       </c>
-      <c r="J4" s="157" t="s">
-        <v>163</v>
+      <c r="J4" s="158" t="s">
+        <v>162</v>
       </c>
       <c r="K4" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L4" s="43">
         <v>0.91120999999999996</v>
@@ -4603,9 +4636,9 @@
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="148"/>
+      <c r="B5" s="150"/>
       <c r="C5" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" s="129">
         <v>0.62448000000000004</v>
@@ -4616,9 +4649,9 @@
       <c r="F5" s="129">
         <v>0.41958000000000001</v>
       </c>
-      <c r="J5" s="148"/>
+      <c r="J5" s="150"/>
       <c r="K5" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L5" s="29">
         <v>0.62448000000000004</v>
@@ -4631,9 +4664,9 @@
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="148"/>
+      <c r="B6" s="150"/>
       <c r="C6" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" s="129">
         <v>0.45505000000000001</v>
@@ -4644,9 +4677,9 @@
       <c r="F6" s="129">
         <v>1.0066999999999999</v>
       </c>
-      <c r="J6" s="148"/>
+      <c r="J6" s="150"/>
       <c r="K6" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L6" s="29">
         <v>0.45505000000000001</v>
@@ -4659,9 +4692,9 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="156"/>
+      <c r="B7" s="157"/>
       <c r="C7" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D7" s="25">
         <v>1E-4</v>
@@ -4672,9 +4705,9 @@
       <c r="F7" s="25">
         <v>1E-4</v>
       </c>
-      <c r="J7" s="149"/>
+      <c r="J7" s="151"/>
       <c r="K7" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L7" s="22">
         <v>1E-4</v>
@@ -4687,11 +4720,11 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="148" t="s">
-        <v>160</v>
+      <c r="B8" s="150" t="s">
+        <v>159</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" s="43">
         <v>0.72226000000000001</v>
@@ -4704,9 +4737,9 @@
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="148"/>
+      <c r="B9" s="150"/>
       <c r="C9" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" s="29">
         <v>0.11834</v>
@@ -4719,9 +4752,9 @@
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="148"/>
+      <c r="B10" s="150"/>
       <c r="C10" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="29">
         <v>1.1603000000000001</v>
@@ -4734,9 +4767,9 @@
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="156"/>
+      <c r="B11" s="157"/>
       <c r="C11" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D11" s="25">
         <v>1E-4</v>
@@ -4749,11 +4782,11 @@
       </c>
     </row>
     <row r="12" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="157" t="s">
-        <v>161</v>
+      <c r="B12" s="158" t="s">
+        <v>160</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D12" s="129">
         <v>0.76215999999999995</v>
@@ -4766,9 +4799,9 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="148"/>
+      <c r="B13" s="150"/>
       <c r="C13" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D13" s="129">
         <v>0.10026</v>
@@ -4781,9 +4814,9 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="148"/>
+      <c r="B14" s="150"/>
       <c r="C14" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D14" s="129">
         <v>1.0401</v>
@@ -4796,9 +4829,9 @@
       </c>
     </row>
     <row r="15" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="149"/>
+      <c r="B15" s="151"/>
       <c r="C15" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D15" s="22">
         <v>1E-4</v>
@@ -4826,7 +4859,7 @@
   <dimension ref="B1:W34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4871,18 +4904,18 @@
       <c r="W2" s="24"/>
     </row>
     <row r="3" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="155" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="155"/>
-      <c r="M3" s="155" t="s">
-        <v>83</v>
-      </c>
-      <c r="N3" s="155"/>
-      <c r="O3" s="155"/>
-      <c r="P3" s="155"/>
+      <c r="D3" s="156" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="M3" s="156" t="s">
+        <v>82</v>
+      </c>
+      <c r="N3" s="156"/>
+      <c r="O3" s="156"/>
+      <c r="P3" s="156"/>
       <c r="Q3" s="24"/>
       <c r="R3" s="24"/>
       <c r="S3" s="24"/>
@@ -4892,22 +4925,22 @@
       <c r="W3" s="24"/>
     </row>
     <row r="4" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="155" t="s">
+      <c r="D4" s="156" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="156"/>
+      <c r="F4" s="156" t="s">
         <v>94</v>
       </c>
-      <c r="E4" s="155"/>
-      <c r="F4" s="155" t="s">
-        <v>95</v>
-      </c>
-      <c r="G4" s="155"/>
-      <c r="M4" s="155" t="s">
+      <c r="G4" s="156"/>
+      <c r="M4" s="156" t="s">
+        <v>93</v>
+      </c>
+      <c r="N4" s="156"/>
+      <c r="O4" s="156" t="s">
         <v>94</v>
       </c>
-      <c r="N4" s="155"/>
-      <c r="O4" s="155" t="s">
-        <v>95</v>
-      </c>
-      <c r="P4" s="155"/>
+      <c r="P4" s="156"/>
       <c r="Q4" s="50"/>
       <c r="R4" s="50"/>
       <c r="S4" s="24"/>
@@ -4918,40 +4951,40 @@
     </row>
     <row r="5" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>93</v>
-      </c>
       <c r="D5" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K5" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="L5" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="L5" s="25" t="s">
-        <v>93</v>
-      </c>
       <c r="M5" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N5" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O5" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P5" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q5" s="30"/>
       <c r="R5" s="30"/>
@@ -4962,11 +4995,11 @@
       <c r="W5" s="24"/>
     </row>
     <row r="6" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="144" t="s">
-        <v>159</v>
+      <c r="B6" s="146" t="s">
+        <v>158</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" s="2">
         <v>141.1</v>
@@ -4980,11 +5013,11 @@
       <c r="G6" s="112">
         <v>1E-4</v>
       </c>
-      <c r="K6" s="144" t="s">
-        <v>163</v>
+      <c r="K6" s="146" t="s">
+        <v>162</v>
       </c>
       <c r="L6" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M6" s="27">
         <v>141.1</v>
@@ -5007,9 +5040,9 @@
       <c r="W6" s="24"/>
     </row>
     <row r="7" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="146"/>
+      <c r="B7" s="148"/>
       <c r="C7" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D7" s="2">
         <v>53.02</v>
@@ -5023,9 +5056,9 @@
       <c r="G7" s="25">
         <v>1E-4</v>
       </c>
-      <c r="K7" s="158"/>
+      <c r="K7" s="162"/>
       <c r="L7" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M7" s="3">
         <v>53.02</v>
@@ -5048,11 +5081,11 @@
       <c r="W7" s="24"/>
     </row>
     <row r="8" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="144" t="s">
-        <v>160</v>
+      <c r="B8" s="146" t="s">
+        <v>159</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" s="27">
         <v>96.93</v>
@@ -5081,9 +5114,9 @@
       <c r="W8" s="24"/>
     </row>
     <row r="9" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="146"/>
+      <c r="B9" s="148"/>
       <c r="C9" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D9" s="8">
         <v>205.1</v>
@@ -5114,10 +5147,10 @@
     </row>
     <row r="10" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="160" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10" s="27">
         <v>190.3</v>
@@ -5149,7 +5182,7 @@
     <row r="11" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="161"/>
       <c r="C11" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D11" s="3">
         <v>103.6</v>
@@ -5521,6 +5554,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="D3:G3"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="L10:L11"/>
@@ -5528,11 +5566,6 @@
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="D3:G3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -5577,7 +5610,7 @@
       <c r="C4" s="24"/>
       <c r="D4" s="24"/>
       <c r="E4" s="24"/>
-      <c r="G4" s="162"/>
+      <c r="G4" s="163"/>
       <c r="H4" s="47"/>
       <c r="I4" s="81"/>
       <c r="J4" s="81"/>
@@ -5585,7 +5618,7 @@
     </row>
     <row r="5" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C5" s="80" t="s">
         <v>6</v>
@@ -5596,16 +5629,16 @@
       <c r="E5" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="162"/>
+      <c r="G5" s="163"/>
       <c r="I5" s="70"/>
       <c r="J5" s="70"/>
     </row>
     <row r="6" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="163" t="s">
-        <v>97</v>
+      <c r="B6" s="164" t="s">
+        <v>96</v>
       </c>
       <c r="C6" s="68" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="69">
         <v>600</v>
@@ -5613,27 +5646,27 @@
       <c r="E6" s="69">
         <v>147</v>
       </c>
-      <c r="G6" s="162"/>
+      <c r="G6" s="163"/>
       <c r="I6" s="70"/>
       <c r="J6" s="70"/>
     </row>
     <row r="7" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="164"/>
+      <c r="B7" s="165"/>
       <c r="C7" s="24" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="70" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="70" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7" s="162"/>
+      <c r="G7" s="163"/>
       <c r="I7" s="70"/>
       <c r="J7" s="71"/>
     </row>
     <row r="8" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="164"/>
+      <c r="B8" s="165"/>
       <c r="C8" s="24" t="s">
         <v>12</v>
       </c>
@@ -5643,40 +5676,40 @@
       <c r="E8" s="70">
         <v>637</v>
       </c>
-      <c r="G8" s="162"/>
+      <c r="G8" s="163"/>
       <c r="I8" s="70"/>
       <c r="J8" s="71"/>
     </row>
     <row r="9" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="164"/>
+      <c r="B9" s="165"/>
       <c r="C9" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="70" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="E9" s="71" t="s">
-        <v>104</v>
-      </c>
     </row>
     <row r="10" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="165"/>
+      <c r="B10" s="166"/>
       <c r="C10" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="72" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="E10" s="73" t="s">
-        <v>106</v>
-      </c>
     </row>
     <row r="11" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="163" t="s">
-        <v>164</v>
+      <c r="B11" s="164" t="s">
+        <v>163</v>
       </c>
       <c r="C11" s="68" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" s="74">
         <v>626</v>
@@ -5689,23 +5722,23 @@
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="164"/>
+      <c r="B12" s="165"/>
       <c r="C12" s="24" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="75" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="75" t="s">
-        <v>108</v>
-      </c>
-      <c r="G12" s="162"/>
+      <c r="G12" s="163"/>
       <c r="H12" s="47"/>
       <c r="I12" s="75"/>
       <c r="J12" s="75"/>
     </row>
     <row r="13" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="164"/>
+      <c r="B13" s="165"/>
       <c r="C13" s="24" t="s">
         <v>12</v>
       </c>
@@ -5715,46 +5748,46 @@
       <c r="E13" s="76">
         <v>2.66</v>
       </c>
-      <c r="G13" s="162"/>
+      <c r="G13" s="163"/>
       <c r="I13" s="75"/>
       <c r="J13" s="75"/>
     </row>
     <row r="14" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="164"/>
+      <c r="B14" s="165"/>
       <c r="C14" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="E14" s="75" t="s">
-        <v>110</v>
-      </c>
-      <c r="G14" s="162"/>
+      <c r="G14" s="163"/>
       <c r="I14" s="75"/>
       <c r="J14" s="75"/>
     </row>
     <row r="15" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="165"/>
+      <c r="B15" s="166"/>
       <c r="C15" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="E15" s="77" t="s">
-        <v>112</v>
-      </c>
-      <c r="G15" s="162"/>
+      <c r="G15" s="163"/>
       <c r="I15" s="75"/>
       <c r="J15" s="75"/>
     </row>
     <row r="16" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="163" t="s">
-        <v>134</v>
+      <c r="B16" s="164" t="s">
+        <v>133</v>
       </c>
       <c r="C16" s="68" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D16" s="78">
         <v>630</v>
@@ -5762,20 +5795,20 @@
       <c r="E16" s="78">
         <v>173</v>
       </c>
-      <c r="G16" s="162"/>
+      <c r="G16" s="163"/>
       <c r="I16" s="75"/>
       <c r="J16" s="75"/>
     </row>
     <row r="17" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="164"/>
+      <c r="B17" s="165"/>
       <c r="C17" s="24" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="66" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="66" t="s">
         <v>113</v>
-      </c>
-      <c r="E17" s="66" t="s">
-        <v>114</v>
       </c>
       <c r="H17" s="42"/>
       <c r="I17" s="65"/>
@@ -5783,7 +5816,7 @@
       <c r="K17" s="20"/>
     </row>
     <row r="18" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="164"/>
+      <c r="B18" s="165"/>
       <c r="C18" s="24" t="s">
         <v>12</v>
       </c>
@@ -5795,42 +5828,42 @@
       </c>
     </row>
     <row r="19" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="164"/>
+      <c r="B19" s="165"/>
       <c r="C19" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="66" t="s">
         <v>115</v>
-      </c>
-      <c r="E19" s="66" t="s">
-        <v>116</v>
       </c>
       <c r="H19" s="36"/>
       <c r="I19" s="36"/>
       <c r="J19" s="36"/>
     </row>
     <row r="20" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="165"/>
+      <c r="B20" s="166"/>
       <c r="C20" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="162"/>
+      <c r="G20" s="163"/>
       <c r="H20" s="47"/>
       <c r="I20" s="66"/>
       <c r="J20" s="66"/>
     </row>
     <row r="21" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="163" t="s">
-        <v>99</v>
+      <c r="B21" s="164" t="s">
+        <v>98</v>
       </c>
       <c r="C21" s="68" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D21" s="69">
         <v>631</v>
@@ -5838,27 +5871,27 @@
       <c r="E21" s="69">
         <v>174</v>
       </c>
-      <c r="G21" s="162"/>
+      <c r="G21" s="163"/>
       <c r="I21" s="66"/>
       <c r="J21" s="66"/>
     </row>
     <row r="22" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="164"/>
+      <c r="B22" s="165"/>
       <c r="C22" s="24" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="75" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="E22" s="75" t="s">
-        <v>120</v>
-      </c>
-      <c r="G22" s="162"/>
+      <c r="G22" s="163"/>
       <c r="I22" s="66"/>
       <c r="J22" s="79"/>
     </row>
     <row r="23" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="164"/>
+      <c r="B23" s="165"/>
       <c r="C23" s="24" t="s">
         <v>12</v>
       </c>
@@ -5868,46 +5901,46 @@
       <c r="E23" s="76">
         <v>-22.8</v>
       </c>
-      <c r="G23" s="162"/>
+      <c r="G23" s="163"/>
       <c r="I23" s="66"/>
       <c r="J23" s="66"/>
     </row>
     <row r="24" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="164"/>
+      <c r="B24" s="165"/>
       <c r="C24" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="E24" s="75" t="s">
-        <v>122</v>
-      </c>
-      <c r="G24" s="162"/>
+      <c r="G24" s="163"/>
       <c r="I24" s="66"/>
       <c r="J24" s="66"/>
     </row>
     <row r="25" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="165"/>
+      <c r="B25" s="166"/>
       <c r="C25" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="77" t="s">
+      <c r="E25" s="77" t="s">
         <v>124</v>
-      </c>
-      <c r="E25" s="77" t="s">
-        <v>125</v>
       </c>
       <c r="H25" s="65"/>
       <c r="I25" s="81"/>
       <c r="J25" s="81"/>
     </row>
     <row r="26" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="164" t="s">
-        <v>135</v>
+      <c r="B26" s="165" t="s">
+        <v>134</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D26" s="39">
         <v>631</v>
@@ -5917,22 +5950,22 @@
       </c>
     </row>
     <row r="27" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="164"/>
+      <c r="B27" s="165"/>
       <c r="C27" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="E27" s="39" t="s">
         <v>126</v>
-      </c>
-      <c r="E27" s="39" t="s">
-        <v>127</v>
       </c>
       <c r="H27" s="36"/>
       <c r="I27" s="36"/>
       <c r="J27" s="36"/>
     </row>
     <row r="28" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="164"/>
+      <c r="B28" s="165"/>
       <c r="C28" s="2" t="s">
         <v>12</v>
       </c>
@@ -5942,48 +5975,48 @@
       <c r="E28" s="67">
         <v>-48.6</v>
       </c>
-      <c r="G28" s="162"/>
+      <c r="G28" s="163"/>
       <c r="H28" s="47"/>
       <c r="I28" s="81"/>
       <c r="J28" s="81"/>
     </row>
     <row r="29" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="164"/>
+      <c r="B29" s="165"/>
       <c r="C29" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="E29" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="G29" s="162"/>
+      <c r="G29" s="163"/>
       <c r="I29" s="75"/>
       <c r="J29" s="75"/>
     </row>
     <row r="30" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="166"/>
+      <c r="B30" s="167"/>
       <c r="C30" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D30" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="E30" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="E30" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="G30" s="162"/>
+      <c r="G30" s="163"/>
       <c r="I30" s="75"/>
       <c r="J30" s="75"/>
     </row>
     <row r="31" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G31" s="162"/>
+      <c r="G31" s="163"/>
       <c r="I31" s="75"/>
       <c r="J31" s="75"/>
     </row>
     <row r="32" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G32" s="162"/>
+      <c r="G32" s="163"/>
       <c r="I32" s="75"/>
       <c r="J32" s="75"/>
     </row>
@@ -5993,28 +6026,28 @@
       <c r="J36" s="36"/>
     </row>
     <row r="37" spans="7:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G37" s="162"/>
+      <c r="G37" s="163"/>
       <c r="H37" s="47"/>
       <c r="I37" s="75"/>
       <c r="J37" s="75"/>
     </row>
     <row r="38" spans="7:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G38" s="162"/>
+      <c r="G38" s="163"/>
       <c r="I38" s="75"/>
       <c r="J38" s="75"/>
     </row>
     <row r="39" spans="7:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G39" s="162"/>
+      <c r="G39" s="163"/>
       <c r="I39" s="75"/>
       <c r="J39" s="75"/>
     </row>
     <row r="40" spans="7:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G40" s="162"/>
+      <c r="G40" s="163"/>
       <c r="I40" s="75"/>
       <c r="J40" s="75"/>
     </row>
     <row r="41" spans="7:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G41" s="162"/>
+      <c r="G41" s="163"/>
       <c r="I41" s="75"/>
       <c r="J41" s="75"/>
     </row>
@@ -6052,18 +6085,18 @@
   <sheetData>
     <row r="2" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="114" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C3" s="24">
         <v>32332</v>
@@ -6074,7 +6107,7 @@
     </row>
     <row r="4" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="114" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4" s="24">
         <v>38682</v>
@@ -6085,7 +6118,7 @@
     </row>
     <row r="5" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="114" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="24">
         <v>34766</v>
@@ -6096,7 +6129,7 @@
     </row>
     <row r="6" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="114" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" s="24">
         <v>36689</v>
@@ -6107,7 +6140,7 @@
     </row>
     <row r="7" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="115" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" s="3">
         <v>39996</v>
@@ -6139,16 +6172,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D2" s="155" t="s">
+      <c r="D2" s="156" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156" t="s">
         <v>154</v>
       </c>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155" t="s">
-        <v>155</v>
-      </c>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
@@ -6164,7 +6197,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G3" s="25" t="s">
         <v>1</v>
@@ -6173,15 +6206,15 @@
         <v>2</v>
       </c>
       <c r="I3" s="25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="164" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="27" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="163" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>86</v>
       </c>
       <c r="D4" s="27">
         <v>577</v>
@@ -6203,9 +6236,9 @@
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="164"/>
+      <c r="B5" s="165"/>
       <c r="C5" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" s="29">
         <v>0.2</v>
@@ -6227,9 +6260,9 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="164"/>
+      <c r="B6" s="165"/>
       <c r="C6" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" s="23">
         <v>1.477E-3</v>
@@ -6251,9 +6284,9 @@
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="164"/>
+      <c r="B7" s="165"/>
       <c r="C7" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" s="29">
         <v>1.03</v>
@@ -6275,9 +6308,9 @@
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="165"/>
+      <c r="B8" s="166"/>
       <c r="C8" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D8" s="25">
         <v>1E-4</v>
@@ -6299,11 +6332,11 @@
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="163" t="s">
-        <v>133</v>
+      <c r="B9" s="164" t="s">
+        <v>132</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="27">
         <v>605</v>
@@ -6325,9 +6358,9 @@
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="164"/>
+      <c r="B10" s="165"/>
       <c r="C10" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D10" s="29">
         <v>0.08</v>
@@ -6349,9 +6382,9 @@
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="164"/>
+      <c r="B11" s="165"/>
       <c r="C11" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D11" s="29">
         <v>0.43</v>
@@ -6373,9 +6406,9 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="164"/>
+      <c r="B12" s="165"/>
       <c r="C12" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D12" s="29">
         <v>0.84</v>
@@ -6397,9 +6430,9 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="165"/>
+      <c r="B13" s="166"/>
       <c r="C13" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D13" s="25">
         <v>1E-4</v>
@@ -6421,11 +6454,11 @@
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="163" t="s">
-        <v>134</v>
+      <c r="B14" s="164" t="s">
+        <v>133</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D14" s="27">
         <v>611</v>
@@ -6447,9 +6480,9 @@
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="164"/>
+      <c r="B15" s="165"/>
       <c r="C15" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D15" s="29">
         <v>0.32</v>
@@ -6471,9 +6504,9 @@
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="164"/>
+      <c r="B16" s="165"/>
       <c r="C16" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D16" s="29">
         <v>0.48</v>
@@ -6495,9 +6528,9 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="164"/>
+      <c r="B17" s="165"/>
       <c r="C17" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D17" s="29">
         <v>-0.11</v>
@@ -6519,9 +6552,9 @@
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="165"/>
+      <c r="B18" s="166"/>
       <c r="C18" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D18" s="25">
         <v>1E-4</v>
@@ -6543,11 +6576,11 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="163" t="s">
-        <v>99</v>
+      <c r="B19" s="164" t="s">
+        <v>98</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D19" s="27">
         <v>605</v>
@@ -6569,9 +6602,9 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="164"/>
+      <c r="B20" s="165"/>
       <c r="C20" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D20" s="29">
         <v>0.15</v>
@@ -6593,9 +6626,9 @@
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="164"/>
+      <c r="B21" s="165"/>
       <c r="C21" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D21" s="29">
         <v>-0.16</v>
@@ -6617,9 +6650,9 @@
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="164"/>
+      <c r="B22" s="165"/>
       <c r="C22" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D22" s="29">
         <v>-1.6</v>
@@ -6641,9 +6674,9 @@
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="165"/>
+      <c r="B23" s="166"/>
       <c r="C23" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D23" s="25">
         <v>1E-4</v>
@@ -6665,11 +6698,11 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="163" t="s">
-        <v>135</v>
+      <c r="B24" s="164" t="s">
+        <v>134</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D24" s="27">
         <v>602</v>
@@ -6691,9 +6724,9 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="164"/>
+      <c r="B25" s="165"/>
       <c r="C25" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D25" s="29">
         <v>0.34</v>
@@ -6715,9 +6748,9 @@
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="164"/>
+      <c r="B26" s="165"/>
       <c r="C26" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D26" s="29">
         <v>0.19</v>
@@ -6739,9 +6772,9 @@
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="164"/>
+      <c r="B27" s="165"/>
       <c r="C27" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" s="29">
         <v>11</v>
@@ -6763,9 +6796,9 @@
       </c>
     </row>
     <row r="28" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="166"/>
+      <c r="B28" s="167"/>
       <c r="C28" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D28" s="22">
         <v>1E-4</v>
@@ -6819,46 +6852,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
       <c r="M2" s="49"/>
     </row>
     <row r="3" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="167" t="s">
+      <c r="D3" s="168" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168" t="s">
         <v>154</v>
       </c>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167" t="s">
-        <v>155</v>
-      </c>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="168"/>
       <c r="M3" s="49"/>
     </row>
     <row r="4" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="167" t="s">
+      <c r="D4" s="168" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="168"/>
+      <c r="F4" s="168" t="s">
         <v>146</v>
       </c>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167" t="s">
+      <c r="G4" s="168"/>
+      <c r="H4" s="168" t="s">
+        <v>145</v>
+      </c>
+      <c r="I4" s="168"/>
+      <c r="J4" s="168" t="s">
         <v>147</v>
       </c>
-      <c r="G4" s="167"/>
-      <c r="H4" s="167" t="s">
-        <v>146</v>
-      </c>
-      <c r="I4" s="167"/>
-      <c r="J4" s="167" t="s">
-        <v>148</v>
-      </c>
-      <c r="K4" s="167"/>
+      <c r="K4" s="168"/>
       <c r="L4" s="28"/>
       <c r="M4" s="49"/>
       <c r="N4" s="28"/>
@@ -6871,44 +6904,44 @@
     </row>
     <row r="5" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5" s="140" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E5" s="140" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F5" s="140" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G5" s="140" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H5" s="140" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I5" s="140" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J5" s="140" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K5" s="140" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M5" s="49"/>
       <c r="N5" s="28"/>
     </row>
     <row r="6" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="157" t="s">
-        <v>97</v>
+      <c r="B6" s="158" t="s">
+        <v>96</v>
       </c>
       <c r="C6" s="95" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D6" s="100">
         <v>5</v>
@@ -6943,9 +6976,9 @@
       <c r="S6" s="50"/>
     </row>
     <row r="7" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="156"/>
+      <c r="B7" s="157"/>
       <c r="C7" s="96" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D7" s="63">
         <v>615.1</v>
@@ -6980,11 +7013,11 @@
       <c r="S7" s="30"/>
     </row>
     <row r="8" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="157" t="s">
-        <v>133</v>
+      <c r="B8" s="158" t="s">
+        <v>132</v>
       </c>
       <c r="C8" s="95" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D8" s="100">
         <v>2.0099999999999998</v>
@@ -7017,9 +7050,9 @@
       <c r="S8" s="23"/>
     </row>
     <row r="9" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="156"/>
+      <c r="B9" s="157"/>
       <c r="C9" s="97" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D9" s="63">
         <v>212.1</v>
@@ -7050,11 +7083,11 @@
       <c r="U9" s="33"/>
     </row>
     <row r="10" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="157" t="s">
-        <v>134</v>
+      <c r="B10" s="158" t="s">
+        <v>133</v>
       </c>
       <c r="C10" s="95" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D10" s="69">
         <v>18.739999999999998</v>
@@ -7084,9 +7117,9 @@
       <c r="N10" s="28"/>
     </row>
     <row r="11" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="156"/>
+      <c r="B11" s="157"/>
       <c r="C11" s="96" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D11" s="63">
         <v>679.1</v>
@@ -7121,11 +7154,11 @@
       <c r="S11" s="33"/>
     </row>
     <row r="12" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="157" t="s">
-        <v>99</v>
+      <c r="B12" s="158" t="s">
+        <v>98</v>
       </c>
       <c r="C12" s="95" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D12" s="69">
         <v>8.1999999999999993</v>
@@ -7155,9 +7188,9 @@
       <c r="N12" s="28"/>
     </row>
     <row r="13" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="156"/>
+      <c r="B13" s="157"/>
       <c r="C13" s="96" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D13" s="63">
         <v>646.5</v>
@@ -7192,11 +7225,11 @@
       <c r="S13" s="50"/>
     </row>
     <row r="14" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="148" t="s">
-        <v>135</v>
+      <c r="B14" s="150" t="s">
+        <v>134</v>
       </c>
       <c r="C14" s="98" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D14" s="102">
         <v>0.39</v>
@@ -7230,9 +7263,9 @@
       <c r="S14" s="29"/>
     </row>
     <row r="15" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="149"/>
+      <c r="B15" s="151"/>
       <c r="C15" s="99" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D15" s="103">
         <v>729.8</v>
@@ -7297,7 +7330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{608C9E83-56AF-47CD-98EC-489222CFD93B}">
   <dimension ref="C3:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -7313,18 +7346,18 @@
   <sheetData>
     <row r="3" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C3" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D4" s="129">
         <v>0.33365430000000001</v>
@@ -7335,7 +7368,7 @@
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D5" s="129">
         <v>0.1704775</v>
@@ -7346,7 +7379,7 @@
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D6" s="129">
         <v>0.51754129999999998</v>
@@ -7357,7 +7390,7 @@
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D7" s="129">
         <v>-0.25599110000000003</v>
@@ -7368,7 +7401,7 @@
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C8" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D8" s="45">
         <v>0.45402389999999998</v>
@@ -7379,7 +7412,7 @@
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C9" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D9" s="129">
         <v>0.18881000000000001</v>
@@ -7390,7 +7423,7 @@
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C10" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D10" s="129">
         <v>0.1445504</v>
@@ -7401,7 +7434,7 @@
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C11" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D11" s="129">
         <v>0.15716069999999999</v>
@@ -7412,7 +7445,7 @@
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C12" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D12" s="129">
         <v>-0.32064700000000002</v>
@@ -7423,7 +7456,7 @@
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C13" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D13" s="45">
         <v>0.22321750000000001</v>
@@ -7434,7 +7467,7 @@
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C14" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D14" s="129">
         <v>-0.1193779</v>
@@ -7445,7 +7478,7 @@
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C15" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D15" s="129">
         <v>0.10406749999999999</v>
@@ -7456,7 +7489,7 @@
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C16" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D16" s="129">
         <v>-0.47039959999999997</v>
@@ -7467,7 +7500,7 @@
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C17" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D17" s="45">
         <v>0.54143629999999998</v>
@@ -7478,7 +7511,7 @@
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C18" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D18" s="129">
         <v>0.13300960000000001</v>
@@ -7489,7 +7522,7 @@
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C19" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D19" s="129">
         <v>9.2763789999999999E-2</v>
@@ -7500,7 +7533,7 @@
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C20" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D20" s="45">
         <v>-0.33167049999999998</v>
@@ -7511,7 +7544,7 @@
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C21" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D21" s="129">
         <v>-0.1341812</v>
@@ -7522,7 +7555,7 @@
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C22" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D22" s="45">
         <v>0.32678699999999999</v>
@@ -7533,7 +7566,7 @@
     </row>
     <row r="23" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C23" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D23" s="48">
         <v>-0.3238626</v>

--- a/Relatório Final/Tabelas/Tabelas.xlsx
+++ b/Relatório Final/Tabelas/Tabelas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bia99\OneDrive\Documents\Wikiaves\ProjWAV\Relatório Final\Tabelas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78DB03AC-2190-4921-B6DC-F15FC5391375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F57EB9-9E79-40A4-A00F-190D8B4F03D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11772" yWindow="1956" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela 1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="186">
   <si>
     <t>Variável</t>
   </si>
@@ -270,9 +270,6 @@
   </si>
   <si>
     <t>p</t>
-  </si>
-  <si>
-    <t>Váriavel</t>
   </si>
   <si>
     <t>Riqueza por município</t>
@@ -1048,42 +1045,42 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1096,6 +1093,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1103,9 +1103,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1435,8 +1432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:W39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection sqref="A1:H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1459,7 +1456,7 @@
     </row>
     <row r="2" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="22" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>5</v>
@@ -1484,14 +1481,14 @@
       <c r="P2" s="33"/>
     </row>
     <row r="3" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="144" t="s">
+      <c r="B3" s="143" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="151" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="152" t="s">
+      <c r="D3" s="91" t="s">
         <v>151</v>
-      </c>
-      <c r="D3" s="91" t="s">
-        <v>152</v>
       </c>
       <c r="E3" s="64">
         <v>631</v>
@@ -1503,7 +1500,7 @@
         <v>173</v>
       </c>
       <c r="K3" s="28"/>
-      <c r="L3" s="143"/>
+      <c r="L3" s="154"/>
       <c r="N3" s="83"/>
       <c r="O3" s="83"/>
       <c r="P3" s="83"/>
@@ -1516,10 +1513,10 @@
       <c r="W3" s="64"/>
     </row>
     <row r="4" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="144"/>
-      <c r="C4" s="152"/>
+      <c r="B4" s="143"/>
+      <c r="C4" s="151"/>
       <c r="D4" s="91" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E4" s="64">
         <v>790</v>
@@ -1531,7 +1528,7 @@
         <v>779</v>
       </c>
       <c r="K4" s="82"/>
-      <c r="L4" s="143"/>
+      <c r="L4" s="154"/>
       <c r="N4" s="66"/>
       <c r="O4" s="83"/>
       <c r="P4" s="83"/>
@@ -1544,8 +1541,8 @@
       <c r="W4" s="64"/>
     </row>
     <row r="5" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="145"/>
-      <c r="C5" s="153"/>
+      <c r="B5" s="144"/>
+      <c r="C5" s="152"/>
       <c r="D5" s="93" t="s">
         <v>4</v>
       </c>
@@ -1559,7 +1556,7 @@
         <v>535711</v>
       </c>
       <c r="K5" s="82"/>
-      <c r="L5" s="143"/>
+      <c r="L5" s="154"/>
       <c r="N5" s="83"/>
       <c r="O5" s="85"/>
       <c r="P5" s="85"/>
@@ -1572,10 +1569,10 @@
       <c r="W5" s="64"/>
     </row>
     <row r="6" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="149" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="154" t="s">
+      <c r="B6" s="148" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="153" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="24" t="s">
@@ -1591,7 +1588,7 @@
         <v>37</v>
       </c>
       <c r="K6" s="82"/>
-      <c r="L6" s="143"/>
+      <c r="L6" s="154"/>
       <c r="N6" s="66"/>
       <c r="O6" s="66"/>
       <c r="P6" s="66"/>
@@ -1602,8 +1599,8 @@
       <c r="V6" s="64"/>
     </row>
     <row r="7" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="150"/>
-      <c r="C7" s="147"/>
+      <c r="B7" s="149"/>
+      <c r="C7" s="146"/>
       <c r="D7" s="24" t="s">
         <v>12</v>
       </c>
@@ -1617,7 +1614,7 @@
         <v>213</v>
       </c>
       <c r="K7" s="82"/>
-      <c r="L7" s="143"/>
+      <c r="L7" s="154"/>
       <c r="M7" s="86"/>
       <c r="N7" s="79"/>
       <c r="O7" s="79"/>
@@ -1630,8 +1627,8 @@
       <c r="V7" s="66"/>
     </row>
     <row r="8" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="150"/>
-      <c r="C8" s="147"/>
+      <c r="B8" s="149"/>
+      <c r="C8" s="146"/>
       <c r="D8" s="24" t="s">
         <v>13</v>
       </c>
@@ -1645,7 +1642,7 @@
         <v>40</v>
       </c>
       <c r="K8" s="28"/>
-      <c r="L8" s="143"/>
+      <c r="L8" s="154"/>
       <c r="M8" s="86"/>
       <c r="N8" s="64"/>
       <c r="O8" s="64"/>
@@ -1655,8 +1652,8 @@
       <c r="S8" s="65"/>
     </row>
     <row r="9" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="150"/>
-      <c r="C9" s="148"/>
+      <c r="B9" s="149"/>
+      <c r="C9" s="147"/>
       <c r="D9" s="8" t="s">
         <v>17</v>
       </c>
@@ -1670,7 +1667,7 @@
         <v>43</v>
       </c>
       <c r="K9" s="82"/>
-      <c r="L9" s="143"/>
+      <c r="L9" s="154"/>
       <c r="M9" s="86"/>
       <c r="N9" s="79"/>
       <c r="O9" s="79"/>
@@ -1678,8 +1675,8 @@
       <c r="Q9" s="84"/>
     </row>
     <row r="10" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="150"/>
-      <c r="C10" s="146" t="s">
+      <c r="B10" s="149"/>
+      <c r="C10" s="145" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -1692,10 +1689,10 @@
         <v>45</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K10" s="82"/>
-      <c r="L10" s="143"/>
+      <c r="L10" s="154"/>
       <c r="M10" s="47"/>
       <c r="N10" s="79"/>
       <c r="O10" s="79"/>
@@ -1703,8 +1700,8 @@
       <c r="Q10" s="84"/>
     </row>
     <row r="11" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="150"/>
-      <c r="C11" s="147"/>
+      <c r="B11" s="149"/>
+      <c r="C11" s="146"/>
       <c r="D11" s="86" t="s">
         <v>12</v>
       </c>
@@ -1724,8 +1721,8 @@
       <c r="Q11" s="84"/>
     </row>
     <row r="12" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="150"/>
-      <c r="C12" s="147"/>
+      <c r="B12" s="149"/>
+      <c r="C12" s="146"/>
       <c r="D12" s="86" t="s">
         <v>13</v>
       </c>
@@ -1741,8 +1738,8 @@
       <c r="K12" s="87"/>
     </row>
     <row r="13" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="150"/>
-      <c r="C13" s="148"/>
+      <c r="B13" s="149"/>
+      <c r="C13" s="147"/>
       <c r="D13" s="12" t="s">
         <v>17</v>
       </c>
@@ -1758,7 +1755,7 @@
       <c r="K13" s="88"/>
     </row>
     <row r="14" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="151"/>
+      <c r="B14" s="150"/>
       <c r="C14" s="107" t="s">
         <v>31</v>
       </c>
@@ -1776,10 +1773,10 @@
       </c>
     </row>
     <row r="15" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="149" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="154" t="s">
+      <c r="B15" s="148" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="153" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -1797,8 +1794,8 @@
       <c r="Q15" s="33"/>
     </row>
     <row r="16" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="150"/>
-      <c r="C16" s="147"/>
+      <c r="B16" s="149"/>
+      <c r="C16" s="146"/>
       <c r="D16" s="24" t="s">
         <v>12</v>
       </c>
@@ -1819,8 +1816,8 @@
       <c r="P16" s="33"/>
     </row>
     <row r="17" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="150"/>
-      <c r="C17" s="147"/>
+      <c r="B17" s="149"/>
+      <c r="C17" s="146"/>
       <c r="D17" s="24" t="s">
         <v>13</v>
       </c>
@@ -1834,15 +1831,15 @@
         <v>16</v>
       </c>
       <c r="K17" s="28"/>
-      <c r="L17" s="143"/>
+      <c r="L17" s="154"/>
       <c r="N17" s="85"/>
       <c r="O17" s="85"/>
       <c r="P17" s="85"/>
       <c r="Q17" s="82"/>
     </row>
     <row r="18" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="150"/>
-      <c r="C18" s="148"/>
+      <c r="B18" s="149"/>
+      <c r="C18" s="147"/>
       <c r="D18" s="8" t="s">
         <v>17</v>
       </c>
@@ -1856,15 +1853,15 @@
         <v>20</v>
       </c>
       <c r="K18" s="82"/>
-      <c r="L18" s="143"/>
+      <c r="L18" s="154"/>
       <c r="N18" s="85"/>
       <c r="O18" s="85"/>
       <c r="P18" s="85"/>
       <c r="Q18" s="84"/>
     </row>
     <row r="19" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="150"/>
-      <c r="C19" s="146" t="s">
+      <c r="B19" s="149"/>
+      <c r="C19" s="145" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="10" t="s">
@@ -1880,15 +1877,15 @@
         <v>24</v>
       </c>
       <c r="K19" s="82"/>
-      <c r="L19" s="143"/>
+      <c r="L19" s="154"/>
       <c r="N19" s="85"/>
       <c r="O19" s="85"/>
       <c r="P19" s="85"/>
       <c r="Q19" s="84"/>
     </row>
     <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="150"/>
-      <c r="C20" s="147"/>
+      <c r="B20" s="149"/>
+      <c r="C20" s="146"/>
       <c r="D20" s="86" t="s">
         <v>12</v>
       </c>
@@ -1902,15 +1899,15 @@
         <v>3</v>
       </c>
       <c r="K20" s="82"/>
-      <c r="L20" s="143"/>
+      <c r="L20" s="154"/>
       <c r="N20" s="85"/>
       <c r="O20" s="85"/>
       <c r="P20" s="85"/>
       <c r="Q20" s="84"/>
     </row>
     <row r="21" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="150"/>
-      <c r="C21" s="147"/>
+      <c r="B21" s="149"/>
+      <c r="C21" s="146"/>
       <c r="D21" s="86" t="s">
         <v>13</v>
       </c>
@@ -1924,7 +1921,7 @@
         <v>27</v>
       </c>
       <c r="K21" s="82"/>
-      <c r="L21" s="143"/>
+      <c r="L21" s="154"/>
       <c r="M21" s="86"/>
       <c r="N21" s="85"/>
       <c r="O21" s="85"/>
@@ -1932,8 +1929,8 @@
       <c r="Q21" s="84"/>
     </row>
     <row r="22" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="150"/>
-      <c r="C22" s="148"/>
+      <c r="B22" s="149"/>
+      <c r="C22" s="147"/>
       <c r="D22" s="12" t="s">
         <v>17</v>
       </c>
@@ -1947,7 +1944,7 @@
         <v>30</v>
       </c>
       <c r="K22" s="28"/>
-      <c r="L22" s="143"/>
+      <c r="L22" s="154"/>
       <c r="M22" s="86"/>
       <c r="N22" s="89"/>
       <c r="O22" s="89"/>
@@ -1955,7 +1952,7 @@
       <c r="Q22" s="84"/>
     </row>
     <row r="23" spans="2:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="151"/>
+      <c r="B23" s="150"/>
       <c r="C23" s="108" t="s">
         <v>31</v>
       </c>
@@ -1972,7 +1969,7 @@
         <v>34</v>
       </c>
       <c r="K23" s="82"/>
-      <c r="L23" s="143"/>
+      <c r="L23" s="154"/>
       <c r="M23" s="86"/>
       <c r="N23" s="85"/>
       <c r="O23" s="85"/>
@@ -1980,10 +1977,10 @@
       <c r="Q23" s="84"/>
     </row>
     <row r="24" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="150" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="147" t="s">
+      <c r="B24" s="149" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="146" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="6" t="s">
@@ -1999,7 +1996,7 @@
         <v>57</v>
       </c>
       <c r="K24" s="82"/>
-      <c r="L24" s="143"/>
+      <c r="L24" s="154"/>
       <c r="M24" s="47"/>
       <c r="N24" s="85"/>
       <c r="O24" s="85"/>
@@ -2007,8 +2004,8 @@
       <c r="Q24" s="84"/>
     </row>
     <row r="25" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="150"/>
-      <c r="C25" s="147"/>
+      <c r="B25" s="149"/>
+      <c r="C25" s="146"/>
       <c r="D25" s="24" t="s">
         <v>12</v>
       </c>
@@ -2028,8 +2025,8 @@
       <c r="Q25" s="84"/>
     </row>
     <row r="26" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="150"/>
-      <c r="C26" s="147"/>
+      <c r="B26" s="149"/>
+      <c r="C26" s="146"/>
       <c r="D26" s="24" t="s">
         <v>13</v>
       </c>
@@ -2045,8 +2042,8 @@
       <c r="K26" s="87"/>
     </row>
     <row r="27" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="150"/>
-      <c r="C27" s="148"/>
+      <c r="B27" s="149"/>
+      <c r="C27" s="147"/>
       <c r="D27" s="8" t="s">
         <v>17</v>
       </c>
@@ -2062,8 +2059,8 @@
       <c r="K27" s="88"/>
     </row>
     <row r="28" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="150"/>
-      <c r="C28" s="146" t="s">
+      <c r="B28" s="149"/>
+      <c r="C28" s="145" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="10" t="s">
@@ -2081,8 +2078,8 @@
       <c r="Q28" s="33"/>
     </row>
     <row r="29" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="150"/>
-      <c r="C29" s="147"/>
+      <c r="B29" s="149"/>
+      <c r="C29" s="146"/>
       <c r="D29" s="86" t="s">
         <v>12</v>
       </c>
@@ -2103,8 +2100,8 @@
       <c r="P29" s="33"/>
     </row>
     <row r="30" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="150"/>
-      <c r="C30" s="147"/>
+      <c r="B30" s="149"/>
+      <c r="C30" s="146"/>
       <c r="D30" s="86" t="s">
         <v>13</v>
       </c>
@@ -2118,15 +2115,15 @@
         <v>69</v>
       </c>
       <c r="K30" s="28"/>
-      <c r="L30" s="143"/>
+      <c r="L30" s="154"/>
       <c r="N30" s="83"/>
       <c r="O30" s="83"/>
       <c r="P30" s="83"/>
       <c r="Q30" s="82"/>
     </row>
     <row r="31" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="150"/>
-      <c r="C31" s="148"/>
+      <c r="B31" s="149"/>
+      <c r="C31" s="147"/>
       <c r="D31" s="12" t="s">
         <v>17</v>
       </c>
@@ -2134,20 +2131,20 @@
         <v>70</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G31" s="13" t="s">
         <v>71</v>
       </c>
       <c r="K31" s="82"/>
-      <c r="L31" s="143"/>
+      <c r="L31" s="154"/>
       <c r="N31" s="66"/>
       <c r="O31" s="83"/>
       <c r="P31" s="83"/>
       <c r="Q31" s="84"/>
     </row>
     <row r="32" spans="2:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="151"/>
+      <c r="B32" s="150"/>
       <c r="C32" s="108" t="s">
         <v>31</v>
       </c>
@@ -2164,7 +2161,7 @@
         <v>74</v>
       </c>
       <c r="K32" s="82"/>
-      <c r="L32" s="143"/>
+      <c r="L32" s="154"/>
       <c r="N32" s="83"/>
       <c r="O32" s="85"/>
       <c r="P32" s="85"/>
@@ -2172,7 +2169,7 @@
     </row>
     <row r="33" spans="11:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K33" s="82"/>
-      <c r="L33" s="143"/>
+      <c r="L33" s="154"/>
       <c r="N33" s="66"/>
       <c r="O33" s="66"/>
       <c r="P33" s="66"/>
@@ -2180,7 +2177,7 @@
     </row>
     <row r="34" spans="11:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K34" s="82"/>
-      <c r="L34" s="143"/>
+      <c r="L34" s="154"/>
       <c r="M34" s="86"/>
       <c r="N34" s="79"/>
       <c r="O34" s="79"/>
@@ -2189,7 +2186,7 @@
     </row>
     <row r="35" spans="11:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K35" s="28"/>
-      <c r="L35" s="143"/>
+      <c r="L35" s="154"/>
       <c r="M35" s="86"/>
       <c r="N35" s="64"/>
       <c r="O35" s="64"/>
@@ -2198,7 +2195,7 @@
     </row>
     <row r="36" spans="11:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K36" s="82"/>
-      <c r="L36" s="143"/>
+      <c r="L36" s="154"/>
       <c r="M36" s="86"/>
       <c r="N36" s="79"/>
       <c r="O36" s="79"/>
@@ -2207,7 +2204,7 @@
     </row>
     <row r="37" spans="11:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K37" s="82"/>
-      <c r="L37" s="143"/>
+      <c r="L37" s="154"/>
       <c r="M37" s="47"/>
       <c r="N37" s="79"/>
       <c r="O37" s="79"/>
@@ -2226,6 +2223,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="L34:L37"/>
+    <mergeCell ref="L3:L6"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="L17:L20"/>
+    <mergeCell ref="L21:L24"/>
+    <mergeCell ref="L30:L33"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="C24:C27"/>
@@ -2237,12 +2240,6 @@
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="C15:C18"/>
-    <mergeCell ref="L34:L37"/>
-    <mergeCell ref="L3:L6"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="L17:L20"/>
-    <mergeCell ref="L21:L24"/>
-    <mergeCell ref="L30:L33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2253,8 +2250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23486BE-5F79-4CA9-850E-00095779225A}">
   <dimension ref="B2:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2268,16 +2265,16 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="53" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D2" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" s="52" t="s">
         <v>140</v>
-      </c>
-      <c r="E2" s="52" t="s">
-        <v>141</v>
       </c>
       <c r="F2" s="52" t="s">
         <v>77</v>
@@ -2288,7 +2285,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="125" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D3" s="55">
         <v>0.3972</v>
@@ -2303,7 +2300,7 @@
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="170"/>
       <c r="C4" s="114" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" s="56">
         <v>-1.0319999999999999E-5</v>
@@ -2318,7 +2315,7 @@
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="170"/>
       <c r="C5" s="114" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" s="56">
         <v>8.2030000000000006E-2</v>
@@ -2333,7 +2330,7 @@
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="170"/>
       <c r="C6" s="114" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D6" s="56">
         <v>-2.6630000000000001E-2</v>
@@ -2348,7 +2345,7 @@
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="170"/>
       <c r="C7" s="114" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D7" s="56">
         <v>3.1589999999999999E-3</v>
@@ -2363,7 +2360,7 @@
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="171"/>
       <c r="C8" s="123" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D8" s="57">
         <v>2.4320000000000001E-2</v>
@@ -2380,7 +2377,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="125" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D9" s="55">
         <v>0.72870000000000001</v>
@@ -2395,7 +2392,7 @@
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="170"/>
       <c r="C10" s="114" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D10" s="56">
         <v>3.5340000000000002E-4</v>
@@ -2410,7 +2407,7 @@
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="170"/>
       <c r="C11" s="114" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D11" s="56">
         <v>5.074E-2</v>
@@ -2425,7 +2422,7 @@
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="170"/>
       <c r="C12" s="114" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D12" s="56">
         <v>-2.9929999999999998E-2</v>
@@ -2440,7 +2437,7 @@
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="170"/>
       <c r="C13" s="114" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D13" s="56">
         <v>2.708E-2</v>
@@ -2455,7 +2452,7 @@
     <row r="14" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="172"/>
       <c r="C14" s="115" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D14" s="58">
         <v>3.058E-3</v>
@@ -2479,19 +2476,19 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="53" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D17" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="E17" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="E17" s="52" t="s">
-        <v>141</v>
-      </c>
       <c r="F17" s="52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
@@ -2499,7 +2496,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="125" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D18" s="55">
         <v>0.41486630000000002</v>
@@ -2514,7 +2511,7 @@
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="170"/>
       <c r="C19" s="114" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D19" s="56">
         <v>1.021E-4</v>
@@ -2529,7 +2526,7 @@
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="170"/>
       <c r="C20" s="114" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D20" s="56">
         <v>8.79524E-2</v>
@@ -2544,7 +2541,7 @@
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="170"/>
       <c r="C21" s="114" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D21" s="56">
         <v>-1.9030200000000001E-2</v>
@@ -2559,7 +2556,7 @@
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="170"/>
       <c r="C22" s="114" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D22" s="56">
         <v>1.6597799999999999E-2</v>
@@ -2574,7 +2571,7 @@
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="171"/>
       <c r="C23" s="123" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D23" s="57">
         <v>2.3698899999999998E-2</v>
@@ -2591,7 +2588,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="125" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D24" s="55">
         <v>0.79380070000000003</v>
@@ -2606,7 +2603,7 @@
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="170"/>
       <c r="C25" s="114" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D25" s="56">
         <v>-1.8929999999999999E-4</v>
@@ -2621,7 +2618,7 @@
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="170"/>
       <c r="C26" s="114" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D26" s="56">
         <v>-3.1822999999999999E-3</v>
@@ -2636,7 +2633,7 @@
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="170"/>
       <c r="C27" s="114" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D27" s="56">
         <v>-2.9846999999999999E-3</v>
@@ -2651,7 +2648,7 @@
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="170"/>
       <c r="C28" s="114" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D28" s="56">
         <v>-2.2308499999999998E-2</v>
@@ -2666,7 +2663,7 @@
     <row r="29" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="172"/>
       <c r="C29" s="115" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D29" s="58">
         <v>1.6027099999999999E-2</v>
@@ -2715,7 +2712,7 @@
   <dimension ref="B2:L40"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:B42"/>
+      <selection activeCell="B27" sqref="B27:M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2730,7 +2727,7 @@
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
       <c r="E2" s="168" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F2" s="168"/>
       <c r="G2" s="168"/>
@@ -2762,37 +2759,37 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D4" s="51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
@@ -2803,7 +2800,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="122" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E5" s="60">
         <v>2.1888999999999998</v>
@@ -2831,10 +2828,10 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="159"/>
-      <c r="C6" s="159"/>
+      <c r="B6" s="160"/>
+      <c r="C6" s="160"/>
       <c r="D6" s="114" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E6" s="59">
         <v>1.9488000000000001</v>
@@ -2862,10 +2859,10 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="159"/>
-      <c r="C7" s="159"/>
+      <c r="B7" s="160"/>
+      <c r="C7" s="160"/>
       <c r="D7" s="114" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E7" s="59">
         <v>4.9397999999999997E-2</v>
@@ -2893,10 +2890,10 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="159"/>
-      <c r="C8" s="159"/>
+      <c r="B8" s="160"/>
+      <c r="C8" s="160"/>
       <c r="D8" s="114" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E8" s="59">
         <v>5.6565000000000003</v>
@@ -2924,10 +2921,10 @@
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="159"/>
+      <c r="B9" s="160"/>
       <c r="C9" s="174"/>
       <c r="D9" s="123" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E9" s="61">
         <v>10.641</v>
@@ -2955,12 +2952,12 @@
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="159"/>
+      <c r="B10" s="160"/>
       <c r="C10" s="173" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D10" s="122" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E10" s="59">
         <v>7.7908999999999997</v>
@@ -2988,10 +2985,10 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="159"/>
-      <c r="C11" s="159"/>
+      <c r="B11" s="160"/>
+      <c r="C11" s="160"/>
       <c r="D11" s="114" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E11" s="59">
         <v>1.2246999999999999</v>
@@ -3019,10 +3016,10 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="159"/>
-      <c r="C12" s="159"/>
+      <c r="B12" s="160"/>
+      <c r="C12" s="160"/>
       <c r="D12" s="114" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E12" s="59">
         <v>0.23027</v>
@@ -3050,10 +3047,10 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="159"/>
-      <c r="C13" s="159"/>
+      <c r="B13" s="160"/>
+      <c r="C13" s="160"/>
       <c r="D13" s="114" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E13" s="59">
         <v>68.903000000000006</v>
@@ -3084,7 +3081,7 @@
       <c r="B14" s="174"/>
       <c r="C14" s="174"/>
       <c r="D14" s="123" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E14" s="61">
         <v>26.6</v>
@@ -3119,7 +3116,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="122" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E15" s="60">
         <v>89.537000000000006</v>
@@ -3147,10 +3144,10 @@
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="159"/>
-      <c r="C16" s="159"/>
+      <c r="B16" s="160"/>
+      <c r="C16" s="160"/>
       <c r="D16" s="114" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E16" s="59">
         <v>0.46489999999999998</v>
@@ -3178,10 +3175,10 @@
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="159"/>
-      <c r="C17" s="159"/>
+      <c r="B17" s="160"/>
+      <c r="C17" s="160"/>
       <c r="D17" s="114" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E17" s="59">
         <v>1.0462</v>
@@ -3209,10 +3206,10 @@
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="159"/>
-      <c r="C18" s="159"/>
+      <c r="B18" s="160"/>
+      <c r="C18" s="160"/>
       <c r="D18" s="114" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E18" s="59">
         <v>16.018000000000001</v>
@@ -3240,10 +3237,10 @@
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="159"/>
+      <c r="B19" s="160"/>
       <c r="C19" s="174"/>
       <c r="D19" s="123" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E19" s="61">
         <v>1.7529999999999999</v>
@@ -3271,12 +3268,12 @@
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="159"/>
-      <c r="C20" s="159" t="s">
-        <v>84</v>
+      <c r="B20" s="160"/>
+      <c r="C20" s="160" t="s">
+        <v>83</v>
       </c>
       <c r="D20" s="114" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E20" s="59">
         <v>6.4222999999999999</v>
@@ -3304,10 +3301,10 @@
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="159"/>
-      <c r="C21" s="159"/>
+      <c r="B21" s="160"/>
+      <c r="C21" s="160"/>
       <c r="D21" s="114" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E21" s="59">
         <v>0.68415000000000004</v>
@@ -3335,10 +3332,10 @@
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="159"/>
-      <c r="C22" s="159"/>
+      <c r="B22" s="160"/>
+      <c r="C22" s="160"/>
       <c r="D22" s="114" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E22" s="59">
         <v>0.16320000000000001</v>
@@ -3366,10 +3363,10 @@
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="159"/>
-      <c r="C23" s="159"/>
+      <c r="B23" s="160"/>
+      <c r="C23" s="160"/>
       <c r="D23" s="114" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E23" s="59">
         <v>40.609000000000002</v>
@@ -3400,7 +3397,7 @@
       <c r="B24" s="175"/>
       <c r="C24" s="175"/>
       <c r="D24" s="115" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E24" s="62">
         <v>17.359000000000002</v>
@@ -3435,7 +3432,7 @@
       <c r="B28" s="47"/>
       <c r="C28" s="47"/>
       <c r="E28" s="168" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F28" s="168"/>
       <c r="G28" s="168"/>
@@ -3468,43 +3465,43 @@
     <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B30" s="141"/>
       <c r="C30" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D30" s="51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I30" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J30" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K30" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L30" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B31" s="159"/>
+      <c r="B31" s="160"/>
       <c r="C31" s="173" t="s">
         <v>2</v>
       </c>
       <c r="D31" s="139" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E31" s="60">
         <v>89.537000000000006</v>
@@ -3532,10 +3529,10 @@
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B32" s="159"/>
-      <c r="C32" s="159"/>
+      <c r="B32" s="160"/>
+      <c r="C32" s="160"/>
       <c r="D32" s="136" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E32" s="59">
         <v>0.46489999999999998</v>
@@ -3563,10 +3560,10 @@
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B33" s="159"/>
-      <c r="C33" s="159"/>
+      <c r="B33" s="160"/>
+      <c r="C33" s="160"/>
       <c r="D33" s="136" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E33" s="59">
         <v>1.0462</v>
@@ -3594,10 +3591,10 @@
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B34" s="159"/>
-      <c r="C34" s="159"/>
+      <c r="B34" s="160"/>
+      <c r="C34" s="160"/>
       <c r="D34" s="136" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E34" s="59">
         <v>16.018000000000001</v>
@@ -3625,10 +3622,10 @@
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B35" s="159"/>
+      <c r="B35" s="160"/>
       <c r="C35" s="174"/>
       <c r="D35" s="138" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E35" s="61">
         <v>1.7529999999999999</v>
@@ -3656,12 +3653,12 @@
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B36" s="159"/>
-      <c r="C36" s="159" t="s">
-        <v>84</v>
+      <c r="B36" s="160"/>
+      <c r="C36" s="160" t="s">
+        <v>83</v>
       </c>
       <c r="D36" s="136" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E36" s="59">
         <v>6.4222999999999999</v>
@@ -3689,10 +3686,10 @@
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B37" s="159"/>
-      <c r="C37" s="159"/>
+      <c r="B37" s="160"/>
+      <c r="C37" s="160"/>
       <c r="D37" s="136" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E37" s="59">
         <v>0.68415000000000004</v>
@@ -3720,10 +3717,10 @@
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B38" s="159"/>
-      <c r="C38" s="159"/>
+      <c r="B38" s="160"/>
+      <c r="C38" s="160"/>
       <c r="D38" s="136" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E38" s="59">
         <v>0.16320000000000001</v>
@@ -3751,10 +3748,10 @@
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B39" s="159"/>
-      <c r="C39" s="159"/>
+      <c r="B39" s="160"/>
+      <c r="C39" s="160"/>
       <c r="D39" s="136" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E39" s="59">
         <v>40.609000000000002</v>
@@ -3782,10 +3779,10 @@
       </c>
     </row>
     <row r="40" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="159"/>
+      <c r="B40" s="160"/>
       <c r="C40" s="175"/>
       <c r="D40" s="137" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E40" s="62">
         <v>17.359000000000002</v>
@@ -3814,6 +3811,17 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="B15:B24"/>
+    <mergeCell ref="C5:C9"/>
     <mergeCell ref="B31:B40"/>
     <mergeCell ref="C31:C35"/>
     <mergeCell ref="C36:C40"/>
@@ -3822,17 +3830,6 @@
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="K29:L29"/>
-    <mergeCell ref="C10:C14"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="B5:B14"/>
-    <mergeCell ref="B15:B24"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="E2:L2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -3843,7 +3840,7 @@
   <dimension ref="B2:G32"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="A17" sqref="A17:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3866,22 +3863,22 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="D3" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="D3" s="25" t="s">
-        <v>139</v>
-      </c>
       <c r="E3" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
@@ -3889,7 +3886,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="122" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" s="43">
         <v>3.9890000000000002E-2</v>
@@ -3905,9 +3902,9 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="144"/>
+      <c r="B5" s="143"/>
       <c r="C5" s="114" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" s="29">
         <v>8.1509999999999999E-2</v>
@@ -3923,9 +3920,9 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="144"/>
+      <c r="B6" s="143"/>
       <c r="C6" s="114" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D6" s="29">
         <v>-2.4410000000000001E-2</v>
@@ -3941,9 +3938,9 @@
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="144"/>
+      <c r="B7" s="143"/>
       <c r="C7" s="114" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D7" s="29">
         <v>0.2021</v>
@@ -3961,7 +3958,7 @@
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8" s="177"/>
       <c r="C8" s="123" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D8" s="45">
         <v>0.1172</v>
@@ -3978,10 +3975,10 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" s="176" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" s="122" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D9" s="43">
         <v>0.2235</v>
@@ -3997,9 +3994,9 @@
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="144"/>
+      <c r="B10" s="143"/>
       <c r="C10" s="114" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D10" s="29">
         <v>4.3439999999999999E-2</v>
@@ -4015,9 +4012,9 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="144"/>
+      <c r="B11" s="143"/>
       <c r="C11" s="114" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D11" s="29">
         <v>-3.8739999999999997E-2</v>
@@ -4033,9 +4030,9 @@
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="144"/>
+      <c r="B12" s="143"/>
       <c r="C12" s="114" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D12" s="29">
         <v>0.57169999999999999</v>
@@ -4053,7 +4050,7 @@
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13" s="177"/>
       <c r="C13" s="123" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D13" s="45">
         <v>0.1981</v>
@@ -4070,7 +4067,7 @@
     </row>
     <row r="14" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="124" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="48">
@@ -4092,16 +4089,16 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="D19" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="D19" s="25" t="s">
-        <v>139</v>
-      </c>
       <c r="E19" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
@@ -4109,7 +4106,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="139" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D20" s="43">
         <v>0.12180000000000001</v>
@@ -4119,9 +4116,9 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="144"/>
+      <c r="B21" s="143"/>
       <c r="C21" s="136" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D21" s="29">
         <v>0.2354</v>
@@ -4131,9 +4128,9 @@
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="144"/>
+      <c r="B22" s="143"/>
       <c r="C22" s="136" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D22" s="29">
         <v>-6.0400000000000002E-2</v>
@@ -4143,9 +4140,9 @@
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="144"/>
+      <c r="B23" s="143"/>
       <c r="C23" s="136" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D23" s="29">
         <v>0.15759999999999999</v>
@@ -4155,9 +4152,9 @@
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="144"/>
+      <c r="B24" s="143"/>
       <c r="C24" s="142" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D24" s="29">
         <v>0.18099999999999999</v>
@@ -4169,7 +4166,7 @@
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="177"/>
       <c r="C25" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D25" s="29">
         <v>0.23599999999999999</v>
@@ -4180,10 +4177,10 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="176" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C26" s="139" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D26" s="43">
         <v>0.30209999999999998</v>
@@ -4193,9 +4190,9 @@
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="144"/>
+      <c r="B27" s="143"/>
       <c r="C27" s="136" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D27" s="29">
         <v>7.2400000000000006E-2</v>
@@ -4205,9 +4202,9 @@
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="144"/>
+      <c r="B28" s="143"/>
       <c r="C28" s="136" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D28" s="29">
         <v>-6.2890000000000001E-2</v>
@@ -4217,9 +4214,9 @@
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="144"/>
+      <c r="B29" s="143"/>
       <c r="C29" s="136" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D29" s="29">
         <v>0.67589999999999995</v>
@@ -4229,9 +4226,9 @@
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="144"/>
+      <c r="B30" s="143"/>
       <c r="C30" s="142" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D30" s="29">
         <v>0.1845</v>
@@ -4243,7 +4240,7 @@
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="177"/>
       <c r="C31" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D31" s="29">
         <v>0.4677</v>
@@ -4254,7 +4251,7 @@
     </row>
     <row r="32" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="124" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="48">
@@ -4282,8 +4279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F236B666-E1CD-411A-8653-ADAB2BD2DB3E}">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4427,7 +4424,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C9" s="156" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D9" s="156"/>
       <c r="E9" s="156"/>
@@ -4436,34 +4433,34 @@
     <row r="10" spans="1:16" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5"/>
       <c r="C10" s="155" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D10" s="155"/>
       <c r="E10" s="155" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F10" s="155"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B11" s="25" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>75</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E11" s="25" t="s">
         <v>76</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B12" s="109" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" s="21">
         <v>17652</v>
@@ -4481,7 +4478,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B13" s="109" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" s="2">
         <v>23538.5</v>
@@ -4499,7 +4496,7 @@
     </row>
     <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="99" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" s="26">
         <v>56563</v>
@@ -4530,7 +4527,7 @@
   <dimension ref="B2:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="I1" sqref="I1:O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4545,7 +4542,7 @@
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>6</v>
@@ -4557,10 +4554,10 @@
         <v>2</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J2" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K2" s="25" t="s">
         <v>6</v>
@@ -4572,13 +4569,13 @@
         <v>2</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="133"/>
       <c r="C3" s="133" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" s="133">
         <v>620</v>
@@ -4591,7 +4588,7 @@
       </c>
       <c r="J3" s="133"/>
       <c r="K3" s="133" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L3" s="133">
         <v>620</v>
@@ -4604,11 +4601,11 @@
       </c>
     </row>
     <row r="4" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="150" t="s">
-        <v>162</v>
+      <c r="B4" s="149" t="s">
+        <v>161</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" s="129">
         <v>0.91120999999999996</v>
@@ -4620,10 +4617,10 @@
         <v>0.83216999999999997</v>
       </c>
       <c r="J4" s="158" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K4" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L4" s="43">
         <v>0.91120999999999996</v>
@@ -4636,9 +4633,9 @@
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="150"/>
+      <c r="B5" s="149"/>
       <c r="C5" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D5" s="129">
         <v>0.62448000000000004</v>
@@ -4649,9 +4646,9 @@
       <c r="F5" s="129">
         <v>0.41958000000000001</v>
       </c>
-      <c r="J5" s="150"/>
+      <c r="J5" s="149"/>
       <c r="K5" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L5" s="29">
         <v>0.62448000000000004</v>
@@ -4664,9 +4661,9 @@
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="150"/>
+      <c r="B6" s="149"/>
       <c r="C6" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" s="129">
         <v>0.45505000000000001</v>
@@ -4677,9 +4674,9 @@
       <c r="F6" s="129">
         <v>1.0066999999999999</v>
       </c>
-      <c r="J6" s="150"/>
+      <c r="J6" s="149"/>
       <c r="K6" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L6" s="29">
         <v>0.45505000000000001</v>
@@ -4694,7 +4691,7 @@
     <row r="7" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="157"/>
       <c r="C7" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D7" s="25">
         <v>1E-4</v>
@@ -4705,9 +4702,9 @@
       <c r="F7" s="25">
         <v>1E-4</v>
       </c>
-      <c r="J7" s="151"/>
+      <c r="J7" s="150"/>
       <c r="K7" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L7" s="22">
         <v>1E-4</v>
@@ -4720,11 +4717,11 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="150" t="s">
-        <v>159</v>
+      <c r="B8" s="149" t="s">
+        <v>158</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="43">
         <v>0.72226000000000001</v>
@@ -4737,9 +4734,9 @@
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="150"/>
+      <c r="B9" s="149"/>
       <c r="C9" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" s="29">
         <v>0.11834</v>
@@ -4752,9 +4749,9 @@
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="150"/>
+      <c r="B10" s="149"/>
       <c r="C10" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10" s="29">
         <v>1.1603000000000001</v>
@@ -4769,7 +4766,7 @@
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="157"/>
       <c r="C11" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D11" s="25">
         <v>1E-4</v>
@@ -4783,10 +4780,10 @@
     </row>
     <row r="12" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="158" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D12" s="129">
         <v>0.76215999999999995</v>
@@ -4799,9 +4796,9 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="150"/>
+      <c r="B13" s="149"/>
       <c r="C13" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" s="129">
         <v>0.10026</v>
@@ -4814,9 +4811,9 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="150"/>
+      <c r="B14" s="149"/>
       <c r="C14" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D14" s="129">
         <v>1.0401</v>
@@ -4829,9 +4826,9 @@
       </c>
     </row>
     <row r="15" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="151"/>
+      <c r="B15" s="150"/>
       <c r="C15" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D15" s="22">
         <v>1E-4</v>
@@ -4858,8 +4855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{478E799A-5101-4861-9994-078CAFD8BD6B}">
   <dimension ref="B1:W34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4905,13 +4902,13 @@
     </row>
     <row r="3" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D3" s="156" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E3" s="156"/>
       <c r="F3" s="156"/>
       <c r="G3" s="156"/>
       <c r="M3" s="156" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N3" s="156"/>
       <c r="O3" s="156"/>
@@ -4926,19 +4923,19 @@
     </row>
     <row r="4" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D4" s="156" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E4" s="156"/>
       <c r="F4" s="156" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G4" s="156"/>
       <c r="M4" s="156" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N4" s="156"/>
       <c r="O4" s="156" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P4" s="156"/>
       <c r="Q4" s="50"/>
@@ -4951,40 +4948,40 @@
     </row>
     <row r="5" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>92</v>
-      </c>
       <c r="D5" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K5" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="L5" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="L5" s="25" t="s">
-        <v>92</v>
-      </c>
       <c r="M5" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N5" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O5" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P5" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q5" s="30"/>
       <c r="R5" s="30"/>
@@ -4995,11 +4992,11 @@
       <c r="W5" s="24"/>
     </row>
     <row r="6" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="146" t="s">
-        <v>158</v>
+      <c r="B6" s="145" t="s">
+        <v>157</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6" s="2">
         <v>141.1</v>
@@ -5013,11 +5010,11 @@
       <c r="G6" s="112">
         <v>1E-4</v>
       </c>
-      <c r="K6" s="146" t="s">
-        <v>162</v>
+      <c r="K6" s="145" t="s">
+        <v>161</v>
       </c>
       <c r="L6" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M6" s="27">
         <v>141.1</v>
@@ -5040,9 +5037,9 @@
       <c r="W6" s="24"/>
     </row>
     <row r="7" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="148"/>
+      <c r="B7" s="147"/>
       <c r="C7" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D7" s="2">
         <v>53.02</v>
@@ -5056,9 +5053,9 @@
       <c r="G7" s="25">
         <v>1E-4</v>
       </c>
-      <c r="K7" s="162"/>
+      <c r="K7" s="159"/>
       <c r="L7" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M7" s="3">
         <v>53.02</v>
@@ -5081,11 +5078,11 @@
       <c r="W7" s="24"/>
     </row>
     <row r="8" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="146" t="s">
-        <v>159</v>
+      <c r="B8" s="145" t="s">
+        <v>158</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" s="27">
         <v>96.93</v>
@@ -5114,9 +5111,9 @@
       <c r="W8" s="24"/>
     </row>
     <row r="9" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="148"/>
+      <c r="B9" s="147"/>
       <c r="C9" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D9" s="8">
         <v>205.1</v>
@@ -5146,11 +5143,11 @@
       <c r="W9" s="24"/>
     </row>
     <row r="10" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="160" t="s">
-        <v>160</v>
+      <c r="B10" s="161" t="s">
+        <v>159</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D10" s="27">
         <v>190.3</v>
@@ -5166,7 +5163,7 @@
       </c>
       <c r="H10" s="134"/>
       <c r="K10" s="24"/>
-      <c r="L10" s="159"/>
+      <c r="L10" s="160"/>
       <c r="M10" s="132"/>
       <c r="N10" s="24"/>
       <c r="O10" s="24"/>
@@ -5180,9 +5177,9 @@
       <c r="W10" s="24"/>
     </row>
     <row r="11" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="161"/>
+      <c r="B11" s="162"/>
       <c r="C11" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D11" s="3">
         <v>103.6</v>
@@ -5198,7 +5195,7 @@
       </c>
       <c r="H11" s="28"/>
       <c r="K11" s="24"/>
-      <c r="L11" s="159"/>
+      <c r="L11" s="160"/>
       <c r="M11" s="132"/>
       <c r="N11" s="50"/>
       <c r="O11" s="50"/>
@@ -5221,7 +5218,7 @@
       <c r="H12" s="23"/>
       <c r="I12" s="24"/>
       <c r="K12" s="24"/>
-      <c r="L12" s="159"/>
+      <c r="L12" s="160"/>
       <c r="M12" s="132"/>
       <c r="N12" s="30"/>
       <c r="O12" s="29"/>
@@ -5244,7 +5241,7 @@
       <c r="H13" s="23"/>
       <c r="I13" s="24"/>
       <c r="K13" s="24"/>
-      <c r="L13" s="159"/>
+      <c r="L13" s="160"/>
       <c r="M13" s="132"/>
       <c r="N13" s="23"/>
       <c r="O13" s="24"/>
@@ -5554,11 +5551,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="D3:G3"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="L10:L11"/>
@@ -5566,6 +5558,11 @@
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="B10:B11"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="D3:G3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -5575,8 +5572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468E47FF-B0BC-4702-A611-EA7EF08BB700}">
   <dimension ref="B3:K41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5618,7 +5615,7 @@
     </row>
     <row r="5" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C5" s="80" t="s">
         <v>6</v>
@@ -5635,10 +5632,10 @@
     </row>
     <row r="6" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="164" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" s="68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" s="69">
         <v>600</v>
@@ -5656,10 +5653,10 @@
         <v>8</v>
       </c>
       <c r="D7" s="70" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="70" t="s">
         <v>100</v>
-      </c>
-      <c r="E7" s="70" t="s">
-        <v>101</v>
       </c>
       <c r="G7" s="163"/>
       <c r="I7" s="70"/>
@@ -5686,10 +5683,10 @@
         <v>13</v>
       </c>
       <c r="D9" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="71" t="s">
         <v>102</v>
-      </c>
-      <c r="E9" s="71" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -5698,18 +5695,18 @@
         <v>17</v>
       </c>
       <c r="D10" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="73" t="s">
         <v>104</v>
-      </c>
-      <c r="E10" s="73" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="164" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C11" s="68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D11" s="74">
         <v>626</v>
@@ -5727,10 +5724,10 @@
         <v>8</v>
       </c>
       <c r="D12" s="75" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" s="75" t="s">
         <v>106</v>
-      </c>
-      <c r="E12" s="75" t="s">
-        <v>107</v>
       </c>
       <c r="G12" s="163"/>
       <c r="H12" s="47"/>
@@ -5758,10 +5755,10 @@
         <v>13</v>
       </c>
       <c r="D14" s="75" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="75" t="s">
         <v>108</v>
-      </c>
-      <c r="E14" s="75" t="s">
-        <v>109</v>
       </c>
       <c r="G14" s="163"/>
       <c r="I14" s="75"/>
@@ -5773,10 +5770,10 @@
         <v>17</v>
       </c>
       <c r="D15" s="77" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="77" t="s">
         <v>110</v>
-      </c>
-      <c r="E15" s="77" t="s">
-        <v>111</v>
       </c>
       <c r="G15" s="163"/>
       <c r="I15" s="75"/>
@@ -5784,10 +5781,10 @@
     </row>
     <row r="16" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="164" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C16" s="68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D16" s="78">
         <v>630</v>
@@ -5805,10 +5802,10 @@
         <v>8</v>
       </c>
       <c r="D17" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="E17" s="66" t="s">
         <v>112</v>
-      </c>
-      <c r="E17" s="66" t="s">
-        <v>113</v>
       </c>
       <c r="H17" s="42"/>
       <c r="I17" s="65"/>
@@ -5833,10 +5830,10 @@
         <v>13</v>
       </c>
       <c r="D19" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" s="66" t="s">
         <v>114</v>
-      </c>
-      <c r="E19" s="66" t="s">
-        <v>115</v>
       </c>
       <c r="H19" s="36"/>
       <c r="I19" s="36"/>
@@ -5848,10 +5845,10 @@
         <v>17</v>
       </c>
       <c r="D20" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>116</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>117</v>
       </c>
       <c r="G20" s="163"/>
       <c r="H20" s="47"/>
@@ -5860,10 +5857,10 @@
     </row>
     <row r="21" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="164" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C21" s="68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D21" s="69">
         <v>631</v>
@@ -5881,10 +5878,10 @@
         <v>8</v>
       </c>
       <c r="D22" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" s="75" t="s">
         <v>118</v>
-      </c>
-      <c r="E22" s="75" t="s">
-        <v>119</v>
       </c>
       <c r="G22" s="163"/>
       <c r="I22" s="66"/>
@@ -5911,10 +5908,10 @@
         <v>13</v>
       </c>
       <c r="D24" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" s="75" t="s">
         <v>120</v>
-      </c>
-      <c r="E24" s="75" t="s">
-        <v>121</v>
       </c>
       <c r="G24" s="163"/>
       <c r="I24" s="66"/>
@@ -5923,13 +5920,13 @@
     <row r="25" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="166"/>
       <c r="C25" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="D25" s="77" t="s">
+      <c r="E25" s="77" t="s">
         <v>123</v>
-      </c>
-      <c r="E25" s="77" t="s">
-        <v>124</v>
       </c>
       <c r="H25" s="65"/>
       <c r="I25" s="81"/>
@@ -5937,10 +5934,10 @@
     </row>
     <row r="26" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="165" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D26" s="39">
         <v>631</v>
@@ -5955,10 +5952,10 @@
         <v>8</v>
       </c>
       <c r="D27" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="E27" s="39" t="s">
         <v>125</v>
-      </c>
-      <c r="E27" s="39" t="s">
-        <v>126</v>
       </c>
       <c r="H27" s="36"/>
       <c r="I27" s="36"/>
@@ -5986,10 +5983,10 @@
         <v>13</v>
       </c>
       <c r="D29" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" s="39" t="s">
         <v>127</v>
-      </c>
-      <c r="E29" s="39" t="s">
-        <v>128</v>
       </c>
       <c r="G29" s="163"/>
       <c r="I29" s="75"/>
@@ -5998,13 +5995,13 @@
     <row r="30" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="167"/>
       <c r="C30" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D30" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" s="40" t="s">
         <v>129</v>
-      </c>
-      <c r="E30" s="40" t="s">
-        <v>130</v>
       </c>
       <c r="G30" s="163"/>
       <c r="I30" s="75"/>
@@ -6073,7 +6070,7 @@
   <dimension ref="B2:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection sqref="A1:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6085,18 +6082,18 @@
   <sheetData>
     <row r="2" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="35" t="s">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>75</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="114" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C3" s="24">
         <v>32332</v>
@@ -6107,7 +6104,7 @@
     </row>
     <row r="4" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="114" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C4" s="24">
         <v>38682</v>
@@ -6118,7 +6115,7 @@
     </row>
     <row r="5" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="114" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C5" s="24">
         <v>34766</v>
@@ -6129,7 +6126,7 @@
     </row>
     <row r="6" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="114" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="24">
         <v>36689</v>
@@ -6140,7 +6137,7 @@
     </row>
     <row r="7" spans="2:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="115" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7" s="3">
         <v>39996</v>
@@ -6158,8 +6155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49F4827-C3F3-4A85-B408-9C332CB32C13}">
   <dimension ref="B2:I28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection sqref="A1:J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6173,12 +6170,12 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D2" s="156" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E2" s="156"/>
       <c r="F2" s="156"/>
       <c r="G2" s="156" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H2" s="156"/>
       <c r="I2" s="156"/>
@@ -6197,7 +6194,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G3" s="25" t="s">
         <v>1</v>
@@ -6206,15 +6203,15 @@
         <v>2</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="164" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" s="27">
         <v>577</v>
@@ -6238,7 +6235,7 @@
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="165"/>
       <c r="C5" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" s="29">
         <v>0.2</v>
@@ -6262,7 +6259,7 @@
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="165"/>
       <c r="C6" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D6" s="23">
         <v>1.477E-3</v>
@@ -6286,7 +6283,7 @@
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="165"/>
       <c r="C7" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D7" s="29">
         <v>1.03</v>
@@ -6310,7 +6307,7 @@
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="166"/>
       <c r="C8" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D8" s="25">
         <v>1E-4</v>
@@ -6333,10 +6330,10 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="164" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D9" s="27">
         <v>605</v>
@@ -6360,7 +6357,7 @@
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="165"/>
       <c r="C10" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" s="29">
         <v>0.08</v>
@@ -6384,7 +6381,7 @@
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="165"/>
       <c r="C11" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D11" s="29">
         <v>0.43</v>
@@ -6408,7 +6405,7 @@
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="165"/>
       <c r="C12" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D12" s="29">
         <v>0.84</v>
@@ -6432,7 +6429,7 @@
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="166"/>
       <c r="C13" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D13" s="25">
         <v>1E-4</v>
@@ -6455,10 +6452,10 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="164" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" s="27">
         <v>611</v>
@@ -6482,7 +6479,7 @@
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="165"/>
       <c r="C15" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D15" s="29">
         <v>0.32</v>
@@ -6506,7 +6503,7 @@
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="165"/>
       <c r="C16" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D16" s="29">
         <v>0.48</v>
@@ -6530,7 +6527,7 @@
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="165"/>
       <c r="C17" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D17" s="29">
         <v>-0.11</v>
@@ -6554,7 +6551,7 @@
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="166"/>
       <c r="C18" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D18" s="25">
         <v>1E-4</v>
@@ -6577,10 +6574,10 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="164" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D19" s="27">
         <v>605</v>
@@ -6604,7 +6601,7 @@
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="165"/>
       <c r="C20" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D20" s="29">
         <v>0.15</v>
@@ -6628,7 +6625,7 @@
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="165"/>
       <c r="C21" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D21" s="29">
         <v>-0.16</v>
@@ -6652,7 +6649,7 @@
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="165"/>
       <c r="C22" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D22" s="29">
         <v>-1.6</v>
@@ -6676,7 +6673,7 @@
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="166"/>
       <c r="C23" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D23" s="25">
         <v>1E-4</v>
@@ -6699,10 +6696,10 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="164" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D24" s="27">
         <v>602</v>
@@ -6726,7 +6723,7 @@
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="165"/>
       <c r="C25" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D25" s="29">
         <v>0.34</v>
@@ -6750,7 +6747,7 @@
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="165"/>
       <c r="C26" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D26" s="29">
         <v>0.19</v>
@@ -6774,7 +6771,7 @@
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="165"/>
       <c r="C27" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" s="29">
         <v>11</v>
@@ -6798,7 +6795,7 @@
     <row r="28" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="167"/>
       <c r="C28" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D28" s="22">
         <v>1E-4</v>
@@ -6838,7 +6835,7 @@
   <dimension ref="B2:U17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="A2" sqref="A2:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6862,13 +6859,13 @@
     </row>
     <row r="3" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D3" s="168" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E3" s="168"/>
       <c r="F3" s="168"/>
       <c r="G3" s="168"/>
       <c r="H3" s="168" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I3" s="168"/>
       <c r="J3" s="168"/>
@@ -6877,19 +6874,19 @@
     </row>
     <row r="4" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D4" s="168" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E4" s="168"/>
       <c r="F4" s="168" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G4" s="168"/>
       <c r="H4" s="168" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I4" s="168"/>
       <c r="J4" s="168" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K4" s="168"/>
       <c r="L4" s="28"/>
@@ -6904,44 +6901,44 @@
     </row>
     <row r="5" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D5" s="140" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5" s="140" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F5" s="140" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G5" s="140" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H5" s="140" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I5" s="140" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J5" s="140" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K5" s="140" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M5" s="49"/>
       <c r="N5" s="28"/>
     </row>
     <row r="6" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="158" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" s="95" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D6" s="100">
         <v>5</v>
@@ -6978,7 +6975,7 @@
     <row r="7" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="157"/>
       <c r="C7" s="96" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D7" s="63">
         <v>615.1</v>
@@ -7014,10 +7011,10 @@
     </row>
     <row r="8" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="158" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C8" s="95" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D8" s="100">
         <v>2.0099999999999998</v>
@@ -7052,7 +7049,7 @@
     <row r="9" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="157"/>
       <c r="C9" s="97" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D9" s="63">
         <v>212.1</v>
@@ -7084,10 +7081,10 @@
     </row>
     <row r="10" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="158" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C10" s="95" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D10" s="69">
         <v>18.739999999999998</v>
@@ -7119,7 +7116,7 @@
     <row r="11" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="157"/>
       <c r="C11" s="96" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D11" s="63">
         <v>679.1</v>
@@ -7155,10 +7152,10 @@
     </row>
     <row r="12" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="158" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C12" s="95" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D12" s="69">
         <v>8.1999999999999993</v>
@@ -7184,13 +7181,13 @@
       <c r="K12" s="116">
         <v>7.1080000000000004E-4</v>
       </c>
-      <c r="M12" s="159"/>
+      <c r="M12" s="160"/>
       <c r="N12" s="28"/>
     </row>
     <row r="13" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="157"/>
       <c r="C13" s="96" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D13" s="63">
         <v>646.5</v>
@@ -7216,7 +7213,7 @@
       <c r="K13" s="117">
         <v>1E-4</v>
       </c>
-      <c r="M13" s="159"/>
+      <c r="M13" s="160"/>
       <c r="N13" s="28"/>
       <c r="O13" s="50"/>
       <c r="P13" s="50"/>
@@ -7225,11 +7222,11 @@
       <c r="S13" s="50"/>
     </row>
     <row r="14" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="150" t="s">
-        <v>134</v>
+      <c r="B14" s="149" t="s">
+        <v>133</v>
       </c>
       <c r="C14" s="98" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D14" s="102">
         <v>0.39</v>
@@ -7255,7 +7252,7 @@
       <c r="K14" s="56">
         <v>0.46350000000000002</v>
       </c>
-      <c r="M14" s="159"/>
+      <c r="M14" s="160"/>
       <c r="N14" s="28"/>
       <c r="O14" s="30"/>
       <c r="P14" s="29"/>
@@ -7263,9 +7260,9 @@
       <c r="S14" s="29"/>
     </row>
     <row r="15" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="151"/>
+      <c r="B15" s="150"/>
       <c r="C15" s="99" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D15" s="103">
         <v>729.8</v>
@@ -7291,7 +7288,7 @@
       <c r="K15" s="121">
         <v>1E-4</v>
       </c>
-      <c r="M15" s="159"/>
+      <c r="M15" s="160"/>
       <c r="N15" s="28"/>
       <c r="O15" s="23"/>
       <c r="Q15" s="23"/>
@@ -7331,7 +7328,7 @@
   <dimension ref="C3:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B2" sqref="B2:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7346,18 +7343,18 @@
   <sheetData>
     <row r="3" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C3" s="25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D4" s="129">
         <v>0.33365430000000001</v>
@@ -7368,7 +7365,7 @@
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D5" s="129">
         <v>0.1704775</v>
@@ -7379,7 +7376,7 @@
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D6" s="129">
         <v>0.51754129999999998</v>
@@ -7390,7 +7387,7 @@
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D7" s="129">
         <v>-0.25599110000000003</v>
@@ -7401,7 +7398,7 @@
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C8" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D8" s="45">
         <v>0.45402389999999998</v>
@@ -7412,7 +7409,7 @@
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C9" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D9" s="129">
         <v>0.18881000000000001</v>
@@ -7423,7 +7420,7 @@
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C10" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D10" s="129">
         <v>0.1445504</v>
@@ -7434,7 +7431,7 @@
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C11" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D11" s="129">
         <v>0.15716069999999999</v>
@@ -7445,7 +7442,7 @@
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C12" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D12" s="129">
         <v>-0.32064700000000002</v>
@@ -7456,7 +7453,7 @@
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C13" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D13" s="45">
         <v>0.22321750000000001</v>
@@ -7467,7 +7464,7 @@
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C14" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D14" s="129">
         <v>-0.1193779</v>
@@ -7478,7 +7475,7 @@
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C15" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D15" s="129">
         <v>0.10406749999999999</v>
@@ -7489,7 +7486,7 @@
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C16" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D16" s="129">
         <v>-0.47039959999999997</v>
@@ -7500,7 +7497,7 @@
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C17" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D17" s="45">
         <v>0.54143629999999998</v>
@@ -7511,7 +7508,7 @@
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C18" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D18" s="129">
         <v>0.13300960000000001</v>
@@ -7522,7 +7519,7 @@
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C19" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D19" s="129">
         <v>9.2763789999999999E-2</v>
@@ -7533,7 +7530,7 @@
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C20" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D20" s="45">
         <v>-0.33167049999999998</v>
@@ -7544,7 +7541,7 @@
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C21" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D21" s="129">
         <v>-0.1341812</v>
@@ -7555,7 +7552,7 @@
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C22" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D22" s="45">
         <v>0.32678699999999999</v>
@@ -7566,7 +7563,7 @@
     </row>
     <row r="23" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C23" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D23" s="48">
         <v>-0.3238626</v>

--- a/Relatório Final/Tabelas/Tabelas.xlsx
+++ b/Relatório Final/Tabelas/Tabelas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bia99\OneDrive\Documents\Wikiaves\ProjWAV\Relatório Final\Tabelas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F57EB9-9E79-40A4-A00F-190D8B4F03D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495E1968-6FAF-4B6E-B0E2-C4580B2B0A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabela 1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="184">
   <si>
     <t>Variável</t>
   </si>
@@ -431,9 +431,6 @@
     <t>Riqueza</t>
   </si>
   <si>
-    <t>Área (Log10(Km^2)</t>
-  </si>
-  <si>
     <t>População (Log10 indivíduos)</t>
   </si>
   <si>
@@ -524,15 +521,9 @@
     <t>Riqueza x Registros</t>
   </si>
   <si>
-    <t>Área (Log10(Km^2))</t>
-  </si>
-  <si>
     <t>Registros WAV (Log10) x Altitude (m)</t>
   </si>
   <si>
-    <t>Registros WAV (Log10) x Área (Log10(Km^2)</t>
-  </si>
-  <si>
     <t>Registros WAV (Log10) x População (Log10 indivíduos)</t>
   </si>
   <si>
@@ -545,9 +536,6 @@
     <t>Registros SLI (Log10) x Altitude (m)</t>
   </si>
   <si>
-    <t>Registros SLI (Log10) x Área (Log10(Km^2)</t>
-  </si>
-  <si>
     <t>Registros SLI (Log10) x População (Log10 indivíduos)</t>
   </si>
   <si>
@@ -557,9 +545,6 @@
     <t>Registros SLI (Log10) x Longitude (°)</t>
   </si>
   <si>
-    <t>Altitude (m) x Área (Log10(Km^2)</t>
-  </si>
-  <si>
     <t>Altitude (m) x População (Log10 indivíduos)</t>
   </si>
   <si>
@@ -569,15 +554,6 @@
     <t>Altitude (m) x Longitude (°)</t>
   </si>
   <si>
-    <t>Área (Log10(Km^2)) x População (Log10 indivíduos)</t>
-  </si>
-  <si>
-    <t>Área (Log10(Km^2)) x Latitude (°)</t>
-  </si>
-  <si>
-    <t>Área (Log10(Km^2)) x Longitude (°)</t>
-  </si>
-  <si>
     <t>População (Log10 indivíduos) x Latitude (°)</t>
   </si>
   <si>
@@ -594,6 +570,24 @@
   </si>
   <si>
     <t>0,48 - 1,56</t>
+  </si>
+  <si>
+    <t>Registros SLI (Log10) x Área (Log10 km^2)</t>
+  </si>
+  <si>
+    <t>Altitude (m) x Área (Log10 km^2)</t>
+  </si>
+  <si>
+    <t>Área (Log10 km^2) x População (Log10 indivíduos)</t>
+  </si>
+  <si>
+    <t>Área (Log10 km^2) x Latitude (°)</t>
+  </si>
+  <si>
+    <t>Área (Log10 km^2) x Longitude (°)</t>
+  </si>
+  <si>
+    <t>Registros WAV (Log10) x Área (Log10 km^2)</t>
   </si>
 </sst>
 </file>
@@ -1045,6 +1039,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1079,9 +1076,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1093,9 +1087,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1103,6 +1094,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1432,8 +1426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:W39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection sqref="A1:H34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1481,14 +1475,14 @@
       <c r="P2" s="33"/>
     </row>
     <row r="3" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="143" t="s">
+      <c r="B3" s="144" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="152" t="s">
         <v>149</v>
       </c>
-      <c r="C3" s="151" t="s">
+      <c r="D3" s="91" t="s">
         <v>150</v>
-      </c>
-      <c r="D3" s="91" t="s">
-        <v>151</v>
       </c>
       <c r="E3" s="64">
         <v>631</v>
@@ -1500,7 +1494,7 @@
         <v>173</v>
       </c>
       <c r="K3" s="28"/>
-      <c r="L3" s="154"/>
+      <c r="L3" s="143"/>
       <c r="N3" s="83"/>
       <c r="O3" s="83"/>
       <c r="P3" s="83"/>
@@ -1513,8 +1507,8 @@
       <c r="W3" s="64"/>
     </row>
     <row r="4" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="143"/>
-      <c r="C4" s="151"/>
+      <c r="B4" s="144"/>
+      <c r="C4" s="152"/>
       <c r="D4" s="91" t="s">
         <v>130</v>
       </c>
@@ -1528,7 +1522,7 @@
         <v>779</v>
       </c>
       <c r="K4" s="82"/>
-      <c r="L4" s="154"/>
+      <c r="L4" s="143"/>
       <c r="N4" s="66"/>
       <c r="O4" s="83"/>
       <c r="P4" s="83"/>
@@ -1541,8 +1535,8 @@
       <c r="W4" s="64"/>
     </row>
     <row r="5" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="144"/>
-      <c r="C5" s="152"/>
+      <c r="B5" s="145"/>
+      <c r="C5" s="153"/>
       <c r="D5" s="93" t="s">
         <v>4</v>
       </c>
@@ -1556,7 +1550,7 @@
         <v>535711</v>
       </c>
       <c r="K5" s="82"/>
-      <c r="L5" s="154"/>
+      <c r="L5" s="143"/>
       <c r="N5" s="83"/>
       <c r="O5" s="85"/>
       <c r="P5" s="85"/>
@@ -1569,10 +1563,10 @@
       <c r="W5" s="64"/>
     </row>
     <row r="6" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="148" t="s">
+      <c r="B6" s="149" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="153" t="s">
+      <c r="C6" s="154" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="24" t="s">
@@ -1588,7 +1582,7 @@
         <v>37</v>
       </c>
       <c r="K6" s="82"/>
-      <c r="L6" s="154"/>
+      <c r="L6" s="143"/>
       <c r="N6" s="66"/>
       <c r="O6" s="66"/>
       <c r="P6" s="66"/>
@@ -1599,8 +1593,8 @@
       <c r="V6" s="64"/>
     </row>
     <row r="7" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="149"/>
-      <c r="C7" s="146"/>
+      <c r="B7" s="150"/>
+      <c r="C7" s="147"/>
       <c r="D7" s="24" t="s">
         <v>12</v>
       </c>
@@ -1614,7 +1608,7 @@
         <v>213</v>
       </c>
       <c r="K7" s="82"/>
-      <c r="L7" s="154"/>
+      <c r="L7" s="143"/>
       <c r="M7" s="86"/>
       <c r="N7" s="79"/>
       <c r="O7" s="79"/>
@@ -1627,8 +1621,8 @@
       <c r="V7" s="66"/>
     </row>
     <row r="8" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="149"/>
-      <c r="C8" s="146"/>
+      <c r="B8" s="150"/>
+      <c r="C8" s="147"/>
       <c r="D8" s="24" t="s">
         <v>13</v>
       </c>
@@ -1642,7 +1636,7 @@
         <v>40</v>
       </c>
       <c r="K8" s="28"/>
-      <c r="L8" s="154"/>
+      <c r="L8" s="143"/>
       <c r="M8" s="86"/>
       <c r="N8" s="64"/>
       <c r="O8" s="64"/>
@@ -1652,8 +1646,8 @@
       <c r="S8" s="65"/>
     </row>
     <row r="9" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="149"/>
-      <c r="C9" s="147"/>
+      <c r="B9" s="150"/>
+      <c r="C9" s="148"/>
       <c r="D9" s="8" t="s">
         <v>17</v>
       </c>
@@ -1667,7 +1661,7 @@
         <v>43</v>
       </c>
       <c r="K9" s="82"/>
-      <c r="L9" s="154"/>
+      <c r="L9" s="143"/>
       <c r="M9" s="86"/>
       <c r="N9" s="79"/>
       <c r="O9" s="79"/>
@@ -1675,8 +1669,8 @@
       <c r="Q9" s="84"/>
     </row>
     <row r="10" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="149"/>
-      <c r="C10" s="145" t="s">
+      <c r="B10" s="150"/>
+      <c r="C10" s="146" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="10" t="s">
@@ -1689,10 +1683,10 @@
         <v>45</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="K10" s="82"/>
-      <c r="L10" s="154"/>
+      <c r="L10" s="143"/>
       <c r="M10" s="47"/>
       <c r="N10" s="79"/>
       <c r="O10" s="79"/>
@@ -1700,8 +1694,8 @@
       <c r="Q10" s="84"/>
     </row>
     <row r="11" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="149"/>
-      <c r="C11" s="146"/>
+      <c r="B11" s="150"/>
+      <c r="C11" s="147"/>
       <c r="D11" s="86" t="s">
         <v>12</v>
       </c>
@@ -1721,8 +1715,8 @@
       <c r="Q11" s="84"/>
     </row>
     <row r="12" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="149"/>
-      <c r="C12" s="146"/>
+      <c r="B12" s="150"/>
+      <c r="C12" s="147"/>
       <c r="D12" s="86" t="s">
         <v>13</v>
       </c>
@@ -1738,8 +1732,8 @@
       <c r="K12" s="87"/>
     </row>
     <row r="13" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="149"/>
-      <c r="C13" s="147"/>
+      <c r="B13" s="150"/>
+      <c r="C13" s="148"/>
       <c r="D13" s="12" t="s">
         <v>17</v>
       </c>
@@ -1755,7 +1749,7 @@
       <c r="K13" s="88"/>
     </row>
     <row r="14" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="150"/>
+      <c r="B14" s="151"/>
       <c r="C14" s="107" t="s">
         <v>31</v>
       </c>
@@ -1773,10 +1767,10 @@
       </c>
     </row>
     <row r="15" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="148" t="s">
+      <c r="B15" s="149" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="153" t="s">
+      <c r="C15" s="154" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -1794,8 +1788,8 @@
       <c r="Q15" s="33"/>
     </row>
     <row r="16" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="149"/>
-      <c r="C16" s="146"/>
+      <c r="B16" s="150"/>
+      <c r="C16" s="147"/>
       <c r="D16" s="24" t="s">
         <v>12</v>
       </c>
@@ -1816,8 +1810,8 @@
       <c r="P16" s="33"/>
     </row>
     <row r="17" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="149"/>
-      <c r="C17" s="146"/>
+      <c r="B17" s="150"/>
+      <c r="C17" s="147"/>
       <c r="D17" s="24" t="s">
         <v>13</v>
       </c>
@@ -1831,15 +1825,15 @@
         <v>16</v>
       </c>
       <c r="K17" s="28"/>
-      <c r="L17" s="154"/>
+      <c r="L17" s="143"/>
       <c r="N17" s="85"/>
       <c r="O17" s="85"/>
       <c r="P17" s="85"/>
       <c r="Q17" s="82"/>
     </row>
     <row r="18" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="149"/>
-      <c r="C18" s="147"/>
+      <c r="B18" s="150"/>
+      <c r="C18" s="148"/>
       <c r="D18" s="8" t="s">
         <v>17</v>
       </c>
@@ -1853,15 +1847,15 @@
         <v>20</v>
       </c>
       <c r="K18" s="82"/>
-      <c r="L18" s="154"/>
+      <c r="L18" s="143"/>
       <c r="N18" s="85"/>
       <c r="O18" s="85"/>
       <c r="P18" s="85"/>
       <c r="Q18" s="84"/>
     </row>
     <row r="19" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="149"/>
-      <c r="C19" s="145" t="s">
+      <c r="B19" s="150"/>
+      <c r="C19" s="146" t="s">
         <v>21</v>
       </c>
       <c r="D19" s="10" t="s">
@@ -1877,15 +1871,15 @@
         <v>24</v>
       </c>
       <c r="K19" s="82"/>
-      <c r="L19" s="154"/>
+      <c r="L19" s="143"/>
       <c r="N19" s="85"/>
       <c r="O19" s="85"/>
       <c r="P19" s="85"/>
       <c r="Q19" s="84"/>
     </row>
     <row r="20" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="149"/>
-      <c r="C20" s="146"/>
+      <c r="B20" s="150"/>
+      <c r="C20" s="147"/>
       <c r="D20" s="86" t="s">
         <v>12</v>
       </c>
@@ -1899,15 +1893,15 @@
         <v>3</v>
       </c>
       <c r="K20" s="82"/>
-      <c r="L20" s="154"/>
+      <c r="L20" s="143"/>
       <c r="N20" s="85"/>
       <c r="O20" s="85"/>
       <c r="P20" s="85"/>
       <c r="Q20" s="84"/>
     </row>
     <row r="21" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="149"/>
-      <c r="C21" s="146"/>
+      <c r="B21" s="150"/>
+      <c r="C21" s="147"/>
       <c r="D21" s="86" t="s">
         <v>13</v>
       </c>
@@ -1921,7 +1915,7 @@
         <v>27</v>
       </c>
       <c r="K21" s="82"/>
-      <c r="L21" s="154"/>
+      <c r="L21" s="143"/>
       <c r="M21" s="86"/>
       <c r="N21" s="85"/>
       <c r="O21" s="85"/>
@@ -1929,8 +1923,8 @@
       <c r="Q21" s="84"/>
     </row>
     <row r="22" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="149"/>
-      <c r="C22" s="147"/>
+      <c r="B22" s="150"/>
+      <c r="C22" s="148"/>
       <c r="D22" s="12" t="s">
         <v>17</v>
       </c>
@@ -1944,7 +1938,7 @@
         <v>30</v>
       </c>
       <c r="K22" s="28"/>
-      <c r="L22" s="154"/>
+      <c r="L22" s="143"/>
       <c r="M22" s="86"/>
       <c r="N22" s="89"/>
       <c r="O22" s="89"/>
@@ -1952,7 +1946,7 @@
       <c r="Q22" s="84"/>
     </row>
     <row r="23" spans="2:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="150"/>
+      <c r="B23" s="151"/>
       <c r="C23" s="108" t="s">
         <v>31</v>
       </c>
@@ -1969,7 +1963,7 @@
         <v>34</v>
       </c>
       <c r="K23" s="82"/>
-      <c r="L23" s="154"/>
+      <c r="L23" s="143"/>
       <c r="M23" s="86"/>
       <c r="N23" s="85"/>
       <c r="O23" s="85"/>
@@ -1977,10 +1971,10 @@
       <c r="Q23" s="84"/>
     </row>
     <row r="24" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="149" t="s">
+      <c r="B24" s="150" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="146" t="s">
+      <c r="C24" s="147" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="6" t="s">
@@ -1996,7 +1990,7 @@
         <v>57</v>
       </c>
       <c r="K24" s="82"/>
-      <c r="L24" s="154"/>
+      <c r="L24" s="143"/>
       <c r="M24" s="47"/>
       <c r="N24" s="85"/>
       <c r="O24" s="85"/>
@@ -2004,8 +1998,8 @@
       <c r="Q24" s="84"/>
     </row>
     <row r="25" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="149"/>
-      <c r="C25" s="146"/>
+      <c r="B25" s="150"/>
+      <c r="C25" s="147"/>
       <c r="D25" s="24" t="s">
         <v>12</v>
       </c>
@@ -2025,8 +2019,8 @@
       <c r="Q25" s="84"/>
     </row>
     <row r="26" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="149"/>
-      <c r="C26" s="146"/>
+      <c r="B26" s="150"/>
+      <c r="C26" s="147"/>
       <c r="D26" s="24" t="s">
         <v>13</v>
       </c>
@@ -2042,8 +2036,8 @@
       <c r="K26" s="87"/>
     </row>
     <row r="27" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="149"/>
-      <c r="C27" s="147"/>
+      <c r="B27" s="150"/>
+      <c r="C27" s="148"/>
       <c r="D27" s="8" t="s">
         <v>17</v>
       </c>
@@ -2059,8 +2053,8 @@
       <c r="K27" s="88"/>
     </row>
     <row r="28" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="149"/>
-      <c r="C28" s="145" t="s">
+      <c r="B28" s="150"/>
+      <c r="C28" s="146" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="10" t="s">
@@ -2078,8 +2072,8 @@
       <c r="Q28" s="33"/>
     </row>
     <row r="29" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="149"/>
-      <c r="C29" s="146"/>
+      <c r="B29" s="150"/>
+      <c r="C29" s="147"/>
       <c r="D29" s="86" t="s">
         <v>12</v>
       </c>
@@ -2100,8 +2094,8 @@
       <c r="P29" s="33"/>
     </row>
     <row r="30" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="149"/>
-      <c r="C30" s="146"/>
+      <c r="B30" s="150"/>
+      <c r="C30" s="147"/>
       <c r="D30" s="86" t="s">
         <v>13</v>
       </c>
@@ -2115,15 +2109,15 @@
         <v>69</v>
       </c>
       <c r="K30" s="28"/>
-      <c r="L30" s="154"/>
+      <c r="L30" s="143"/>
       <c r="N30" s="83"/>
       <c r="O30" s="83"/>
       <c r="P30" s="83"/>
       <c r="Q30" s="82"/>
     </row>
     <row r="31" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="149"/>
-      <c r="C31" s="147"/>
+      <c r="B31" s="150"/>
+      <c r="C31" s="148"/>
       <c r="D31" s="12" t="s">
         <v>17</v>
       </c>
@@ -2131,20 +2125,20 @@
         <v>70</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G31" s="13" t="s">
         <v>71</v>
       </c>
       <c r="K31" s="82"/>
-      <c r="L31" s="154"/>
+      <c r="L31" s="143"/>
       <c r="N31" s="66"/>
       <c r="O31" s="83"/>
       <c r="P31" s="83"/>
       <c r="Q31" s="84"/>
     </row>
     <row r="32" spans="2:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="150"/>
+      <c r="B32" s="151"/>
       <c r="C32" s="108" t="s">
         <v>31</v>
       </c>
@@ -2161,7 +2155,7 @@
         <v>74</v>
       </c>
       <c r="K32" s="82"/>
-      <c r="L32" s="154"/>
+      <c r="L32" s="143"/>
       <c r="N32" s="83"/>
       <c r="O32" s="85"/>
       <c r="P32" s="85"/>
@@ -2169,7 +2163,7 @@
     </row>
     <row r="33" spans="11:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K33" s="82"/>
-      <c r="L33" s="154"/>
+      <c r="L33" s="143"/>
       <c r="N33" s="66"/>
       <c r="O33" s="66"/>
       <c r="P33" s="66"/>
@@ -2177,7 +2171,7 @@
     </row>
     <row r="34" spans="11:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K34" s="82"/>
-      <c r="L34" s="154"/>
+      <c r="L34" s="143"/>
       <c r="M34" s="86"/>
       <c r="N34" s="79"/>
       <c r="O34" s="79"/>
@@ -2186,7 +2180,7 @@
     </row>
     <row r="35" spans="11:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K35" s="28"/>
-      <c r="L35" s="154"/>
+      <c r="L35" s="143"/>
       <c r="M35" s="86"/>
       <c r="N35" s="64"/>
       <c r="O35" s="64"/>
@@ -2195,7 +2189,7 @@
     </row>
     <row r="36" spans="11:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K36" s="82"/>
-      <c r="L36" s="154"/>
+      <c r="L36" s="143"/>
       <c r="M36" s="86"/>
       <c r="N36" s="79"/>
       <c r="O36" s="79"/>
@@ -2204,7 +2198,7 @@
     </row>
     <row r="37" spans="11:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K37" s="82"/>
-      <c r="L37" s="154"/>
+      <c r="L37" s="143"/>
       <c r="M37" s="47"/>
       <c r="N37" s="79"/>
       <c r="O37" s="79"/>
@@ -2223,12 +2217,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="L34:L37"/>
-    <mergeCell ref="L3:L6"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="L17:L20"/>
-    <mergeCell ref="L21:L24"/>
-    <mergeCell ref="L30:L33"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C19:C22"/>
     <mergeCell ref="C24:C27"/>
@@ -2240,6 +2228,12 @@
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="C15:C18"/>
+    <mergeCell ref="L34:L37"/>
+    <mergeCell ref="L3:L6"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="L17:L20"/>
+    <mergeCell ref="L21:L24"/>
+    <mergeCell ref="L30:L33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2250,7 +2244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23486BE-5F79-4CA9-850E-00095779225A}">
   <dimension ref="B2:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16:G31"/>
     </sheetView>
   </sheetViews>
@@ -2265,16 +2259,16 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C2" s="51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D2" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="52" t="s">
         <v>139</v>
-      </c>
-      <c r="E2" s="52" t="s">
-        <v>140</v>
       </c>
       <c r="F2" s="52" t="s">
         <v>77</v>
@@ -2285,7 +2279,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="125" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D3" s="55">
         <v>0.3972</v>
@@ -2330,7 +2324,7 @@
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="170"/>
       <c r="C6" s="114" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D6" s="56">
         <v>-2.6630000000000001E-2</v>
@@ -2377,7 +2371,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="125" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D9" s="55">
         <v>0.72870000000000001</v>
@@ -2422,7 +2416,7 @@
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="170"/>
       <c r="C12" s="114" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D12" s="56">
         <v>-2.9929999999999998E-2</v>
@@ -2476,19 +2470,19 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D17" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="E17" s="52" t="s">
-        <v>140</v>
-      </c>
       <c r="F17" s="52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
@@ -2496,7 +2490,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="125" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D18" s="55">
         <v>0.41486630000000002</v>
@@ -2541,7 +2535,7 @@
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="170"/>
       <c r="C21" s="114" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D21" s="56">
         <v>-1.9030200000000001E-2</v>
@@ -2588,7 +2582,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="125" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D24" s="55">
         <v>0.79380070000000003</v>
@@ -2633,7 +2627,7 @@
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="170"/>
       <c r="C27" s="114" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D27" s="56">
         <v>-2.9846999999999999E-3</v>
@@ -2727,7 +2721,7 @@
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
       <c r="E2" s="168" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F2" s="168"/>
       <c r="G2" s="168"/>
@@ -2762,34 +2756,34 @@
         <v>84</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D4" s="51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>88</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>88</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I4" s="19" t="s">
         <v>88</v>
       </c>
       <c r="J4" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K4" s="19" t="s">
         <v>88</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
@@ -2828,8 +2822,8 @@
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="160"/>
-      <c r="C6" s="160"/>
+      <c r="B6" s="159"/>
+      <c r="C6" s="159"/>
       <c r="D6" s="114" t="s">
         <v>96</v>
       </c>
@@ -2859,10 +2853,10 @@
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="160"/>
-      <c r="C7" s="160"/>
+      <c r="B7" s="159"/>
+      <c r="C7" s="159"/>
       <c r="D7" s="114" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E7" s="59">
         <v>4.9397999999999997E-2</v>
@@ -2890,8 +2884,8 @@
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="160"/>
-      <c r="C8" s="160"/>
+      <c r="B8" s="159"/>
+      <c r="C8" s="159"/>
       <c r="D8" s="114" t="s">
         <v>97</v>
       </c>
@@ -2921,7 +2915,7 @@
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="160"/>
+      <c r="B9" s="159"/>
       <c r="C9" s="174"/>
       <c r="D9" s="123" t="s">
         <v>98</v>
@@ -2952,7 +2946,7 @@
       </c>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="160"/>
+      <c r="B10" s="159"/>
       <c r="C10" s="173" t="s">
         <v>83</v>
       </c>
@@ -2985,8 +2979,8 @@
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="160"/>
-      <c r="C11" s="160"/>
+      <c r="B11" s="159"/>
+      <c r="C11" s="159"/>
       <c r="D11" s="114" t="s">
         <v>96</v>
       </c>
@@ -3016,10 +3010,10 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="160"/>
-      <c r="C12" s="160"/>
+      <c r="B12" s="159"/>
+      <c r="C12" s="159"/>
       <c r="D12" s="114" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E12" s="59">
         <v>0.23027</v>
@@ -3047,8 +3041,8 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="160"/>
-      <c r="C13" s="160"/>
+      <c r="B13" s="159"/>
+      <c r="C13" s="159"/>
       <c r="D13" s="114" t="s">
         <v>97</v>
       </c>
@@ -3144,8 +3138,8 @@
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="160"/>
-      <c r="C16" s="160"/>
+      <c r="B16" s="159"/>
+      <c r="C16" s="159"/>
       <c r="D16" s="114" t="s">
         <v>96</v>
       </c>
@@ -3175,10 +3169,10 @@
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="160"/>
-      <c r="C17" s="160"/>
+      <c r="B17" s="159"/>
+      <c r="C17" s="159"/>
       <c r="D17" s="114" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E17" s="59">
         <v>1.0462</v>
@@ -3206,8 +3200,8 @@
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="160"/>
-      <c r="C18" s="160"/>
+      <c r="B18" s="159"/>
+      <c r="C18" s="159"/>
       <c r="D18" s="114" t="s">
         <v>97</v>
       </c>
@@ -3237,7 +3231,7 @@
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="160"/>
+      <c r="B19" s="159"/>
       <c r="C19" s="174"/>
       <c r="D19" s="123" t="s">
         <v>98</v>
@@ -3268,8 +3262,8 @@
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="160"/>
-      <c r="C20" s="160" t="s">
+      <c r="B20" s="159"/>
+      <c r="C20" s="159" t="s">
         <v>83</v>
       </c>
       <c r="D20" s="114" t="s">
@@ -3301,8 +3295,8 @@
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="160"/>
-      <c r="C21" s="160"/>
+      <c r="B21" s="159"/>
+      <c r="C21" s="159"/>
       <c r="D21" s="114" t="s">
         <v>96</v>
       </c>
@@ -3332,10 +3326,10 @@
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="160"/>
-      <c r="C22" s="160"/>
+      <c r="B22" s="159"/>
+      <c r="C22" s="159"/>
       <c r="D22" s="114" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E22" s="59">
         <v>0.16320000000000001</v>
@@ -3363,8 +3357,8 @@
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="160"/>
-      <c r="C23" s="160"/>
+      <c r="B23" s="159"/>
+      <c r="C23" s="159"/>
       <c r="D23" s="114" t="s">
         <v>97</v>
       </c>
@@ -3432,7 +3426,7 @@
       <c r="B28" s="47"/>
       <c r="C28" s="47"/>
       <c r="E28" s="168" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F28" s="168"/>
       <c r="G28" s="168"/>
@@ -3465,38 +3459,38 @@
     <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B30" s="141"/>
       <c r="C30" s="35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D30" s="51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E30" s="19" t="s">
         <v>88</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G30" s="19" t="s">
         <v>88</v>
       </c>
       <c r="H30" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I30" s="19" t="s">
         <v>88</v>
       </c>
       <c r="J30" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K30" s="19" t="s">
         <v>88</v>
       </c>
       <c r="L30" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B31" s="160"/>
+      <c r="B31" s="159"/>
       <c r="C31" s="173" t="s">
         <v>2</v>
       </c>
@@ -3529,8 +3523,8 @@
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B32" s="160"/>
-      <c r="C32" s="160"/>
+      <c r="B32" s="159"/>
+      <c r="C32" s="159"/>
       <c r="D32" s="136" t="s">
         <v>96</v>
       </c>
@@ -3560,10 +3554,10 @@
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B33" s="160"/>
-      <c r="C33" s="160"/>
+      <c r="B33" s="159"/>
+      <c r="C33" s="159"/>
       <c r="D33" s="136" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E33" s="59">
         <v>1.0462</v>
@@ -3591,8 +3585,8 @@
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B34" s="160"/>
-      <c r="C34" s="160"/>
+      <c r="B34" s="159"/>
+      <c r="C34" s="159"/>
       <c r="D34" s="136" t="s">
         <v>97</v>
       </c>
@@ -3622,7 +3616,7 @@
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B35" s="160"/>
+      <c r="B35" s="159"/>
       <c r="C35" s="174"/>
       <c r="D35" s="138" t="s">
         <v>98</v>
@@ -3653,8 +3647,8 @@
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B36" s="160"/>
-      <c r="C36" s="160" t="s">
+      <c r="B36" s="159"/>
+      <c r="C36" s="159" t="s">
         <v>83</v>
       </c>
       <c r="D36" s="136" t="s">
@@ -3686,8 +3680,8 @@
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B37" s="160"/>
-      <c r="C37" s="160"/>
+      <c r="B37" s="159"/>
+      <c r="C37" s="159"/>
       <c r="D37" s="136" t="s">
         <v>96</v>
       </c>
@@ -3717,10 +3711,10 @@
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B38" s="160"/>
-      <c r="C38" s="160"/>
+      <c r="B38" s="159"/>
+      <c r="C38" s="159"/>
       <c r="D38" s="136" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E38" s="59">
         <v>0.16320000000000001</v>
@@ -3748,8 +3742,8 @@
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B39" s="160"/>
-      <c r="C39" s="160"/>
+      <c r="B39" s="159"/>
+      <c r="C39" s="159"/>
       <c r="D39" s="136" t="s">
         <v>97</v>
       </c>
@@ -3779,7 +3773,7 @@
       </c>
     </row>
     <row r="40" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="160"/>
+      <c r="B40" s="159"/>
       <c r="C40" s="175"/>
       <c r="D40" s="137" t="s">
         <v>98</v>
@@ -3811,17 +3805,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="E2:L2"/>
-    <mergeCell ref="C10:C14"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="B5:B14"/>
-    <mergeCell ref="B15:B24"/>
-    <mergeCell ref="C5:C9"/>
     <mergeCell ref="B31:B40"/>
     <mergeCell ref="C31:C35"/>
     <mergeCell ref="C36:C40"/>
@@ -3830,6 +3813,17 @@
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="K29:L29"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="B5:B14"/>
+    <mergeCell ref="B15:B24"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="E2:L2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -3839,7 +3833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EBDC9E9-30BF-4C7E-88CF-B0C7C5C6E499}">
   <dimension ref="B2:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17:F33"/>
     </sheetView>
   </sheetViews>
@@ -3863,22 +3857,22 @@
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="D3" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="D3" s="25" t="s">
-        <v>138</v>
-      </c>
       <c r="E3" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
@@ -3902,7 +3896,7 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="143"/>
+      <c r="B5" s="144"/>
       <c r="C5" s="114" t="s">
         <v>96</v>
       </c>
@@ -3920,9 +3914,9 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="143"/>
+      <c r="B6" s="144"/>
       <c r="C6" s="114" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D6" s="29">
         <v>-2.4410000000000001E-2</v>
@@ -3938,7 +3932,7 @@
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="143"/>
+      <c r="B7" s="144"/>
       <c r="C7" s="114" t="s">
         <v>97</v>
       </c>
@@ -3994,7 +3988,7 @@
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="143"/>
+      <c r="B10" s="144"/>
       <c r="C10" s="114" t="s">
         <v>96</v>
       </c>
@@ -4012,9 +4006,9 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="143"/>
+      <c r="B11" s="144"/>
       <c r="C11" s="114" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D11" s="29">
         <v>-3.8739999999999997E-2</v>
@@ -4030,7 +4024,7 @@
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="143"/>
+      <c r="B12" s="144"/>
       <c r="C12" s="114" t="s">
         <v>97</v>
       </c>
@@ -4089,16 +4083,16 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="D19" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="25" t="s">
-        <v>138</v>
-      </c>
       <c r="E19" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
@@ -4116,7 +4110,7 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="143"/>
+      <c r="B21" s="144"/>
       <c r="C21" s="136" t="s">
         <v>96</v>
       </c>
@@ -4128,9 +4122,9 @@
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="143"/>
+      <c r="B22" s="144"/>
       <c r="C22" s="136" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D22" s="29">
         <v>-6.0400000000000002E-2</v>
@@ -4140,7 +4134,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="143"/>
+      <c r="B23" s="144"/>
       <c r="C23" s="136" t="s">
         <v>97</v>
       </c>
@@ -4152,7 +4146,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="143"/>
+      <c r="B24" s="144"/>
       <c r="C24" s="142" t="s">
         <v>98</v>
       </c>
@@ -4166,7 +4160,7 @@
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="177"/>
       <c r="C25" s="24" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D25" s="29">
         <v>0.23599999999999999</v>
@@ -4190,7 +4184,7 @@
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="143"/>
+      <c r="B27" s="144"/>
       <c r="C27" s="136" t="s">
         <v>96</v>
       </c>
@@ -4202,9 +4196,9 @@
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="143"/>
+      <c r="B28" s="144"/>
       <c r="C28" s="136" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D28" s="29">
         <v>-6.2890000000000001E-2</v>
@@ -4214,7 +4208,7 @@
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="143"/>
+      <c r="B29" s="144"/>
       <c r="C29" s="136" t="s">
         <v>97</v>
       </c>
@@ -4226,7 +4220,7 @@
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="143"/>
+      <c r="B30" s="144"/>
       <c r="C30" s="142" t="s">
         <v>98</v>
       </c>
@@ -4240,7 +4234,7 @@
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="177"/>
       <c r="C31" s="24" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D31" s="29">
         <v>0.4677</v>
@@ -4433,11 +4427,11 @@
     <row r="10" spans="1:16" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5"/>
       <c r="C10" s="155" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D10" s="155"/>
       <c r="E10" s="155" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F10" s="155"/>
     </row>
@@ -4449,13 +4443,13 @@
         <v>75</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E11" s="25" t="s">
         <v>76</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -4601,8 +4595,8 @@
       </c>
     </row>
     <row r="4" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="149" t="s">
-        <v>161</v>
+      <c r="B4" s="150" t="s">
+        <v>160</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>85</v>
@@ -4617,7 +4611,7 @@
         <v>0.83216999999999997</v>
       </c>
       <c r="J4" s="158" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K4" s="27" t="s">
         <v>85</v>
@@ -4633,7 +4627,7 @@
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="149"/>
+      <c r="B5" s="150"/>
       <c r="C5" s="24" t="s">
         <v>86</v>
       </c>
@@ -4646,7 +4640,7 @@
       <c r="F5" s="129">
         <v>0.41958000000000001</v>
       </c>
-      <c r="J5" s="149"/>
+      <c r="J5" s="150"/>
       <c r="K5" s="24" t="s">
         <v>86</v>
       </c>
@@ -4661,7 +4655,7 @@
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="149"/>
+      <c r="B6" s="150"/>
       <c r="C6" s="24" t="s">
         <v>87</v>
       </c>
@@ -4674,7 +4668,7 @@
       <c r="F6" s="129">
         <v>1.0066999999999999</v>
       </c>
-      <c r="J6" s="149"/>
+      <c r="J6" s="150"/>
       <c r="K6" s="24" t="s">
         <v>87</v>
       </c>
@@ -4691,7 +4685,7 @@
     <row r="7" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="157"/>
       <c r="C7" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D7" s="25">
         <v>1E-4</v>
@@ -4702,9 +4696,9 @@
       <c r="F7" s="25">
         <v>1E-4</v>
       </c>
-      <c r="J7" s="150"/>
+      <c r="J7" s="151"/>
       <c r="K7" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L7" s="22">
         <v>1E-4</v>
@@ -4717,8 +4711,8 @@
       </c>
     </row>
     <row r="8" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="149" t="s">
-        <v>158</v>
+      <c r="B8" s="150" t="s">
+        <v>157</v>
       </c>
       <c r="C8" s="27" t="s">
         <v>85</v>
@@ -4734,7 +4728,7 @@
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="149"/>
+      <c r="B9" s="150"/>
       <c r="C9" s="24" t="s">
         <v>86</v>
       </c>
@@ -4749,7 +4743,7 @@
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="149"/>
+      <c r="B10" s="150"/>
       <c r="C10" s="24" t="s">
         <v>87</v>
       </c>
@@ -4766,7 +4760,7 @@
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="157"/>
       <c r="C11" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D11" s="25">
         <v>1E-4</v>
@@ -4780,7 +4774,7 @@
     </row>
     <row r="12" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="158" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>85</v>
@@ -4796,7 +4790,7 @@
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="149"/>
+      <c r="B13" s="150"/>
       <c r="C13" s="24" t="s">
         <v>86</v>
       </c>
@@ -4811,7 +4805,7 @@
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="149"/>
+      <c r="B14" s="150"/>
       <c r="C14" s="24" t="s">
         <v>87</v>
       </c>
@@ -4826,9 +4820,9 @@
       </c>
     </row>
     <row r="15" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="150"/>
+      <c r="B15" s="151"/>
       <c r="C15" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D15" s="22">
         <v>1E-4</v>
@@ -4957,13 +4951,13 @@
         <v>88</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F5" s="25" t="s">
         <v>88</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K5" s="25" t="s">
         <v>82</v>
@@ -4975,13 +4969,13 @@
         <v>88</v>
       </c>
       <c r="N5" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O5" s="25" t="s">
         <v>88</v>
       </c>
       <c r="P5" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q5" s="30"/>
       <c r="R5" s="30"/>
@@ -4992,8 +4986,8 @@
       <c r="W5" s="24"/>
     </row>
     <row r="6" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="145" t="s">
-        <v>157</v>
+      <c r="B6" s="146" t="s">
+        <v>156</v>
       </c>
       <c r="C6" s="27" t="s">
         <v>89</v>
@@ -5010,8 +5004,8 @@
       <c r="G6" s="112">
         <v>1E-4</v>
       </c>
-      <c r="K6" s="145" t="s">
-        <v>161</v>
+      <c r="K6" s="146" t="s">
+        <v>160</v>
       </c>
       <c r="L6" s="27" t="s">
         <v>89</v>
@@ -5037,7 +5031,7 @@
       <c r="W6" s="24"/>
     </row>
     <row r="7" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="147"/>
+      <c r="B7" s="148"/>
       <c r="C7" s="8" t="s">
         <v>94</v>
       </c>
@@ -5053,7 +5047,7 @@
       <c r="G7" s="25">
         <v>1E-4</v>
       </c>
-      <c r="K7" s="159"/>
+      <c r="K7" s="162"/>
       <c r="L7" s="3" t="s">
         <v>94</v>
       </c>
@@ -5078,8 +5072,8 @@
       <c r="W7" s="24"/>
     </row>
     <row r="8" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="145" t="s">
-        <v>158</v>
+      <c r="B8" s="146" t="s">
+        <v>157</v>
       </c>
       <c r="C8" s="27" t="s">
         <v>89</v>
@@ -5111,7 +5105,7 @@
       <c r="W8" s="24"/>
     </row>
     <row r="9" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="147"/>
+      <c r="B9" s="148"/>
       <c r="C9" s="8" t="s">
         <v>94</v>
       </c>
@@ -5143,8 +5137,8 @@
       <c r="W9" s="24"/>
     </row>
     <row r="10" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="161" t="s">
-        <v>159</v>
+      <c r="B10" s="160" t="s">
+        <v>158</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>89</v>
@@ -5163,7 +5157,7 @@
       </c>
       <c r="H10" s="134"/>
       <c r="K10" s="24"/>
-      <c r="L10" s="160"/>
+      <c r="L10" s="159"/>
       <c r="M10" s="132"/>
       <c r="N10" s="24"/>
       <c r="O10" s="24"/>
@@ -5177,7 +5171,7 @@
       <c r="W10" s="24"/>
     </row>
     <row r="11" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="162"/>
+      <c r="B11" s="161"/>
       <c r="C11" s="3" t="s">
         <v>94</v>
       </c>
@@ -5195,7 +5189,7 @@
       </c>
       <c r="H11" s="28"/>
       <c r="K11" s="24"/>
-      <c r="L11" s="160"/>
+      <c r="L11" s="159"/>
       <c r="M11" s="132"/>
       <c r="N11" s="50"/>
       <c r="O11" s="50"/>
@@ -5218,7 +5212,7 @@
       <c r="H12" s="23"/>
       <c r="I12" s="24"/>
       <c r="K12" s="24"/>
-      <c r="L12" s="160"/>
+      <c r="L12" s="159"/>
       <c r="M12" s="132"/>
       <c r="N12" s="30"/>
       <c r="O12" s="29"/>
@@ -5241,7 +5235,7 @@
       <c r="H13" s="23"/>
       <c r="I13" s="24"/>
       <c r="K13" s="24"/>
-      <c r="L13" s="160"/>
+      <c r="L13" s="159"/>
       <c r="M13" s="132"/>
       <c r="N13" s="23"/>
       <c r="O13" s="24"/>
@@ -5551,6 +5545,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="D3:G3"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="L10:L11"/>
@@ -5558,11 +5557,6 @@
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="D3:G3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -5572,8 +5566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468E47FF-B0BC-4702-A611-EA7EF08BB700}">
   <dimension ref="B3:K41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F32"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5615,7 +5609,7 @@
     </row>
     <row r="5" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C5" s="80" t="s">
         <v>6</v>
@@ -5703,7 +5697,7 @@
     </row>
     <row r="11" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="164" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="C11" s="68" t="s">
         <v>84</v>
@@ -5781,7 +5775,7 @@
     </row>
     <row r="16" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="164" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C16" s="68" t="s">
         <v>84</v>
@@ -5934,7 +5928,7 @@
     </row>
     <row r="26" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="165" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C26" s="38" t="s">
         <v>84</v>
@@ -6070,7 +6064,7 @@
   <dimension ref="B2:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E9"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6088,7 +6082,7 @@
         <v>75</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -6115,7 +6109,7 @@
     </row>
     <row r="5" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="114" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C5" s="24">
         <v>34766</v>
@@ -6155,8 +6149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49F4827-C3F3-4A85-B408-9C332CB32C13}">
   <dimension ref="B2:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection sqref="A1:J30"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6170,12 +6164,12 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D2" s="156" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E2" s="156"/>
       <c r="F2" s="156"/>
       <c r="G2" s="156" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H2" s="156"/>
       <c r="I2" s="156"/>
@@ -6307,7 +6301,7 @@
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="166"/>
       <c r="C8" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D8" s="25">
         <v>1E-4</v>
@@ -6330,7 +6324,7 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="164" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="C9" s="27" t="s">
         <v>84</v>
@@ -6429,7 +6423,7 @@
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="166"/>
       <c r="C13" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D13" s="25">
         <v>1E-4</v>
@@ -6452,7 +6446,7 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="164" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C14" s="27" t="s">
         <v>84</v>
@@ -6551,7 +6545,7 @@
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="166"/>
       <c r="C18" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D18" s="25">
         <v>1E-4</v>
@@ -6673,7 +6667,7 @@
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="166"/>
       <c r="C23" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D23" s="25">
         <v>1E-4</v>
@@ -6696,7 +6690,7 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="164" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C24" s="27" t="s">
         <v>84</v>
@@ -6795,7 +6789,7 @@
     <row r="28" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="167"/>
       <c r="C28" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D28" s="22">
         <v>1E-4</v>
@@ -6859,13 +6853,13 @@
     </row>
     <row r="3" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D3" s="168" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E3" s="168"/>
       <c r="F3" s="168"/>
       <c r="G3" s="168"/>
       <c r="H3" s="168" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I3" s="168"/>
       <c r="J3" s="168"/>
@@ -6874,19 +6868,19 @@
     </row>
     <row r="4" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D4" s="168" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E4" s="168"/>
       <c r="F4" s="168" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G4" s="168"/>
       <c r="H4" s="168" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I4" s="168"/>
       <c r="J4" s="168" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K4" s="168"/>
       <c r="L4" s="28"/>
@@ -6901,7 +6895,7 @@
     </row>
     <row r="5" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>91</v>
@@ -6910,25 +6904,25 @@
         <v>88</v>
       </c>
       <c r="E5" s="140" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F5" s="140" t="s">
         <v>88</v>
       </c>
       <c r="G5" s="140" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H5" s="140" t="s">
         <v>88</v>
       </c>
       <c r="I5" s="140" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J5" s="140" t="s">
         <v>88</v>
       </c>
       <c r="K5" s="140" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M5" s="49"/>
       <c r="N5" s="28"/>
@@ -6938,7 +6932,7 @@
         <v>95</v>
       </c>
       <c r="C6" s="95" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D6" s="100">
         <v>5</v>
@@ -6975,7 +6969,7 @@
     <row r="7" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="157"/>
       <c r="C7" s="96" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D7" s="63">
         <v>615.1</v>
@@ -7011,10 +7005,10 @@
     </row>
     <row r="8" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="158" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="C8" s="95" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D8" s="100">
         <v>2.0099999999999998</v>
@@ -7049,7 +7043,7 @@
     <row r="9" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="157"/>
       <c r="C9" s="97" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D9" s="63">
         <v>212.1</v>
@@ -7081,10 +7075,10 @@
     </row>
     <row r="10" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="158" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C10" s="95" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D10" s="69">
         <v>18.739999999999998</v>
@@ -7116,7 +7110,7 @@
     <row r="11" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="157"/>
       <c r="C11" s="96" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D11" s="63">
         <v>679.1</v>
@@ -7155,7 +7149,7 @@
         <v>97</v>
       </c>
       <c r="C12" s="95" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D12" s="69">
         <v>8.1999999999999993</v>
@@ -7181,13 +7175,13 @@
       <c r="K12" s="116">
         <v>7.1080000000000004E-4</v>
       </c>
-      <c r="M12" s="160"/>
+      <c r="M12" s="159"/>
       <c r="N12" s="28"/>
     </row>
     <row r="13" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="157"/>
       <c r="C13" s="96" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D13" s="63">
         <v>646.5</v>
@@ -7213,7 +7207,7 @@
       <c r="K13" s="117">
         <v>1E-4</v>
       </c>
-      <c r="M13" s="160"/>
+      <c r="M13" s="159"/>
       <c r="N13" s="28"/>
       <c r="O13" s="50"/>
       <c r="P13" s="50"/>
@@ -7222,11 +7216,11 @@
       <c r="S13" s="50"/>
     </row>
     <row r="14" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="149" t="s">
-        <v>133</v>
+      <c r="B14" s="150" t="s">
+        <v>132</v>
       </c>
       <c r="C14" s="98" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D14" s="102">
         <v>0.39</v>
@@ -7252,7 +7246,7 @@
       <c r="K14" s="56">
         <v>0.46350000000000002</v>
       </c>
-      <c r="M14" s="160"/>
+      <c r="M14" s="159"/>
       <c r="N14" s="28"/>
       <c r="O14" s="30"/>
       <c r="P14" s="29"/>
@@ -7260,9 +7254,9 @@
       <c r="S14" s="29"/>
     </row>
     <row r="15" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="150"/>
+      <c r="B15" s="151"/>
       <c r="C15" s="99" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D15" s="103">
         <v>729.8</v>
@@ -7288,7 +7282,7 @@
       <c r="K15" s="121">
         <v>1E-4</v>
       </c>
-      <c r="M15" s="160"/>
+      <c r="M15" s="159"/>
       <c r="N15" s="28"/>
       <c r="O15" s="23"/>
       <c r="Q15" s="23"/>
@@ -7327,8 +7321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{608C9E83-56AF-47CD-98EC-489222CFD93B}">
   <dimension ref="C3:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7343,18 +7337,18 @@
   <sheetData>
     <row r="3" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C3" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D4" s="129">
         <v>0.33365430000000001</v>
@@ -7365,7 +7359,7 @@
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="D5" s="129">
         <v>0.1704775</v>
@@ -7376,7 +7370,7 @@
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D6" s="129">
         <v>0.51754129999999998</v>
@@ -7387,7 +7381,7 @@
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D7" s="129">
         <v>-0.25599110000000003</v>
@@ -7398,7 +7392,7 @@
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C8" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D8" s="45">
         <v>0.45402389999999998</v>
@@ -7409,7 +7403,7 @@
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C9" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D9" s="129">
         <v>0.18881000000000001</v>
@@ -7420,7 +7414,7 @@
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C10" s="2" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="D10" s="129">
         <v>0.1445504</v>
@@ -7431,7 +7425,7 @@
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C11" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D11" s="129">
         <v>0.15716069999999999</v>
@@ -7442,7 +7436,7 @@
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C12" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D12" s="129">
         <v>-0.32064700000000002</v>
@@ -7453,7 +7447,7 @@
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C13" s="8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D13" s="45">
         <v>0.22321750000000001</v>
@@ -7464,7 +7458,7 @@
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C14" s="2" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D14" s="129">
         <v>-0.1193779</v>
@@ -7475,7 +7469,7 @@
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C15" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D15" s="129">
         <v>0.10406749999999999</v>
@@ -7486,7 +7480,7 @@
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C16" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D16" s="129">
         <v>-0.47039959999999997</v>
@@ -7497,7 +7491,7 @@
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C17" s="8" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D17" s="45">
         <v>0.54143629999999998</v>
@@ -7508,7 +7502,7 @@
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C18" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D18" s="129">
         <v>0.13300960000000001</v>
@@ -7519,7 +7513,7 @@
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C19" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D19" s="129">
         <v>9.2763789999999999E-2</v>
@@ -7530,7 +7524,7 @@
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C20" s="8" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D20" s="45">
         <v>-0.33167049999999998</v>
@@ -7541,7 +7535,7 @@
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C21" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D21" s="129">
         <v>-0.1341812</v>
@@ -7552,7 +7546,7 @@
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C22" s="8" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="D22" s="45">
         <v>0.32678699999999999</v>
@@ -7563,7 +7557,7 @@
     </row>
     <row r="23" spans="3:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C23" s="15" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D23" s="48">
         <v>-0.3238626</v>
